--- a/TeamNick_Jeremy_AmieReport.xlsx
+++ b/TeamNick_Jeremy_AmieReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="-1880" windowWidth="21360" windowHeight="14400" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="220" yWindow="220" windowWidth="21360" windowHeight="14400" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,736 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="271">
   <si>
+    <t>Marriage after 14</t>
+  </si>
+  <si>
+    <t>No bigamy</t>
+  </si>
+  <si>
+    <t>Parents not too old</t>
+  </si>
+  <si>
+    <t>Find marriage date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare marriage date to birth date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remaining Stories</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act Size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act Time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Est Size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Est Time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act Size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act Time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Completed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initials</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>First</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code Velocity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store birth date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store death date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare birth and death dates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find marriage record for individual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review Results</t>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>GitHub Username</t>
+  </si>
+  <si>
+    <t>GitHub Repository:</t>
+  </si>
+  <si>
+    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t>Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t>Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t>Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
+    <t>Divorce can only occur before death of both spouses</t>
+  </si>
+  <si>
+    <t>Marriage should not occur during marriage to another spouse</t>
+  </si>
+  <si>
+    <t>No more than five siblings should be born at the same time</t>
+  </si>
+  <si>
+    <t>There should be fewer than 15 siblings in a family</t>
+  </si>
+  <si>
+    <t>All male members of a family should have the same last name</t>
+  </si>
+  <si>
+    <t>Parents should not marry any of their descendants</t>
+  </si>
+  <si>
+    <t>Siblings should not marry one another</t>
+  </si>
+  <si>
+    <t>First cousins should not marry one another</t>
+  </si>
+  <si>
+    <t>Aunts and uncles should not marry their nieces or nephews</t>
+  </si>
+  <si>
+    <t>Hold a team meeting to plan for spint planning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one child with the same name and birth date should appear in a family</t>
+  </si>
+  <si>
+    <t>Include person's current age when listing individuals</t>
+  </si>
+  <si>
+    <t>List all deceased individuals in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living married people in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all multiple births in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>Accept and use dates without days or without days and months</t>
+  </si>
+  <si>
+    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+  </si>
+  <si>
+    <t>Story Name</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>Birth before death</t>
+  </si>
+  <si>
+    <t>Birth before marriage</t>
+  </si>
+  <si>
+    <t>Marriage before divorce</t>
+  </si>
+  <si>
+    <t>Marriage before death</t>
+  </si>
+  <si>
+    <t>Divorce before death</t>
+  </si>
+  <si>
+    <t>Less then 150 years old</t>
+  </si>
+  <si>
+    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t>Birth before death of parents</t>
+  </si>
+  <si>
+    <t>Child should be born before death of mother and before 9 months after death of father</t>
+  </si>
+  <si>
+    <t>Est Time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act Size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act Time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Completed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obtain GitHub account</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>T01.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each team member needs to obtain an account in GitHub </t>
+  </si>
+  <si>
+    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t>Siblings spacing</t>
+  </si>
+  <si>
+    <t>Fewer than 15 siblings</t>
+  </si>
+  <si>
+    <t>Male last names</t>
+  </si>
+  <si>
+    <t>No marriages to descendants</t>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+  </si>
+  <si>
+    <t>First cousins should not marry</t>
+  </si>
+  <si>
+    <t>Aunts and uncles</t>
+  </si>
+  <si>
+    <t>Correct gender for role</t>
+  </si>
+  <si>
+    <t>Husband in family should be male and wife in family should be female</t>
+  </si>
+  <si>
+    <t>All individual IDs should be unique and all family IDs should be unique</t>
+  </si>
+  <si>
+    <t>Unique IDs</t>
+  </si>
+  <si>
+    <t>Unique name and birth date</t>
+  </si>
+  <si>
+    <t>Unique families by spouses</t>
+  </si>
+  <si>
+    <t>Unique first names in families</t>
+  </si>
+  <si>
+    <t>Corresponding entries</t>
+  </si>
+  <si>
+    <t>Include individual ages</t>
+  </si>
+  <si>
+    <t>Order siblings by age</t>
+  </si>
+  <si>
+    <t>List deceased</t>
+  </si>
+  <si>
+    <t>List living married</t>
+  </si>
+  <si>
+    <t>List living single</t>
+  </si>
+  <si>
+    <t>List multiple births</t>
+  </si>
+  <si>
+    <t>List orphans</t>
+  </si>
+  <si>
+    <t>List recent births</t>
+  </si>
+  <si>
+    <t>List recent deaths</t>
+  </si>
+  <si>
+    <t>List recent survivors</t>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+  </si>
+  <si>
+    <t>Include input line numbers</t>
+  </si>
+  <si>
+    <t>List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>List large age differences</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+  </si>
+  <si>
+    <t>US01</t>
+  </si>
+  <si>
+    <t>US02</t>
+  </si>
+  <si>
+    <t>US03</t>
+  </si>
+  <si>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>US25</t>
+  </si>
+  <si>
+    <t>US26</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>US28</t>
+  </si>
+  <si>
+    <t>US29</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>US32</t>
+  </si>
+  <si>
+    <t>US33</t>
+  </si>
+  <si>
+    <t>US34</t>
+  </si>
+  <si>
+    <t>US35</t>
+  </si>
+  <si>
+    <t>US36</t>
+  </si>
+  <si>
+    <t>US37</t>
+  </si>
+  <si>
+    <t>US38</t>
+  </si>
+  <si>
+    <t>US39</t>
+  </si>
+  <si>
+    <t>US40</t>
+  </si>
+  <si>
+    <t>US41</t>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>T03.01</t>
+  </si>
+  <si>
+    <t>T03.02</t>
+  </si>
+  <si>
+    <t>T03.03</t>
+  </si>
+  <si>
+    <t>T05.01</t>
+  </si>
+  <si>
+    <t>T05.02</t>
+  </si>
+  <si>
+    <t>T05.03</t>
+  </si>
+  <si>
+    <t>Dates before current date</t>
+  </si>
+  <si>
+    <t>Birth before marriage of parents</t>
+  </si>
+  <si>
+    <t>Compare if mother is &lt; 60 years older than children</t>
+  </si>
+  <si>
+    <t>Compare if father is &lt; 80 years older than children</t>
+  </si>
+  <si>
+    <t>T12.01</t>
+  </si>
+  <si>
+    <t>T12.02</t>
+  </si>
+  <si>
+    <t>T12.03</t>
+  </si>
+  <si>
+    <t>T12.04</t>
+  </si>
+  <si>
+    <t>T12.05</t>
+  </si>
+  <si>
+    <t>alwider@sandia.gov</t>
+  </si>
+  <si>
+    <t>dc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcohron@stevens.edu</t>
+  </si>
+  <si>
+    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Multiple births &lt;= 5</t>
+  </si>
+  <si>
+    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
+  </si>
+  <si>
+    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+  </si>
+  <si>
+    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
+  </si>
+  <si>
+    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Cohron</t>
+  </si>
+  <si>
+    <t>dcohron</t>
+  </si>
+  <si>
+    <t>jd</t>
+  </si>
+  <si>
+    <t>Jeremy</t>
+  </si>
+  <si>
+    <t>Doll</t>
+  </si>
+  <si>
+    <t>jeremydoll</t>
+  </si>
+  <si>
+    <t>aw</t>
+  </si>
+  <si>
+    <t>Amie</t>
+  </si>
+  <si>
+    <t>Widerkehr</t>
+  </si>
+  <si>
+    <t>alwider</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Est Size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>jdoll@stevens.edu</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -120,9 +850,6 @@
     <t>Use GitHub to update the respository with the new version of the program</t>
   </si>
   <si>
-    <t>Hold a team meeting to plan for spint planning</t>
-  </si>
-  <si>
     <t>T07.01</t>
   </si>
   <si>
@@ -172,732 +899,6 @@
   </si>
   <si>
     <t>store children's birth dates</t>
-  </si>
-  <si>
-    <t>Compare if mother is &lt; 60 years older than children</t>
-  </si>
-  <si>
-    <t>Compare if father is &lt; 80 years older than children</t>
-  </si>
-  <si>
-    <t>T12.01</t>
-  </si>
-  <si>
-    <t>T12.02</t>
-  </si>
-  <si>
-    <t>T12.03</t>
-  </si>
-  <si>
-    <t>T12.04</t>
-  </si>
-  <si>
-    <t>T12.05</t>
-  </si>
-  <si>
-    <t>alwider@sandia.gov</t>
-  </si>
-  <si>
-    <t>dc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Complete</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dcohron@stevens.edu</t>
-  </si>
-  <si>
-    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t>Sprint</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t>Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t>Multiple births &lt;= 5</t>
-  </si>
-  <si>
-    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
-  </si>
-  <si>
-    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
-    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
-    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
-  </si>
-  <si>
-    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
-  </si>
-  <si>
-    <t>dc</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Cohron</t>
-  </si>
-  <si>
-    <t>dcohron</t>
-  </si>
-  <si>
-    <t>jd</t>
-  </si>
-  <si>
-    <t>Jeremy</t>
-  </si>
-  <si>
-    <t>Doll</t>
-  </si>
-  <si>
-    <t>jeremydoll</t>
-  </si>
-  <si>
-    <t>aw</t>
-  </si>
-  <si>
-    <t>Amie</t>
-  </si>
-  <si>
-    <t>Widerkehr</t>
-  </si>
-  <si>
-    <t>alwider</t>
-  </si>
-  <si>
-    <t>Story ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Owner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Est Size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Est Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act Size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Completed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Obtain GitHub account</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>T01.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Each team member needs to obtain an account in GitHub </t>
-  </si>
-  <si>
-    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
-    <t>Siblings spacing</t>
-  </si>
-  <si>
-    <t>Fewer than 15 siblings</t>
-  </si>
-  <si>
-    <t>Male last names</t>
-  </si>
-  <si>
-    <t>No marriages to descendants</t>
-  </si>
-  <si>
-    <t>Siblings should not marry</t>
-  </si>
-  <si>
-    <t>First cousins should not marry</t>
-  </si>
-  <si>
-    <t>Aunts and uncles</t>
-  </si>
-  <si>
-    <t>Correct gender for role</t>
-  </si>
-  <si>
-    <t>Husband in family should be male and wife in family should be female</t>
-  </si>
-  <si>
-    <t>All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
-    <t>Unique IDs</t>
-  </si>
-  <si>
-    <t>Unique name and birth date</t>
-  </si>
-  <si>
-    <t>Unique families by spouses</t>
-  </si>
-  <si>
-    <t>Unique first names in families</t>
-  </si>
-  <si>
-    <t>Corresponding entries</t>
-  </si>
-  <si>
-    <t>Include individual ages</t>
-  </si>
-  <si>
-    <t>Order siblings by age</t>
-  </si>
-  <si>
-    <t>List deceased</t>
-  </si>
-  <si>
-    <t>List living married</t>
-  </si>
-  <si>
-    <t>List living single</t>
-  </si>
-  <si>
-    <t>List multiple births</t>
-  </si>
-  <si>
-    <t>List orphans</t>
-  </si>
-  <si>
-    <t>List recent births</t>
-  </si>
-  <si>
-    <t>List recent deaths</t>
-  </si>
-  <si>
-    <t>List recent survivors</t>
-  </si>
-  <si>
-    <t>List upcoming birthdays</t>
-  </si>
-  <si>
-    <t>List upcoming anniversaries</t>
-  </si>
-  <si>
-    <t>Include input line numbers</t>
-  </si>
-  <si>
-    <t>List line numbers from GEDCOM source file when reporting errors</t>
-  </si>
-  <si>
-    <t>Include partial dates</t>
-  </si>
-  <si>
-    <t>Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t>List large age differences</t>
-  </si>
-  <si>
-    <t>Story ID</t>
-  </si>
-  <si>
-    <t>US01</t>
-  </si>
-  <si>
-    <t>US02</t>
-  </si>
-  <si>
-    <t>US03</t>
-  </si>
-  <si>
-    <t>US04</t>
-  </si>
-  <si>
-    <t>US05</t>
-  </si>
-  <si>
-    <t>US06</t>
-  </si>
-  <si>
-    <t>US07</t>
-  </si>
-  <si>
-    <t>US08</t>
-  </si>
-  <si>
-    <t>US09</t>
-  </si>
-  <si>
-    <t>US10</t>
-  </si>
-  <si>
-    <t>US11</t>
-  </si>
-  <si>
-    <t>US12</t>
-  </si>
-  <si>
-    <t>US13</t>
-  </si>
-  <si>
-    <t>US14</t>
-  </si>
-  <si>
-    <t>US15</t>
-  </si>
-  <si>
-    <t>US16</t>
-  </si>
-  <si>
-    <t>US17</t>
-  </si>
-  <si>
-    <t>US18</t>
-  </si>
-  <si>
-    <t>US19</t>
-  </si>
-  <si>
-    <t>US20</t>
-  </si>
-  <si>
-    <t>US21</t>
-  </si>
-  <si>
-    <t>US22</t>
-  </si>
-  <si>
-    <t>US23</t>
-  </si>
-  <si>
-    <t>US24</t>
-  </si>
-  <si>
-    <t>US25</t>
-  </si>
-  <si>
-    <t>US26</t>
-  </si>
-  <si>
-    <t>US27</t>
-  </si>
-  <si>
-    <t>US28</t>
-  </si>
-  <si>
-    <t>US29</t>
-  </si>
-  <si>
-    <t>US30</t>
-  </si>
-  <si>
-    <t>US31</t>
-  </si>
-  <si>
-    <t>US32</t>
-  </si>
-  <si>
-    <t>US33</t>
-  </si>
-  <si>
-    <t>US34</t>
-  </si>
-  <si>
-    <t>US35</t>
-  </si>
-  <si>
-    <t>US36</t>
-  </si>
-  <si>
-    <t>US37</t>
-  </si>
-  <si>
-    <t>US38</t>
-  </si>
-  <si>
-    <t>US39</t>
-  </si>
-  <si>
-    <t>US40</t>
-  </si>
-  <si>
-    <t>US41</t>
-  </si>
-  <si>
-    <t>US42</t>
-  </si>
-  <si>
-    <t>T03.01</t>
-  </si>
-  <si>
-    <t>T03.02</t>
-  </si>
-  <si>
-    <t>T03.03</t>
-  </si>
-  <si>
-    <t>T05.01</t>
-  </si>
-  <si>
-    <t>T05.02</t>
-  </si>
-  <si>
-    <t>T05.03</t>
-  </si>
-  <si>
-    <t>Dates before current date</t>
-  </si>
-  <si>
-    <t>Birth before marriage of parents</t>
-  </si>
-  <si>
-    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one child with the same name and birth date should appear in a family</t>
-  </si>
-  <si>
-    <t>Include person's current age when listing individuals</t>
-  </si>
-  <si>
-    <t>List all deceased individuals in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living married people in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>Accept and use dates without days or without days and months</t>
-  </si>
-  <si>
-    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
-  </si>
-  <si>
-    <t>Story Name</t>
-  </si>
-  <si>
-    <t>Story Description</t>
-  </si>
-  <si>
-    <t>Birth before death</t>
-  </si>
-  <si>
-    <t>Birth before marriage</t>
-  </si>
-  <si>
-    <t>Marriage before divorce</t>
-  </si>
-  <si>
-    <t>Marriage before death</t>
-  </si>
-  <si>
-    <t>Divorce before death</t>
-  </si>
-  <si>
-    <t>Less then 150 years old</t>
-  </si>
-  <si>
-    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
-  </si>
-  <si>
-    <t>Birth before death of parents</t>
-  </si>
-  <si>
-    <t>Child should be born before death of mother and before 9 months after death of father</t>
-  </si>
-  <si>
-    <t>Marriage after 14</t>
-  </si>
-  <si>
-    <t>No bigamy</t>
-  </si>
-  <si>
-    <t>Parents not too old</t>
-  </si>
-  <si>
-    <t>Find marriage date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare marriage date to birth date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remaining Stories</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story Velocity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Owner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act Size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Owner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Est Size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Est Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act Size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Completed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Initials</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>First</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code Velocity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Min</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Owner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store birth date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store death date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare birth and death dates</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find marriage record for individual</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Review Results</t>
-  </si>
-  <si>
-    <t>Keep doing:</t>
-  </si>
-  <si>
-    <t>Avoid:</t>
-  </si>
-  <si>
-    <t>GitHub Username</t>
-  </si>
-  <si>
-    <t>GitHub Repository:</t>
-  </si>
-  <si>
-    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t>Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t>Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t>Marriage should occur before death of either spouse</t>
-  </si>
-  <si>
-    <t>Divorce can only occur before death of both spouses</t>
-  </si>
-  <si>
-    <t>Marriage should not occur during marriage to another spouse</t>
-  </si>
-  <si>
-    <t>No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
-    <t>There should be fewer than 15 siblings in a family</t>
-  </si>
-  <si>
-    <t>All male members of a family should have the same last name</t>
-  </si>
-  <si>
-    <t>Parents should not marry any of their descendants</t>
-  </si>
-  <si>
-    <t>Siblings should not marry one another</t>
-  </si>
-  <si>
-    <t>First cousins should not marry one another</t>
-  </si>
-  <si>
-    <t>Aunts and uncles should not marry their nieces or nephews</t>
   </si>
 </sst>
 </file>
@@ -1123,27 +1124,26 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="281262200"/>
-        <c:axId val="281265544"/>
+        <c:axId val="69867128"/>
+        <c:axId val="508016824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="281262200"/>
+        <c:axId val="69867128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="281265544"/>
+        <c:crossAx val="508016824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="281265544"/>
+        <c:axId val="508016824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1151,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="281262200"/>
+        <c:crossAx val="69867128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1216,27 +1216,26 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="281308056"/>
-        <c:axId val="281311176"/>
+        <c:axId val="508187400"/>
+        <c:axId val="508190520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="281308056"/>
+        <c:axId val="508187400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="281311176"/>
+        <c:crossAx val="508190520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="281311176"/>
+        <c:axId val="508190520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1244,7 +1243,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="281308056"/>
+        <c:crossAx val="508187400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1280,7 +1279,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1318,7 +1317,7 @@
         <xdr:cNvPr id="3" name="Rectangular Callout 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1393,7 +1392,7 @@
         <xdr:cNvPr id="4" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1458,7 +1457,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1527,7 +1526,7 @@
         <xdr:cNvPr id="6" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1597,7 +1596,7 @@
         <xdr:cNvPr id="7" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1666,7 +1665,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1736,7 +1735,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2093,82 +2092,81 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>237</v>
+        <v>24</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>239</v>
+        <v>26</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>255</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>211</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="D9" s="8" t="s">
-        <v>256</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>1</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A3:D5">
     <sortCondition ref="C3:C5"/>
   </sortState>
@@ -2201,479 +2199,478 @@
   <sheetData>
     <row r="1" spans="1:3" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>203</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>257</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="21" customFormat="1" ht="15.75">
       <c r="A3" s="21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>258</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="21" customFormat="1" ht="15.75">
       <c r="A4" s="21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>259</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A5" s="21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>260</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="21" customFormat="1" ht="15.75">
       <c r="A6" s="21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>261</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="21" customFormat="1" ht="15.75">
       <c r="A7" s="21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>262</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>84</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>210</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>69</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>86</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>212</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>70</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>1</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>263</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A13" s="21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>215</v>
+        <v>2</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="45">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>71</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="21" customFormat="1" ht="15">
       <c r="A15" s="21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>68</v>
+        <v>204</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>264</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>265</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="21" customFormat="1" ht="15">
       <c r="A17" s="21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>266</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>267</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>268</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>269</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>270</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A23" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A25" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>186</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A26" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>187</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="21" customFormat="1">
       <c r="A27" s="21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>72</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>188</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A29" s="21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>73</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75">
       <c r="A30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>189</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="21" customFormat="1" ht="15.75">
       <c r="A31" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>191</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="21" customFormat="1" ht="15.75">
       <c r="A33" s="21" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>192</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A34" s="21" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>193</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A35" s="21" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>194</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A36" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>195</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="21" customFormat="1" ht="15">
       <c r="A37" s="21" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>196</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A38" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A39" s="21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>198</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A40" s="21" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>199</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A41" s="21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15">
       <c r="A42" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>200</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A43" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>201</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -2703,19 +2700,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>247</v>
+        <v>34</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>244</v>
+        <v>31</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>236</v>
+        <v>23</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>245</v>
+        <v>32</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>246</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1"/>
@@ -2737,10 +2734,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>204</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2761,10 +2758,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>207</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3028,7 +3025,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -3059,60 +3055,60 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="11" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="11" t="s">
-        <v>58</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="11" t="s">
-        <v>65</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="11" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="11" t="s">
-        <v>67</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="8" customFormat="1">
       <c r="A14" s="8" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>218</v>
+        <v>5</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>219</v>
+        <v>6</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>220</v>
+        <v>7</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>241</v>
+        <v>28</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>243</v>
+        <v>30</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>242</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="B15" s="17">
         <v>41065</v>
@@ -3128,7 +3124,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>197</v>
       </c>
       <c r="B16" s="17">
         <v>41078</v>
@@ -3153,7 +3149,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="11" t="s">
-        <v>62</v>
+        <v>198</v>
       </c>
       <c r="B17" s="17">
         <v>41092</v>
@@ -3178,7 +3174,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="11" t="s">
-        <v>63</v>
+        <v>199</v>
       </c>
       <c r="B18" s="17">
         <v>41106</v>
@@ -3203,7 +3199,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="11" t="s">
-        <v>64</v>
+        <v>200</v>
       </c>
       <c r="B19" s="17">
         <v>41120</v>
@@ -3227,7 +3223,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -3259,22 +3254,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>218</v>
+        <v>5</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>219</v>
+        <v>6</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>220</v>
+        <v>7</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>241</v>
+        <v>28</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>243</v>
+        <v>30</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>242</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3313,11 +3308,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -3333,8 +3327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
@@ -3352,54 +3346,54 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>86</v>
+        <v>222</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>87</v>
+        <v>223</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I2" s="11">
         <v>41426</v>
@@ -3407,27 +3401,27 @@
     </row>
     <row r="3" spans="1:9" ht="26">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>233</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="26">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>234</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I5" s="11">
         <v>41426</v>
@@ -3435,16 +3429,16 @@
     </row>
     <row r="6" spans="1:9" ht="26">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>236</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I6" s="11">
         <v>41426</v>
@@ -3452,13 +3446,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>10</v>
+        <v>237</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>190</v>
       </c>
       <c r="I8" s="11">
         <v>41426</v>
@@ -3466,16 +3460,16 @@
     </row>
     <row r="9" spans="1:9" ht="26">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>189</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>190</v>
       </c>
       <c r="I9" s="11">
         <v>41426</v>
@@ -3483,16 +3477,16 @@
     </row>
     <row r="10" spans="1:9" ht="52">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>191</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>190</v>
       </c>
       <c r="I10" s="11">
         <v>41426</v>
@@ -3500,26 +3494,26 @@
     </row>
     <row r="12" spans="1:9" ht="39">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="52">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>15</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="52">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>17</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3527,42 +3521,42 @@
     </row>
     <row r="16" spans="1:9" ht="26">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>18</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="39">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>19</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="39">
       <c r="A18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>20</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="52">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>21</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="52">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>249</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>23</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3570,18 +3564,18 @@
     </row>
     <row r="22" spans="1:2" ht="26">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>24</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="39">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>252</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>26</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3589,23 +3583,23 @@
     </row>
     <row r="25" spans="1:2" ht="26">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="26">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>29</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="9" t="s">
-        <v>252</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="2:2">
@@ -3613,12 +3607,12 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="9" t="s">
-        <v>253</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="9" t="s">
-        <v>254</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3655,31 +3649,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>227</v>
+        <v>14</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>228</v>
+        <v>15</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>230</v>
+        <v>17</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>232</v>
+        <v>19</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>233</v>
+        <v>20</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>234</v>
+        <v>21</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>235</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3712,10 +3706,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="23" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>39</v>
+        <v>265</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -3727,10 +3721,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="23" t="s">
-        <v>30</v>
+        <v>256</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -3742,10 +3736,10 @@
     </row>
     <row r="6" spans="1:9" ht="26">
       <c r="A6" s="23" t="s">
-        <v>35</v>
+        <v>261</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -3768,10 +3762,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="26" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="E8">
         <v>150</v>
@@ -3791,26 +3785,26 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>248</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>249</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>250</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3829,37 +3823,37 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="23" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="23" t="s">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>32</v>
+        <v>258</v>
       </c>
       <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" ht="26">
       <c r="A17" s="23" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
       <c r="I17" s="11"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="E19">
         <v>200</v>
@@ -3870,26 +3864,26 @@
     </row>
     <row r="21" spans="1:9" ht="26">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>251</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>216</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="26">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>217</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3905,28 +3899,28 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="23" t="s">
-        <v>25</v>
+        <v>252</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>32</v>
+        <v>258</v>
       </c>
       <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="23" t="s">
-        <v>37</v>
+        <v>263</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" ht="26">
       <c r="A28" s="23" t="s">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>41</v>
+        <v>267</v>
       </c>
       <c r="I28" s="11"/>
     </row>
@@ -3948,46 +3942,46 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="23" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="I31" s="11"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="23" t="s">
-        <v>48</v>
+        <v>184</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>43</v>
+        <v>269</v>
       </c>
       <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="23" t="s">
-        <v>49</v>
+        <v>185</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>44</v>
+        <v>270</v>
       </c>
       <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9" ht="26">
       <c r="A34" s="23" t="s">
-        <v>50</v>
+        <v>186</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9" ht="26">
       <c r="A35" s="23" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="I35" s="11"/>
     </row>
@@ -3997,7 +3991,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="9" t="s">
-        <v>252</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4006,27 +4000,27 @@
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="9" t="s">
-        <v>253</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="5" t="s">
-        <v>4</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="26">
       <c r="B41" s="5" t="s">
-        <v>5</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="9" t="s">
-        <v>254</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="26">
       <c r="B44" s="5" t="s">
-        <v>3</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4053,35 +4047,34 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>227</v>
+        <v>14</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>228</v>
+        <v>15</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>230</v>
+        <v>17</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>232</v>
+        <v>19</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>233</v>
+        <v>20</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>234</v>
+        <v>21</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>235</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -4104,35 +4097,34 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>221</v>
+        <v>8</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>232</v>
+        <v>19</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>226</v>
+        <v>13</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>235</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -4155,35 +4147,34 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>221</v>
+        <v>8</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>232</v>
+        <v>19</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>226</v>
+        <v>13</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>235</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/TeamNick_Jeremy_AmieReport.xlsx
+++ b/TeamNick_Jeremy_AmieReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="220" windowWidth="21360" windowHeight="14400" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="220" yWindow="220" windowWidth="21360" windowHeight="14400" tabRatio="500" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="274">
+  <si>
+    <t>Modify program (Project #3.py) to save information</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
   <si>
     <t>Marriage after 14</t>
   </si>
@@ -43,147 +47,147 @@
   </si>
   <si>
     <t>Find marriage date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Compare marriage date to birth date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Remaining Stories</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Story Velocity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Story ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Story Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Owner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Act Size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Act Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Story ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Story Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Owner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Est Size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Est Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Act Size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Act Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Completed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Story Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Initials</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Last</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>First</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LOC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Code Velocity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Min</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Story ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Owner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Sprint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Store birth date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Store death date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Compare birth and death dates</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Find marriage record for individual</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Review Results</t>
@@ -244,7 +248,7 @@
   </si>
   <si>
     <t>Hold a team meeting to plan for spint planning</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
@@ -335,19 +339,19 @@
   </si>
   <si>
     <t>Est Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Act Size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Act Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Completed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Obtain GitHub account</t>
@@ -642,15 +646,15 @@
   </si>
   <si>
     <t>dc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Complete</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>dc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>dcohron@stevens.edu</t>
@@ -744,47 +748,51 @@
   </si>
   <si>
     <t>Story ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Story Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Owner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Est Size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>jdoll@stevens.edu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/dcohron/AgileMethods/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   * Inputs in blue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Set next meeting before end current meeting</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Encouraging team environment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Double check each other for better of the team</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>dc, jd, aw</t>
@@ -808,9 +816,6 @@
     <t>Create a NOTE record at the beginning of the file and include AgileMethods, the GitHub respository</t>
   </si>
   <si>
-    <t>Modify program (insert program name) to save information</t>
-  </si>
-  <si>
     <t>T04.01</t>
   </si>
   <si>
@@ -883,9 +888,6 @@
     <t>T06.03</t>
   </si>
   <si>
-    <t xml:space="preserve"> Store birth date</t>
-  </si>
-  <si>
     <t>Find death date</t>
   </si>
   <si>
@@ -899,17 +901,37 @@
   </si>
   <si>
     <t>store children's birth dates</t>
+  </si>
+  <si>
+    <t>DNC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store birth date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="m/d"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -990,54 +1012,61 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1125,25 +1154,25 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="69867128"/>
-        <c:axId val="508016824"/>
+        <c:axId val="508541624"/>
+        <c:axId val="507736088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="69867128"/>
+        <c:axId val="508541624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="508016824"/>
+        <c:crossAx val="507736088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="508016824"/>
+        <c:axId val="507736088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1180,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69867128"/>
+        <c:crossAx val="508541624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1202,10 +1231,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>36.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1217,25 +1246,25 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="508187400"/>
-        <c:axId val="508190520"/>
+        <c:axId val="461806088"/>
+        <c:axId val="506686408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="508187400"/>
+        <c:axId val="461806088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="508190520"/>
+        <c:crossAx val="506686408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="508190520"/>
+        <c:axId val="506686408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1243,7 +1272,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="508187400"/>
+        <c:crossAx val="461806088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2092,85 +2121,85 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="D1" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="D9" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A3:D5">
     <sortCondition ref="C3:C5"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
   </hyperlinks>
@@ -2188,7 +2217,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
@@ -2199,479 +2228,480 @@
   <sheetData>
     <row r="1" spans="1:3" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="21" customFormat="1" ht="15.75">
       <c r="A3" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="21" customFormat="1" ht="15.75">
       <c r="A4" s="21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A5" s="21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="21" customFormat="1" ht="15.75">
       <c r="A6" s="21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="21" customFormat="1" ht="15.75">
       <c r="A7" s="21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A13" s="21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="45">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="21" customFormat="1" ht="15">
       <c r="A15" s="21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="21" customFormat="1" ht="15">
       <c r="A17" s="21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15">
       <c r="A21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30">
       <c r="A22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A23" s="21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B23" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>108</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A25" s="21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A26" s="21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="21" customFormat="1">
       <c r="A27" s="21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A29" s="21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75">
       <c r="A30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="21" customFormat="1" ht="15.75">
       <c r="A31" s="24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="21" customFormat="1" ht="15.75">
       <c r="A33" s="21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A34" s="21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A35" s="21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A36" s="24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="21" customFormat="1" ht="15">
       <c r="A37" s="21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A38" s="21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A39" s="21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A40" s="21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A41" s="21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15">
       <c r="A42" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A43" s="21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -2686,7 +2716,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
@@ -2700,19 +2730,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1"/>
@@ -2728,16 +2758,22 @@
         <f>Stories!B3</f>
         <v>Birth before marriage</v>
       </c>
+      <c r="D3" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2758,10 +2794,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3025,7 +3061,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -3055,60 +3091,60 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="8" customFormat="1">
       <c r="A14" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B15" s="17">
         <v>41065</v>
@@ -3124,7 +3160,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B16" s="17">
         <v>41078</v>
@@ -3149,7 +3185,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B17" s="17">
         <v>41092</v>
@@ -3174,7 +3210,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B18" s="17">
         <v>41106</v>
@@ -3199,7 +3235,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B19" s="17">
         <v>41120</v>
@@ -3223,7 +3259,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -3239,7 +3275,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
@@ -3254,22 +3290,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3277,7 +3313,7 @@
         <v>41426</v>
       </c>
       <c r="B2" s="2">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -3289,7 +3325,7 @@
         <v>41431</v>
       </c>
       <c r="B3" s="2">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <f>B2-B3</f>
@@ -3308,11 +3344,12 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -3327,8 +3364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
@@ -3346,54 +3383,54 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I2" s="11">
         <v>41426</v>
@@ -3401,27 +3438,27 @@
     </row>
     <row r="3" spans="1:9" ht="26">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="26">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I5" s="11">
         <v>41426</v>
@@ -3429,16 +3466,16 @@
     </row>
     <row r="6" spans="1:9" ht="26">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I6" s="11">
         <v>41426</v>
@@ -3446,13 +3483,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I8" s="11">
         <v>41426</v>
@@ -3460,16 +3497,16 @@
     </row>
     <row r="9" spans="1:9" ht="26">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I9" s="11">
         <v>41426</v>
@@ -3477,43 +3514,43 @@
     </row>
     <row r="10" spans="1:9" ht="52">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" t="s">
         <v>191</v>
-      </c>
-      <c r="D10" t="s">
-        <v>190</v>
       </c>
       <c r="I10" s="11">
         <v>41426</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="39">
+    <row r="12" spans="1:9" ht="26">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="52">
       <c r="A13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="52">
       <c r="A14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3521,85 +3558,94 @@
     </row>
     <row r="16" spans="1:9" ht="26">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="39">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="39">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="39">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="39">
       <c r="A18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="52">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="52">
       <c r="A19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="52">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="52">
       <c r="A20" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" s="20"/>
     </row>
-    <row r="22" spans="1:2" ht="26">
+    <row r="22" spans="1:9" ht="26">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="39">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="39">
       <c r="A23" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" s="20"/>
     </row>
-    <row r="25" spans="1:2" ht="26">
+    <row r="25" spans="1:9" ht="26">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="26">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>235</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="11">
+        <v>41428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="26">
       <c r="A26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="2:2">
@@ -3607,18 +3653,19 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3629,10 +3676,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
@@ -3649,31 +3696,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3696,22 +3743,27 @@
         <f>Backlog!C3</f>
         <v>Birth before marriage</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="C3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>40</v>
+      </c>
+      <c r="G3" s="29"/>
       <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="23" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" s="8"/>
+        <v>273</v>
+      </c>
       <c r="D4" s="8"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -3721,12 +3773,11 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="C5" s="8"/>
+        <v>258</v>
+      </c>
       <c r="D5" s="8"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -3736,12 +3787,11 @@
     </row>
     <row r="6" spans="1:9" ht="26">
       <c r="A6" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -3752,7 +3802,6 @@
     <row r="7" spans="1:9">
       <c r="A7" s="23"/>
       <c r="B7" s="25"/>
-      <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -3762,270 +3811,264 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>228</v>
       </c>
       <c r="E8">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>60</v>
-      </c>
-      <c r="G8">
-        <v>120</v>
-      </c>
-      <c r="H8">
-        <v>90</v>
-      </c>
-      <c r="I8" s="10">
-        <v>40444</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>175</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="26" t="str">
+      <c r="A13" s="26" t="str">
         <f>Backlog!B5</f>
         <v>US04</v>
       </c>
-      <c r="B14" s="5" t="str">
+      <c r="B13" s="5" t="str">
         <f>Backlog!C5</f>
         <v>Marriage before divorce</v>
       </c>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>258</v>
+      </c>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="23" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="26">
       <c r="A16" s="23" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9" ht="26">
-      <c r="A17" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19">
+    <row r="18" spans="1:9">
+      <c r="A18" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18">
         <v>200</v>
       </c>
-      <c r="F19">
+      <c r="F18">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="26">
+    <row r="20" spans="1:9" ht="26">
+      <c r="A20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="26">
       <c r="A22" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="26">
-      <c r="A23" t="s">
-        <v>178</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="26" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="26" t="str">
         <f>Backlog!B7</f>
         <v>US06</v>
       </c>
-      <c r="B25" s="5" t="str">
+      <c r="B24" s="5" t="str">
         <f>Backlog!C7</f>
         <v>Divorce before death</v>
       </c>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>259</v>
+      </c>
       <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="23" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" ht="26">
       <c r="A27" s="23" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="1:9" ht="26">
-      <c r="A28" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>267</v>
-      </c>
+    <row r="28" spans="1:9">
+      <c r="A28" s="23"/>
+      <c r="B28" s="25"/>
       <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="23"/>
-      <c r="B29" s="25"/>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="26" t="str">
+      <c r="A29" s="26" t="str">
         <f>Backlog!B8</f>
         <v>US12</v>
       </c>
-      <c r="B30" s="25" t="str">
+      <c r="B29" s="25" t="str">
         <f>Backlog!C8</f>
         <v>Parents not too old</v>
       </c>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>268</v>
+      </c>
       <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="23" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I31" s="11"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" ht="26">
       <c r="A33" s="23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>270</v>
+        <v>182</v>
       </c>
       <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9" ht="26">
       <c r="A34" s="23" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I34" s="11"/>
     </row>
-    <row r="35" spans="1:9" ht="26">
-      <c r="A35" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>182</v>
-      </c>
+    <row r="35" spans="1:9">
+      <c r="B35" s="25"/>
       <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="B36" s="25"/>
-      <c r="I36" s="11"/>
+      <c r="B36" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="B37" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="B37" s="9"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="B38" s="9"/>
-      <c r="I38" s="11"/>
+      <c r="B38" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="B39" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="B39" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="26">
       <c r="B40" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="26">
-      <c r="B41" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="B42" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="26">
+      <c r="B43" s="5" t="s">
         <v>232</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="B43" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="26">
-      <c r="B44" s="5" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -4047,35 +4090,36 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -4097,35 +4141,36 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -4147,35 +4192,36 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">

--- a/TeamNick_Jeremy_AmieReport.xlsx
+++ b/TeamNick_Jeremy_AmieReport.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\snl\home\alwider\School\SSW 555\Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="220" yWindow="220" windowWidth="21360" windowHeight="14400" tabRatio="500" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="225" yWindow="225" windowWidth="21360" windowHeight="14400" tabRatio="500" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Stories" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="275">
   <si>
     <t>Modify program (Project #3.py) to save information</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -735,9 +740,6 @@
     <t>jeremydoll</t>
   </si>
   <si>
-    <t>aw</t>
-  </si>
-  <si>
     <t>Amie</t>
   </si>
   <si>
@@ -913,21 +915,23 @@
   <si>
     <t>Store birth date</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALW</t>
+  </si>
+  <si>
+    <t>DNC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="m/d"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1019,25 +1023,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1045,7 +1049,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1064,7 +1068,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1087,15 +1091,25 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1103,22 +1117,22 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41065.0</c:v>
+                  <c:v>41426</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41078.0</c:v>
+                  <c:v>41438</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41092.0</c:v>
+                  <c:v>41452</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41106.0</c:v>
+                  <c:v>41466</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41120.0</c:v>
+                  <c:v>41487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1130,30 +1144,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D8B4-4A59-B4A6-22A62B3A8A42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="508541624"/>
         <c:axId val="507736088"/>
       </c:lineChart>
@@ -1162,8 +1186,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="507736088"/>
         <c:crosses val="autoZero"/>
@@ -1176,9 +1203,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="508541624"/>
         <c:crosses val="autoZero"/>
@@ -1187,25 +1217,36 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1216,10 +1257,10 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41426.0</c:v>
+                  <c:v>41426</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41431.0</c:v>
+                  <c:v>41431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1231,21 +1272,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A765-4833-A692-C31CA7692FD8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="461806088"/>
         <c:axId val="506686408"/>
       </c:lineChart>
@@ -1254,8 +1305,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="506686408"/>
         <c:crosses val="autoZero"/>
@@ -1268,9 +1322,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="461806088"/>
         <c:crosses val="autoZero"/>
@@ -1279,10 +1336,11 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1308,7 +1366,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1330,81 +1388,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>469053</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>25401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>948266</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>160867</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangular Callout 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1425786" y="533401"/>
-          <a:ext cx="1317413" cy="643466"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 63937"/>
-            <a:gd name="adj2" fmla="val 85744"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" baseline="0"/>
-            <a:t> # team members * 4 sprints * </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" baseline="0"/>
-            <a:t>2 stories per sprint</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>113451</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -1421,7 +1404,7 @@
         <xdr:cNvPr id="4" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,7 +1469,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1555,7 +1538,7 @@
         <xdr:cNvPr id="6" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,7 +1608,7 @@
         <xdr:cNvPr id="7" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1694,7 +1677,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1764,7 +1747,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2104,22 +2087,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="5" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="3" max="3" width="8.375" customWidth="1"/>
+    <col min="4" max="5" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1">
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -2136,9 +2119,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s">
         <v>212</v>
@@ -2153,7 +2136,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>215</v>
       </c>
@@ -2164,35 +2147,35 @@
         <v>217</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" t="s">
         <v>219</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>220</v>
-      </c>
-      <c r="C5" t="s">
-        <v>221</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>189</v>
       </c>
       <c r="E5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2213,20 +2196,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="8" customFormat="1">
+    <row r="1" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>131</v>
       </c>
@@ -2237,7 +2220,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30">
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>132</v>
       </c>
@@ -2248,7 +2231,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="21" customFormat="1" ht="15.75">
+    <row r="3" spans="1:3" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>133</v>
       </c>
@@ -2259,7 +2242,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="21" customFormat="1" ht="15.75">
+    <row r="4" spans="1:3" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>134</v>
       </c>
@@ -2270,7 +2253,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="21" customFormat="1" ht="30">
+    <row r="5" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>135</v>
       </c>
@@ -2281,7 +2264,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="21" customFormat="1" ht="15.75">
+    <row r="6" spans="1:3" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>136</v>
       </c>
@@ -2292,7 +2275,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="21" customFormat="1" ht="15.75">
+    <row r="7" spans="1:3" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>137</v>
       </c>
@@ -2303,7 +2286,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45">
+    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>138</v>
       </c>
@@ -2314,7 +2297,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30">
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>139</v>
       </c>
@@ -2325,7 +2308,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>140</v>
       </c>
@@ -2336,7 +2319,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30">
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>141</v>
       </c>
@@ -2347,7 +2330,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>142</v>
       </c>
@@ -2358,7 +2341,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="21" customFormat="1" ht="30">
+    <row r="13" spans="1:3" s="21" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>143</v>
       </c>
@@ -2369,7 +2352,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45">
+    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>144</v>
       </c>
@@ -2380,7 +2363,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="21" customFormat="1" ht="15">
+    <row r="15" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>145</v>
       </c>
@@ -2391,7 +2374,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>146</v>
       </c>
@@ -2402,7 +2385,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="21" customFormat="1" ht="15">
+    <row r="17" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>147</v>
       </c>
@@ -2413,7 +2396,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>148</v>
       </c>
@@ -2424,7 +2407,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -2435,7 +2418,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>150</v>
       </c>
@@ -2446,7 +2429,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15">
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>151</v>
       </c>
@@ -2457,7 +2440,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30">
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -2468,7 +2451,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="21" customFormat="1" ht="30">
+    <row r="23" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
         <v>153</v>
       </c>
@@ -2479,7 +2462,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30">
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>154</v>
       </c>
@@ -2490,7 +2473,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="21" customFormat="1" ht="30">
+    <row r="25" spans="1:3" s="21" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
         <v>155</v>
       </c>
@@ -2501,7 +2484,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="21" customFormat="1" ht="30">
+    <row r="26" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
         <v>156</v>
       </c>
@@ -2512,7 +2495,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="21" customFormat="1">
+    <row r="27" spans="1:3" s="21" customFormat="1" ht="126" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
         <v>157</v>
       </c>
@@ -2523,7 +2506,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>158</v>
       </c>
@@ -2534,7 +2517,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="21" customFormat="1" ht="30">
+    <row r="29" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
         <v>159</v>
       </c>
@@ -2545,7 +2528,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>160</v>
       </c>
@@ -2556,7 +2539,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="21" customFormat="1" ht="15.75">
+    <row r="31" spans="1:3" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
         <v>161</v>
       </c>
@@ -2567,7 +2550,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30">
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>162</v>
       </c>
@@ -2578,7 +2561,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="21" customFormat="1" ht="15.75">
+    <row r="33" spans="1:3" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
         <v>163</v>
       </c>
@@ -2589,7 +2572,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="21" customFormat="1" ht="30">
+    <row r="34" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
         <v>164</v>
       </c>
@@ -2600,7 +2583,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="21" customFormat="1" ht="30">
+    <row r="35" spans="1:3" s="21" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
         <v>165</v>
       </c>
@@ -2611,7 +2594,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="21" customFormat="1" ht="30">
+    <row r="36" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
         <v>166</v>
       </c>
@@ -2622,7 +2605,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="21" customFormat="1" ht="15">
+    <row r="37" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
         <v>167</v>
       </c>
@@ -2633,7 +2616,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="21" customFormat="1" ht="30">
+    <row r="38" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
         <v>168</v>
       </c>
@@ -2644,7 +2627,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="21" customFormat="1" ht="30">
+    <row r="39" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
         <v>169</v>
       </c>
@@ -2655,7 +2638,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="21" customFormat="1" ht="30">
+    <row r="40" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
         <v>170</v>
       </c>
@@ -2666,7 +2649,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="21" customFormat="1" ht="30">
+    <row r="41" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
         <v>171</v>
       </c>
@@ -2677,7 +2660,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15">
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>172</v>
       </c>
@@ -2688,7 +2671,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="21" customFormat="1" ht="30">
+    <row r="43" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
         <v>173</v>
       </c>
@@ -2700,7 +2683,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -2712,23 +2694,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1">
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>35</v>
       </c>
@@ -2745,8 +2727,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1"/>
-    <row r="3" spans="1:5" s="8" customFormat="1">
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23">
         <v>1</v>
       </c>
@@ -2759,10 +2741,10 @@
         <v>Birth before marriage</v>
       </c>
       <c r="D3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2773,10 +2755,10 @@
         <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2788,8 +2770,11 @@
         <f>Stories!B5</f>
         <v>Marriage before divorce</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="D5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2799,8 +2784,11 @@
       <c r="C6" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="D6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2813,7 +2801,7 @@
         <v>Divorce before death</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2826,7 +2814,7 @@
         <v>Parents not too old</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2839,7 +2827,7 @@
         <v>Multiple births &lt;= 5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2852,7 +2840,7 @@
         <v>Male last names</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2865,7 +2853,7 @@
         <v>Unique IDs</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2878,7 +2866,7 @@
         <v>Unique families by spouses</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2891,7 +2879,7 @@
         <v>Unique first names in families</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2904,7 +2892,7 @@
         <v>Corresponding entries</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2917,7 +2905,7 @@
         <v>Order siblings by age</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2930,7 +2918,7 @@
         <v>List living married</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2943,7 +2931,7 @@
         <v>List multiple births</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2956,7 +2944,7 @@
         <v>List orphans</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2969,7 +2957,7 @@
         <v>List large age differences</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2982,7 +2970,7 @@
         <v>List recent births</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4</v>
       </c>
@@ -2995,7 +2983,7 @@
         <v>List recent deaths</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -3008,7 +2996,7 @@
         <v>List recent survivors</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
@@ -3021,7 +3009,7 @@
         <v>List upcoming birthdays</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -3034,7 +3022,7 @@
         <v>List upcoming anniversaries</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
@@ -3047,7 +3035,7 @@
         <v>Include input line numbers</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -3072,54 +3060,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="11"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="8" customFormat="1">
+    <row r="14" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>196</v>
       </c>
@@ -3142,12 +3130,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>197</v>
       </c>
       <c r="B15" s="17">
-        <v>41065</v>
+        <v>41426</v>
       </c>
       <c r="C15" s="18">
         <v>24</v>
@@ -3158,12 +3146,12 @@
       <c r="F15" s="18"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>198</v>
       </c>
       <c r="B16" s="17">
-        <v>41078</v>
+        <v>41438</v>
       </c>
       <c r="C16" s="18">
         <v>18</v>
@@ -3183,12 +3171,12 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>199</v>
       </c>
       <c r="B17" s="17">
-        <v>41092</v>
+        <v>41452</v>
       </c>
       <c r="C17" s="18">
         <v>12</v>
@@ -3208,12 +3196,12 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>200</v>
       </c>
       <c r="B18" s="17">
-        <v>41106</v>
+        <v>41466</v>
       </c>
       <c r="C18" s="18">
         <v>6</v>
@@ -3233,12 +3221,12 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>201</v>
       </c>
       <c r="B19" s="17">
-        <v>41120</v>
+        <v>41487</v>
       </c>
       <c r="C19" s="18">
         <v>0</v>
@@ -3271,24 +3259,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="6"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1">
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
@@ -3308,7 +3296,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>41426</v>
       </c>
@@ -3320,7 +3308,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>41431</v>
       </c>
@@ -3342,13 +3330,12 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -3361,41 +3348,41 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="14" t="s">
         <v>226</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>227</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>89</v>
@@ -3410,7 +3397,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>132</v>
       </c>
@@ -3436,7 +3423,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="26">
+    <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -3444,18 +3431,18 @@
         <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="26">
+    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>133</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D5" t="s">
         <v>94</v>
@@ -3464,12 +3451,12 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="26">
+    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="C6" t="s">
         <v>211</v>
@@ -3481,12 +3468,12 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D8" t="s">
         <v>191</v>
@@ -3495,12 +3482,12 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="26">
+    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>174</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C9" t="s">
         <v>190</v>
@@ -3512,12 +3499,12 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="52">
+    <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>175</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C10" t="s">
         <v>192</v>
@@ -3529,7 +3516,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="26">
+    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -3537,88 +3524,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52">
+    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="B13" s="20" t="s">
+    </row>
+    <row r="14" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="52">
-      <c r="A14" t="s">
+      <c r="B14" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="26">
+    <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>136</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="39">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>177</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="39">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>178</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="52">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>179</v>
       </c>
       <c r="B19" s="20" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="52">
-      <c r="A20" t="s">
+      <c r="B20" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="26">
+    <row r="22" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>137</v>
       </c>
       <c r="B22" s="20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="39">
-      <c r="A23" t="s">
+      <c r="B23" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="26">
+    <row r="25" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -3626,7 +3613,7 @@
         <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>94</v>
@@ -3635,34 +3622,33 @@
         <v>41428</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="26">
+    <row r="26" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="9"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="9" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3675,26 +3661,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:I43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="24.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
@@ -3723,7 +3709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="8"/>
@@ -3734,7 +3720,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="str">
         <f>Backlog!B3</f>
         <v>US02</v>
@@ -3744,7 +3730,7 @@
         <v>Birth before marriage</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3">
@@ -3757,12 +3743,12 @@
       <c r="H3" s="14"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="14"/>
@@ -3771,12 +3757,12 @@
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>257</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>258</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="14"/>
@@ -3785,12 +3771,12 @@
       <c r="H5" s="14"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="26">
+    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="14"/>
@@ -3799,7 +3785,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="23"/>
       <c r="B7" s="25"/>
       <c r="D7" s="8"/>
@@ -3809,7 +3795,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>134</v>
       </c>
@@ -3817,7 +3803,7 @@
         <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -3826,7 +3812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>174</v>
       </c>
@@ -3834,7 +3820,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>175</v>
       </c>
@@ -3842,7 +3828,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -3850,10 +3836,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="str">
         <f>Backlog!B5</f>
         <v>US04</v>
@@ -3862,94 +3848,115 @@
         <f>Backlog!C5</f>
         <v>Marriage before divorce</v>
       </c>
+      <c r="C13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>40</v>
+      </c>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B14" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="B15" s="25" t="s">
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" ht="26">
-      <c r="A16" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>260</v>
-      </c>
       <c r="I16" s="11"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>136</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>83</v>
       </c>
+      <c r="C18" t="s">
+        <v>273</v>
+      </c>
       <c r="E18">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="F18">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="26">
-      <c r="A22" t="s">
-        <v>179</v>
-      </c>
-      <c r="B22" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="26" t="str">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="str">
         <f>Backlog!B7</f>
         <v>US06</v>
       </c>
-      <c r="B24" s="5" t="str">
+      <c r="B23" s="5" t="str">
         <f>Backlog!C7</f>
         <v>Divorce before death</v>
       </c>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>258</v>
+      </c>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>264</v>
       </c>
@@ -3958,116 +3965,106 @@
       </c>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:9" ht="26">
-      <c r="A27" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>267</v>
-      </c>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="23"/>
+      <c r="B27" s="25"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="23"/>
-      <c r="B28" s="25"/>
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="26" t="str">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="26" t="str">
         <f>Backlog!B8</f>
         <v>US12</v>
       </c>
-      <c r="B29" s="25" t="str">
+      <c r="B28" s="25" t="str">
         <f>Backlog!C8</f>
         <v>Parents not too old</v>
       </c>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>267</v>
+      </c>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>268</v>
       </c>
       <c r="I30" s="11"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>269</v>
       </c>
       <c r="I31" s="11"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>270</v>
+        <v>182</v>
       </c>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:9" ht="26">
+    <row r="33" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="1:9" ht="26">
-      <c r="A34" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>183</v>
-      </c>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="25"/>
       <c r="I34" s="11"/>
     </row>
-    <row r="35" spans="1:9">
-      <c r="B35" s="25"/>
-      <c r="I35" s="11"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="B36" s="9" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="B37" s="9"/>
-      <c r="I37" s="11"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="B38" s="9" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="9"/>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="38" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="26">
-      <c r="B40" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="B42" s="9" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="26">
-      <c r="B43" s="5" t="s">
-        <v>232</v>
+    <row r="42" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B42" s="5" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -4079,16 +4076,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
@@ -4118,7 +4115,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -4130,16 +4126,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -4169,7 +4165,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -4181,16 +4176,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -4220,7 +4215,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/TeamNick_Jeremy_AmieReport.xlsx
+++ b/TeamNick_Jeremy_AmieReport.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\snl\home\alwider\School\SSW 555\Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="225" yWindow="225" windowWidth="21360" windowHeight="14400" tabRatio="500" firstSheet="2" activeTab="5"/>
   </bookViews>
@@ -23,11 +18,8 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Stories" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -36,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="276">
   <si>
     <t>Modify program (Project #3.py) to save information</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -921,12 +913,15 @@
   </si>
   <si>
     <t>DNC</t>
+  </si>
+  <si>
+    <t>JRD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1091,7 +1086,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1162,7 +1157,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D8B4-4A59-B4A6-22A62B3A8A42}"/>
             </c:ext>
@@ -1178,11 +1173,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="508541624"/>
-        <c:axId val="507736088"/>
+        <c:axId val="44979712"/>
+        <c:axId val="44981248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="508541624"/>
+        <c:axId val="44979712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1192,14 +1187,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="507736088"/>
+        <c:crossAx val="44981248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507736088"/>
+        <c:axId val="44981248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1205,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="508541624"/>
+        <c:crossAx val="44979712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1228,7 +1223,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1281,7 +1276,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A765-4833-A692-C31CA7692FD8}"/>
             </c:ext>
@@ -1297,11 +1292,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461806088"/>
-        <c:axId val="506686408"/>
+        <c:axId val="43821312"/>
+        <c:axId val="43847680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461806088"/>
+        <c:axId val="43821312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1311,14 +1306,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="506686408"/>
+        <c:crossAx val="43847680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506686408"/>
+        <c:axId val="43847680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1324,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="461806088"/>
+        <c:crossAx val="43821312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1366,7 +1361,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1404,7 +1399,7 @@
         <xdr:cNvPr id="4" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1469,7 +1464,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1538,7 +1533,7 @@
         <xdr:cNvPr id="6" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,7 +1603,7 @@
         <xdr:cNvPr id="7" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1677,7 +1672,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1747,7 +1742,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2264,7 +2259,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>136</v>
       </c>
@@ -2275,7 +2270,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>137</v>
       </c>
@@ -3664,8 +3659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3936,6 +3931,15 @@
         <f>Backlog!C7</f>
         <v>Divorce before death</v>
       </c>
+      <c r="C23" t="s">
+        <v>275</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
       <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -3978,6 +3982,15 @@
       <c r="B28" s="25" t="str">
         <f>Backlog!C8</f>
         <v>Parents not too old</v>
+      </c>
+      <c r="C28" t="s">
+        <v>275</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>40</v>
       </c>
       <c r="I28" s="11"/>
     </row>

--- a/TeamNick_Jeremy_AmieReport.xlsx
+++ b/TeamNick_Jeremy_AmieReport.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="225" windowWidth="21360" windowHeight="14400" tabRatio="500" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="220" yWindow="220" windowWidth="21360" windowHeight="14400" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Stories" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,717 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="285">
+  <si>
+    <t>JRD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   * Inputs in blue (placeholders right now)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc, jd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc, jd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc, jd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Communicate early and often</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owner</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Est Size</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdoll@stevens.edu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/dcohron/AgileMethods/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set next meeting before end current meeting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encouraging team environment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double check each other for better of the team</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc, jd, aw</t>
+  </si>
+  <si>
+    <t>Create a new public repository in GitHub</t>
+  </si>
+  <si>
+    <t>T02.01</t>
+  </si>
+  <si>
+    <t>Create a repository, AgileMethods in GitHub</t>
+  </si>
+  <si>
+    <t>Create a new GEDCOM Test file</t>
+  </si>
+  <si>
+    <t>Select or create a new GEDCOM test data file</t>
+  </si>
+  <si>
+    <t>Create a NOTE record at the beginning of the file and include AgileMethods, the GitHub respository</t>
+  </si>
+  <si>
+    <t>T04.01</t>
+  </si>
+  <si>
+    <t>Save information about individuals in a list (or collection) - assume file is always &lt; 5000</t>
+  </si>
+  <si>
+    <t>T04.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Save information about the families in a list (or collection) - assume families is always &lt; 1000</t>
+  </si>
+  <si>
+    <t>Parse program and print different identifiers</t>
+  </si>
+  <si>
+    <t>Sort the individual collections in order by their unique identifiers</t>
+  </si>
+  <si>
+    <t>Sort the family collections in order by their unique family identifiers</t>
+  </si>
+  <si>
+    <t>Print the individual collections using a table format, like Python PrettyTable (example in Project 3)</t>
+  </si>
+  <si>
+    <t>T05.04</t>
+  </si>
+  <si>
+    <t>Print the family collections using a table format, like Python PrettyTable (example in Project 3)</t>
+  </si>
+  <si>
+    <t>Update GitHub respository with new version of program</t>
+  </si>
+  <si>
+    <t>T06.01</t>
+  </si>
+  <si>
+    <t>Use GitHub to update the respository with the new version of the program</t>
+  </si>
+  <si>
+    <t>T07.01</t>
+  </si>
+  <si>
+    <t>Create an invite for a team meeting for sprint planning</t>
+  </si>
+  <si>
+    <t>T02.02</t>
+  </si>
+  <si>
+    <t>Store marriage date</t>
+  </si>
+  <si>
+    <t>Store divorce date</t>
+  </si>
+  <si>
+    <t>Compare marriage and divorce date</t>
+  </si>
+  <si>
+    <t>Compare birth and marriage dates</t>
+  </si>
+  <si>
+    <t>T02.03</t>
+  </si>
+  <si>
+    <t>T04.03</t>
+  </si>
+  <si>
+    <t>T06.02</t>
+  </si>
+  <si>
+    <t>T06.03</t>
+  </si>
+  <si>
+    <t>Find death date</t>
+  </si>
+  <si>
+    <t>Compare divorce date to death date</t>
+  </si>
+  <si>
+    <t>store mothers birth date</t>
+  </si>
+  <si>
+    <t>store fathers birth date</t>
+  </si>
+  <si>
+    <t>store children's birth dates</t>
+  </si>
+  <si>
+    <t>DNC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store birth date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALW</t>
+  </si>
+  <si>
+    <t>DNC</t>
+  </si>
+  <si>
+    <t>JRD</t>
+  </si>
+  <si>
+    <t>T05.03</t>
+  </si>
+  <si>
+    <t>Dates before current date</t>
+  </si>
+  <si>
+    <t>Birth before marriage of parents</t>
+  </si>
+  <si>
+    <t>Compare if mother is &lt; 60 years older than children</t>
+  </si>
+  <si>
+    <t>Compare if father is &lt; 80 years older than children</t>
+  </si>
+  <si>
+    <t>T12.01</t>
+  </si>
+  <si>
+    <t>T12.02</t>
+  </si>
+  <si>
+    <t>T12.03</t>
+  </si>
+  <si>
+    <t>T12.04</t>
+  </si>
+  <si>
+    <t>T12.05</t>
+  </si>
+  <si>
+    <t>alwider@sandia.gov</t>
+  </si>
+  <si>
+    <t>dc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcohron@stevens.edu</t>
+  </si>
+  <si>
+    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Multiple births &lt;= 5</t>
+  </si>
+  <si>
+    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
+  </si>
+  <si>
+    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+  </si>
+  <si>
+    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
+  </si>
+  <si>
+    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Cohron</t>
+  </si>
+  <si>
+    <t>dcohron</t>
+  </si>
+  <si>
+    <t>jd</t>
+  </si>
+  <si>
+    <t>Jeremy</t>
+  </si>
+  <si>
+    <t>Doll</t>
+  </si>
+  <si>
+    <t>jeremydoll</t>
+  </si>
+  <si>
+    <t>Amie</t>
+  </si>
+  <si>
+    <t>Widerkehr</t>
+  </si>
+  <si>
+    <t>alwider</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Child should be born before death of mother and before 9 months after death of father</t>
+  </si>
+  <si>
+    <t>Est Time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act Size</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act Time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Completed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obtain GitHub account</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>T01.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each team member needs to obtain an account in GitHub </t>
+  </si>
+  <si>
+    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t>Siblings spacing</t>
+  </si>
+  <si>
+    <t>Fewer than 15 siblings</t>
+  </si>
+  <si>
+    <t>Male last names</t>
+  </si>
+  <si>
+    <t>No marriages to descendants</t>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+  </si>
+  <si>
+    <t>First cousins should not marry</t>
+  </si>
+  <si>
+    <t>Aunts and uncles</t>
+  </si>
+  <si>
+    <t>Correct gender for role</t>
+  </si>
+  <si>
+    <t>Husband in family should be male and wife in family should be female</t>
+  </si>
+  <si>
+    <t>All individual IDs should be unique and all family IDs should be unique</t>
+  </si>
+  <si>
+    <t>Unique IDs</t>
+  </si>
+  <si>
+    <t>Unique name and birth date</t>
+  </si>
+  <si>
+    <t>Unique families by spouses</t>
+  </si>
+  <si>
+    <t>Unique first names in families</t>
+  </si>
+  <si>
+    <t>Corresponding entries</t>
+  </si>
+  <si>
+    <t>Include individual ages</t>
+  </si>
+  <si>
+    <t>Order siblings by age</t>
+  </si>
+  <si>
+    <t>List deceased</t>
+  </si>
+  <si>
+    <t>List living married</t>
+  </si>
+  <si>
+    <t>List living single</t>
+  </si>
+  <si>
+    <t>List multiple births</t>
+  </si>
+  <si>
+    <t>List orphans</t>
+  </si>
+  <si>
+    <t>List recent births</t>
+  </si>
+  <si>
+    <t>List recent deaths</t>
+  </si>
+  <si>
+    <t>List recent survivors</t>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+  </si>
+  <si>
+    <t>Include input line numbers</t>
+  </si>
+  <si>
+    <t>List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>List large age differences</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+  </si>
+  <si>
+    <t>US01</t>
+  </si>
+  <si>
+    <t>US02</t>
+  </si>
+  <si>
+    <t>US03</t>
+  </si>
+  <si>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>US25</t>
+  </si>
+  <si>
+    <t>US26</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>US28</t>
+  </si>
+  <si>
+    <t>US29</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>US32</t>
+  </si>
+  <si>
+    <t>US33</t>
+  </si>
+  <si>
+    <t>US34</t>
+  </si>
+  <si>
+    <t>US35</t>
+  </si>
+  <si>
+    <t>US36</t>
+  </si>
+  <si>
+    <t>US37</t>
+  </si>
+  <si>
+    <t>US38</t>
+  </si>
+  <si>
+    <t>US39</t>
+  </si>
+  <si>
+    <t>US40</t>
+  </si>
+  <si>
+    <t>US41</t>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>T03.01</t>
+  </si>
+  <si>
+    <t>T03.02</t>
+  </si>
+  <si>
+    <t>T03.03</t>
+  </si>
+  <si>
+    <t>T05.01</t>
+  </si>
+  <si>
+    <t>T05.02</t>
+  </si>
+  <si>
+    <t>Hold a team meeting to plan for spint planning</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one child with the same name and birth date should appear in a family</t>
+  </si>
+  <si>
+    <t>Include person's current age when listing individuals</t>
+  </si>
+  <si>
+    <t>List all deceased individuals in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living married people in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all multiple births in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>Accept and use dates without days or without days and months</t>
+  </si>
+  <si>
+    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+  </si>
+  <si>
+    <t>Story Name</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>Birth before death</t>
+  </si>
+  <si>
+    <t>Birth before marriage</t>
+  </si>
+  <si>
+    <t>Marriage before divorce</t>
+  </si>
+  <si>
+    <t>Marriage before death</t>
+  </si>
+  <si>
+    <t>Divorce before death</t>
+  </si>
+  <si>
+    <t>Less then 150 years old</t>
+  </si>
+  <si>
+    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t>Birth before death of parents</t>
+  </si>
   <si>
     <t>Modify program (Project #3.py) to save information</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -242,691 +952,21 @@
   </si>
   <si>
     <t>Aunts and uncles should not marry their nieces or nephews</t>
-  </si>
-  <si>
-    <t>Hold a team meeting to plan for spint planning</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one child with the same name and birth date should appear in a family</t>
-  </si>
-  <si>
-    <t>Include person's current age when listing individuals</t>
-  </si>
-  <si>
-    <t>List all deceased individuals in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living married people in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>Accept and use dates without days or without days and months</t>
-  </si>
-  <si>
-    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
-  </si>
-  <si>
-    <t>Story Name</t>
-  </si>
-  <si>
-    <t>Story Description</t>
-  </si>
-  <si>
-    <t>Birth before death</t>
-  </si>
-  <si>
-    <t>Birth before marriage</t>
-  </si>
-  <si>
-    <t>Marriage before divorce</t>
-  </si>
-  <si>
-    <t>Marriage before death</t>
-  </si>
-  <si>
-    <t>Divorce before death</t>
-  </si>
-  <si>
-    <t>Less then 150 years old</t>
-  </si>
-  <si>
-    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
-  </si>
-  <si>
-    <t>Birth before death of parents</t>
-  </si>
-  <si>
-    <t>Child should be born before death of mother and before 9 months after death of father</t>
-  </si>
-  <si>
-    <t>Est Time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act Size</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act Time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Completed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Obtain GitHub account</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>T01.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Each team member needs to obtain an account in GitHub </t>
-  </si>
-  <si>
-    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
-    <t>Siblings spacing</t>
-  </si>
-  <si>
-    <t>Fewer than 15 siblings</t>
-  </si>
-  <si>
-    <t>Male last names</t>
-  </si>
-  <si>
-    <t>No marriages to descendants</t>
-  </si>
-  <si>
-    <t>Siblings should not marry</t>
-  </si>
-  <si>
-    <t>First cousins should not marry</t>
-  </si>
-  <si>
-    <t>Aunts and uncles</t>
-  </si>
-  <si>
-    <t>Correct gender for role</t>
-  </si>
-  <si>
-    <t>Husband in family should be male and wife in family should be female</t>
-  </si>
-  <si>
-    <t>All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
-    <t>Unique IDs</t>
-  </si>
-  <si>
-    <t>Unique name and birth date</t>
-  </si>
-  <si>
-    <t>Unique families by spouses</t>
-  </si>
-  <si>
-    <t>Unique first names in families</t>
-  </si>
-  <si>
-    <t>Corresponding entries</t>
-  </si>
-  <si>
-    <t>Include individual ages</t>
-  </si>
-  <si>
-    <t>Order siblings by age</t>
-  </si>
-  <si>
-    <t>List deceased</t>
-  </si>
-  <si>
-    <t>List living married</t>
-  </si>
-  <si>
-    <t>List living single</t>
-  </si>
-  <si>
-    <t>List multiple births</t>
-  </si>
-  <si>
-    <t>List orphans</t>
-  </si>
-  <si>
-    <t>List recent births</t>
-  </si>
-  <si>
-    <t>List recent deaths</t>
-  </si>
-  <si>
-    <t>List recent survivors</t>
-  </si>
-  <si>
-    <t>List upcoming birthdays</t>
-  </si>
-  <si>
-    <t>List upcoming anniversaries</t>
-  </si>
-  <si>
-    <t>Include input line numbers</t>
-  </si>
-  <si>
-    <t>List line numbers from GEDCOM source file when reporting errors</t>
-  </si>
-  <si>
-    <t>Include partial dates</t>
-  </si>
-  <si>
-    <t>Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t>List large age differences</t>
-  </si>
-  <si>
-    <t>Story ID</t>
-  </si>
-  <si>
-    <t>US01</t>
-  </si>
-  <si>
-    <t>US02</t>
-  </si>
-  <si>
-    <t>US03</t>
-  </si>
-  <si>
-    <t>US04</t>
-  </si>
-  <si>
-    <t>US05</t>
-  </si>
-  <si>
-    <t>US06</t>
-  </si>
-  <si>
-    <t>US07</t>
-  </si>
-  <si>
-    <t>US08</t>
-  </si>
-  <si>
-    <t>US09</t>
-  </si>
-  <si>
-    <t>US10</t>
-  </si>
-  <si>
-    <t>US11</t>
-  </si>
-  <si>
-    <t>US12</t>
-  </si>
-  <si>
-    <t>US13</t>
-  </si>
-  <si>
-    <t>US14</t>
-  </si>
-  <si>
-    <t>US15</t>
-  </si>
-  <si>
-    <t>US16</t>
-  </si>
-  <si>
-    <t>US17</t>
-  </si>
-  <si>
-    <t>US18</t>
-  </si>
-  <si>
-    <t>US19</t>
-  </si>
-  <si>
-    <t>US20</t>
-  </si>
-  <si>
-    <t>US21</t>
-  </si>
-  <si>
-    <t>US22</t>
-  </si>
-  <si>
-    <t>US23</t>
-  </si>
-  <si>
-    <t>US24</t>
-  </si>
-  <si>
-    <t>US25</t>
-  </si>
-  <si>
-    <t>US26</t>
-  </si>
-  <si>
-    <t>US27</t>
-  </si>
-  <si>
-    <t>US28</t>
-  </si>
-  <si>
-    <t>US29</t>
-  </si>
-  <si>
-    <t>US30</t>
-  </si>
-  <si>
-    <t>US31</t>
-  </si>
-  <si>
-    <t>US32</t>
-  </si>
-  <si>
-    <t>US33</t>
-  </si>
-  <si>
-    <t>US34</t>
-  </si>
-  <si>
-    <t>US35</t>
-  </si>
-  <si>
-    <t>US36</t>
-  </si>
-  <si>
-    <t>US37</t>
-  </si>
-  <si>
-    <t>US38</t>
-  </si>
-  <si>
-    <t>US39</t>
-  </si>
-  <si>
-    <t>US40</t>
-  </si>
-  <si>
-    <t>US41</t>
-  </si>
-  <si>
-    <t>US42</t>
-  </si>
-  <si>
-    <t>T03.01</t>
-  </si>
-  <si>
-    <t>T03.02</t>
-  </si>
-  <si>
-    <t>T03.03</t>
-  </si>
-  <si>
-    <t>T05.01</t>
-  </si>
-  <si>
-    <t>T05.02</t>
-  </si>
-  <si>
-    <t>T05.03</t>
-  </si>
-  <si>
-    <t>Dates before current date</t>
-  </si>
-  <si>
-    <t>Birth before marriage of parents</t>
-  </si>
-  <si>
-    <t>Compare if mother is &lt; 60 years older than children</t>
-  </si>
-  <si>
-    <t>Compare if father is &lt; 80 years older than children</t>
-  </si>
-  <si>
-    <t>T12.01</t>
-  </si>
-  <si>
-    <t>T12.02</t>
-  </si>
-  <si>
-    <t>T12.03</t>
-  </si>
-  <si>
-    <t>T12.04</t>
-  </si>
-  <si>
-    <t>T12.05</t>
-  </si>
-  <si>
-    <t>alwider@sandia.gov</t>
-  </si>
-  <si>
-    <t>dc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Complete</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dcohron@stevens.edu</t>
-  </si>
-  <si>
-    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t>Sprint</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t>Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t>Multiple births &lt;= 5</t>
-  </si>
-  <si>
-    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
-  </si>
-  <si>
-    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
-    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
-    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
-  </si>
-  <si>
-    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
-  </si>
-  <si>
-    <t>dc</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Cohron</t>
-  </si>
-  <si>
-    <t>dcohron</t>
-  </si>
-  <si>
-    <t>jd</t>
-  </si>
-  <si>
-    <t>Jeremy</t>
-  </si>
-  <si>
-    <t>Doll</t>
-  </si>
-  <si>
-    <t>jeremydoll</t>
-  </si>
-  <si>
-    <t>Amie</t>
-  </si>
-  <si>
-    <t>Widerkehr</t>
-  </si>
-  <si>
-    <t>alwider</t>
-  </si>
-  <si>
-    <t>Story ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Owner</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Est Size</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DNC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jdoll@stevens.edu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/dcohron/AgileMethods/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   * Inputs in blue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set next meeting before end current meeting</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Encouraging team environment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Double check each other for better of the team</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc, jd, aw</t>
-  </si>
-  <si>
-    <t>Create a new public repository in GitHub</t>
-  </si>
-  <si>
-    <t>T02.01</t>
-  </si>
-  <si>
-    <t>Create a repository, AgileMethods in GitHub</t>
-  </si>
-  <si>
-    <t>Create a new GEDCOM Test file</t>
-  </si>
-  <si>
-    <t>Select or create a new GEDCOM test data file</t>
-  </si>
-  <si>
-    <t>Create a NOTE record at the beginning of the file and include AgileMethods, the GitHub respository</t>
-  </si>
-  <si>
-    <t>T04.01</t>
-  </si>
-  <si>
-    <t>Save information about individuals in a list (or collection) - assume file is always &lt; 5000</t>
-  </si>
-  <si>
-    <t>T04.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -Save information about the families in a list (or collection) - assume families is always &lt; 1000</t>
-  </si>
-  <si>
-    <t>Parse program and print different identifiers</t>
-  </si>
-  <si>
-    <t>Sort the individual collections in order by their unique identifiers</t>
-  </si>
-  <si>
-    <t>Sort the family collections in order by their unique family identifiers</t>
-  </si>
-  <si>
-    <t>Print the individual collections using a table format, like Python PrettyTable (example in Project 3)</t>
-  </si>
-  <si>
-    <t>T05.04</t>
-  </si>
-  <si>
-    <t>Print the family collections using a table format, like Python PrettyTable (example in Project 3)</t>
-  </si>
-  <si>
-    <t>Update GitHub respository with new version of program</t>
-  </si>
-  <si>
-    <t>T06.01</t>
-  </si>
-  <si>
-    <t>Use GitHub to update the respository with the new version of the program</t>
-  </si>
-  <si>
-    <t>T07.01</t>
-  </si>
-  <si>
-    <t>Create an invite for a team meeting for sprint planning</t>
-  </si>
-  <si>
-    <t>T02.02</t>
-  </si>
-  <si>
-    <t>Store marriage date</t>
-  </si>
-  <si>
-    <t>Store divorce date</t>
-  </si>
-  <si>
-    <t>Compare marriage and divorce date</t>
-  </si>
-  <si>
-    <t>Compare birth and marriage dates</t>
-  </si>
-  <si>
-    <t>T02.03</t>
-  </si>
-  <si>
-    <t>T04.03</t>
-  </si>
-  <si>
-    <t>T06.02</t>
-  </si>
-  <si>
-    <t>T06.03</t>
-  </si>
-  <si>
-    <t>Find death date</t>
-  </si>
-  <si>
-    <t>Compare divorce date to death date</t>
-  </si>
-  <si>
-    <t>store mothers birth date</t>
-  </si>
-  <si>
-    <t>store fathers birth date</t>
-  </si>
-  <si>
-    <t>store children's birth dates</t>
-  </si>
-  <si>
-    <t>DNC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DNC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store birth date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALW</t>
-  </si>
-  <si>
-    <t>DNC</t>
-  </si>
-  <si>
-    <t>JRD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1089,22 +1129,12 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="2"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1112,22 +1142,22 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41426</c:v>
+                  <c:v>41426.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41438</c:v>
+                  <c:v>41438.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41452</c:v>
+                  <c:v>41452.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41466</c:v>
+                  <c:v>41466.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41487</c:v>
+                  <c:v>41487.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1139,84 +1169,68 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D8B4-4A59-B4A6-22A62B3A8A42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="44979712"/>
-        <c:axId val="44981248"/>
+        <c:axId val="69712344"/>
+        <c:axId val="69715400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="44979712"/>
+        <c:axId val="69712344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44981248"/>
+        <c:crossAx val="69715400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="44981248"/>
+        <c:axId val="69715400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44979712"/>
+        <c:crossAx val="69712344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1226,22 +1240,12 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="2"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1252,10 +1256,10 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41426</c:v>
+                  <c:v>41431.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41431</c:v>
+                  <c:v>41438.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1267,75 +1271,59 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A765-4833-A692-C31CA7692FD8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="43821312"/>
-        <c:axId val="43847680"/>
+        <c:axId val="501860168"/>
+        <c:axId val="501863288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="43821312"/>
+        <c:axId val="501860168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43847680"/>
+        <c:crossAx val="501863288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="43847680"/>
+        <c:axId val="501863288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43821312"/>
+        <c:crossAx val="501860168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1361,7 +1349,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1399,7 +1387,7 @@
         <xdr:cNvPr id="4" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1464,7 +1452,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1533,7 +1521,7 @@
         <xdr:cNvPr id="6" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1603,7 +1591,7 @@
         <xdr:cNvPr id="7" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1672,7 +1660,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1742,7 +1730,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2082,95 +2070,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
-    <col min="3" max="3" width="8.375" customWidth="1"/>
-    <col min="4" max="5" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="5" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>27</v>
+        <v>253</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>26</v>
+        <v>252</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>95</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>217</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>228</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>273</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>102</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>189</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="D9" s="8" t="s">
-        <v>44</v>
+        <v>270</v>
       </c>
       <c r="E9" t="s">
-        <v>229</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2191,490 +2179,490 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="21" customFormat="1" ht="15.75">
+      <c r="A3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="21" customFormat="1" ht="15.75">
+      <c r="A4" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="21" customFormat="1" ht="30">
+      <c r="A5" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="21" customFormat="1" ht="15">
+      <c r="A6" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="21" customFormat="1" ht="15">
+      <c r="A7" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45">
+      <c r="A8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30">
+      <c r="A9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30">
+      <c r="A10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30">
+      <c r="A11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15">
+      <c r="A12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="21" customFormat="1" ht="30">
+      <c r="A13" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45">
+      <c r="A14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="21" customFormat="1" ht="15">
+      <c r="A15" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75">
+      <c r="A16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="21" customFormat="1" ht="15">
+      <c r="A17" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75">
+      <c r="A18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75">
+      <c r="A19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75">
+      <c r="A20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15">
+      <c r="A21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30">
+      <c r="A22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="21" customFormat="1" ht="30">
+      <c r="A23" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30">
+      <c r="A24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="21" customFormat="1" ht="30">
+      <c r="A25" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="21" customFormat="1" ht="30">
+      <c r="A26" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="21" customFormat="1">
+      <c r="A27" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C27" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75">
+      <c r="A28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" t="s">
         <v>132</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C28" s="16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="21" customFormat="1" ht="30">
+      <c r="A29" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75">
+      <c r="A30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="21" customFormat="1" ht="15.75">
+      <c r="A31" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30">
+      <c r="A32" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="B32" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="C32" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="21" customFormat="1" ht="15.75">
+      <c r="A33" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B33" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C33" s="22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="21" customFormat="1" ht="30">
+      <c r="A34" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="B8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="C34" s="22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="21" customFormat="1" ht="30">
+      <c r="A35" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="21" customFormat="1" ht="30">
+      <c r="A36" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="B9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="C36" s="22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="21" customFormat="1" ht="15">
+      <c r="A37" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B37" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="B10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="C37" s="22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="21" customFormat="1" ht="30">
+      <c r="A38" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="C38" s="22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="21" customFormat="1" ht="30">
+      <c r="A39" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="21" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="C39" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="21" customFormat="1" ht="30">
+      <c r="A40" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="C40" s="22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="21" customFormat="1" ht="30">
+      <c r="A41" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B41" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="B14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+      <c r="C41" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    </row>
+    <row r="42" spans="1:3" ht="15">
+      <c r="A42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B42" t="s">
         <v>146</v>
       </c>
-      <c r="B16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="C42" s="16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="21" customFormat="1" ht="30">
+      <c r="A43" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B43" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>150</v>
-      </c>
-      <c r="B20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="21" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="21" customFormat="1" ht="126" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>160</v>
-      </c>
-      <c r="B30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="21" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>172</v>
-      </c>
-      <c r="B42" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>129</v>
-      </c>
       <c r="C43" s="22" t="s">
-        <v>77</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2689,41 +2677,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>35</v>
+        <v>261</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>32</v>
+        <v>258</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>24</v>
+        <v>250</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1"/>
+    <row r="3" spans="1:5" s="8" customFormat="1">
       <c r="A3" s="23">
         <v>1</v>
       </c>
@@ -2736,24 +2724,24 @@
         <v>Birth before marriage</v>
       </c>
       <c r="D3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="D4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2766,24 +2754,24 @@
         <v>Marriage before divorce</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c r="D6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2795,8 +2783,11 @@
         <f>Stories!B7</f>
         <v>Divorce before death</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2808,8 +2799,11 @@
         <f>Stories!B13</f>
         <v>Parents not too old</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2822,7 +2816,7 @@
         <v>Multiple births &lt;= 5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2835,7 +2829,7 @@
         <v>Male last names</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2848,7 +2842,7 @@
         <v>Unique IDs</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2861,7 +2855,7 @@
         <v>Unique families by spouses</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2874,7 +2868,7 @@
         <v>Unique first names in families</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2887,7 +2881,7 @@
         <v>Corresponding entries</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2900,7 +2894,7 @@
         <v>Order siblings by age</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2913,7 +2907,7 @@
         <v>List living married</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2926,7 +2920,7 @@
         <v>List multiple births</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2939,7 +2933,7 @@
         <v>List orphans</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2952,7 +2946,7 @@
         <v>List large age differences</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2965,7 +2959,7 @@
         <v>List recent births</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>4</v>
       </c>
@@ -2978,7 +2972,7 @@
         <v>List recent deaths</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>4</v>
       </c>
@@ -2991,7 +2985,7 @@
         <v>List recent survivors</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>4</v>
       </c>
@@ -3004,7 +2998,7 @@
         <v>List upcoming birthdays</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -3017,7 +3011,7 @@
         <v>List upcoming anniversaries</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -3030,7 +3024,7 @@
         <v>Include input line numbers</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -3055,79 +3049,79 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="11" style="11"/>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="8" customFormat="1">
       <c r="A14" s="8" t="s">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>6</v>
+        <v>232</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>7</v>
+        <v>233</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>8</v>
+        <v>234</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>29</v>
+        <v>255</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="B15" s="17">
         <v>41426</v>
@@ -3141,9 +3135,9 @@
       <c r="F15" s="18"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="B16" s="17">
         <v>41438</v>
@@ -3166,9 +3160,9 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="11" t="s">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="B17" s="17">
         <v>41452</v>
@@ -3191,9 +3185,9 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="11" t="s">
-        <v>200</v>
+        <v>82</v>
       </c>
       <c r="B18" s="17">
         <v>41466</v>
@@ -3216,9 +3210,9 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="11" t="s">
-        <v>201</v>
+        <v>83</v>
       </c>
       <c r="B19" s="17">
         <v>41487</v>
@@ -3254,46 +3248,46 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="11" style="6"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="8" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>6</v>
+        <v>232</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>7</v>
+        <v>233</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>8</v>
+        <v>234</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>29</v>
+        <v>255</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="3">
-        <v>41426</v>
+        <v>41431</v>
       </c>
       <c r="B2" s="2">
         <v>24</v>
@@ -3303,9 +3297,9 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="3">
-        <v>41431</v>
+        <v>41438</v>
       </c>
       <c r="B3" s="2">
         <v>18</v>
@@ -3325,12 +3319,13 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>230</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -3343,304 +3338,423 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
-    <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>222</v>
+        <v>104</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>223</v>
+        <v>105</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>224</v>
+        <v>10</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>225</v>
+        <v>11</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="I2" s="11">
         <v>41426</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="26">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="26">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="I5" s="11">
         <v>41426</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="26">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>21</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>237</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="I6" s="11">
         <v>41426</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>238</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="I8" s="11">
         <v>41426</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="26">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="I9" s="11">
         <v>41426</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="52">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>240</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="I10" s="11">
         <v>41426</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="26">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="11">
+        <v>41429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="52">
       <c r="A13" t="s">
-        <v>241</v>
+        <v>26</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13" s="11">
+        <v>41429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="52">
       <c r="A14" t="s">
-        <v>243</v>
+        <v>28</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="11">
+        <v>41429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="26">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" s="11">
+        <v>41430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="39">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="11">
+        <v>41430</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="39">
       <c r="A18" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="11">
+        <v>41430</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="52">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>61</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" s="11">
+        <v>41430</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="52">
       <c r="A20" t="s">
-        <v>249</v>
+        <v>34</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" s="11">
+        <v>41430</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="26">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="11">
+        <v>41431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="39">
       <c r="A23" t="s">
-        <v>252</v>
+        <v>37</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" s="11">
+        <v>41431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="26">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c r="C25" t="s">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="I25" s="11">
         <v>41428</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="26">
       <c r="A26" t="s">
-        <v>254</v>
+        <v>39</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="I26" s="11">
+        <v>41428</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
       <c r="B33" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="9"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2">
       <c r="B35" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="9" t="s">
-        <v>42</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="26">
+      <c r="B37" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="26">
+      <c r="B39" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="9" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3656,55 +3770,55 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="2" width="24.375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>16</v>
+        <v>242</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>18</v>
+        <v>244</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>21</v>
+        <v>247</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>22</v>
+        <v>248</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="8"/>
@@ -3715,7 +3829,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="26" t="str">
         <f>Backlog!B3</f>
         <v>US02</v>
@@ -3725,7 +3839,7 @@
         <v>Birth before marriage</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>13</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3">
@@ -3738,12 +3852,12 @@
       <c r="H3" s="14"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="23" t="s">
-        <v>236</v>
+        <v>21</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>272</v>
+        <v>57</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="14"/>
@@ -3752,12 +3866,12 @@
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="23" t="s">
-        <v>256</v>
+        <v>41</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>257</v>
+        <v>42</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="14"/>
@@ -3766,12 +3880,12 @@
       <c r="H5" s="14"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="26">
       <c r="A6" s="23" t="s">
-        <v>261</v>
+        <v>46</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>260</v>
+        <v>45</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="14"/>
@@ -3780,7 +3894,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="23"/>
       <c r="B7" s="25"/>
       <c r="D7" s="8"/>
@@ -3790,15 +3904,15 @@
       <c r="H7" s="14"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="26" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -3807,34 +3921,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="26" t="str">
         <f>Backlog!B5</f>
         <v>US04</v>
@@ -3844,7 +3958,7 @@
         <v>Marriage before divorce</v>
       </c>
       <c r="C13" t="s">
-        <v>273</v>
+        <v>58</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -3854,42 +3968,42 @@
       </c>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="23" t="s">
-        <v>241</v>
+        <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>257</v>
+        <v>42</v>
       </c>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="23" t="s">
-        <v>243</v>
+        <v>28</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>258</v>
+        <v>43</v>
       </c>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="26">
       <c r="A16" s="23" t="s">
-        <v>262</v>
+        <v>47</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>259</v>
+        <v>44</v>
       </c>
       <c r="I16" s="11"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="26" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c r="C18" t="s">
-        <v>273</v>
+        <v>58</v>
       </c>
       <c r="E18">
         <v>20</v>
@@ -3898,31 +4012,31 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="26">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="26">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>61</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="26" t="str">
         <f>Backlog!B7</f>
         <v>US06</v>
@@ -3932,7 +4046,7 @@
         <v>Divorce before death</v>
       </c>
       <c r="C23" t="s">
-        <v>275</v>
+        <v>60</v>
       </c>
       <c r="E23">
         <v>10</v>
@@ -3942,39 +4056,39 @@
       </c>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="23" t="s">
-        <v>252</v>
+        <v>37</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>258</v>
+        <v>43</v>
       </c>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="23" t="s">
-        <v>263</v>
+        <v>48</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>265</v>
+        <v>50</v>
       </c>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="26">
       <c r="A26" s="23" t="s">
-        <v>264</v>
+        <v>49</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>266</v>
+        <v>51</v>
       </c>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="23"/>
       <c r="B27" s="25"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="26" t="str">
         <f>Backlog!B8</f>
         <v>US12</v>
@@ -3984,7 +4098,7 @@
         <v>Parents not too old</v>
       </c>
       <c r="C28" t="s">
-        <v>275</v>
+        <v>60</v>
       </c>
       <c r="E28">
         <v>20</v>
@@ -3994,92 +4108,78 @@
       </c>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="23" t="s">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>267</v>
+        <v>52</v>
       </c>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="23" t="s">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>268</v>
+        <v>53</v>
       </c>
       <c r="I30" s="11"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="23" t="s">
-        <v>186</v>
+        <v>68</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>269</v>
+        <v>54</v>
       </c>
       <c r="I31" s="11"/>
     </row>
-    <row r="32" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="26">
       <c r="A32" s="23" t="s">
-        <v>187</v>
+        <v>69</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="26">
       <c r="A33" s="23" t="s">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>183</v>
+        <v>65</v>
       </c>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="B34" s="25"/>
       <c r="I34" s="11"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="B35" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36" s="9"/>
       <c r="I36" s="11"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="B37" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B38" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B39" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="B41" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B42" s="5" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4089,42 +4189,42 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>16</v>
+        <v>242</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>18</v>
+        <v>244</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>21</v>
+        <v>247</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>22</v>
+        <v>248</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>23</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4139,42 +4239,42 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>9</v>
+        <v>235</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>10</v>
+        <v>236</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>23</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4189,42 +4289,42 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>9</v>
+        <v>235</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>10</v>
+        <v>236</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>23</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/TeamNick_Jeremy_AmieReport.xlsx
+++ b/TeamNick_Jeremy_AmieReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="220" windowWidth="21360" windowHeight="14400" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="-180" yWindow="-100" windowWidth="21360" windowHeight="14400" tabRatio="500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,759 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="285">
   <si>
+    <t>All male members of a family should have the same last name</t>
+  </si>
+  <si>
+    <t>Parents should not marry any of their descendants</t>
+  </si>
+  <si>
+    <t>Siblings should not marry one another</t>
+  </si>
+  <si>
+    <t>First cousins should not marry one another</t>
+  </si>
+  <si>
+    <t>Aunts and uncles should not marry their nieces or nephews</t>
+  </si>
+  <si>
+    <t>Divorce before death</t>
+  </si>
+  <si>
+    <t>Less then 150 years old</t>
+  </si>
+  <si>
+    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t>Birth before death of parents</t>
+  </si>
+  <si>
+    <t>Modify program (Project #3.py) to save information</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marriage after 14</t>
+  </si>
+  <si>
+    <t>No bigamy</t>
+  </si>
+  <si>
+    <t>Parents not too old</t>
+  </si>
+  <si>
+    <t>Find marriage date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare marriage date to birth date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remaining Stories</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owner</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act Size</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act Time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owner</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Est Size</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Est Time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act Size</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act Time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Completed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initials</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>First</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code Velocity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owner</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store birth date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store death date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare birth and death dates</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find marriage record for individual</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review Results</t>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>GitHub Username</t>
+  </si>
+  <si>
+    <t>GitHub Repository:</t>
+  </si>
+  <si>
+    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t>Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t>Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t>Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
+    <t>Divorce can only occur before death of both spouses</t>
+  </si>
+  <si>
+    <t>Marriage should not occur during marriage to another spouse</t>
+  </si>
+  <si>
+    <t>No more than five siblings should be born at the same time</t>
+  </si>
+  <si>
+    <t>There should be fewer than 15 siblings in a family</t>
+  </si>
+  <si>
+    <t>US25</t>
+  </si>
+  <si>
+    <t>US26</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>US28</t>
+  </si>
+  <si>
+    <t>US29</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>US32</t>
+  </si>
+  <si>
+    <t>US33</t>
+  </si>
+  <si>
+    <t>US34</t>
+  </si>
+  <si>
+    <t>US35</t>
+  </si>
+  <si>
+    <t>US36</t>
+  </si>
+  <si>
+    <t>US37</t>
+  </si>
+  <si>
+    <t>US38</t>
+  </si>
+  <si>
+    <t>US39</t>
+  </si>
+  <si>
+    <t>US40</t>
+  </si>
+  <si>
+    <t>US41</t>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>T03.01</t>
+  </si>
+  <si>
+    <t>T03.02</t>
+  </si>
+  <si>
+    <t>T03.03</t>
+  </si>
+  <si>
+    <t>T05.01</t>
+  </si>
+  <si>
+    <t>T05.02</t>
+  </si>
+  <si>
+    <t>Hold a team meeting to plan for spint planning</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one child with the same name and birth date should appear in a family</t>
+  </si>
+  <si>
+    <t>Include person's current age when listing individuals</t>
+  </si>
+  <si>
+    <t>List all deceased individuals in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living married people in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all multiple births in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>Accept and use dates without days or without days and months</t>
+  </si>
+  <si>
+    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+  </si>
+  <si>
+    <t>Story Name</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>Birth before death</t>
+  </si>
+  <si>
+    <t>Birth before marriage</t>
+  </si>
+  <si>
+    <t>Marriage before divorce</t>
+  </si>
+  <si>
+    <t>Marriage before death</t>
+  </si>
+  <si>
+    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Cohron</t>
+  </si>
+  <si>
+    <t>dcohron</t>
+  </si>
+  <si>
+    <t>jd</t>
+  </si>
+  <si>
+    <t>Jeremy</t>
+  </si>
+  <si>
+    <t>Doll</t>
+  </si>
+  <si>
+    <t>jeremydoll</t>
+  </si>
+  <si>
+    <t>Amie</t>
+  </si>
+  <si>
+    <t>Widerkehr</t>
+  </si>
+  <si>
+    <t>alwider</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Child should be born before death of mother and before 9 months after death of father</t>
+  </si>
+  <si>
+    <t>Est Time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act Size</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act Time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Completed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obtain GitHub account</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>T01.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each team member needs to obtain an account in GitHub </t>
+  </si>
+  <si>
+    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t>Siblings spacing</t>
+  </si>
+  <si>
+    <t>Fewer than 15 siblings</t>
+  </si>
+  <si>
+    <t>Male last names</t>
+  </si>
+  <si>
+    <t>No marriages to descendants</t>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+  </si>
+  <si>
+    <t>First cousins should not marry</t>
+  </si>
+  <si>
+    <t>Aunts and uncles</t>
+  </si>
+  <si>
+    <t>Correct gender for role</t>
+  </si>
+  <si>
+    <t>Husband in family should be male and wife in family should be female</t>
+  </si>
+  <si>
+    <t>All individual IDs should be unique and all family IDs should be unique</t>
+  </si>
+  <si>
+    <t>Unique IDs</t>
+  </si>
+  <si>
+    <t>Unique name and birth date</t>
+  </si>
+  <si>
+    <t>Unique families by spouses</t>
+  </si>
+  <si>
+    <t>Unique first names in families</t>
+  </si>
+  <si>
+    <t>Corresponding entries</t>
+  </si>
+  <si>
+    <t>Include individual ages</t>
+  </si>
+  <si>
+    <t>Order siblings by age</t>
+  </si>
+  <si>
+    <t>List deceased</t>
+  </si>
+  <si>
+    <t>List living married</t>
+  </si>
+  <si>
+    <t>List living single</t>
+  </si>
+  <si>
+    <t>List multiple births</t>
+  </si>
+  <si>
+    <t>List orphans</t>
+  </si>
+  <si>
+    <t>List recent births</t>
+  </si>
+  <si>
+    <t>List recent deaths</t>
+  </si>
+  <si>
+    <t>List recent survivors</t>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+  </si>
+  <si>
+    <t>Include input line numbers</t>
+  </si>
+  <si>
+    <t>List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>List large age differences</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+  </si>
+  <si>
+    <t>US01</t>
+  </si>
+  <si>
+    <t>US02</t>
+  </si>
+  <si>
+    <t>US03</t>
+  </si>
+  <si>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>Compare divorce date to death date</t>
+  </si>
+  <si>
+    <t>store mothers birth date</t>
+  </si>
+  <si>
+    <t>store fathers birth date</t>
+  </si>
+  <si>
+    <t>store children's birth dates</t>
+  </si>
+  <si>
+    <t>DNC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store birth date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALW</t>
+  </si>
+  <si>
+    <t>DNC</t>
+  </si>
+  <si>
     <t>JRD</t>
+  </si>
+  <si>
+    <t>T05.03</t>
+  </si>
+  <si>
+    <t>Dates before current date</t>
+  </si>
+  <si>
+    <t>Birth before marriage of parents</t>
+  </si>
+  <si>
+    <t>Compare if mother is &lt; 60 years older than children</t>
+  </si>
+  <si>
+    <t>Compare if father is &lt; 80 years older than children</t>
+  </si>
+  <si>
+    <t>T12.01</t>
+  </si>
+  <si>
+    <t>T12.02</t>
+  </si>
+  <si>
+    <t>T12.03</t>
+  </si>
+  <si>
+    <t>T12.04</t>
+  </si>
+  <si>
+    <t>T12.05</t>
+  </si>
+  <si>
+    <t>alwider@sandia.gov</t>
+  </si>
+  <si>
+    <t>dc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcohron@stevens.edu</t>
+  </si>
+  <si>
+    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Multiple births &lt;= 5</t>
+  </si>
+  <si>
+    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
+  </si>
+  <si>
+    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+  </si>
+  <si>
+    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
+  </si>
+  <si>
+    <t>JRD</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -200,769 +952,13 @@
   </si>
   <si>
     <t>Find death date</t>
-  </si>
-  <si>
-    <t>Compare divorce date to death date</t>
-  </si>
-  <si>
-    <t>store mothers birth date</t>
-  </si>
-  <si>
-    <t>store fathers birth date</t>
-  </si>
-  <si>
-    <t>store children's birth dates</t>
-  </si>
-  <si>
-    <t>DNC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DNC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store birth date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALW</t>
-  </si>
-  <si>
-    <t>DNC</t>
-  </si>
-  <si>
-    <t>JRD</t>
-  </si>
-  <si>
-    <t>T05.03</t>
-  </si>
-  <si>
-    <t>Dates before current date</t>
-  </si>
-  <si>
-    <t>Birth before marriage of parents</t>
-  </si>
-  <si>
-    <t>Compare if mother is &lt; 60 years older than children</t>
-  </si>
-  <si>
-    <t>Compare if father is &lt; 80 years older than children</t>
-  </si>
-  <si>
-    <t>T12.01</t>
-  </si>
-  <si>
-    <t>T12.02</t>
-  </si>
-  <si>
-    <t>T12.03</t>
-  </si>
-  <si>
-    <t>T12.04</t>
-  </si>
-  <si>
-    <t>T12.05</t>
-  </si>
-  <si>
-    <t>alwider@sandia.gov</t>
-  </si>
-  <si>
-    <t>dc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Complete</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dcohron@stevens.edu</t>
-  </si>
-  <si>
-    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t>Sprint</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t>Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t>Multiple births &lt;= 5</t>
-  </si>
-  <si>
-    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
-  </si>
-  <si>
-    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
-    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
-    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
-  </si>
-  <si>
-    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
-  </si>
-  <si>
-    <t>dc</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Cohron</t>
-  </si>
-  <si>
-    <t>dcohron</t>
-  </si>
-  <si>
-    <t>jd</t>
-  </si>
-  <si>
-    <t>Jeremy</t>
-  </si>
-  <si>
-    <t>Doll</t>
-  </si>
-  <si>
-    <t>jeremydoll</t>
-  </si>
-  <si>
-    <t>Amie</t>
-  </si>
-  <si>
-    <t>Widerkehr</t>
-  </si>
-  <si>
-    <t>alwider</t>
-  </si>
-  <si>
-    <t>Story ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Child should be born before death of mother and before 9 months after death of father</t>
-  </si>
-  <si>
-    <t>Est Time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act Size</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act Time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Completed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Obtain GitHub account</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>T01.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Each team member needs to obtain an account in GitHub </t>
-  </si>
-  <si>
-    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
-    <t>Siblings spacing</t>
-  </si>
-  <si>
-    <t>Fewer than 15 siblings</t>
-  </si>
-  <si>
-    <t>Male last names</t>
-  </si>
-  <si>
-    <t>No marriages to descendants</t>
-  </si>
-  <si>
-    <t>Siblings should not marry</t>
-  </si>
-  <si>
-    <t>First cousins should not marry</t>
-  </si>
-  <si>
-    <t>Aunts and uncles</t>
-  </si>
-  <si>
-    <t>Correct gender for role</t>
-  </si>
-  <si>
-    <t>Husband in family should be male and wife in family should be female</t>
-  </si>
-  <si>
-    <t>All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
-    <t>Unique IDs</t>
-  </si>
-  <si>
-    <t>Unique name and birth date</t>
-  </si>
-  <si>
-    <t>Unique families by spouses</t>
-  </si>
-  <si>
-    <t>Unique first names in families</t>
-  </si>
-  <si>
-    <t>Corresponding entries</t>
-  </si>
-  <si>
-    <t>Include individual ages</t>
-  </si>
-  <si>
-    <t>Order siblings by age</t>
-  </si>
-  <si>
-    <t>List deceased</t>
-  </si>
-  <si>
-    <t>List living married</t>
-  </si>
-  <si>
-    <t>List living single</t>
-  </si>
-  <si>
-    <t>List multiple births</t>
-  </si>
-  <si>
-    <t>List orphans</t>
-  </si>
-  <si>
-    <t>List recent births</t>
-  </si>
-  <si>
-    <t>List recent deaths</t>
-  </si>
-  <si>
-    <t>List recent survivors</t>
-  </si>
-  <si>
-    <t>List upcoming birthdays</t>
-  </si>
-  <si>
-    <t>List upcoming anniversaries</t>
-  </si>
-  <si>
-    <t>Include input line numbers</t>
-  </si>
-  <si>
-    <t>List line numbers from GEDCOM source file when reporting errors</t>
-  </si>
-  <si>
-    <t>Include partial dates</t>
-  </si>
-  <si>
-    <t>Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t>List large age differences</t>
-  </si>
-  <si>
-    <t>Story ID</t>
-  </si>
-  <si>
-    <t>US01</t>
-  </si>
-  <si>
-    <t>US02</t>
-  </si>
-  <si>
-    <t>US03</t>
-  </si>
-  <si>
-    <t>US04</t>
-  </si>
-  <si>
-    <t>US05</t>
-  </si>
-  <si>
-    <t>US06</t>
-  </si>
-  <si>
-    <t>US07</t>
-  </si>
-  <si>
-    <t>US08</t>
-  </si>
-  <si>
-    <t>US09</t>
-  </si>
-  <si>
-    <t>US10</t>
-  </si>
-  <si>
-    <t>US11</t>
-  </si>
-  <si>
-    <t>US12</t>
-  </si>
-  <si>
-    <t>US13</t>
-  </si>
-  <si>
-    <t>US14</t>
-  </si>
-  <si>
-    <t>US15</t>
-  </si>
-  <si>
-    <t>US16</t>
-  </si>
-  <si>
-    <t>US17</t>
-  </si>
-  <si>
-    <t>US18</t>
-  </si>
-  <si>
-    <t>US19</t>
-  </si>
-  <si>
-    <t>US20</t>
-  </si>
-  <si>
-    <t>US21</t>
-  </si>
-  <si>
-    <t>US22</t>
-  </si>
-  <si>
-    <t>US23</t>
-  </si>
-  <si>
-    <t>US24</t>
-  </si>
-  <si>
-    <t>US25</t>
-  </si>
-  <si>
-    <t>US26</t>
-  </si>
-  <si>
-    <t>US27</t>
-  </si>
-  <si>
-    <t>US28</t>
-  </si>
-  <si>
-    <t>US29</t>
-  </si>
-  <si>
-    <t>US30</t>
-  </si>
-  <si>
-    <t>US31</t>
-  </si>
-  <si>
-    <t>US32</t>
-  </si>
-  <si>
-    <t>US33</t>
-  </si>
-  <si>
-    <t>US34</t>
-  </si>
-  <si>
-    <t>US35</t>
-  </si>
-  <si>
-    <t>US36</t>
-  </si>
-  <si>
-    <t>US37</t>
-  </si>
-  <si>
-    <t>US38</t>
-  </si>
-  <si>
-    <t>US39</t>
-  </si>
-  <si>
-    <t>US40</t>
-  </si>
-  <si>
-    <t>US41</t>
-  </si>
-  <si>
-    <t>US42</t>
-  </si>
-  <si>
-    <t>T03.01</t>
-  </si>
-  <si>
-    <t>T03.02</t>
-  </si>
-  <si>
-    <t>T03.03</t>
-  </si>
-  <si>
-    <t>T05.01</t>
-  </si>
-  <si>
-    <t>T05.02</t>
-  </si>
-  <si>
-    <t>Hold a team meeting to plan for spint planning</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one child with the same name and birth date should appear in a family</t>
-  </si>
-  <si>
-    <t>Include person's current age when listing individuals</t>
-  </si>
-  <si>
-    <t>List all deceased individuals in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living married people in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>Accept and use dates without days or without days and months</t>
-  </si>
-  <si>
-    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
-  </si>
-  <si>
-    <t>Story Name</t>
-  </si>
-  <si>
-    <t>Story Description</t>
-  </si>
-  <si>
-    <t>Birth before death</t>
-  </si>
-  <si>
-    <t>Birth before marriage</t>
-  </si>
-  <si>
-    <t>Marriage before divorce</t>
-  </si>
-  <si>
-    <t>Marriage before death</t>
-  </si>
-  <si>
-    <t>Divorce before death</t>
-  </si>
-  <si>
-    <t>Less then 150 years old</t>
-  </si>
-  <si>
-    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
-  </si>
-  <si>
-    <t>Birth before death of parents</t>
-  </si>
-  <si>
-    <t>Modify program (Project #3.py) to save information</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Marriage after 14</t>
-  </si>
-  <si>
-    <t>No bigamy</t>
-  </si>
-  <si>
-    <t>Parents not too old</t>
-  </si>
-  <si>
-    <t>Find marriage date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare marriage date to birth date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remaining Stories</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story Velocity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Owner</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act Size</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act Time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Owner</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Est Size</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Est Time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act Size</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act Time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Completed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Initials</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>First</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code Velocity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Min</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Owner</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprint</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store birth date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store death date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare birth and death dates</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find marriage record for individual</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Review Results</t>
-  </si>
-  <si>
-    <t>Keep doing:</t>
-  </si>
-  <si>
-    <t>Avoid:</t>
-  </si>
-  <si>
-    <t>GitHub Username</t>
-  </si>
-  <si>
-    <t>GitHub Repository:</t>
-  </si>
-  <si>
-    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t>Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t>Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t>Marriage should occur before death of either spouse</t>
-  </si>
-  <si>
-    <t>Divorce can only occur before death of both spouses</t>
-  </si>
-  <si>
-    <t>Marriage should not occur during marriage to another spouse</t>
-  </si>
-  <si>
-    <t>No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
-    <t>There should be fewer than 15 siblings in a family</t>
-  </si>
-  <si>
-    <t>All male members of a family should have the same last name</t>
-  </si>
-  <si>
-    <t>Parents should not marry any of their descendants</t>
-  </si>
-  <si>
-    <t>Siblings should not marry one another</t>
-  </si>
-  <si>
-    <t>First cousins should not marry one another</t>
-  </si>
-  <si>
-    <t>Aunts and uncles should not marry their nieces or nephews</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
@@ -1192,27 +1188,26 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="69712344"/>
-        <c:axId val="69715400"/>
+        <c:axId val="510328392"/>
+        <c:axId val="510328744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="69712344"/>
+        <c:axId val="510328392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69715400"/>
+        <c:crossAx val="510328744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="69715400"/>
+        <c:axId val="510328744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1220,7 +1215,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69712344"/>
+        <c:crossAx val="510328392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1285,27 +1280,26 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="501860168"/>
-        <c:axId val="501863288"/>
+        <c:axId val="507106280"/>
+        <c:axId val="507096376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="501860168"/>
+        <c:axId val="507106280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501863288"/>
+        <c:crossAx val="507096376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="501863288"/>
+        <c:axId val="507096376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1313,7 +1307,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501860168"/>
+        <c:crossAx val="507106280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1349,7 +1343,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1387,7 +1381,7 @@
         <xdr:cNvPr id="4" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1452,7 +1446,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1521,7 +1515,7 @@
         <xdr:cNvPr id="6" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1591,7 +1585,7 @@
         <xdr:cNvPr id="7" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1660,7 +1654,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1730,7 +1724,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2087,78 +2081,78 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>251</v>
+        <v>34</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>253</v>
+        <v>36</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>252</v>
+        <v>35</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>269</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>248</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>71</v>
+        <v>213</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="D9" s="8" t="s">
-        <v>270</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2194,478 +2188,479 @@
   <sheetData>
     <row r="1" spans="1:3" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>271</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="21" customFormat="1" ht="15.75">
       <c r="A3" s="21" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>219</v>
+        <v>108</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>272</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="21" customFormat="1" ht="15.75">
       <c r="A4" s="21" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>273</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A5" s="21" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>274</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="21" customFormat="1" ht="15">
       <c r="A6" s="21" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>221</v>
+        <v>110</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>275</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="21" customFormat="1" ht="15">
       <c r="A7" s="21" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>222</v>
+        <v>5</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>276</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>6</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>205</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>88</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
-        <v>225</v>
+        <v>8</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
-        <v>227</v>
+        <v>10</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>89</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
-        <v>228</v>
+        <v>11</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>277</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A13" s="21" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="45">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>90</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="21" customFormat="1" ht="15">
       <c r="A15" s="21" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>87</v>
+        <v>229</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>278</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>279</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="21" customFormat="1" ht="15">
       <c r="A17" s="21" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>280</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>281</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>282</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>283</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>284</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30">
       <c r="A22" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A23" s="21" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30">
       <c r="A24" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>199</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A25" s="21" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A26" s="21" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="21" customFormat="1">
       <c r="A27" s="21" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>91</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A29" s="21" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75">
       <c r="A30" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>203</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="21" customFormat="1" ht="15.75">
       <c r="A31" s="24" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>204</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30">
       <c r="A32" t="s">
-        <v>180</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>205</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="21" customFormat="1" ht="15.75">
       <c r="A33" s="21" t="s">
-        <v>181</v>
+        <v>70</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>206</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A34" s="21" t="s">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>207</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A35" s="21" t="s">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>208</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A36" s="24" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>209</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="21" customFormat="1" ht="15">
       <c r="A37" s="21" t="s">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>210</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A38" s="21" t="s">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A39" s="21" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A40" s="21" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A41" s="21" t="s">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15">
       <c r="A42" t="s">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A43" s="21" t="s">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -2695,19 +2690,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>261</v>
+        <v>44</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>259</v>
+        <v>42</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>260</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1"/>
@@ -2724,7 +2719,7 @@
         <v>Birth before marriage</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2732,13 +2727,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2754,7 +2749,7 @@
         <v>Marriage before divorce</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2762,13 +2757,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>221</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2784,7 +2779,7 @@
         <v>Divorce before death</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2800,7 +2795,7 @@
         <v>Parents not too old</v>
       </c>
       <c r="D8" t="s">
-        <v>0</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3038,6 +3033,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -3068,60 +3064,60 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="11" t="s">
-        <v>76</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="11" t="s">
-        <v>77</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="11" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="11" t="s">
-        <v>85</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="11" t="s">
-        <v>86</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="8" customFormat="1">
       <c r="A14" s="8" t="s">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>234</v>
+        <v>17</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>255</v>
+        <v>38</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>256</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="B15" s="17">
         <v>41426</v>
@@ -3137,7 +3133,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="B16" s="17">
         <v>41438</v>
@@ -3162,7 +3158,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="11" t="s">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="B17" s="17">
         <v>41452</v>
@@ -3187,7 +3183,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="11" t="s">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="B18" s="17">
         <v>41466</v>
@@ -3212,7 +3208,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="11" t="s">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="B19" s="17">
         <v>41487</v>
@@ -3267,22 +3263,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>234</v>
+        <v>17</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>255</v>
+        <v>38</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>256</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3321,7 +3317,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3360,54 +3356,54 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>10</v>
+        <v>244</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>11</v>
+        <v>245</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="H2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="I2" s="11">
         <v>41426</v>
@@ -3415,27 +3411,27 @@
     </row>
     <row r="3" spans="1:9" ht="26">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="26">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>254</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="I5" s="11">
         <v>41426</v>
@@ -3443,16 +3439,16 @@
     </row>
     <row r="6" spans="1:9" ht="26">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>256</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="I6" s="11">
         <v>41426</v>
@@ -3460,13 +3456,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>23</v>
+        <v>257</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="I8" s="11">
         <v>41426</v>
@@ -3474,16 +3470,16 @@
     </row>
     <row r="9" spans="1:9" ht="26">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>214</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="I9" s="11">
         <v>41426</v>
@@ -3491,16 +3487,16 @@
     </row>
     <row r="10" spans="1:9" ht="52">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>259</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="I10" s="11">
         <v>41426</v>
@@ -3508,16 +3504,16 @@
     </row>
     <row r="12" spans="1:9" ht="26">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>226</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>236</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="I12" s="11">
         <v>41429</v>
@@ -3525,16 +3521,16 @@
     </row>
     <row r="13" spans="1:9" ht="52">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>237</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="I13" s="11">
         <v>41429</v>
@@ -3542,16 +3538,16 @@
     </row>
     <row r="14" spans="1:9" ht="52">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>262</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>29</v>
+        <v>263</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>237</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="I14" s="11">
         <v>41429</v>
@@ -3562,16 +3558,16 @@
     </row>
     <row r="16" spans="1:9" ht="26">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>30</v>
+        <v>264</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>238</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="I16" s="11">
         <v>41430</v>
@@ -3579,16 +3575,16 @@
     </row>
     <row r="17" spans="1:9" ht="39">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>84</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="I17" s="11">
         <v>41430</v>
@@ -3596,16 +3592,16 @@
     </row>
     <row r="18" spans="1:9" ht="39">
       <c r="A18" t="s">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="I18" s="11">
         <v>41430</v>
@@ -3613,16 +3609,16 @@
     </row>
     <row r="19" spans="1:9" ht="52">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>33</v>
+        <v>267</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="I19" s="11">
         <v>41430</v>
@@ -3630,16 +3626,16 @@
     </row>
     <row r="20" spans="1:9" ht="52">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>268</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>35</v>
+        <v>269</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="I20" s="11">
         <v>41430</v>
@@ -3650,16 +3646,16 @@
     </row>
     <row r="22" spans="1:9" ht="26">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>36</v>
+        <v>270</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>241</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="I22" s="11">
         <v>41431</v>
@@ -3667,16 +3663,16 @@
     </row>
     <row r="23" spans="1:9" ht="39">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>242</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="I23" s="11">
         <v>41431</v>
@@ -3687,16 +3683,16 @@
     </row>
     <row r="25" spans="1:9" ht="26">
       <c r="A25" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="I25" s="11">
         <v>41428</v>
@@ -3704,16 +3700,16 @@
     </row>
     <row r="26" spans="1:9" ht="26">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>273</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>40</v>
+        <v>274</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="I26" s="11">
         <v>41428</v>
@@ -3721,7 +3717,7 @@
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="9" t="s">
-        <v>266</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="2:2">
@@ -3729,38 +3725,38 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="9" t="s">
-        <v>267</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="26">
       <c r="B37" s="5" t="s">
-        <v>18</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="5" t="s">
-        <v>9</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="26">
       <c r="B39" s="5" t="s">
-        <v>16</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="9" t="s">
-        <v>268</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3773,7 +3769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -3791,31 +3787,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>241</v>
+        <v>24</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>242</v>
+        <v>25</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>243</v>
+        <v>26</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>245</v>
+        <v>28</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>246</v>
+        <v>29</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>247</v>
+        <v>30</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3839,7 +3835,7 @@
         <v>Birth before marriage</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3">
@@ -3854,10 +3850,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="23" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>57</v>
+        <v>199</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="14"/>
@@ -3868,10 +3864,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="23" t="s">
-        <v>41</v>
+        <v>275</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="14"/>
@@ -3882,10 +3878,10 @@
     </row>
     <row r="6" spans="1:9" ht="26">
       <c r="A6" s="23" t="s">
-        <v>46</v>
+        <v>280</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="14"/>
@@ -3906,13 +3902,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="26" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -3923,26 +3919,26 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>83</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>264</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3958,7 +3954,7 @@
         <v>Marriage before divorce</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -3970,40 +3966,40 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="23" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="23" t="s">
-        <v>28</v>
+        <v>262</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>43</v>
+        <v>277</v>
       </c>
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" ht="26">
       <c r="A16" s="23" t="s">
-        <v>47</v>
+        <v>281</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>44</v>
+        <v>278</v>
       </c>
       <c r="I16" s="11"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="26" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>221</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="E18">
         <v>20</v>
@@ -4014,26 +4010,26 @@
     </row>
     <row r="19" spans="1:9" ht="26">
       <c r="A19" t="s">
-        <v>195</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>265</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>230</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="26">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>231</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -4046,7 +4042,7 @@
         <v>Divorce before death</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="E23">
         <v>10</v>
@@ -4058,28 +4054,28 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="23" t="s">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>43</v>
+        <v>277</v>
       </c>
       <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="23" t="s">
-        <v>48</v>
+        <v>282</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9" ht="26">
       <c r="A26" s="23" t="s">
-        <v>49</v>
+        <v>283</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="I26" s="11"/>
     </row>
@@ -4098,7 +4094,7 @@
         <v>Parents not too old</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="E28">
         <v>20</v>
@@ -4110,46 +4106,46 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="23" t="s">
-        <v>66</v>
+        <v>208</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="23" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>53</v>
+        <v>195</v>
       </c>
       <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="23" t="s">
-        <v>68</v>
+        <v>210</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>54</v>
+        <v>196</v>
       </c>
       <c r="I31" s="11"/>
     </row>
     <row r="32" spans="1:9" ht="26">
       <c r="A32" s="23" t="s">
-        <v>69</v>
+        <v>211</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9" ht="26">
       <c r="A33" s="23" t="s">
-        <v>70</v>
+        <v>212</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>65</v>
+        <v>207</v>
       </c>
       <c r="I33" s="11"/>
     </row>
@@ -4159,7 +4155,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="9" t="s">
-        <v>266</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4168,18 +4164,18 @@
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="9" t="s">
-        <v>267</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="B41" s="9" t="s">
-        <v>268</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4200,34 +4196,35 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>241</v>
+        <v>24</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>242</v>
+        <v>25</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>243</v>
+        <v>26</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>245</v>
+        <v>28</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>246</v>
+        <v>29</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>247</v>
+        <v>30</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -4250,34 +4247,35 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>235</v>
+        <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>236</v>
+        <v>19</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>238</v>
+        <v>21</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>245</v>
+        <v>28</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>246</v>
+        <v>29</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>239</v>
+        <v>22</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>240</v>
+        <v>23</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -4300,34 +4298,35 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>235</v>
+        <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>236</v>
+        <v>19</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>238</v>
+        <v>21</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>245</v>
+        <v>28</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>246</v>
+        <v>29</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>239</v>
+        <v>22</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>240</v>
+        <v>23</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/TeamNick_Jeremy_AmieReport.xlsx
+++ b/TeamNick_Jeremy_AmieReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="-100" windowWidth="21360" windowHeight="14400" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="220" yWindow="220" windowWidth="21360" windowHeight="14400" tabRatio="500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="288">
+  <si>
+    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t>Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t>Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t>Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>complete</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>Accept and use dates without days or without days and months</t>
+  </si>
   <si>
     <t>All male members of a family should have the same last name</t>
   </si>
@@ -229,19 +268,34 @@
     <t>GitHub Repository:</t>
   </si>
   <si>
-    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t>Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t>Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t>Marriage should occur before death of either spouse</t>
+    <t>List recent survivors</t>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+  </si>
+  <si>
+    <t>Include input line numbers</t>
+  </si>
+  <si>
+    <t>List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>List large age differences</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+  </si>
+  <si>
+    <t>US01</t>
   </si>
   <si>
     <t>Divorce can only occur before death of both spouses</t>
@@ -368,16 +422,10 @@
     <t>List all people in a GEDCOM file who died in the last 30 days</t>
   </si>
   <si>
-    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>Accept and use dates without days or without days and months</t>
+    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
   </si>
   <si>
     <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
@@ -554,34 +602,22 @@
     <t>List recent deaths</t>
   </si>
   <si>
-    <t>List recent survivors</t>
-  </si>
-  <si>
-    <t>List upcoming birthdays</t>
-  </si>
-  <si>
-    <t>List upcoming anniversaries</t>
-  </si>
-  <si>
-    <t>Include input line numbers</t>
-  </si>
-  <si>
-    <t>List line numbers from GEDCOM source file when reporting errors</t>
-  </si>
-  <si>
-    <t>Include partial dates</t>
-  </si>
-  <si>
-    <t>Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t>List large age differences</t>
-  </si>
-  <si>
-    <t>Story ID</t>
-  </si>
-  <si>
-    <t>US01</t>
+    <t>Sort the family collections in order by their unique family identifiers</t>
+  </si>
+  <si>
+    <t>Print the individual collections using a table format, like Python PrettyTable (example in Project 3)</t>
+  </si>
+  <si>
+    <t>T05.04</t>
+  </si>
+  <si>
+    <t>Print the family collections using a table format, like Python PrettyTable (example in Project 3)</t>
+  </si>
+  <si>
+    <t>Update GitHub respository with new version of program</t>
+  </si>
+  <si>
+    <t>T06.01</t>
   </si>
   <si>
     <t>US02</t>
@@ -773,10 +809,43 @@
     <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
   </si>
   <si>
-    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
-    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+    <t>Use GitHub to update the respository with the new version of the program</t>
+  </si>
+  <si>
+    <t>T07.01</t>
+  </si>
+  <si>
+    <t>Create an invite for a team meeting for sprint planning</t>
+  </si>
+  <si>
+    <t>T02.02</t>
+  </si>
+  <si>
+    <t>Store marriage date</t>
+  </si>
+  <si>
+    <t>Store divorce date</t>
+  </si>
+  <si>
+    <t>Compare marriage and divorce date</t>
+  </si>
+  <si>
+    <t>Compare birth and marriage dates</t>
+  </si>
+  <si>
+    <t>T02.03</t>
+  </si>
+  <si>
+    <t>T04.03</t>
+  </si>
+  <si>
+    <t>T06.02</t>
+  </si>
+  <si>
+    <t>T06.03</t>
+  </si>
+  <si>
+    <t>Find death date</t>
   </si>
   <si>
     <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
@@ -895,63 +964,6 @@
   </si>
   <si>
     <t>Sort the individual collections in order by their unique identifiers</t>
-  </si>
-  <si>
-    <t>Sort the family collections in order by their unique family identifiers</t>
-  </si>
-  <si>
-    <t>Print the individual collections using a table format, like Python PrettyTable (example in Project 3)</t>
-  </si>
-  <si>
-    <t>T05.04</t>
-  </si>
-  <si>
-    <t>Print the family collections using a table format, like Python PrettyTable (example in Project 3)</t>
-  </si>
-  <si>
-    <t>Update GitHub respository with new version of program</t>
-  </si>
-  <si>
-    <t>T06.01</t>
-  </si>
-  <si>
-    <t>Use GitHub to update the respository with the new version of the program</t>
-  </si>
-  <si>
-    <t>T07.01</t>
-  </si>
-  <si>
-    <t>Create an invite for a team meeting for sprint planning</t>
-  </si>
-  <si>
-    <t>T02.02</t>
-  </si>
-  <si>
-    <t>Store marriage date</t>
-  </si>
-  <si>
-    <t>Store divorce date</t>
-  </si>
-  <si>
-    <t>Compare marriage and divorce date</t>
-  </si>
-  <si>
-    <t>Compare birth and marriage dates</t>
-  </si>
-  <si>
-    <t>T02.03</t>
-  </si>
-  <si>
-    <t>T04.03</t>
-  </si>
-  <si>
-    <t>T06.02</t>
-  </si>
-  <si>
-    <t>T06.03</t>
-  </si>
-  <si>
-    <t>Find death date</t>
   </si>
 </sst>
 </file>
@@ -1189,25 +1201,25 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="510328392"/>
-        <c:axId val="510328744"/>
+        <c:axId val="509839112"/>
+        <c:axId val="509842264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="510328392"/>
+        <c:axId val="509839112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="510328744"/>
+        <c:crossAx val="509842264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="510328744"/>
+        <c:axId val="509842264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1215,7 +1227,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="510328392"/>
+        <c:crossAx val="509839112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1281,25 +1293,25 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="507106280"/>
-        <c:axId val="507096376"/>
+        <c:axId val="509850360"/>
+        <c:axId val="509847896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507106280"/>
+        <c:axId val="509850360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="507096376"/>
+        <c:crossAx val="509847896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507096376"/>
+        <c:axId val="509847896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1307,7 +1319,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="507106280"/>
+        <c:crossAx val="509850360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2081,78 +2093,78 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="D9" s="8" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2188,475 +2200,475 @@
   <sheetData>
     <row r="1" spans="1:3" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="21" customFormat="1" ht="15.75">
       <c r="A3" s="21" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="21" customFormat="1" ht="15.75">
       <c r="A4" s="21" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A5" s="21" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="21" customFormat="1" ht="15">
       <c r="A6" s="21" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="21" customFormat="1" ht="15">
       <c r="A7" s="21" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>231</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A13" s="21" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="45">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>232</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="21" customFormat="1" ht="15">
       <c r="A15" s="21" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="21" customFormat="1" ht="15">
       <c r="A17" s="21" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75">
       <c r="A18" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75">
       <c r="A19" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75">
       <c r="A20" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30">
       <c r="A22" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A23" s="21" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30">
       <c r="A24" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A25" s="21" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A26" s="21" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="21" customFormat="1">
       <c r="A27" s="21" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A29" s="21" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="21" customFormat="1" ht="15.75">
       <c r="A31" s="24" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="21" customFormat="1" ht="15.75">
       <c r="A33" s="21" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A34" s="21" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A35" s="21" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A36" s="24" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="21" customFormat="1" ht="15">
       <c r="A37" s="21" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A38" s="21" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A39" s="21" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A40" s="21" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A41" s="21" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="21" customFormat="1" ht="30">
       <c r="A43" s="21" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2690,19 +2702,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1"/>
@@ -2719,7 +2731,7 @@
         <v>Birth before marriage</v>
       </c>
       <c r="D3" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2727,13 +2739,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2749,7 +2761,7 @@
         <v>Marriage before divorce</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2757,13 +2769,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2779,7 +2791,7 @@
         <v>Divorce before death</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2795,7 +2807,7 @@
         <v>Parents not too old</v>
       </c>
       <c r="D8" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3033,7 +3045,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -3064,60 +3075,60 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="11" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="11" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="11" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="11" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="11" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="8" customFormat="1">
       <c r="A14" s="8" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="B15" s="17">
         <v>41426</v>
@@ -3133,7 +3144,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B16" s="17">
         <v>41438</v>
@@ -3158,7 +3169,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="11" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B17" s="17">
         <v>41452</v>
@@ -3183,7 +3194,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="11" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="B18" s="17">
         <v>41466</v>
@@ -3208,7 +3219,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="11" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B19" s="17">
         <v>41487</v>
@@ -3263,22 +3274,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3317,11 +3328,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -3356,54 +3366,54 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="G2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="I2" s="11">
         <v>41426</v>
@@ -3411,27 +3421,27 @@
     </row>
     <row r="3" spans="1:9" ht="26">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="26">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="I5" s="11">
         <v>41426</v>
@@ -3439,16 +3449,16 @@
     </row>
     <row r="6" spans="1:9" ht="26">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="I6" s="11">
         <v>41426</v>
@@ -3456,13 +3466,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="D8" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="I8" s="11">
         <v>41426</v>
@@ -3470,16 +3480,16 @@
     </row>
     <row r="9" spans="1:9" ht="26">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="C9" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="D9" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="I9" s="11">
         <v>41426</v>
@@ -3487,16 +3497,16 @@
     </row>
     <row r="10" spans="1:9" ht="52">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D10" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="I10" s="11">
         <v>41426</v>
@@ -3504,16 +3514,16 @@
     </row>
     <row r="12" spans="1:9" ht="26">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="I12" s="11">
         <v>41429</v>
@@ -3521,16 +3531,16 @@
     </row>
     <row r="13" spans="1:9" ht="52">
       <c r="A13" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="C13" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="I13" s="11">
         <v>41429</v>
@@ -3538,16 +3548,16 @@
     </row>
     <row r="14" spans="1:9" ht="52">
       <c r="A14" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="C14" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="I14" s="11">
         <v>41429</v>
@@ -3558,16 +3568,16 @@
     </row>
     <row r="16" spans="1:9" ht="26">
       <c r="A16" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="C16" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="I16" s="11">
         <v>41430</v>
@@ -3575,16 +3585,16 @@
     </row>
     <row r="17" spans="1:9" ht="39">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="C17" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="I17" s="11">
         <v>41430</v>
@@ -3592,16 +3602,16 @@
     </row>
     <row r="18" spans="1:9" ht="39">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c r="C18" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="I18" s="11">
         <v>41430</v>
@@ -3609,16 +3619,16 @@
     </row>
     <row r="19" spans="1:9" ht="52">
       <c r="A19" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>267</v>
+        <v>176</v>
       </c>
       <c r="C19" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="I19" s="11">
         <v>41430</v>
@@ -3626,16 +3636,16 @@
     </row>
     <row r="20" spans="1:9" ht="52">
       <c r="A20" t="s">
-        <v>268</v>
+        <v>177</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>269</v>
+        <v>178</v>
       </c>
       <c r="C20" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="I20" s="11">
         <v>41430</v>
@@ -3646,16 +3656,16 @@
     </row>
     <row r="22" spans="1:9" ht="26">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>270</v>
+        <v>179</v>
       </c>
       <c r="C22" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="I22" s="11">
         <v>41431</v>
@@ -3663,16 +3673,16 @@
     </row>
     <row r="23" spans="1:9" ht="39">
       <c r="A23" t="s">
-        <v>271</v>
+        <v>180</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="C23" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="I23" s="11">
         <v>41431</v>
@@ -3683,16 +3693,16 @@
     </row>
     <row r="25" spans="1:9" ht="26">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="I25" s="11">
         <v>41428</v>
@@ -3700,16 +3710,16 @@
     </row>
     <row r="26" spans="1:9" ht="26">
       <c r="A26" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="C26" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="I26" s="11">
         <v>41428</v>
@@ -3717,7 +3727,7 @@
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="9" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="2:2">
@@ -3725,32 +3735,32 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="9" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="5" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="26">
       <c r="B37" s="5" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="5" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="26">
       <c r="B39" s="5" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="9" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3769,8 +3779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
@@ -3787,31 +3797,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3835,25 +3845,33 @@
         <v>Birth before marriage</v>
       </c>
       <c r="C3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D3" s="28"/>
+        <v>269</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>7</v>
+      </c>
       <c r="E3">
         <v>20</v>
       </c>
       <c r="F3">
         <v>40</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="30"/>
+      <c r="G3" s="29">
+        <v>31</v>
+      </c>
+      <c r="H3" s="29">
+        <v>60</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="23" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="14"/>
@@ -3864,10 +3882,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="23" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="14"/>
@@ -3878,10 +3896,10 @@
     </row>
     <row r="6" spans="1:9" ht="26">
       <c r="A6" s="23" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="14"/>
@@ -3902,13 +3920,16 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="26" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>247</v>
+        <v>269</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -3916,33 +3937,45 @@
       <c r="F8">
         <v>20</v>
       </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>46</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>47</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="I12" s="11"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="26" t="str">
@@ -3954,7 +3987,7 @@
         <v>Marriage before divorce</v>
       </c>
       <c r="C13" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -3962,44 +3995,47 @@
       <c r="F13">
         <v>40</v>
       </c>
-      <c r="I13" s="11"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="23" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="I14" s="11"/>
+        <v>246</v>
+      </c>
+      <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="23" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="I15" s="11"/>
+        <v>247</v>
+      </c>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:9" ht="26">
       <c r="A16" s="23" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="I16" s="11"/>
+        <v>248</v>
+      </c>
+      <c r="I16" s="30"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="I17" s="30"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="26" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C18" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E18">
         <v>20</v>
@@ -4007,30 +4043,37 @@
       <c r="F18">
         <v>40</v>
       </c>
+      <c r="I18" s="30"/>
     </row>
     <row r="19" spans="1:9" ht="26">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I20" s="30"/>
     </row>
     <row r="21" spans="1:9" ht="26">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="I22" s="30"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="26" t="str">
@@ -4042,7 +4085,7 @@
         <v>Divorce before death</v>
       </c>
       <c r="C23" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E23">
         <v>10</v>
@@ -4050,39 +4093,39 @@
       <c r="F23">
         <v>20</v>
       </c>
-      <c r="I23" s="11"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="23" t="s">
-        <v>271</v>
+        <v>180</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="I24" s="11"/>
+        <v>247</v>
+      </c>
+      <c r="I24" s="30"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="23" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="I25" s="11"/>
+        <v>254</v>
+      </c>
+      <c r="I25" s="30"/>
     </row>
     <row r="26" spans="1:9" ht="26">
       <c r="A26" s="23" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="I26" s="11"/>
+        <v>204</v>
+      </c>
+      <c r="I26" s="30"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="23"/>
       <c r="B27" s="25"/>
-      <c r="I27" s="11"/>
+      <c r="I27" s="30"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="26" t="str">
@@ -4094,7 +4137,7 @@
         <v>Parents not too old</v>
       </c>
       <c r="C28" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E28">
         <v>20</v>
@@ -4102,50 +4145,50 @@
       <c r="F28">
         <v>40</v>
       </c>
-      <c r="I28" s="11"/>
+      <c r="I28" s="30"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="23" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="I29" s="11"/>
+        <v>205</v>
+      </c>
+      <c r="I29" s="30"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="23" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="I30" s="11"/>
+        <v>206</v>
+      </c>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="23" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="I31" s="11"/>
+        <v>207</v>
+      </c>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="1:9" ht="26">
       <c r="A32" s="23" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9" ht="26">
       <c r="A33" s="23" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="I33" s="11"/>
     </row>
@@ -4155,7 +4198,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="9" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4164,12 +4207,12 @@
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="9" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="B41" s="9" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4196,31 +4239,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4247,31 +4290,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4298,31 +4341,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/TeamNick_Jeremy_AmieReport.xlsx
+++ b/TeamNick_Jeremy_AmieReport.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="220" windowWidth="21360" windowHeight="14400" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="225" yWindow="225" windowWidth="21360" windowHeight="14400" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Stories" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="290">
   <si>
     <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
   </si>
@@ -964,17 +964,23 @@
   </si>
   <si>
     <t>Sort the individual collections in order by their unique identifiers</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>complete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1027,6 +1033,11 @@
       <color indexed="48"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1062,7 +1073,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1114,6 +1125,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1137,12 +1152,22 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1150,22 +1175,22 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41426.0</c:v>
+                  <c:v>41426</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41438.0</c:v>
+                  <c:v>41438</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41452.0</c:v>
+                  <c:v>41452</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41466.0</c:v>
+                  <c:v>41466</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41487.0</c:v>
+                  <c:v>41487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1177,67 +1202,84 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D8B4-4A59-B4A6-22A62B3A8A42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="509839112"/>
-        <c:axId val="509842264"/>
+        <c:smooth val="0"/>
+        <c:axId val="42255872"/>
+        <c:axId val="42257408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="509839112"/>
+        <c:axId val="42255872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="509842264"/>
+        <c:crossAx val="42257408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="509842264"/>
+        <c:axId val="42257408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="509839112"/>
+        <c:crossAx val="42255872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1247,12 +1289,22 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1263,10 +1315,10 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41431.0</c:v>
+                  <c:v>41431</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41438.0</c:v>
+                  <c:v>41438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1278,58 +1330,75 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A765-4833-A692-C31CA7692FD8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="509850360"/>
-        <c:axId val="509847896"/>
+        <c:smooth val="0"/>
+        <c:axId val="113416448"/>
+        <c:axId val="110755840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="509850360"/>
+        <c:axId val="113416448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="509847896"/>
+        <c:crossAx val="110755840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="509847896"/>
+        <c:axId val="110755840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="509850360"/>
+        <c:crossAx val="113416448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1355,7 +1424,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1393,7 +1462,7 @@
         <xdr:cNvPr id="4" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1458,7 +1527,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1527,7 +1596,7 @@
         <xdr:cNvPr id="6" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1597,7 +1666,7 @@
         <xdr:cNvPr id="7" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1666,7 +1735,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1736,7 +1805,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,22 +2145,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="5" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="3" max="3" width="8.375" customWidth="1"/>
+    <col min="4" max="5" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1">
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
@@ -2108,7 +2177,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>212</v>
       </c>
@@ -2125,7 +2194,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -2142,7 +2211,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>211</v>
       </c>
@@ -2159,7 +2228,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="8" t="s">
         <v>65</v>
       </c>
@@ -2185,20 +2254,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="8" customFormat="1">
+    <row r="1" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>74</v>
       </c>
@@ -2209,7 +2278,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30">
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -2220,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="21" customFormat="1" ht="15.75">
+    <row r="3" spans="1:3" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>181</v>
       </c>
@@ -2231,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="21" customFormat="1" ht="15.75">
+    <row r="4" spans="1:3" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>182</v>
       </c>
@@ -2242,7 +2311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="21" customFormat="1" ht="30">
+    <row r="5" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>183</v>
       </c>
@@ -2253,7 +2322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="21" customFormat="1" ht="15">
+    <row r="6" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>184</v>
       </c>
@@ -2264,7 +2333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="21" customFormat="1" ht="15">
+    <row r="7" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>185</v>
       </c>
@@ -2275,7 +2344,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45">
+    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>186</v>
       </c>
@@ -2286,7 +2355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30">
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>187</v>
       </c>
@@ -2297,7 +2366,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>188</v>
       </c>
@@ -2308,7 +2377,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30">
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>189</v>
       </c>
@@ -2319,7 +2388,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>190</v>
       </c>
@@ -2330,7 +2399,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="21" customFormat="1" ht="30">
+    <row r="13" spans="1:3" s="21" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>191</v>
       </c>
@@ -2341,7 +2410,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45">
+    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>192</v>
       </c>
@@ -2352,7 +2421,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="21" customFormat="1" ht="15">
+    <row r="15" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>193</v>
       </c>
@@ -2363,7 +2432,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>194</v>
       </c>
@@ -2374,7 +2443,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="21" customFormat="1" ht="15">
+    <row r="17" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>195</v>
       </c>
@@ -2385,7 +2454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>196</v>
       </c>
@@ -2396,7 +2465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>197</v>
       </c>
@@ -2407,7 +2476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>198</v>
       </c>
@@ -2418,7 +2487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15">
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>199</v>
       </c>
@@ -2429,7 +2498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30">
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>200</v>
       </c>
@@ -2440,7 +2509,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="21" customFormat="1" ht="30">
+    <row r="23" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
         <v>201</v>
       </c>
@@ -2451,7 +2520,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30">
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>202</v>
       </c>
@@ -2462,7 +2531,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="21" customFormat="1" ht="30">
+    <row r="25" spans="1:3" s="21" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
         <v>203</v>
       </c>
@@ -2473,7 +2542,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="21" customFormat="1" ht="30">
+    <row r="26" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
         <v>80</v>
       </c>
@@ -2484,7 +2553,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="21" customFormat="1">
+    <row r="27" spans="1:3" s="21" customFormat="1" ht="126" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
         <v>81</v>
       </c>
@@ -2495,7 +2564,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -2506,7 +2575,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="21" customFormat="1" ht="30">
+    <row r="29" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
         <v>83</v>
       </c>
@@ -2517,7 +2586,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -2528,7 +2597,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="21" customFormat="1" ht="15.75">
+    <row r="31" spans="1:3" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
         <v>85</v>
       </c>
@@ -2539,7 +2608,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30">
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -2550,7 +2619,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="21" customFormat="1" ht="15.75">
+    <row r="33" spans="1:3" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
         <v>87</v>
       </c>
@@ -2561,7 +2630,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="21" customFormat="1" ht="30">
+    <row r="34" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
         <v>88</v>
       </c>
@@ -2572,7 +2641,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="21" customFormat="1" ht="30">
+    <row r="35" spans="1:3" s="21" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
         <v>89</v>
       </c>
@@ -2583,7 +2652,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="21" customFormat="1" ht="30">
+    <row r="36" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
         <v>90</v>
       </c>
@@ -2594,7 +2663,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="21" customFormat="1" ht="15">
+    <row r="37" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
         <v>91</v>
       </c>
@@ -2605,7 +2674,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="21" customFormat="1" ht="30">
+    <row r="38" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
         <v>92</v>
       </c>
@@ -2616,7 +2685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="21" customFormat="1" ht="30">
+    <row r="39" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
         <v>93</v>
       </c>
@@ -2627,7 +2696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="21" customFormat="1" ht="30">
+    <row r="40" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
         <v>94</v>
       </c>
@@ -2638,7 +2707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="21" customFormat="1" ht="30">
+    <row r="41" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
         <v>95</v>
       </c>
@@ -2649,7 +2718,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15">
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -2660,7 +2729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="21" customFormat="1" ht="30">
+    <row r="43" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
         <v>97</v>
       </c>
@@ -2672,7 +2741,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -2684,23 +2752,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1">
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>56</v>
       </c>
@@ -2717,8 +2785,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1"/>
-    <row r="3" spans="1:5" s="8" customFormat="1">
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23">
         <v>1</v>
       </c>
@@ -2733,8 +2801,11 @@
       <c r="D3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="32" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2747,8 +2818,11 @@
       <c r="D4" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2764,7 +2838,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2778,7 +2852,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2793,8 +2867,11 @@
       <c r="D7" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2809,8 +2886,11 @@
       <c r="D8" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2823,7 +2903,7 @@
         <v>Multiple births &lt;= 5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2836,7 +2916,7 @@
         <v>Male last names</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2849,7 +2929,7 @@
         <v>Unique IDs</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2862,7 +2942,7 @@
         <v>Unique families by spouses</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2875,7 +2955,7 @@
         <v>Unique first names in families</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2888,7 +2968,7 @@
         <v>Corresponding entries</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2901,7 +2981,7 @@
         <v>Order siblings by age</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2914,7 +2994,7 @@
         <v>List living married</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2927,7 +3007,7 @@
         <v>List multiple births</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2940,7 +3020,7 @@
         <v>List orphans</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2953,7 +3033,7 @@
         <v>List large age differences</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2966,7 +3046,7 @@
         <v>List recent births</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4</v>
       </c>
@@ -2979,7 +3059,7 @@
         <v>List recent deaths</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -2992,7 +3072,7 @@
         <v>List recent survivors</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
@@ -3005,7 +3085,7 @@
         <v>List upcoming birthdays</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -3018,7 +3098,7 @@
         <v>List upcoming anniversaries</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
@@ -3031,7 +3111,7 @@
         <v>Include input line numbers</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -3047,6 +3127,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3056,54 +3137,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="11"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="8" customFormat="1">
+    <row r="14" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>231</v>
       </c>
@@ -3126,7 +3207,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>232</v>
       </c>
@@ -3142,7 +3223,7 @@
       <c r="F15" s="18"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>233</v>
       </c>
@@ -3167,7 +3248,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>234</v>
       </c>
@@ -3192,7 +3273,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>235</v>
       </c>
@@ -3217,7 +3298,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>236</v>
       </c>
@@ -3255,24 +3336,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="6"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1">
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
@@ -3292,7 +3373,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>41431</v>
       </c>
@@ -3304,7 +3385,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>41438</v>
       </c>
@@ -3326,7 +3407,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>257</v>
       </c>
@@ -3344,27 +3425,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>138</v>
       </c>
@@ -3393,7 +3474,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -3419,7 +3500,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="26">
+    <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -3433,7 +3514,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="26">
+    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>181</v>
       </c>
@@ -3447,7 +3528,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="26">
+    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>277</v>
       </c>
@@ -3464,7 +3545,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>182</v>
       </c>
@@ -3478,7 +3559,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="26">
+    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>98</v>
       </c>
@@ -3495,7 +3576,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="52">
+    <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -3512,7 +3593,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="26">
+    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>183</v>
       </c>
@@ -3529,7 +3610,7 @@
         <v>41429</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52">
+    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>282</v>
       </c>
@@ -3546,7 +3627,7 @@
         <v>41429</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52">
+    <row r="14" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>284</v>
       </c>
@@ -3563,10 +3644,10 @@
         <v>41429</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="26">
+    <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>184</v>
       </c>
@@ -3583,7 +3664,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="39">
+    <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -3600,7 +3681,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="39">
+    <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -3617,7 +3698,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="52">
+    <row r="19" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>214</v>
       </c>
@@ -3634,7 +3715,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="52">
+    <row r="20" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -3651,10 +3732,10 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="26">
+    <row r="22" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>185</v>
       </c>
@@ -3671,7 +3752,7 @@
         <v>41431</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="39">
+    <row r="23" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>180</v>
       </c>
@@ -3688,10 +3769,10 @@
         <v>41431</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="26">
+    <row r="25" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>186</v>
       </c>
@@ -3708,7 +3789,7 @@
         <v>41428</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="26">
+    <row r="26" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>243</v>
       </c>
@@ -3725,46 +3806,45 @@
         <v>41428</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="9"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="26">
+    <row r="37" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="26">
+    <row r="39" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="9" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3776,26 +3856,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="24.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>36</v>
       </c>
@@ -3824,7 +3904,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="8"/>
@@ -3835,7 +3915,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="str">
         <f>Backlog!B3</f>
         <v>US02</v>
@@ -3866,7 +3946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>277</v>
       </c>
@@ -3880,7 +3960,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>245</v>
       </c>
@@ -3894,7 +3974,7 @@
       <c r="H5" s="14"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="26">
+    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>250</v>
       </c>
@@ -3908,7 +3988,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="23"/>
       <c r="B7" s="25"/>
       <c r="D7" s="8"/>
@@ -3918,7 +3998,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>182</v>
       </c>
@@ -3947,7 +4027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>98</v>
       </c>
@@ -3956,7 +4036,7 @@
       </c>
       <c r="I9" s="30"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -3965,7 +4045,7 @@
       </c>
       <c r="I10" s="30"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -3974,10 +4054,10 @@
       </c>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="str">
         <f>Backlog!B5</f>
         <v>US04</v>
@@ -3997,7 +4077,7 @@
       </c>
       <c r="I13" s="30"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>282</v>
       </c>
@@ -4006,7 +4086,7 @@
       </c>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>284</v>
       </c>
@@ -4015,7 +4095,7 @@
       </c>
       <c r="I15" s="30"/>
     </row>
-    <row r="16" spans="1:9" ht="26">
+    <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>251</v>
       </c>
@@ -4024,10 +4104,10 @@
       </c>
       <c r="I16" s="30"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I17" s="30"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>184</v>
       </c>
@@ -4045,7 +4125,7 @@
       </c>
       <c r="I18" s="30"/>
     </row>
-    <row r="19" spans="1:9" ht="26">
+    <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -4054,7 +4134,7 @@
       </c>
       <c r="I19" s="30"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>102</v>
       </c>
@@ -4063,7 +4143,7 @@
       </c>
       <c r="I20" s="30"/>
     </row>
-    <row r="21" spans="1:9" ht="26">
+    <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>214</v>
       </c>
@@ -4072,10 +4152,10 @@
       </c>
       <c r="I21" s="30"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I22" s="30"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="str">
         <f>Backlog!B7</f>
         <v>US06</v>
@@ -4087,15 +4167,26 @@
       <c r="C23" t="s">
         <v>213</v>
       </c>
+      <c r="D23" t="s">
+        <v>289</v>
+      </c>
       <c r="E23">
         <v>10</v>
       </c>
       <c r="F23">
         <v>20</v>
       </c>
-      <c r="I23" s="30"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="G23">
+        <v>20</v>
+      </c>
+      <c r="H23">
+        <v>30</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>180</v>
       </c>
@@ -4104,7 +4195,7 @@
       </c>
       <c r="I24" s="30"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
         <v>252</v>
       </c>
@@ -4113,7 +4204,7 @@
       </c>
       <c r="I25" s="30"/>
     </row>
-    <row r="26" spans="1:9" ht="26">
+    <row r="26" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>253</v>
       </c>
@@ -4122,12 +4213,12 @@
       </c>
       <c r="I26" s="30"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
       <c r="B27" s="25"/>
       <c r="I27" s="30"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="str">
         <f>Backlog!B8</f>
         <v>US12</v>
@@ -4139,15 +4230,26 @@
       <c r="C28" t="s">
         <v>213</v>
       </c>
+      <c r="D28" t="s">
+        <v>289</v>
+      </c>
       <c r="E28">
         <v>20</v>
       </c>
       <c r="F28">
         <v>40</v>
       </c>
-      <c r="I28" s="30"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="G28">
+        <v>30</v>
+      </c>
+      <c r="H28">
+        <v>30</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>219</v>
       </c>
@@ -4156,7 +4258,7 @@
       </c>
       <c r="I29" s="30"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
         <v>220</v>
       </c>
@@ -4165,7 +4267,7 @@
       </c>
       <c r="I30" s="30"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
         <v>221</v>
       </c>
@@ -4174,7 +4276,7 @@
       </c>
       <c r="I31" s="30"/>
     </row>
-    <row r="32" spans="1:9" ht="26">
+    <row r="32" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>222</v>
       </c>
@@ -4183,7 +4285,7 @@
       </c>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:9" ht="26">
+    <row r="33" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
         <v>223</v>
       </c>
@@ -4192,31 +4294,30 @@
       </c>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="25"/>
       <c r="I34" s="11"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B35" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B36" s="9"/>
       <c r="I36" s="11"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B37" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B41" s="9" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -4228,16 +4329,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>36</v>
       </c>
@@ -4267,7 +4368,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -4279,16 +4379,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>30</v>
       </c>
@@ -4318,7 +4418,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -4330,16 +4429,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>30</v>
       </c>
@@ -4369,7 +4468,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/TeamNick_Jeremy_AmieReport.xlsx
+++ b/TeamNick_Jeremy_AmieReport.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alwider\Desktop\GitHub\AgileMethods\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="225" yWindow="225" windowWidth="21360" windowHeight="14400" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="225" yWindow="225" windowWidth="21360" windowHeight="14400" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Stories" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="290">
   <si>
     <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
   </si>
@@ -975,7 +980,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1149,7 +1154,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1220,7 +1225,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D8B4-4A59-B4A6-22A62B3A8A42}"/>
             </c:ext>
@@ -1286,7 +1291,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1339,7 +1344,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A765-4833-A692-C31CA7692FD8}"/>
             </c:ext>
@@ -1424,7 +1429,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1462,7 +1467,7 @@
         <xdr:cNvPr id="4" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1527,7 +1532,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1596,7 +1601,7 @@
         <xdr:cNvPr id="6" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1651,22 +1656,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>20320</xdr:colOff>
+      <xdr:colOff>20321</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>16933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1100666</xdr:colOff>
+      <xdr:colOff>908051</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>101599</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1674,8 +1679,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4930987" y="1371600"/>
-          <a:ext cx="1080346" cy="761999"/>
+          <a:off x="4363721" y="1337733"/>
+          <a:ext cx="887730" cy="687917"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1735,7 +1740,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1805,7 +1810,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2258,7 +2263,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2322,7 +2327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>184</v>
       </c>
@@ -2333,7 +2338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>185</v>
       </c>
@@ -2755,8 +2760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2837,6 +2842,9 @@
       <c r="D5" t="s">
         <v>211</v>
       </c>
+      <c r="E5" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -2850,6 +2858,9 @@
       </c>
       <c r="D6" t="s">
         <v>211</v>
+      </c>
+      <c r="E6" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3140,8 +3151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3238,14 +3249,14 @@
         <v>6</v>
       </c>
       <c r="E16" s="18">
-        <v>250</v>
+        <v>61</v>
       </c>
       <c r="F16" s="18">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G16" s="13">
         <f>(E16-E15)/F16*60</f>
-        <v>125.00000000000001</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -3270,7 +3281,7 @@
       </c>
       <c r="G17" s="13">
         <f t="shared" ref="G17:G19" si="1">(E17-E16)/F17*60</f>
-        <v>102.22222222222223</v>
+        <v>186.22222222222223</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -3859,8 +3870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4069,13 +4080,24 @@
       <c r="C13" t="s">
         <v>211</v>
       </c>
+      <c r="D13" t="s">
+        <v>289</v>
+      </c>
       <c r="E13">
         <v>20</v>
       </c>
       <c r="F13">
         <v>40</v>
       </c>
-      <c r="I13" s="30"/>
+      <c r="G13">
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
@@ -4117,13 +4139,24 @@
       <c r="C18" t="s">
         <v>211</v>
       </c>
+      <c r="D18" t="s">
+        <v>289</v>
+      </c>
       <c r="E18">
         <v>20</v>
       </c>
       <c r="F18">
         <v>40</v>
       </c>
-      <c r="I18" s="30"/>
+      <c r="G18">
+        <v>41</v>
+      </c>
+      <c r="H18">
+        <v>30</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">

--- a/TeamNick_Jeremy_AmieReport.xlsx
+++ b/TeamNick_Jeremy_AmieReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="225" yWindow="225" windowWidth="21360" windowHeight="14400" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="225" yWindow="225" windowWidth="21360" windowHeight="14400" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -3151,8 +3151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3351,7 +3351,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3408,14 +3408,14 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>250</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="F3" s="13">
         <f>(D3-D2)/E3*60</f>
-        <v>125.00000000000001</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -3440,7 +3440,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3870,8 +3870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4090,7 +4090,7 @@
         <v>40</v>
       </c>
       <c r="G13">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H13">
         <v>20</v>
@@ -4149,7 +4149,7 @@
         <v>40</v>
       </c>
       <c r="G18">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H18">
         <v>30</v>

--- a/TeamNick_Jeremy_AmieReport.xlsx
+++ b/TeamNick_Jeremy_AmieReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="225" yWindow="225" windowWidth="21360" windowHeight="14400" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="225" yWindow="225" windowWidth="21360" windowHeight="14400" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="308">
   <si>
     <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
   </si>
@@ -975,6 +975,60 @@
   </si>
   <si>
     <t>complete</t>
+  </si>
+  <si>
+    <t>Not started</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>T14.01</t>
+  </si>
+  <si>
+    <t>T14.02</t>
+  </si>
+  <si>
+    <t>store children with the same birth date in a collection</t>
+  </si>
+  <si>
+    <t>Collect size, throw error if &gt; 5</t>
+  </si>
+  <si>
+    <t>T14.03</t>
+  </si>
+  <si>
+    <t>Create Unit Test to test</t>
+  </si>
+  <si>
+    <t>T16.01</t>
+  </si>
+  <si>
+    <t>T16.02</t>
+  </si>
+  <si>
+    <t>T16.03</t>
+  </si>
+  <si>
+    <t>Save the fathers last name</t>
+  </si>
+  <si>
+    <t>Compare all males in the family have the same last name</t>
+  </si>
+  <si>
+    <t>From ALW: I was too liberal with my estimated time. The time spent took longer than I initially documented. I need to be more conserative with my time spent</t>
+  </si>
+  <si>
+    <t>From ALW: Adding unit testing into the tasks list. This was additional work that wasn't created initially</t>
+  </si>
+  <si>
+    <t>From ALW: GitHub is working great</t>
+  </si>
+  <si>
+    <t>From ALW: Communication between the team members, appears to be working as far as I'm concerned</t>
+  </si>
+  <si>
+    <t>From ALW: Programming wise, needed to break my US into separate functions, so unit testing could be easier</t>
   </si>
 </sst>
 </file>
@@ -985,7 +1039,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1043,6 +1097,12 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1078,7 +1138,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1134,6 +1194,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2262,7 +2329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2761,16 +2828,16 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2913,6 +2980,12 @@
         <f>Stories!B15</f>
         <v>Multiple births &lt;= 5</v>
       </c>
+      <c r="D10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -2925,6 +2998,12 @@
       <c r="C11" t="str">
         <f>Stories!B17</f>
         <v>Male last names</v>
+      </c>
+      <c r="D11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3868,10 +3947,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A35" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4032,7 +4111,7 @@
         <v>14</v>
       </c>
       <c r="H8">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I8" s="30" t="s">
         <v>6</v>
@@ -4345,9 +4424,34 @@
         <v>62</v>
       </c>
     </row>
+    <row r="38" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B38" s="35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B39" s="35" t="s">
+        <v>306</v>
+      </c>
+    </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B41" s="9" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="B42" s="35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="B43" s="35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B44" s="35" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -4363,13 +4467,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
@@ -4400,9 +4507,104 @@
         <v>44</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" t="str">
+        <f>Backlog!$C$10</f>
+        <v>Multiple births &lt;= 5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E2">
+        <v>60</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="32"/>
+      <c r="B6" s="34"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" t="str">
+        <f>Backlog!$C$11</f>
+        <v>Male last names</v>
+      </c>
+      <c r="C7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>297</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/TeamNick_Jeremy_AmieReport.xlsx
+++ b/TeamNick_Jeremy_AmieReport.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Team" sheetId="1" r:id="rId4"/>
-    <sheet name="Backlog" sheetId="2" r:id="rId5"/>
-    <sheet name="Burndown README" sheetId="3" r:id="rId6"/>
-    <sheet name="Burndown" sheetId="4" r:id="rId7"/>
-    <sheet name="Project 3" sheetId="5" r:id="rId8"/>
-    <sheet name="Sprint1" sheetId="6" r:id="rId9"/>
-    <sheet name="Sprint2" sheetId="7" r:id="rId10"/>
-    <sheet name="Sprint3" sheetId="8" r:id="rId11"/>
-    <sheet name="Sprint4" sheetId="9" r:id="rId12"/>
-    <sheet name="Stories" sheetId="10" r:id="rId13"/>
+    <sheet name="Team" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Burndown README" sheetId="3" r:id="rId3"/>
+    <sheet name="Burndown" sheetId="4" r:id="rId4"/>
+    <sheet name="Project 3" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint1" sheetId="6" r:id="rId6"/>
+    <sheet name="Sprint2" sheetId="7" r:id="rId7"/>
+    <sheet name="Sprint3" sheetId="8" r:id="rId8"/>
+    <sheet name="Sprint4" sheetId="9" r:id="rId9"/>
+    <sheet name="Stories" sheetId="10" r:id="rId10"/>
   </sheets>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="292">
   <si>
     <t>Initials</t>
   </si>
@@ -49,7 +51,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Verdana"/>
@@ -264,7 +266,6 @@
   <si>
     <t>Reject illegitimate dates</t>
   </si>
-  <si/>
   <si>
     <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
   </si>
@@ -858,59 +859,81 @@
   </si>
   <si>
     <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+  </si>
+  <si>
+    <t>From JRD: Not using docstrings. We should attempt to keep more consistent documentation in the future.</t>
+  </si>
+  <si>
+    <t>From JRD: Keep questioning if what we are doing is reasonale so that we keep ourselves on track.</t>
+  </si>
+  <si>
+    <t>UniqueFirst Names in Families</t>
+  </si>
+  <si>
+    <t>Corresponding Entries</t>
+  </si>
+  <si>
+    <t>Store all individual identifiers in a given family</t>
+  </si>
+  <si>
+    <t>Make sure they all appear in the individuals table</t>
+  </si>
+  <si>
+    <t>T26.04</t>
+  </si>
+  <si>
+    <t>T26.03</t>
+  </si>
+  <si>
+    <t>T26.02</t>
+  </si>
+  <si>
+    <t>T26.01</t>
+  </si>
+  <si>
+    <t>Store all family identifiers from a given individual</t>
+  </si>
+  <si>
+    <t>Make sure they all appear in the families table</t>
+  </si>
+  <si>
+    <t>Store children from a given family</t>
+  </si>
+  <si>
+    <t>Make sure none share a first name and birthday</t>
+  </si>
+  <si>
+    <t>T25.02</t>
+  </si>
+  <si>
+    <t>T25.01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="0.0"/>
-    <numFmt numFmtId="60" formatCode="m/d"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="m/d"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="10"/>
@@ -926,6 +949,19 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Cambria"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1109,200 +1145,116 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="69">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="63">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="8" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1311,32 +1263,86 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff878787"/>
-      <rgbColor rgb="ff4a7dbb"/>
-      <rgbColor rgb="ffd6e3bc"/>
-      <rgbColor rgb="ff3366ff"/>
-      <rgbColor rgb="ffc2d69b"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF878787"/>
+      <rgbColor rgb="FF4A7DBB"/>
+      <rgbColor rgb="FFD6E3BC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FFC2D69B"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1345,10 +1351,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0931124"/>
-          <c:y val="0.055869"/>
-          <c:w val="0.901888"/>
-          <c:h val="0.841196"/>
+          <c:x val="9.3112399999999998E-2"/>
+          <c:y val="5.5869000000000002E-2"/>
+          <c:w val="0.90188800000000002"/>
+          <c:h val="0.84119600000000005"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1361,9 +1367,6 @@
             <c:v>Series1</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
             <a:ln w="28575" cap="flat">
               <a:solidFill>
                 <a:srgbClr val="4A7EBB"/>
@@ -1390,88 +1393,71 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6/2/17</c:v>
+                  <c:v>41426</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6/14/17</c:v>
+                  <c:v>41438</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6/28/17</c:v>
+                  <c:v>41452</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7/12/17</c:v>
+                  <c:v>41466</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8/2/17</c:v>
+                  <c:v>41487</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Burndown README'!$C$15:$C$20</c:f>
               <c:numCache>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24.000000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.000000</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.000000</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.000000</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="2094734552"/>
-        <c:axId val="2094734553"/>
+        <c:smooth val="0"/>
+        <c:axId val="106546304"/>
+        <c:axId val="106547840"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="2094734552"/>
+      <c:dateAx>
+        <c:axId val="106546304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1495,23 +1481,24 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094734553"/>
+        <c:crossAx val="106547840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="2094734553"/>
+        <c:axId val="106547840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1546,16 +1533,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094734552"/>
+        <c:crossAx val="106546304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7.5"/>
@@ -1574,6 +1562,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1588,13 +1577,20 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1603,10 +1599,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0740696"/>
-          <c:y val="0.055869"/>
-          <c:w val="0.92093"/>
-          <c:h val="0.841196"/>
+          <c:x val="7.4069599999999999E-2"/>
+          <c:y val="5.5869000000000002E-2"/>
+          <c:w val="0.92093000000000003"/>
+          <c:h val="0.84119600000000005"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1619,9 +1615,6 @@
             <c:v>Series1</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
             <a:ln w="28575" cap="flat">
               <a:solidFill>
                 <a:srgbClr val="4A7EBB"/>
@@ -1648,79 +1641,53 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'Burndown'!$A$2:$A$7</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>Burndown!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6/7</c:v>
+                  <c:v>41431</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6/14</c:v>
+                  <c:v>41438</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown'!$B$2:$B$7</c:f>
+              <c:f>Burndown!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:ptCount val="2"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24.000000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.000000</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="2094734552"/>
-        <c:axId val="2094734553"/>
+        <c:smooth val="0"/>
+        <c:axId val="108952576"/>
+        <c:axId val="108970752"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="2094734552"/>
+      <c:dateAx>
+        <c:axId val="108952576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1744,23 +1711,24 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094734553"/>
+        <c:crossAx val="108970752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="2094734553"/>
+        <c:axId val="108970752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1795,16 +1763,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094734552"/>
+        <c:crossAx val="108952576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="6"/>
@@ -1823,6 +1792,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1837,11 +1807,16 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1855,18 +1830,18 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>95958</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="854435" y="3586691"/>
-        <a:ext cx="4666045" cy="2500493"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1892,13 +1867,13 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5364900" y="1413090"/>
-          <a:ext cx="1262383" cy="657641"/>
+          <a:off x="5380775" y="1413090"/>
+          <a:ext cx="1262382" cy="657640"/>
           <a:chOff x="-19050" y="-41148"/>
           <a:chExt cx="1262382" cy="657640"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="3" name="Shape 3"/>
           <xdr:cNvSpPr/>
@@ -1928,7 +1903,7 @@
             </a:cxnLst>
             <a:rect l="0" t="0" r="r" b="b"/>
             <a:pathLst>
-              <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:path w="21600" h="21600" extrusionOk="0">
                 <a:moveTo>
                   <a:pt x="0" y="0"/>
                 </a:moveTo>
@@ -1980,7 +1955,7 @@
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1991,11 +1966,11 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="4" name="Shape 4"/>
           <xdr:cNvSpPr txBox="1"/>
@@ -2016,7 +1991,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2041,7 +2016,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2056,7 +2031,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2097,13 +2072,13 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2769870" y="1237821"/>
-          <a:ext cx="1063414" cy="902975"/>
+          <a:off x="2776220" y="1237821"/>
+          <a:ext cx="1066588" cy="902974"/>
           <a:chOff x="-19050" y="-52577"/>
           <a:chExt cx="1063412" cy="902974"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="6" name="Shape 6"/>
           <xdr:cNvSpPr/>
@@ -2133,7 +2108,7 @@
             </a:cxnLst>
             <a:rect l="0" t="0" r="r" b="b"/>
             <a:pathLst>
-              <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:path w="21600" h="21600" extrusionOk="0">
                 <a:moveTo>
                   <a:pt x="0" y="0"/>
                 </a:moveTo>
@@ -2185,7 +2160,7 @@
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2196,11 +2171,11 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="7" name="Shape 7"/>
           <xdr:cNvSpPr txBox="1"/>
@@ -2221,7 +2196,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2246,7 +2221,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2261,7 +2236,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2302,13 +2277,13 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3829049" y="1577777"/>
-          <a:ext cx="508001" cy="503677"/>
+          <a:off x="3838574" y="1577777"/>
+          <a:ext cx="511175" cy="503676"/>
           <a:chOff x="-19050" y="-29718"/>
           <a:chExt cx="508000" cy="503676"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="9" name="Shape 9"/>
           <xdr:cNvSpPr/>
@@ -2338,7 +2313,7 @@
             </a:cxnLst>
             <a:rect l="0" t="0" r="r" b="b"/>
             <a:pathLst>
-              <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:path w="21600" h="21600" extrusionOk="0">
                 <a:moveTo>
                   <a:pt x="0" y="0"/>
                 </a:moveTo>
@@ -2390,7 +2365,7 @@
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2401,11 +2376,11 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="10" name="Shape 10"/>
           <xdr:cNvSpPr txBox="1"/>
@@ -2426,7 +2401,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2451,7 +2426,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2466,7 +2441,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2481,19 +2456,6 @@
               </a:rPr>
               <a:t>Total </a:t>
             </a:r>
-            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -2511,7 +2473,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2526,7 +2488,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2567,13 +2529,13 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4331970" y="1248324"/>
-          <a:ext cx="925830" cy="981457"/>
+          <a:off x="4344670" y="1248324"/>
+          <a:ext cx="925829" cy="981456"/>
           <a:chOff x="-19050" y="-64007"/>
           <a:chExt cx="925829" cy="981455"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="12" name="Shape 12"/>
           <xdr:cNvSpPr/>
@@ -2603,7 +2565,7 @@
             </a:cxnLst>
             <a:rect l="0" t="0" r="r" b="b"/>
             <a:pathLst>
-              <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:path w="21600" h="21600" extrusionOk="0">
                 <a:moveTo>
                   <a:pt x="0" y="0"/>
                 </a:moveTo>
@@ -2655,7 +2617,7 @@
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2666,11 +2628,11 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="13" name="Shape 13"/>
           <xdr:cNvSpPr txBox="1"/>
@@ -2691,7 +2653,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2716,7 +2678,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2731,7 +2693,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2772,13 +2734,13 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5515740" y="4983907"/>
-          <a:ext cx="1238838" cy="859925"/>
+          <a:off x="5531615" y="4983907"/>
+          <a:ext cx="1238837" cy="859924"/>
           <a:chOff x="0" y="-41148"/>
           <a:chExt cx="1238836" cy="859924"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="15" name="Shape 15"/>
           <xdr:cNvSpPr/>
@@ -2808,7 +2770,7 @@
             </a:cxnLst>
             <a:rect l="0" t="0" r="r" b="b"/>
             <a:pathLst>
-              <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:path w="21600" h="21600" extrusionOk="0">
                 <a:moveTo>
                   <a:pt x="370" y="0"/>
                 </a:moveTo>
@@ -2860,7 +2822,7 @@
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2871,11 +2833,11 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="16" name="Shape 16"/>
           <xdr:cNvSpPr txBox="1"/>
@@ -2896,7 +2858,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2921,7 +2883,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2936,7 +2898,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2961,7 +2923,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2975,18 +2937,18 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>95958</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="19" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="967668" y="1481667"/>
-        <a:ext cx="4336912" cy="2500492"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2996,7 +2958,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -3122,7 +3084,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3131,7 +3093,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3140,7 +3102,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -3214,7 +3176,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -3222,7 +3184,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3241,7 +3203,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3271,7 +3233,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3297,7 +3259,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3323,7 +3285,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3349,7 +3311,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3375,7 +3337,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3401,7 +3363,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3427,7 +3389,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3453,7 +3415,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3479,7 +3441,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3492,9 +3454,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -3509,7 +3477,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -3517,7 +3485,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3536,7 +3504,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3562,7 +3530,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3588,7 +3556,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3614,7 +3582,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3640,7 +3608,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3666,7 +3634,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3692,7 +3660,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3718,7 +3686,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3744,7 +3712,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3770,7 +3738,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3783,9 +3751,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -3799,7 +3773,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3818,7 +3792,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3848,7 +3822,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3874,7 +3848,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3900,7 +3874,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3926,7 +3900,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3952,7 +3926,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3978,7 +3952,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4004,7 +3978,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4030,7 +4004,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4056,7 +4030,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4069,140 +4043,146 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.35156" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.35156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.375" style="1" customWidth="1"/>
     <col min="6" max="256" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" t="s" s="4">
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4211,10 +4191,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="D3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4222,583 +4202,583 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="44" customWidth="1"/>
-    <col min="2" max="2" width="28.1719" style="44" customWidth="1"/>
-    <col min="3" max="3" width="49.3516" style="44" customWidth="1"/>
-    <col min="4" max="4" width="11" style="44" customWidth="1"/>
-    <col min="5" max="5" width="11" style="44" customWidth="1"/>
-    <col min="6" max="256" width="11" style="44" customWidth="1"/>
+    <col min="2" max="2" width="28.125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="49.375" style="44" customWidth="1"/>
+    <col min="4" max="256" width="11" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s" s="7">
-        <v>200</v>
+      <c r="C1" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="31.5" customHeight="1">
-      <c r="A2" t="s" s="11">
-        <v>102</v>
-      </c>
-      <c r="B2" t="s" s="11">
+    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>201</v>
-      </c>
-      <c r="C2" t="s" s="45">
-        <v>202</v>
       </c>
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" t="s" s="47">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s" s="48">
+      <c r="B3" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s" s="49">
-        <v>203</v>
+      <c r="C3" s="49" t="s">
+        <v>202</v>
       </c>
       <c r="D3" s="50"/>
       <c r="E3" s="51"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" t="s" s="47">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s" s="48">
+      <c r="B4" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s" s="49">
-        <v>204</v>
+      <c r="C4" s="49" t="s">
+        <v>203</v>
       </c>
       <c r="D4" s="50"/>
       <c r="E4" s="51"/>
     </row>
-    <row r="5" ht="31.5" customHeight="1">
-      <c r="A5" t="s" s="47">
+    <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s" s="48">
+      <c r="B5" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s" s="49">
-        <v>205</v>
+      <c r="C5" s="49" t="s">
+        <v>204</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="51"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" t="s" s="47">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s" s="48">
+      <c r="B6" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s" s="49">
-        <v>206</v>
+      <c r="C6" s="49" t="s">
+        <v>205</v>
       </c>
       <c r="D6" s="50"/>
       <c r="E6" s="51"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" t="s" s="47">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s" s="48">
+      <c r="B7" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s" s="49">
-        <v>207</v>
+      <c r="C7" s="49" t="s">
+        <v>206</v>
       </c>
       <c r="D7" s="50"/>
       <c r="E7" s="51"/>
     </row>
-    <row r="8" ht="47.25" customHeight="1">
-      <c r="A8" t="s" s="52">
-        <v>136</v>
-      </c>
-      <c r="B8" t="s" s="52">
+    <row r="8" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="53" t="s">
         <v>208</v>
-      </c>
-      <c r="C8" t="s" s="53">
-        <v>209</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" ht="31.5" customHeight="1">
-      <c r="A9" t="s" s="2">
+    <row r="9" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="C9" s="54" t="s">
         <v>211</v>
-      </c>
-      <c r="C9" t="s" s="54">
-        <v>212</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="31.5" customHeight="1">
-      <c r="A10" t="s" s="2">
+    <row r="10" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="C10" s="54" t="s">
         <v>214</v>
-      </c>
-      <c r="C10" t="s" s="54">
-        <v>215</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="31.5" customHeight="1">
-      <c r="A11" t="s" s="2">
+    <row r="11" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="C11" s="54" t="s">
         <v>217</v>
-      </c>
-      <c r="C11" t="s" s="54">
-        <v>218</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="31.5" customHeight="1">
-      <c r="A12" t="s" s="11">
+    <row r="12" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="B12" t="s" s="11">
+      <c r="C12" s="45" t="s">
         <v>220</v>
-      </c>
-      <c r="C12" t="s" s="45">
-        <v>221</v>
       </c>
       <c r="D12" s="46"/>
       <c r="E12" s="46"/>
     </row>
-    <row r="13" ht="47.25" customHeight="1">
-      <c r="A13" t="s" s="47">
+    <row r="13" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="B13" t="s" s="48">
+      <c r="B13" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C13" t="s" s="49">
-        <v>222</v>
+      <c r="C13" s="49" t="s">
+        <v>221</v>
       </c>
       <c r="D13" s="50"/>
       <c r="E13" s="51"/>
     </row>
-    <row r="14" ht="63" customHeight="1">
-      <c r="A14" t="s" s="55">
+    <row r="14" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="B14" t="s" s="55">
+      <c r="C14" s="56" t="s">
         <v>224</v>
-      </c>
-      <c r="C14" t="s" s="56">
-        <v>225</v>
       </c>
       <c r="D14" s="57"/>
       <c r="E14" s="57"/>
     </row>
-    <row r="15" ht="31.5" customHeight="1">
-      <c r="A15" t="s" s="47">
+    <row r="15" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B15" t="s" s="48">
+      <c r="B15" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C15" t="s" s="49">
-        <v>226</v>
+      <c r="C15" s="49" t="s">
+        <v>225</v>
       </c>
       <c r="D15" s="50"/>
       <c r="E15" s="51"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" t="s" s="55">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="B16" t="s" s="55">
+      <c r="C16" s="56" t="s">
         <v>228</v>
-      </c>
-      <c r="C16" t="s" s="56">
-        <v>229</v>
       </c>
       <c r="D16" s="57"/>
       <c r="E16" s="57"/>
     </row>
-    <row r="17" ht="31.5" customHeight="1">
-      <c r="A17" t="s" s="47">
+    <row r="17" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B17" t="s" s="48">
+      <c r="B17" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C17" t="s" s="49">
-        <v>230</v>
+      <c r="C17" s="49" t="s">
+        <v>229</v>
       </c>
       <c r="D17" s="50"/>
       <c r="E17" s="51"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" t="s" s="52">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="B18" t="s" s="52">
+      <c r="C18" s="53" t="s">
         <v>232</v>
-      </c>
-      <c r="C18" t="s" s="53">
-        <v>233</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" t="s" s="2">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="C19" s="54" t="s">
         <v>235</v>
-      </c>
-      <c r="C19" t="s" s="54">
-        <v>236</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" t="s" s="2">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="C20" s="54" t="s">
         <v>238</v>
-      </c>
-      <c r="C20" t="s" s="54">
-        <v>239</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" ht="31.5" customHeight="1">
-      <c r="A21" t="s" s="2">
+    <row r="21" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="C21" s="54" t="s">
         <v>241</v>
-      </c>
-      <c r="C21" t="s" s="54">
-        <v>242</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" ht="31.5" customHeight="1">
-      <c r="A22" t="s" s="11">
+    <row r="22" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="B22" t="s" s="11">
+      <c r="C22" s="45" t="s">
         <v>244</v>
-      </c>
-      <c r="C22" t="s" s="45">
-        <v>245</v>
       </c>
       <c r="D22" s="46"/>
       <c r="E22" s="46"/>
     </row>
-    <row r="23" ht="31.5" customHeight="1">
-      <c r="A23" t="s" s="47">
+    <row r="23" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="s" s="48">
+      <c r="B23" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C23" t="s" s="49">
-        <v>246</v>
+      <c r="C23" s="49" t="s">
+        <v>245</v>
       </c>
       <c r="D23" s="50"/>
       <c r="E23" s="51"/>
     </row>
-    <row r="24" ht="31.5" customHeight="1">
-      <c r="A24" t="s" s="55">
+    <row r="24" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="B24" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="B24" t="s" s="55">
+      <c r="C24" s="56" t="s">
         <v>248</v>
-      </c>
-      <c r="C24" t="s" s="56">
-        <v>249</v>
       </c>
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
     </row>
-    <row r="25" ht="47.25" customHeight="1">
-      <c r="A25" t="s" s="47">
+    <row r="25" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s" s="48">
+      <c r="B25" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="C25" t="s" s="49">
-        <v>250</v>
+      <c r="C25" s="49" t="s">
+        <v>249</v>
       </c>
       <c r="D25" s="50"/>
       <c r="E25" s="51"/>
     </row>
-    <row r="26" ht="31.5" customHeight="1">
-      <c r="A26" t="s" s="47">
+    <row r="26" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s" s="48">
+      <c r="B26" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C26" t="s" s="49">
-        <v>251</v>
+      <c r="C26" s="49" t="s">
+        <v>250</v>
       </c>
       <c r="D26" s="50"/>
       <c r="E26" s="51"/>
     </row>
-    <row r="27" ht="126" customHeight="1">
-      <c r="A27" t="s" s="47">
+    <row r="27" spans="1:5" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="B27" t="s" s="48">
+      <c r="B27" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C27" t="s" s="49">
-        <v>252</v>
+      <c r="C27" s="49" t="s">
+        <v>251</v>
       </c>
       <c r="D27" s="50"/>
       <c r="E27" s="51"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" t="s" s="55">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="B28" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="B28" t="s" s="55">
+      <c r="C28" s="56" t="s">
         <v>254</v>
-      </c>
-      <c r="C28" t="s" s="56">
-        <v>255</v>
       </c>
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
     </row>
-    <row r="29" ht="31.5" customHeight="1">
-      <c r="A29" t="s" s="47">
+    <row r="29" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B29" t="s" s="48">
+      <c r="B29" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C29" t="s" s="49">
-        <v>256</v>
+      <c r="C29" s="49" t="s">
+        <v>255</v>
       </c>
       <c r="D29" s="50"/>
       <c r="E29" s="51"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" t="s" s="55">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="55" t="s">
+        <v>256</v>
+      </c>
+      <c r="B30" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="B30" t="s" s="55">
+      <c r="C30" s="56" t="s">
         <v>258</v>
-      </c>
-      <c r="C30" t="s" s="56">
-        <v>259</v>
       </c>
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" t="s" s="47">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="B31" t="s" s="48">
+      <c r="B31" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="C31" t="s" s="49">
-        <v>260</v>
+      <c r="C31" s="49" t="s">
+        <v>259</v>
       </c>
       <c r="D31" s="50"/>
       <c r="E31" s="51"/>
     </row>
-    <row r="32" ht="31.5" customHeight="1">
-      <c r="A32" t="s" s="55">
+    <row r="32" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="55" t="s">
+        <v>260</v>
+      </c>
+      <c r="B32" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="B32" t="s" s="55">
+      <c r="C32" s="56" t="s">
         <v>262</v>
-      </c>
-      <c r="C32" t="s" s="56">
-        <v>263</v>
       </c>
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" t="s" s="47">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="B33" t="s" s="48">
+      <c r="B33" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C33" t="s" s="49">
-        <v>264</v>
+      <c r="C33" s="49" t="s">
+        <v>263</v>
       </c>
       <c r="D33" s="50"/>
       <c r="E33" s="51"/>
     </row>
-    <row r="34" ht="31.5" customHeight="1">
-      <c r="A34" t="s" s="47">
+    <row r="34" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="B34" t="s" s="48">
+      <c r="B34" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C34" t="s" s="49">
-        <v>265</v>
+      <c r="C34" s="49" t="s">
+        <v>264</v>
       </c>
       <c r="D34" s="50"/>
       <c r="E34" s="51"/>
     </row>
-    <row r="35" ht="47.25" customHeight="1">
-      <c r="A35" t="s" s="47">
+    <row r="35" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="B35" t="s" s="48">
+      <c r="B35" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C35" t="s" s="49">
-        <v>266</v>
+      <c r="C35" s="49" t="s">
+        <v>265</v>
       </c>
       <c r="D35" s="50"/>
       <c r="E35" s="51"/>
     </row>
-    <row r="36" ht="31.5" customHeight="1">
-      <c r="A36" t="s" s="47">
+    <row r="36" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B36" t="s" s="48">
+      <c r="B36" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C36" t="s" s="49">
-        <v>267</v>
+      <c r="C36" s="49" t="s">
+        <v>266</v>
       </c>
       <c r="D36" s="50"/>
       <c r="E36" s="51"/>
     </row>
-    <row r="37" ht="31.5" customHeight="1">
-      <c r="A37" t="s" s="47">
+    <row r="37" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B37" t="s" s="48">
+      <c r="B37" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C37" t="s" s="49">
-        <v>268</v>
+      <c r="C37" s="49" t="s">
+        <v>267</v>
       </c>
       <c r="D37" s="50"/>
       <c r="E37" s="51"/>
     </row>
-    <row r="38" ht="31.5" customHeight="1">
-      <c r="A38" t="s" s="47">
+    <row r="38" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B38" t="s" s="48">
+      <c r="B38" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C38" t="s" s="49">
-        <v>269</v>
+      <c r="C38" s="49" t="s">
+        <v>268</v>
       </c>
       <c r="D38" s="50"/>
       <c r="E38" s="51"/>
     </row>
-    <row r="39" ht="31.5" customHeight="1">
-      <c r="A39" t="s" s="47">
+    <row r="39" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="B39" t="s" s="48">
+      <c r="B39" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="C39" t="s" s="49">
-        <v>270</v>
+      <c r="C39" s="49" t="s">
+        <v>269</v>
       </c>
       <c r="D39" s="50"/>
       <c r="E39" s="51"/>
     </row>
-    <row r="40" ht="31.5" customHeight="1">
-      <c r="A40" t="s" s="47">
+    <row r="40" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B40" t="s" s="48">
+      <c r="B40" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C40" t="s" s="49">
-        <v>271</v>
+      <c r="C40" s="49" t="s">
+        <v>270</v>
       </c>
       <c r="D40" s="50"/>
       <c r="E40" s="51"/>
     </row>
-    <row r="41" ht="31.5" customHeight="1">
-      <c r="A41" t="s" s="47">
+    <row r="41" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="B41" t="s" s="48">
+      <c r="B41" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C41" t="s" s="49">
-        <v>272</v>
+      <c r="C41" s="49" t="s">
+        <v>271</v>
       </c>
       <c r="D41" s="50"/>
       <c r="E41" s="51"/>
     </row>
-    <row r="42" ht="31.5" customHeight="1">
-      <c r="A42" t="s" s="55">
+    <row r="42" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="55" t="s">
+        <v>272</v>
+      </c>
+      <c r="B42" s="55" t="s">
         <v>273</v>
       </c>
-      <c r="B42" t="s" s="55">
+      <c r="C42" s="56" t="s">
         <v>274</v>
-      </c>
-      <c r="C42" t="s" s="56">
-        <v>275</v>
       </c>
       <c r="D42" s="57"/>
       <c r="E42" s="57"/>
     </row>
-    <row r="43" ht="31.5" customHeight="1">
-      <c r="A43" t="s" s="58">
+    <row r="43" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="B43" t="s" s="59">
+      <c r="B43" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="C43" t="s" s="60">
-        <v>276</v>
+      <c r="C43" s="60" t="s">
+        <v>275</v>
       </c>
       <c r="D43" s="61"/>
       <c r="E43" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4806,465 +4786,475 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.17188" style="5" customWidth="1"/>
-    <col min="2" max="2" width="7.67188" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.3516" style="5" customWidth="1"/>
-    <col min="4" max="4" width="7.17188" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.3516" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="5" customWidth="1"/>
     <col min="6" max="256" width="11" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <f>'Stories'!A3</f>
-        <v>27</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <f>'Stories'!B3</f>
-        <v>28</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="B3" s="2" t="str">
+        <f>Stories!A3</f>
+        <v>US02</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>Stories!B3</f>
+        <v>Birth before marriage</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="C4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <f>'Stories'!A5</f>
-        <v>32</v>
-      </c>
-      <c r="C5" t="s" s="7">
-        <f>'Stories'!B5</f>
-        <v>33</v>
-      </c>
-      <c r="D5" t="s" s="2">
+      <c r="B5" s="2" t="str">
+        <f>Stories!A5</f>
+        <v>US04</v>
+      </c>
+      <c r="C5" s="7" t="str">
+        <f>Stories!B5</f>
+        <v>Marriage before divorce</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D6" t="s" s="2">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s" s="2">
+      <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <f>'Stories'!A7</f>
-        <v>36</v>
-      </c>
-      <c r="C7" t="s" s="7">
-        <f>'Stories'!B7</f>
-        <v>37</v>
-      </c>
-      <c r="D7" t="s" s="2">
+      <c r="B7" s="2" t="str">
+        <f>Stories!A7</f>
+        <v>US06</v>
+      </c>
+      <c r="C7" s="7" t="str">
+        <f>Stories!B7</f>
+        <v>Divorce before death</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s" s="2">
+      <c r="E7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" t="s" s="2">
-        <f>'Stories'!A13</f>
-        <v>39</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <f>'Stories'!B13</f>
-        <v>40</v>
-      </c>
-      <c r="D8" t="s" s="2">
+      <c r="B8" s="2" t="str">
+        <f>Stories!A13</f>
+        <v>US12</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f>Stories!B13</f>
+        <v>Parents not too old</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s" s="2">
+      <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" t="s" s="2">
-        <f>'Stories'!A15</f>
-        <v>41</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <f>'Stories'!B15</f>
-        <v>42</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="B10" s="2" t="str">
+        <f>Stories!A15</f>
+        <v>US14</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f>Stories!B15</f>
+        <v>Multiple births &lt;= 5</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2</v>
       </c>
-      <c r="B11" t="s" s="2">
-        <f>'Stories'!A17</f>
-        <v>44</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <f>'Stories'!B17</f>
-        <v>45</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="B11" s="2" t="str">
+        <f>Stories!A17</f>
+        <v>US16</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f>Stories!B17</f>
+        <v>Male last names</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>2</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <f>'Stories'!A23</f>
-        <v>46</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <f>'Stories'!B23</f>
-        <v>47</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="B12" s="2" t="str">
+        <f>Stories!A23</f>
+        <v>US22</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f>Stories!B23</f>
+        <v>Unique IDs</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>2</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <f>'Stories'!A25</f>
-        <v>48</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <f>'Stories'!B25</f>
-        <v>49</v>
-      </c>
-      <c r="D13" t="s" s="2">
+      <c r="B13" s="2" t="str">
+        <f>Stories!A25</f>
+        <v>US24</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f>Stories!B25</f>
+        <v>Unique families by spouses</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>2</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <f>'Stories'!A26</f>
-        <v>50</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <f>'Stories'!B26</f>
-        <v>51</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
+      <c r="B14" s="2" t="str">
+        <f>Stories!A26</f>
+        <v>US25</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f>Stories!B26</f>
+        <v>Unique first names in families</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>2</v>
       </c>
-      <c r="B15" t="s" s="2">
-        <f>'Stories'!A27</f>
-        <v>52</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <f>'Stories'!B27</f>
-        <v>53</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
+      <c r="B15" s="2" t="str">
+        <f>Stories!A27</f>
+        <v>US26</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f>Stories!B27</f>
+        <v>Corresponding entries</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>3</v>
       </c>
-      <c r="B17" t="s" s="2">
-        <f>'Stories'!A29</f>
-        <v>54</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <f>'Stories'!B29</f>
-        <v>55</v>
+      <c r="B17" s="2" t="str">
+        <f>Stories!A29</f>
+        <v>US28</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f>Stories!B29</f>
+        <v>Order siblings by age</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>3</v>
       </c>
-      <c r="B18" t="s" s="2">
-        <f>'Stories'!A31</f>
-        <v>56</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <f>'Stories'!B31</f>
-        <v>57</v>
+      <c r="B18" s="2" t="str">
+        <f>Stories!A31</f>
+        <v>US30</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f>Stories!B31</f>
+        <v>List living married</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>3</v>
       </c>
-      <c r="B19" t="s" s="2">
-        <f>'Stories'!A33</f>
-        <v>58</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <f>'Stories'!B33</f>
-        <v>59</v>
+      <c r="B19" s="2" t="str">
+        <f>Stories!A33</f>
+        <v>US32</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f>Stories!B33</f>
+        <v>List multiple births</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>3</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <f>'Stories'!A34</f>
-        <v>60</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <f>'Stories'!B34</f>
-        <v>61</v>
+      <c r="B20" s="2" t="str">
+        <f>Stories!A34</f>
+        <v>US33</v>
+      </c>
+      <c r="C20" s="2" t="str">
+        <f>Stories!B34</f>
+        <v>List orphans</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>3</v>
       </c>
-      <c r="B21" t="s" s="2">
-        <f>'Stories'!A35</f>
-        <v>62</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <f>'Stories'!B35</f>
-        <v>63</v>
+      <c r="B21" s="2" t="str">
+        <f>Stories!A35</f>
+        <v>US34</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <f>Stories!B35</f>
+        <v>List large age differences</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>3</v>
       </c>
-      <c r="B22" t="s" s="2">
-        <f>'Stories'!A36</f>
-        <v>64</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <f>'Stories'!B36</f>
-        <v>65</v>
+      <c r="B22" s="2" t="str">
+        <f>Stories!A36</f>
+        <v>US35</v>
+      </c>
+      <c r="C22" s="2" t="str">
+        <f>Stories!B36</f>
+        <v>List recent births</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>4</v>
       </c>
-      <c r="B24" t="s" s="2">
-        <f>'Stories'!A37</f>
-        <v>66</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <f>'Stories'!B37</f>
-        <v>67</v>
+      <c r="B24" s="2" t="str">
+        <f>Stories!A37</f>
+        <v>US36</v>
+      </c>
+      <c r="C24" s="2" t="str">
+        <f>Stories!B37</f>
+        <v>List recent deaths</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" ht="15" customHeight="1">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>4</v>
       </c>
-      <c r="B25" t="s" s="2">
-        <f>'Stories'!A38</f>
-        <v>68</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <f>'Stories'!B38</f>
-        <v>69</v>
+      <c r="B25" s="2" t="str">
+        <f>Stories!A38</f>
+        <v>US37</v>
+      </c>
+      <c r="C25" s="2" t="str">
+        <f>Stories!B38</f>
+        <v>List recent survivors</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>4</v>
       </c>
-      <c r="B26" t="s" s="2">
-        <f>'Stories'!A39</f>
-        <v>70</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <f>'Stories'!B39</f>
-        <v>71</v>
+      <c r="B26" s="2" t="str">
+        <f>Stories!A39</f>
+        <v>US38</v>
+      </c>
+      <c r="C26" s="2" t="str">
+        <f>Stories!B39</f>
+        <v>List upcoming birthdays</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" ht="15" customHeight="1">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>4</v>
       </c>
-      <c r="B27" t="s" s="2">
-        <f>'Stories'!A40</f>
-        <v>72</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <f>'Stories'!B40</f>
-        <v>73</v>
+      <c r="B27" s="2" t="str">
+        <f>Stories!A40</f>
+        <v>US39</v>
+      </c>
+      <c r="C27" s="2" t="str">
+        <f>Stories!B40</f>
+        <v>List upcoming anniversaries</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" ht="15" customHeight="1">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>4</v>
       </c>
-      <c r="B28" t="s" s="2">
-        <f>'Stories'!A41</f>
-        <v>74</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <f>'Stories'!B41</f>
-        <v>75</v>
+      <c r="B28" s="2" t="str">
+        <f>Stories!A41</f>
+        <v>US40</v>
+      </c>
+      <c r="C28" s="2" t="str">
+        <f>Stories!B41</f>
+        <v>Include input line numbers</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" ht="15" customHeight="1">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>4</v>
       </c>
-      <c r="B29" t="s" s="2">
-        <f>'Stories'!A43</f>
-        <v>76</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <f>'Stories'!B43</f>
-        <v>77</v>
+      <c r="B29" s="2" t="str">
+        <f>Stories!A43</f>
+        <v>US42</v>
+      </c>
+      <c r="C29" s="2" t="str">
+        <f>Stories!B43</f>
+        <v>Reject illegitimate dates</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5272,27 +5262,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV39"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9.35156" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.8516" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.8516" style="8" customWidth="1"/>
-    <col min="5" max="5" width="6.85156" style="8" customWidth="1"/>
-    <col min="6" max="6" width="12.3516" style="8" customWidth="1"/>
-    <col min="7" max="7" width="11" style="8" customWidth="1"/>
-    <col min="8" max="8" width="11" style="8" customWidth="1"/>
-    <col min="9" max="256" width="11" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="8" customWidth="1"/>
+    <col min="7" max="256" width="11" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" t="s" s="9">
-        <v>79</v>
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5302,9 +5290,9 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" t="s" s="9">
-        <v>80</v>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5314,9 +5302,9 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" t="s" s="9">
-        <v>81</v>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -5326,7 +5314,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5336,9 +5324,9 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>82</v>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5348,9 +5336,9 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" t="s" s="9">
-        <v>83</v>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -5360,7 +5348,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -5370,9 +5358,9 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" t="s" s="9">
-        <v>84</v>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -5382,7 +5370,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5392,7 +5380,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5402,7 +5390,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5412,7 +5400,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5422,7 +5410,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5432,33 +5420,33 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" t="s" s="9">
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C14" t="s" s="11">
+      <c r="D14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="E14" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E14" t="s" s="11">
+      <c r="F14" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F14" t="s" s="12">
+      <c r="G14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" t="s" s="9">
-        <v>91</v>
       </c>
       <c r="B15" s="13">
         <v>41426</v>
@@ -5474,9 +5462,9 @@
       <c r="G15" s="17"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" t="s" s="9">
-        <v>92</v>
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="B16" s="13">
         <v>41438</v>
@@ -5500,9 +5488,9 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" t="s" s="9">
-        <v>93</v>
+    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="B17" s="13">
         <v>41452</v>
@@ -5522,13 +5510,13 @@
       </c>
       <c r="G17" s="17">
         <f>(E17-E16)/F17*60</f>
-        <v>186.2222222222222</v>
+        <v>186.22222222222223</v>
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" t="s" s="9">
-        <v>94</v>
+    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="B18" s="13">
         <v>41466</v>
@@ -5552,9 +5540,9 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" t="s" s="9">
-        <v>95</v>
+    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="B19" s="13">
         <v>41487</v>
@@ -5578,7 +5566,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="20"/>
@@ -5588,7 +5576,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5598,7 +5586,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5608,7 +5596,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5618,7 +5606,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
+    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5628,7 +5616,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5638,7 +5626,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
+    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5648,7 +5636,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
+    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5658,7 +5646,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
+    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5668,7 +5656,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
+    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5678,7 +5666,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
+    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5688,7 +5676,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
+    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5698,7 +5686,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
+    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5708,7 +5696,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
+    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5718,7 +5706,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
+    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5728,7 +5716,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
+    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5738,7 +5726,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
+    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5748,7 +5736,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
+    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5758,7 +5746,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
+    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5768,7 +5756,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -5780,7 +5768,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5789,45 +5777,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="22" customWidth="1"/>
-    <col min="2" max="2" width="16.6719" style="22" customWidth="1"/>
-    <col min="3" max="3" width="12.3516" style="22" customWidth="1"/>
-    <col min="4" max="4" width="7.17188" style="22" customWidth="1"/>
-    <col min="5" max="5" width="6.85156" style="22" customWidth="1"/>
-    <col min="6" max="6" width="12.3516" style="22" customWidth="1"/>
-    <col min="7" max="7" width="11" style="22" customWidth="1"/>
-    <col min="8" max="256" width="11" style="22" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="22" customWidth="1"/>
+    <col min="7" max="256" width="11" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" t="s" s="9">
+    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="F1" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F1" t="s" s="9">
-        <v>90</v>
-      </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23">
         <v>41431</v>
       </c>
@@ -5842,7 +5829,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23">
         <v>41438</v>
       </c>
@@ -5865,7 +5852,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5874,7 +5861,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5883,7 +5870,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -5892,7 +5879,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -5901,9 +5888,9 @@
       <c r="F7" s="10"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" t="s" s="27">
-        <v>96</v>
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
+        <v>95</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -5912,7 +5899,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5921,7 +5908,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5930,7 +5917,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5939,7 +5926,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5948,7 +5935,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5957,7 +5944,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5966,7 +5953,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5975,7 +5962,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5984,7 +5971,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5993,7 +5980,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6002,7 +5989,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6011,7 +5998,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6020,7 +6007,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6029,7 +6016,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6038,7 +6025,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6047,7 +6034,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
+    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6056,7 +6043,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6065,7 +6052,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
+    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6076,7 +6063,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6085,93 +6072,92 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6719" style="28" customWidth="1"/>
-    <col min="2" max="2" width="23.8516" style="28" customWidth="1"/>
-    <col min="3" max="3" width="12.8516" style="28" customWidth="1"/>
-    <col min="4" max="4" width="11.6719" style="28" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="28" customWidth="1"/>
     <col min="5" max="5" width="12" style="28" customWidth="1"/>
-    <col min="6" max="6" width="11.3516" style="28" customWidth="1"/>
-    <col min="7" max="7" width="8.35156" style="28" customWidth="1"/>
-    <col min="8" max="8" width="9.35156" style="28" customWidth="1"/>
-    <col min="9" max="9" width="11" style="28" customWidth="1"/>
-    <col min="10" max="256" width="11" style="28" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="28" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="28" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="28" customWidth="1"/>
+    <col min="9" max="256" width="11" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="4">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s" s="29">
+      <c r="B1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s" s="30">
+      <c r="E1" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="F1" t="s" s="30">
+      <c r="G1" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="G1" t="s" s="30">
+      <c r="H1" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="H1" t="s" s="30">
+      <c r="I1" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="I1" t="s" s="31">
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="2">
+      <c r="B2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="C2" s="3"/>
+      <c r="D2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" t="s" s="2">
+      <c r="E2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E2" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="G2" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>105</v>
+      <c r="F2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="I2" s="32">
         <v>41426</v>
       </c>
     </row>
-    <row r="3" ht="38.25" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="C3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>104</v>
+      <c r="D3" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -6179,7 +6165,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="33"/>
       <c r="C4" s="3"/>
@@ -6190,16 +6176,16 @@
       <c r="H4" s="3"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" ht="25.5" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="5" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s" s="7">
-        <v>109</v>
+      <c r="B5" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" t="s" s="2">
-        <v>104</v>
+      <c r="D5" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -6209,18 +6195,18 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="6" ht="25.5" customHeight="1">
-      <c r="A6" t="s" s="2">
+    <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="C6" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>104</v>
+      <c r="D6" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -6230,7 +6216,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="33"/>
       <c r="C7" s="3"/>
@@ -6241,16 +6227,16 @@
       <c r="H7" s="3"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" ht="25.5" customHeight="1">
-      <c r="A8" t="s" s="2">
+    <row r="8" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s" s="7">
-        <v>113</v>
+      <c r="B8" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" t="s" s="2">
-        <v>104</v>
+      <c r="D8" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -6260,18 +6246,18 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="9" ht="25.5" customHeight="1">
-      <c r="A9" t="s" s="2">
+    <row r="9" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B9" t="s" s="7">
-        <v>115</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>104</v>
+      <c r="C9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -6281,18 +6267,18 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="10" ht="51" customHeight="1">
-      <c r="A10" t="s" s="2">
+    <row r="10" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B10" t="s" s="7">
-        <v>117</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>104</v>
+      <c r="C10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -6302,7 +6288,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="33"/>
       <c r="C11" s="3"/>
@@ -6313,18 +6299,18 @@
       <c r="H11" s="3"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="A12" t="s" s="2">
+    <row r="12" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s" s="7">
+      <c r="B12" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>104</v>
+      <c r="D12" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -6334,18 +6320,18 @@
         <v>41429</v>
       </c>
     </row>
-    <row r="13" ht="51" customHeight="1">
-      <c r="A13" t="s" s="2">
+    <row r="13" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B13" t="s" s="7">
-        <v>121</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>104</v>
+      <c r="C13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -6355,18 +6341,18 @@
         <v>41429</v>
       </c>
     </row>
-    <row r="14" ht="51" customHeight="1">
-      <c r="A14" t="s" s="2">
+    <row r="14" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B14" t="s" s="7">
-        <v>123</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>104</v>
+      <c r="C14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -6376,7 +6362,7 @@
         <v>41429</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="33"/>
       <c r="C15" s="3"/>
@@ -6387,18 +6373,18 @@
       <c r="H15" s="3"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="A16" t="s" s="2">
+    <row r="16" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s" s="7">
-        <v>124</v>
-      </c>
-      <c r="C16" t="s" s="2">
+      <c r="B16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D16" t="s" s="2">
-        <v>104</v>
+      <c r="D16" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -6408,18 +6394,18 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="17" ht="38.25" customHeight="1">
-      <c r="A17" t="s" s="2">
+    <row r="17" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B17" t="s" s="7">
-        <v>126</v>
-      </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D17" t="s" s="2">
-        <v>104</v>
+      <c r="D17" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -6429,18 +6415,18 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="18" ht="38.25" customHeight="1">
-      <c r="A18" t="s" s="2">
+    <row r="18" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B18" t="s" s="7">
-        <v>128</v>
-      </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D18" t="s" s="2">
-        <v>104</v>
+      <c r="D18" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -6450,18 +6436,18 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="19" ht="63.75" customHeight="1">
-      <c r="A19" t="s" s="2">
+    <row r="19" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B19" t="s" s="7">
-        <v>130</v>
-      </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D19" t="s" s="2">
-        <v>104</v>
+      <c r="D19" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -6471,18 +6457,18 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="20" ht="51" customHeight="1">
-      <c r="A20" t="s" s="2">
+    <row r="20" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B20" t="s" s="7">
-        <v>132</v>
-      </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D20" t="s" s="2">
-        <v>104</v>
+      <c r="D20" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -6492,7 +6478,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="33"/>
       <c r="C21" s="3"/>
@@ -6503,18 +6489,18 @@
       <c r="H21" s="3"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" ht="38.25" customHeight="1">
-      <c r="A22" t="s" s="2">
+    <row r="22" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B22" t="s" s="7">
-        <v>133</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="D22" t="s" s="2">
-        <v>104</v>
+      <c r="B22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -6524,18 +6510,18 @@
         <v>41431</v>
       </c>
     </row>
-    <row r="23" ht="38.25" customHeight="1">
-      <c r="A23" t="s" s="2">
+    <row r="23" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B23" t="s" s="7">
-        <v>135</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="D23" t="s" s="2">
-        <v>104</v>
+      <c r="C23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -6545,7 +6531,7 @@
         <v>41431</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="33"/>
       <c r="C24" s="3"/>
@@ -6556,18 +6542,18 @@
       <c r="H24" s="3"/>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" ht="25.5" customHeight="1">
-      <c r="A25" t="s" s="2">
+    <row r="25" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B25" t="s" s="7">
-        <v>137</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>104</v>
+      <c r="C25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -6577,18 +6563,18 @@
         <v>41428</v>
       </c>
     </row>
-    <row r="26" ht="25.5" customHeight="1">
-      <c r="A26" t="s" s="2">
+    <row r="26" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B26" t="s" s="7">
-        <v>139</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="D26" t="s" s="2">
-        <v>104</v>
+      <c r="C26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -6598,7 +6584,7 @@
         <v>41428</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="33"/>
       <c r="C27" s="3"/>
@@ -6609,7 +6595,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" ht="15" customHeight="1">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="33"/>
       <c r="C28" s="3"/>
@@ -6620,7 +6606,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" ht="15" customHeight="1">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="33"/>
       <c r="C29" s="3"/>
@@ -6631,7 +6617,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" ht="15" customHeight="1">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="33"/>
       <c r="C30" s="3"/>
@@ -6642,7 +6628,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" ht="15" customHeight="1">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="33"/>
       <c r="C31" s="3"/>
@@ -6653,7 +6639,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" ht="15" customHeight="1">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="33"/>
       <c r="C32" s="3"/>
@@ -6664,10 +6650,10 @@
       <c r="H32" s="3"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" ht="15" customHeight="1">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" t="s" s="29">
-        <v>140</v>
+      <c r="B33" s="29" t="s">
+        <v>139</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -6677,7 +6663,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" ht="15" customHeight="1">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="29"/>
       <c r="C34" s="3"/>
@@ -6688,10 +6674,10 @@
       <c r="H34" s="3"/>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" ht="15" customHeight="1">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
-      <c r="B35" t="s" s="29">
-        <v>141</v>
+      <c r="B35" s="29" t="s">
+        <v>140</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -6701,10 +6687,10 @@
       <c r="H35" s="3"/>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" ht="25.5" customHeight="1">
+    <row r="36" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
-      <c r="B36" t="s" s="7">
-        <v>142</v>
+      <c r="B36" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -6714,10 +6700,10 @@
       <c r="H36" s="3"/>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" ht="25.5" customHeight="1">
+    <row r="37" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
-      <c r="B37" t="s" s="7">
-        <v>143</v>
+      <c r="B37" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -6727,10 +6713,10 @@
       <c r="H37" s="3"/>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" ht="25.5" customHeight="1">
+    <row r="38" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
-      <c r="B38" t="s" s="7">
-        <v>144</v>
+      <c r="B38" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -6740,10 +6726,10 @@
       <c r="H38" s="3"/>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" ht="25.5" customHeight="1">
+    <row r="39" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
-      <c r="B39" t="s" s="7">
-        <v>145</v>
+      <c r="B39" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -6753,7 +6739,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" ht="15" customHeight="1">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="33"/>
       <c r="C40" s="3"/>
@@ -6764,10 +6750,10 @@
       <c r="H40" s="3"/>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" ht="15" customHeight="1">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
-      <c r="B41" t="s" s="29">
-        <v>146</v>
+      <c r="B41" s="29" t="s">
+        <v>145</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -6779,7 +6765,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6787,55 +6773,56 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV45"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.3516" style="34" customWidth="1"/>
-    <col min="2" max="2" width="24.3516" style="34" customWidth="1"/>
-    <col min="3" max="3" width="6.67188" style="34" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="34" customWidth="1"/>
+    <col min="2" max="2" width="24.375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="34" customWidth="1"/>
     <col min="4" max="4" width="11" style="34" customWidth="1"/>
-    <col min="5" max="5" width="8.35156" style="34" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="34" customWidth="1"/>
     <col min="6" max="6" width="9" style="34" customWidth="1"/>
-    <col min="7" max="7" width="8.35156" style="34" customWidth="1"/>
-    <col min="8" max="8" width="9.35156" style="34" customWidth="1"/>
-    <col min="9" max="9" width="11" style="34" customWidth="1"/>
-    <col min="10" max="256" width="11" style="34" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="34" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="34" customWidth="1"/>
+    <col min="9" max="256" width="11" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="4">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s" s="29">
+      <c r="B1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s" s="30">
+      <c r="E1" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="F1" t="s" s="30">
+      <c r="G1" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="G1" t="s" s="30">
+      <c r="H1" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="H1" t="s" s="30">
+      <c r="I1" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="I1" t="s" s="31">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
       <c r="B2" s="29"/>
       <c r="C2" s="35"/>
@@ -6846,19 +6833,19 @@
       <c r="H2" s="36"/>
       <c r="I2" s="37"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <f>'Backlog'!B3</f>
-        <v>27</v>
-      </c>
-      <c r="B3" t="s" s="7">
-        <f>'Backlog'!C3</f>
-        <v>28</v>
-      </c>
-      <c r="C3" t="s" s="2">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="str">
+        <f>Backlog!B3</f>
+        <v>US02</v>
+      </c>
+      <c r="B3" s="7" t="str">
+        <f>Backlog!C3</f>
+        <v>Birth before marriage</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="6">
@@ -6873,16 +6860,16 @@
       <c r="H3" s="38">
         <v>60</v>
       </c>
-      <c r="I3" t="s" s="39">
+      <c r="I3" s="39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B4" t="s" s="7">
-        <v>148</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="35"/>
@@ -6892,12 +6879,12 @@
       <c r="H4" s="36"/>
       <c r="I4" s="37"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="B5" t="s" s="7">
-        <v>150</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="35"/>
@@ -6907,12 +6894,12 @@
       <c r="H5" s="36"/>
       <c r="I5" s="37"/>
     </row>
-    <row r="6" ht="25.5" customHeight="1">
-      <c r="A6" t="s" s="2">
+    <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="B6" t="s" s="7">
-        <v>152</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="35"/>
@@ -6922,7 +6909,7 @@
       <c r="H6" s="36"/>
       <c r="I6" s="37"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
@@ -6933,17 +6920,17 @@
       <c r="H7" s="36"/>
       <c r="I7" s="37"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="4">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s" s="2">
+      <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="6">
@@ -6958,16 +6945,16 @@
       <c r="H8" s="6">
         <v>60</v>
       </c>
-      <c r="I8" t="s" s="39">
+      <c r="I8" s="39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B9" t="s" s="7">
-        <v>148</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -6977,12 +6964,12 @@
       <c r="H9" s="3"/>
       <c r="I9" s="40"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B10" t="s" s="7">
-        <v>153</v>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -6992,12 +6979,12 @@
       <c r="H10" s="3"/>
       <c r="I10" s="40"/>
     </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="A11" t="s" s="2">
+    <row r="11" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="B11" t="s" s="7">
-        <v>155</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -7007,7 +6994,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="40"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="33"/>
       <c r="C12" s="3"/>
@@ -7018,19 +7005,19 @@
       <c r="H12" s="3"/>
       <c r="I12" s="40"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="4">
-        <f>'Backlog'!B5</f>
-        <v>32</v>
-      </c>
-      <c r="B13" t="s" s="7">
-        <f>'Backlog'!C5</f>
-        <v>33</v>
-      </c>
-      <c r="C13" t="s" s="2">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="str">
+        <f>Backlog!B5</f>
+        <v>US04</v>
+      </c>
+      <c r="B13" s="7" t="str">
+        <f>Backlog!C5</f>
+        <v>Marriage before divorce</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="6">
@@ -7045,16 +7032,16 @@
       <c r="H13" s="6">
         <v>20</v>
       </c>
-      <c r="I13" t="s" s="39">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="B14" t="s" s="7">
-        <v>150</v>
+      <c r="I13" s="39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -7064,12 +7051,12 @@
       <c r="H14" s="3"/>
       <c r="I14" s="40"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B15" t="s" s="7">
-        <v>156</v>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -7079,12 +7066,12 @@
       <c r="H15" s="3"/>
       <c r="I15" s="40"/>
     </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="A16" t="s" s="2">
+    <row r="16" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="B16" t="s" s="7">
-        <v>158</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -7094,7 +7081,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="33"/>
       <c r="C17" s="3"/>
@@ -7105,17 +7092,17 @@
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="s" s="4">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s" s="7">
+      <c r="B18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="6">
@@ -7130,16 +7117,16 @@
       <c r="H18" s="6">
         <v>30</v>
       </c>
-      <c r="I18" t="s" s="39">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" ht="25.5" customHeight="1">
-      <c r="A19" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="B19" t="s" s="7">
-        <v>159</v>
+      <c r="I18" s="39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -7149,12 +7136,12 @@
       <c r="H19" s="3"/>
       <c r="I19" s="40"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="B20" t="s" s="7">
-        <v>160</v>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -7164,12 +7151,12 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" ht="25.5" customHeight="1">
-      <c r="A21" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B21" t="s" s="7">
-        <v>161</v>
+    <row r="21" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -7179,7 +7166,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="33"/>
       <c r="C22" s="3"/>
@@ -7190,19 +7177,19 @@
       <c r="H22" s="3"/>
       <c r="I22" s="40"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="4">
-        <f>'Backlog'!B7</f>
-        <v>36</v>
-      </c>
-      <c r="B23" t="s" s="7">
-        <f>'Backlog'!C7</f>
-        <v>37</v>
-      </c>
-      <c r="C23" t="s" s="2">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="str">
+        <f>Backlog!B7</f>
+        <v>US06</v>
+      </c>
+      <c r="B23" s="7" t="str">
+        <f>Backlog!C7</f>
+        <v>Divorce before death</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="6">
@@ -7212,21 +7199,21 @@
         <v>20</v>
       </c>
       <c r="G23" s="6">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H23" s="6">
         <v>30</v>
       </c>
-      <c r="I23" t="s" s="39">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B24" t="s" s="7">
-        <v>156</v>
+      <c r="I23" s="39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -7236,12 +7223,12 @@
       <c r="H24" s="3"/>
       <c r="I24" s="40"/>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="s" s="2">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="B25" t="s" s="7">
-        <v>163</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -7251,12 +7238,12 @@
       <c r="H25" s="3"/>
       <c r="I25" s="40"/>
     </row>
-    <row r="26" ht="25.5" customHeight="1">
-      <c r="A26" t="s" s="2">
+    <row r="26" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="B26" t="s" s="7">
-        <v>165</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -7266,7 +7253,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="40"/>
     </row>
-    <row r="27" ht="15" customHeight="1">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7"/>
       <c r="C27" s="3"/>
@@ -7277,19 +7264,19 @@
       <c r="H27" s="3"/>
       <c r="I27" s="40"/>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="s" s="4">
-        <f>'Backlog'!B8</f>
-        <v>39</v>
-      </c>
-      <c r="B28" t="s" s="7">
-        <f>'Backlog'!C8</f>
-        <v>40</v>
-      </c>
-      <c r="C28" t="s" s="2">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="str">
+        <f>Backlog!B8</f>
+        <v>US12</v>
+      </c>
+      <c r="B28" s="7" t="str">
+        <f>Backlog!C8</f>
+        <v>Parents not too old</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E28" s="6">
@@ -7299,21 +7286,21 @@
         <v>40</v>
       </c>
       <c r="G28" s="6">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H28" s="6">
         <v>30</v>
       </c>
-      <c r="I28" t="s" s="39">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="s" s="2">
+      <c r="I28" s="39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="B29" t="s" s="7">
-        <v>167</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -7323,12 +7310,12 @@
       <c r="H29" s="3"/>
       <c r="I29" s="40"/>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="s" s="2">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="B30" t="s" s="7">
-        <v>169</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -7338,12 +7325,12 @@
       <c r="H30" s="3"/>
       <c r="I30" s="40"/>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="s" s="2">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="B31" t="s" s="7">
-        <v>171</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -7353,12 +7340,12 @@
       <c r="H31" s="3"/>
       <c r="I31" s="40"/>
     </row>
-    <row r="32" ht="25.5" customHeight="1">
-      <c r="A32" t="s" s="2">
+    <row r="32" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="B32" t="s" s="7">
-        <v>173</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -7368,12 +7355,12 @@
       <c r="H32" s="3"/>
       <c r="I32" s="32"/>
     </row>
-    <row r="33" ht="25.5" customHeight="1">
-      <c r="A33" t="s" s="2">
+    <row r="33" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="B33" t="s" s="7">
-        <v>175</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -7383,7 +7370,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="32"/>
     </row>
-    <row r="34" ht="15" customHeight="1">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7"/>
       <c r="C34" s="3"/>
@@ -7394,10 +7381,10 @@
       <c r="H34" s="3"/>
       <c r="I34" s="32"/>
     </row>
-    <row r="35" ht="15" customHeight="1">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
-      <c r="B35" t="s" s="29">
-        <v>140</v>
+      <c r="B35" s="29" t="s">
+        <v>139</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -7407,7 +7394,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" ht="15" customHeight="1">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="29"/>
       <c r="C36" s="3"/>
@@ -7418,10 +7405,10 @@
       <c r="H36" s="3"/>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" ht="15" customHeight="1">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
-      <c r="B37" t="s" s="29">
-        <v>141</v>
+      <c r="B37" s="29" t="s">
+        <v>140</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -7431,10 +7418,10 @@
       <c r="H37" s="3"/>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" ht="25.5" customHeight="1">
+    <row r="38" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
-      <c r="B38" t="s" s="7">
-        <v>176</v>
+      <c r="B38" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -7444,10 +7431,10 @@
       <c r="H38" s="3"/>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" ht="63.75" customHeight="1">
+    <row r="39" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
-      <c r="B39" t="s" s="7">
-        <v>177</v>
+      <c r="B39" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -7457,9 +7444,11 @@
       <c r="H39" s="3"/>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" ht="15" customHeight="1">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
-      <c r="B40" s="33"/>
+      <c r="B40" s="33" t="s">
+        <v>277</v>
+      </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -7468,10 +7457,10 @@
       <c r="H40" s="3"/>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" ht="15" customHeight="1">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
-      <c r="B41" t="s" s="29">
-        <v>146</v>
+      <c r="B41" s="29" t="s">
+        <v>145</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -7481,10 +7470,10 @@
       <c r="H41" s="3"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" ht="89.25" customHeight="1">
+    <row r="42" spans="1:9" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
-      <c r="B42" t="s" s="7">
-        <v>178</v>
+      <c r="B42" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -7494,10 +7483,10 @@
       <c r="H42" s="3"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" ht="51" customHeight="1">
+    <row r="43" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
-      <c r="B43" t="s" s="7">
-        <v>179</v>
+      <c r="B43" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -7507,10 +7496,10 @@
       <c r="H43" s="3"/>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" ht="63.75" customHeight="1">
+    <row r="44" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
-      <c r="B44" t="s" s="7">
-        <v>180</v>
+      <c r="B44" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -7520,9 +7509,14 @@
       <c r="H44" s="3"/>
       <c r="I44" s="10"/>
     </row>
+    <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="63" t="s">
+        <v>276</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7530,67 +7524,62 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="41" customWidth="1"/>
     <col min="2" max="2" width="18" style="41" customWidth="1"/>
-    <col min="3" max="3" width="11" style="41" customWidth="1"/>
-    <col min="4" max="4" width="11" style="41" customWidth="1"/>
-    <col min="5" max="5" width="11" style="41" customWidth="1"/>
-    <col min="6" max="6" width="11" style="41" customWidth="1"/>
-    <col min="7" max="7" width="11" style="41" customWidth="1"/>
-    <col min="8" max="8" width="11" style="41" customWidth="1"/>
-    <col min="9" max="9" width="11" style="41" customWidth="1"/>
-    <col min="10" max="256" width="11" style="41" customWidth="1"/>
+    <col min="3" max="256" width="11" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1">
-      <c r="A1" t="s" s="4">
+    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s" s="29">
+      <c r="B1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s" s="30">
+      <c r="E1" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="F1" t="s" s="30">
+      <c r="G1" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="G1" t="s" s="30">
+      <c r="H1" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="H1" t="s" s="30">
+      <c r="I1" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="I1" t="s" s="30">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="4">
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <f>'Backlog'!$C$10</f>
-        <v>42</v>
-      </c>
-      <c r="C2" t="s" s="2">
+      <c r="B2" s="2" t="str">
+        <f>Backlog!$C$10</f>
+        <v>Multiple births &lt;= 5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s" s="2">
-        <v>181</v>
+      <c r="D2" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="E2" s="6">
         <v>60</v>
@@ -7602,12 +7591,12 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" ht="38.25" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="B3" t="s" s="7">
-        <v>183</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -7617,12 +7606,12 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" ht="25.5" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="B4" t="s" s="7">
-        <v>185</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -7632,12 +7621,12 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" ht="25.5" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="5" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="B5" t="s" s="7">
-        <v>187</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -7647,7 +7636,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="33"/>
       <c r="C6" s="3"/>
@@ -7658,19 +7647,19 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="4">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <f>'Backlog'!$C$11</f>
-        <v>45</v>
-      </c>
-      <c r="C7" t="s" s="2">
+      <c r="B7" s="2" t="str">
+        <f>Backlog!$C$11</f>
+        <v>Male last names</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s" s="2">
-        <v>181</v>
+      <c r="D7" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="E7" s="6">
         <v>60</v>
@@ -7682,12 +7671,12 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" ht="25.5" customHeight="1">
-      <c r="A8" t="s" s="2">
+    <row r="8" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="B8" t="s" s="7">
-        <v>189</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -7697,12 +7686,12 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" ht="38.25" customHeight="1">
-      <c r="A9" t="s" s="2">
+    <row r="9" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="B9" t="s" s="7">
-        <v>191</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -7712,12 +7701,12 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" ht="25.5" customHeight="1">
-      <c r="A10" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B10" t="s" s="7">
-        <v>187</v>
+    <row r="10" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -7727,7 +7716,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" ht="25.5" customHeight="1">
+    <row r="11" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="33"/>
       <c r="C11" s="3"/>
@@ -7738,12 +7727,12 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="A12" t="s" s="4">
+    <row r="12" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B12" t="s" s="7">
-        <v>193</v>
+      <c r="B12" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -7757,12 +7746,12 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" ht="25.5" customHeight="1">
-      <c r="A13" t="s" s="2">
+    <row r="13" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="B13" t="s" s="7">
-        <v>195</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -7772,12 +7761,12 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="A14" t="s" s="2">
+    <row r="14" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="B14" t="s" s="7">
-        <v>197</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -7787,7 +7776,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" ht="25.5" customHeight="1">
+    <row r="15" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="33"/>
       <c r="C15" s="3"/>
@@ -7798,11 +7787,11 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="A16" t="s" s="4">
+    <row r="16" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B16" t="s" s="7">
+      <c r="B16" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="3"/>
@@ -7817,9 +7806,9 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" ht="25.5" customHeight="1">
-      <c r="A17" t="s" s="2">
-        <v>198</v>
+    <row r="17" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="B17" s="33"/>
       <c r="C17" s="3"/>
@@ -7830,9 +7819,9 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" ht="25.5" customHeight="1">
-      <c r="A18" t="s" s="2">
-        <v>199</v>
+    <row r="18" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="3"/>
@@ -7843,7 +7832,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" ht="25.5" customHeight="1">
+    <row r="19" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="35"/>
       <c r="B19" s="33"/>
       <c r="C19" s="3"/>
@@ -7854,9 +7843,167 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
+    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" s="6">
+        <v>30</v>
+      </c>
+      <c r="F20" s="6">
+        <v>30</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="68" t="s">
+        <v>291</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>288</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="68" t="s">
+        <v>290</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="6">
+        <v>25</v>
+      </c>
+      <c r="F24" s="6">
+        <v>30</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="68" t="s">
+        <v>285</v>
+      </c>
+      <c r="B25" s="67" t="s">
+        <v>280</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="68" t="s">
+        <v>284</v>
+      </c>
+      <c r="B26" s="67" t="s">
+        <v>281</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="B27" s="67" t="s">
+        <v>286</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="B28" s="67" t="s">
+        <v>287</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="35"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7864,55 +8011,46 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="42" customWidth="1"/>
-    <col min="2" max="2" width="11" style="42" customWidth="1"/>
-    <col min="3" max="3" width="11" style="42" customWidth="1"/>
-    <col min="4" max="4" width="11" style="42" customWidth="1"/>
-    <col min="5" max="5" width="11" style="42" customWidth="1"/>
-    <col min="6" max="6" width="11" style="42" customWidth="1"/>
-    <col min="7" max="7" width="11" style="42" customWidth="1"/>
-    <col min="8" max="8" width="11" style="42" customWidth="1"/>
-    <col min="9" max="9" width="11" style="42" customWidth="1"/>
-    <col min="10" max="256" width="11" style="42" customWidth="1"/>
+    <col min="1" max="256" width="11" style="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1">
-      <c r="A1" t="s" s="4">
+    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s" s="29">
+      <c r="B1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s" s="30">
+      <c r="E1" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="F1" t="s" s="30">
+      <c r="G1" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="G1" t="s" s="30">
+      <c r="H1" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="H1" t="s" s="30">
+      <c r="I1" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="I1" t="s" s="30">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7923,7 +8061,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -7934,7 +8072,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -7945,7 +8083,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -7956,7 +8094,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -7967,7 +8105,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -7978,7 +8116,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -7989,7 +8127,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -8000,7 +8138,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -8013,7 +8151,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -8021,55 +8159,46 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="43" customWidth="1"/>
-    <col min="2" max="2" width="11" style="43" customWidth="1"/>
-    <col min="3" max="3" width="11" style="43" customWidth="1"/>
-    <col min="4" max="4" width="11" style="43" customWidth="1"/>
-    <col min="5" max="5" width="11" style="43" customWidth="1"/>
-    <col min="6" max="6" width="11" style="43" customWidth="1"/>
-    <col min="7" max="7" width="11" style="43" customWidth="1"/>
-    <col min="8" max="8" width="11" style="43" customWidth="1"/>
-    <col min="9" max="9" width="11" style="43" customWidth="1"/>
-    <col min="10" max="256" width="11" style="43" customWidth="1"/>
+    <col min="1" max="256" width="11" style="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1">
-      <c r="A1" t="s" s="4">
+    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s" s="29">
+      <c r="B1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s" s="30">
+      <c r="E1" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="F1" t="s" s="30">
+      <c r="G1" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="G1" t="s" s="30">
+      <c r="H1" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="H1" t="s" s="30">
+      <c r="I1" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="I1" t="s" s="30">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -8080,7 +8209,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -8091,7 +8220,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -8102,7 +8231,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -8113,7 +8242,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -8124,7 +8253,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -8135,7 +8264,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -8146,7 +8275,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -8157,7 +8286,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -8170,7 +8299,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/TeamNick_Jeremy_AmieReport.xlsx
+++ b/TeamNick_Jeremy_AmieReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="220" windowWidth="21360" windowHeight="14400" activeTab="6"/>
+    <workbookView xWindow="220" yWindow="220" windowWidth="21360" windowHeight="14400" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -28,28 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="301">
-  <si>
-    <t>List line numbers from GEDCOM source file when reporting errors</t>
-  </si>
-  <si>
-    <t>US41</t>
-  </si>
-  <si>
-    <t>Include partial dates</t>
-  </si>
-  <si>
-    <t>Accept and use dates without days or without days and months</t>
-  </si>
-  <si>
-    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
-  </si>
-  <si>
-    <t>From JRD: Not using docstrings. We should attempt to keep more consistent documentation in the future.</t>
-  </si>
-  <si>
-    <t>From JRD: Keep questioning if what we are doing is reasonale so that we keep ourselves on track.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="303">
   <si>
     <t>UniqueFirst Names in Families</t>
   </si>
@@ -150,6 +129,239 @@
     <t>No more than one child with the same name and birth date should appear in a family</t>
   </si>
   <si>
+    <t>Complete</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Progress</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
+  </si>
+  <si>
+    <t>US29</t>
+  </si>
+  <si>
+    <t>List deceased</t>
+  </si>
+  <si>
+    <t>List all deceased individuals in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living married people in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>List living single</t>
+  </si>
+  <si>
+    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all multiple births in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t>Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
+    <t>Divorce can only occur before death of both spouses</t>
+  </si>
+  <si>
+    <t>Less then 150 years old</t>
+  </si>
+  <si>
+    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>Birth before marriage of parents</t>
+  </si>
+  <si>
+    <t>List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
+    <t>US41</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>Accept and use dates without days or without days and months</t>
+  </si>
+  <si>
+    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+  </si>
+  <si>
+    <t>From JRD: Not using docstrings. We should attempt to keep more consistent documentation in the future.</t>
+  </si>
+  <si>
+    <t>From JRD: Keep questioning if what we are doing is reasonale so that we keep ourselves on track.</t>
+  </si>
+  <si>
+    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>Siblings spacing</t>
+  </si>
+  <si>
+    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+  </si>
+  <si>
+    <t>No more than five siblings should be born at the same time</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>Fewer than 15 siblings</t>
+  </si>
+  <si>
+    <t>There should be fewer than 15 siblings in a family</t>
+  </si>
+  <si>
+    <t>All male members of a family should have the same last name</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>No marriages to descendants</t>
+  </si>
+  <si>
+    <t>Parents should not marry any of their descendants</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+  </si>
+  <si>
+    <t>Siblings should not marry one another</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>First cousins should not marry</t>
+  </si>
+  <si>
+    <t>First cousins should not marry one another</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>Aunts and uncles</t>
+  </si>
+  <si>
+    <t>Aunts and uncles should not marry their nieces or nephews</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>Correct gender for role</t>
+  </si>
+  <si>
+    <t>Communicate early and often</t>
+  </si>
+  <si>
+    <t>Set next meeting before end current meeting</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Store birth date</t>
+  </si>
+  <si>
+    <t>T02.02</t>
+  </si>
+  <si>
+    <t>Store marriage date</t>
+  </si>
+  <si>
+    <t>T02.03</t>
+  </si>
+  <si>
+    <t>Compare birth and marriage dates</t>
+  </si>
+  <si>
+    <t>Store death date</t>
+  </si>
+  <si>
+    <t>T03.03</t>
+  </si>
+  <si>
+    <t>Compare birth and death dates</t>
+  </si>
+  <si>
+    <t>Store divorce date</t>
+  </si>
+  <si>
+    <t>T04.03</t>
+  </si>
+  <si>
+    <t>Compare marriage and divorce date</t>
+  </si>
+  <si>
+    <t>Find marriage record for individual</t>
+  </si>
+  <si>
+    <t>Find marriage date</t>
+  </si>
+  <si>
+    <t>Compare marriage date to birth date</t>
+  </si>
+  <si>
+    <t>T06.02</t>
+  </si>
+  <si>
+    <t>Find death date</t>
+  </si>
+  <si>
+    <t>T06.03</t>
+  </si>
+  <si>
     <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
   </si>
   <si>
@@ -162,76 +374,157 @@
     <t>Include person's current age when listing individuals</t>
   </si>
   <si>
-    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
-  </si>
-  <si>
-    <t>US29</t>
-  </si>
-  <si>
-    <t>List deceased</t>
-  </si>
-  <si>
-    <t>List all deceased individuals in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living married people in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>US31</t>
-  </si>
-  <si>
-    <t>List living single</t>
-  </si>
-  <si>
-    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t>Marriage should occur before death of either spouse</t>
-  </si>
-  <si>
-    <t>Divorce can only occur before death of both spouses</t>
-  </si>
-  <si>
-    <t>Less then 150 years old</t>
-  </si>
-  <si>
-    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
-  </si>
-  <si>
-    <t>US08</t>
-  </si>
-  <si>
-    <t>Birth before marriage of parents</t>
+    <t>From ALW: I was too liberal with my estimated time. The time spent took longer than I initially documented. I need to be more conserative with my time spent</t>
+  </si>
+  <si>
+    <t>From ALW: Adding unit testing into the tasks list. This was additional work that wasn't created initially</t>
+  </si>
+  <si>
+    <t>From ALW: Programming wise, needed to break my US into separate functions, so unit testing could be easier</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>T14.01</t>
+  </si>
+  <si>
+    <t>store children with the same birth date in a collection</t>
+  </si>
+  <si>
+    <t>T14.02</t>
+  </si>
+  <si>
+    <t>Collect size, throw error if &gt; 5</t>
+  </si>
+  <si>
+    <t>T14.03</t>
+  </si>
+  <si>
+    <t>Create Unit Test to test</t>
+  </si>
+  <si>
+    <t>T16.01</t>
+  </si>
+  <si>
+    <t>Save the fathers last name</t>
+  </si>
+  <si>
+    <t>T16.02</t>
+  </si>
+  <si>
+    <t>Compare all males in the family have the same last name</t>
+  </si>
+  <si>
+    <t>T16.03</t>
+  </si>
+  <si>
+    <t>Unique ID</t>
+  </si>
+  <si>
+    <t>T22.01</t>
+  </si>
+  <si>
+    <t>Check unique individual ID</t>
+  </si>
+  <si>
+    <t>T22.02</t>
+  </si>
+  <si>
+    <t>Check unique family ID</t>
+  </si>
+  <si>
+    <t>T24.01</t>
+  </si>
+  <si>
+    <t>T24.02</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>Dates before current date</t>
+  </si>
+  <si>
+    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t>Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Remaining Stories</t>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Code Velocity</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   * Inputs in blue (placeholders right now)</t>
+  </si>
+  <si>
+    <t>Est Size</t>
+  </si>
+  <si>
+    <t>Est Time</t>
+  </si>
+  <si>
+    <t>Act Size</t>
+  </si>
+  <si>
+    <t>Act Time</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>US01</t>
+  </si>
+  <si>
+    <t>Obtain GitHub account</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>T01.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each team member needs to obtain an account in GitHub </t>
+  </si>
+  <si>
+    <t>dc, jd, aw</t>
   </si>
   <si>
     <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
@@ -262,372 +555,6 @@
   </si>
   <si>
     <t>Marriage should not occur during marriage to another spouse</t>
-  </si>
-  <si>
-    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
-    <t>US13</t>
-  </si>
-  <si>
-    <t>Siblings spacing</t>
-  </si>
-  <si>
-    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
-    <t>No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
-    <t>US15</t>
-  </si>
-  <si>
-    <t>Fewer than 15 siblings</t>
-  </si>
-  <si>
-    <t>There should be fewer than 15 siblings in a family</t>
-  </si>
-  <si>
-    <t>All male members of a family should have the same last name</t>
-  </si>
-  <si>
-    <t>US17</t>
-  </si>
-  <si>
-    <t>No marriages to descendants</t>
-  </si>
-  <si>
-    <t>Parents should not marry any of their descendants</t>
-  </si>
-  <si>
-    <t>US18</t>
-  </si>
-  <si>
-    <t>Siblings should not marry</t>
-  </si>
-  <si>
-    <t>Siblings should not marry one another</t>
-  </si>
-  <si>
-    <t>US19</t>
-  </si>
-  <si>
-    <t>First cousins should not marry</t>
-  </si>
-  <si>
-    <t>First cousins should not marry one another</t>
-  </si>
-  <si>
-    <t>US20</t>
-  </si>
-  <si>
-    <t>Aunts and uncles</t>
-  </si>
-  <si>
-    <t>Aunts and uncles should not marry their nieces or nephews</t>
-  </si>
-  <si>
-    <t>US21</t>
-  </si>
-  <si>
-    <t>Correct gender for role</t>
-  </si>
-  <si>
-    <t>Communicate early and often</t>
-  </si>
-  <si>
-    <t>Set next meeting before end current meeting</t>
-  </si>
-  <si>
-    <t>Avoid:</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Store birth date</t>
-  </si>
-  <si>
-    <t>T02.02</t>
-  </si>
-  <si>
-    <t>Store marriage date</t>
-  </si>
-  <si>
-    <t>T02.03</t>
-  </si>
-  <si>
-    <t>Compare birth and marriage dates</t>
-  </si>
-  <si>
-    <t>Store death date</t>
-  </si>
-  <si>
-    <t>T03.03</t>
-  </si>
-  <si>
-    <t>Compare birth and death dates</t>
-  </si>
-  <si>
-    <t>Store divorce date</t>
-  </si>
-  <si>
-    <t>T04.03</t>
-  </si>
-  <si>
-    <t>Compare marriage and divorce date</t>
-  </si>
-  <si>
-    <t>Find marriage record for individual</t>
-  </si>
-  <si>
-    <t>Find marriage date</t>
-  </si>
-  <si>
-    <t>Compare marriage date to birth date</t>
-  </si>
-  <si>
-    <t>T06.02</t>
-  </si>
-  <si>
-    <t>Find death date</t>
-  </si>
-  <si>
-    <t>T06.03</t>
-  </si>
-  <si>
-    <t>Compare divorce date to death date</t>
-  </si>
-  <si>
-    <t>T12.01</t>
-  </si>
-  <si>
-    <t>store mothers birth date</t>
-  </si>
-  <si>
-    <t>T12.02</t>
-  </si>
-  <si>
-    <t>store fathers birth date</t>
-  </si>
-  <si>
-    <t>T12.03</t>
-  </si>
-  <si>
-    <t>store children's birth dates</t>
-  </si>
-  <si>
-    <t>T12.04</t>
-  </si>
-  <si>
-    <t>Compare if mother is &lt; 60 years older than children</t>
-  </si>
-  <si>
-    <t>T12.05</t>
-  </si>
-  <si>
-    <t>Compare if father is &lt; 80 years older than children</t>
-  </si>
-  <si>
-    <t>From ALW: GitHub is working great</t>
-  </si>
-  <si>
-    <t>From ALW: Communication between the team members, appears to be working as far as I'm concerned</t>
-  </si>
-  <si>
-    <t>From ALW: I was too liberal with my estimated time. The time spent took longer than I initially documented. I need to be more conserative with my time spent</t>
-  </si>
-  <si>
-    <t>From ALW: Adding unit testing into the tasks list. This was additional work that wasn't created initially</t>
-  </si>
-  <si>
-    <t>From ALW: Programming wise, needed to break my US into separate functions, so unit testing could be easier</t>
-  </si>
-  <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>T14.01</t>
-  </si>
-  <si>
-    <t>store children with the same birth date in a collection</t>
-  </si>
-  <si>
-    <t>T14.02</t>
-  </si>
-  <si>
-    <t>Collect size, throw error if &gt; 5</t>
-  </si>
-  <si>
-    <t>T14.03</t>
-  </si>
-  <si>
-    <t>Create Unit Test to test</t>
-  </si>
-  <si>
-    <t>T16.01</t>
-  </si>
-  <si>
-    <t>Save the fathers last name</t>
-  </si>
-  <si>
-    <t>T16.02</t>
-  </si>
-  <si>
-    <t>Compare all males in the family have the same last name</t>
-  </si>
-  <si>
-    <t>T16.03</t>
-  </si>
-  <si>
-    <t>Unique ID</t>
-  </si>
-  <si>
-    <t>T22.01</t>
-  </si>
-  <si>
-    <t>Check unique individual ID</t>
-  </si>
-  <si>
-    <t>T22.02</t>
-  </si>
-  <si>
-    <t>Check unique family ID</t>
-  </si>
-  <si>
-    <t>T24.01</t>
-  </si>
-  <si>
-    <t>T24.02</t>
-  </si>
-  <si>
-    <t>Story Description</t>
-  </si>
-  <si>
-    <t>Dates before current date</t>
-  </si>
-  <si>
-    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t>Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t>Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Remaining Stories</t>
-  </si>
-  <si>
-    <t>Story Velocity</t>
-  </si>
-  <si>
-    <t>LOC</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Code Velocity</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   * Inputs in blue (placeholders right now)</t>
-  </si>
-  <si>
-    <t>Est Size</t>
-  </si>
-  <si>
-    <t>Est Time</t>
-  </si>
-  <si>
-    <t>Act Size</t>
-  </si>
-  <si>
-    <t>Act Time</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>US01</t>
-  </si>
-  <si>
-    <t>Obtain GitHub account</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>T01.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Each team member needs to obtain an account in GitHub </t>
-  </si>
-  <si>
-    <t>dc, jd, aw</t>
-  </si>
-  <si>
-    <t>Create a new public repository in GitHub</t>
-  </si>
-  <si>
-    <t>T02.01</t>
-  </si>
-  <si>
-    <t>Create a repository, AgileMethods in GitHub</t>
-  </si>
-  <si>
-    <t>dc</t>
-  </si>
-  <si>
-    <t>Create a new GEDCOM Test file</t>
-  </si>
-  <si>
-    <t>T03.01</t>
-  </si>
-  <si>
-    <t>Select or create a new GEDCOM test data file</t>
-  </si>
-  <si>
-    <t>T03.02</t>
-  </si>
-  <si>
-    <t>Create a NOTE record at the beginning of the file and include AgileMethods, the GitHub respository</t>
-  </si>
-  <si>
-    <t>Modify program (Project #3.py) to save information</t>
-  </si>
-  <si>
-    <t>dc, jd</t>
-  </si>
-  <si>
-    <t>T04.01</t>
-  </si>
-  <si>
-    <t>Save information about individuals in a list (or collection) - assume file is always &lt; 5000</t>
-  </si>
-  <si>
-    <t>T04.02</t>
   </si>
   <si>
     <t xml:space="preserve"> -Save information about the families in a list (or collection) - assume families is always &lt; 1000</t>
@@ -794,6 +721,45 @@
     <t>US03</t>
   </si>
   <si>
+    <t>Compare divorce date to death date</t>
+  </si>
+  <si>
+    <t>T12.01</t>
+  </si>
+  <si>
+    <t>store mothers birth date</t>
+  </si>
+  <si>
+    <t>T12.02</t>
+  </si>
+  <si>
+    <t>store fathers birth date</t>
+  </si>
+  <si>
+    <t>T12.03</t>
+  </si>
+  <si>
+    <t>store children's birth dates</t>
+  </si>
+  <si>
+    <t>T12.04</t>
+  </si>
+  <si>
+    <t>Compare if mother is &lt; 60 years older than children</t>
+  </si>
+  <si>
+    <t>T12.05</t>
+  </si>
+  <si>
+    <t>Compare if father is &lt; 80 years older than children</t>
+  </si>
+  <si>
+    <t>From ALW: GitHub is working great</t>
+  </si>
+  <si>
+    <t>From ALW: Communication between the team members, appears to be working as far as I'm concerned</t>
+  </si>
+  <si>
     <t>Birth before death</t>
   </si>
   <si>
@@ -948,17 +914,55 @@
   </si>
   <si>
     <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Create a new public repository in GitHub</t>
+  </si>
+  <si>
+    <t>T02.01</t>
+  </si>
+  <si>
+    <t>Create a repository, AgileMethods in GitHub</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>Create a new GEDCOM Test file</t>
+  </si>
+  <si>
+    <t>T03.01</t>
+  </si>
+  <si>
+    <t>Select or create a new GEDCOM test data file</t>
+  </si>
+  <si>
+    <t>T03.02</t>
+  </si>
+  <si>
+    <t>Create a NOTE record at the beginning of the file and include AgileMethods, the GitHub respository</t>
+  </si>
+  <si>
+    <t>Modify program (Project #3.py) to save information</t>
+  </si>
+  <si>
+    <t>dc, jd</t>
+  </si>
+  <si>
+    <t>T04.01</t>
+  </si>
+  <si>
+    <t>Save information about individuals in a list (or collection) - assume file is always &lt; 5000</t>
+  </si>
+  <si>
+    <t>T04.02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
   </numFmts>
@@ -1478,13 +1482,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="513281336"/>
-        <c:axId val="502052632"/>
+        <c:axId val="504176216"/>
+        <c:axId val="504163960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="513281336"/>
+        <c:axId val="504176216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1515,14 +1518,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502052632"/>
+        <c:crossAx val="504163960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="502052632"/>
+        <c:axId val="504163960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1564,7 +1567,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513281336"/>
+        <c:crossAx val="504176216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7.5"/>
@@ -1694,13 +1697,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="513113048"/>
-        <c:axId val="513109688"/>
+        <c:axId val="69831448"/>
+        <c:axId val="69829464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="513113048"/>
+        <c:axId val="69831448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1731,14 +1733,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513109688"/>
+        <c:crossAx val="69829464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="513109688"/>
+        <c:axId val="69829464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,7 +1782,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513113048"/>
+        <c:crossAx val="69831448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="6.0"/>
@@ -4084,19 +4086,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -4108,53 +4110,53 @@
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
@@ -4183,10 +4185,10 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="4" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
@@ -4230,565 +4232,564 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="31.5" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="47" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="D3" s="50"/>
       <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="47" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D4" s="50"/>
       <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:5" ht="31.5" customHeight="1">
       <c r="A5" s="47" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="47" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D6" s="50"/>
       <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="47" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D7" s="50"/>
       <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:5" ht="47.25" customHeight="1">
       <c r="A8" s="52" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5" ht="31.5" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="31.5" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="31.5" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="31.5" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="D12" s="46"/>
       <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:5" ht="47.25" customHeight="1">
       <c r="A13" s="47" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D13" s="50"/>
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:5" ht="63" customHeight="1">
       <c r="A14" s="55" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D14" s="57"/>
       <c r="E14" s="57"/>
     </row>
     <row r="15" spans="1:5" ht="31.5" customHeight="1">
       <c r="A15" s="47" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D15" s="50"/>
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="55" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D16" s="57"/>
       <c r="E16" s="57"/>
     </row>
     <row r="17" spans="1:5" ht="31.5" customHeight="1">
       <c r="A17" s="47" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D17" s="50"/>
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="52" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="31.5" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="31.5" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D22" s="46"/>
       <c r="E22" s="46"/>
     </row>
     <row r="23" spans="1:5" ht="31.5" customHeight="1">
       <c r="A23" s="47" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D23" s="50"/>
       <c r="E23" s="51"/>
     </row>
     <row r="24" spans="1:5" ht="31.5" customHeight="1">
       <c r="A24" s="55" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
     </row>
     <row r="25" spans="1:5" ht="47.25" customHeight="1">
       <c r="A25" s="47" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D25" s="50"/>
       <c r="E25" s="51"/>
     </row>
     <row r="26" spans="1:5" ht="31.5" customHeight="1">
       <c r="A26" s="47" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D26" s="50"/>
       <c r="E26" s="51"/>
     </row>
     <row r="27" spans="1:5" ht="126" customHeight="1">
       <c r="A27" s="47" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="D27" s="50"/>
       <c r="E27" s="51"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="C28" s="56" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
     </row>
     <row r="29" spans="1:5" ht="31.5" customHeight="1">
       <c r="A29" s="47" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D29" s="50"/>
       <c r="E29" s="51"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="55" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C30" s="56" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="47" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C31" s="49" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D31" s="50"/>
       <c r="E31" s="51"/>
     </row>
     <row r="32" spans="1:5" ht="31.5" customHeight="1">
       <c r="A32" s="55" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C32" s="56" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="47" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D33" s="50"/>
       <c r="E33" s="51"/>
     </row>
     <row r="34" spans="1:5" ht="31.5" customHeight="1">
       <c r="A34" s="47" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D34" s="50"/>
       <c r="E34" s="51"/>
     </row>
     <row r="35" spans="1:5" ht="47.25" customHeight="1">
       <c r="A35" s="47" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D35" s="50"/>
       <c r="E35" s="51"/>
     </row>
     <row r="36" spans="1:5" ht="31.5" customHeight="1">
       <c r="A36" s="47" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D36" s="50"/>
       <c r="E36" s="51"/>
     </row>
     <row r="37" spans="1:5" ht="31.5" customHeight="1">
       <c r="A37" s="47" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D37" s="50"/>
       <c r="E37" s="51"/>
     </row>
     <row r="38" spans="1:5" ht="31.5" customHeight="1">
       <c r="A38" s="47" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D38" s="50"/>
       <c r="E38" s="51"/>
     </row>
     <row r="39" spans="1:5" ht="31.5" customHeight="1">
       <c r="A39" s="47" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D39" s="50"/>
       <c r="E39" s="51"/>
     </row>
     <row r="40" spans="1:5" ht="31.5" customHeight="1">
       <c r="A40" s="47" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="B40" s="48" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C40" s="49" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D40" s="50"/>
       <c r="E40" s="51"/>
     </row>
     <row r="41" spans="1:5" ht="31.5" customHeight="1">
       <c r="A41" s="47" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B41" s="48" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C41" s="49" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D41" s="50"/>
       <c r="E41" s="51"/>
     </row>
     <row r="42" spans="1:5" ht="31.5" customHeight="1">
       <c r="A42" s="55" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B42" s="55" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="C42" s="56" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="D42" s="57"/>
       <c r="E42" s="57"/>
     </row>
     <row r="43" spans="1:5" ht="31.5" customHeight="1">
       <c r="A43" s="58" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B43" s="59" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C43" s="60" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="D43" s="61"/>
       <c r="E43" s="62"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
@@ -4822,19 +4823,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -4857,10 +4858,10 @@
         <v>Birth before marriage</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
@@ -4868,16 +4869,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
@@ -4893,10 +4894,10 @@
         <v>Marriage before divorce</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
@@ -4904,16 +4905,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
@@ -4929,10 +4930,10 @@
         <v>Divorce before death</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
@@ -4948,10 +4949,10 @@
         <v>Parents not too old</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
@@ -4974,10 +4975,10 @@
         <v>Multiple births &lt;= 5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1">
@@ -4993,10 +4994,10 @@
         <v>Male last names</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
@@ -5012,10 +5013,10 @@
         <v>Unique IDs</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
@@ -5031,10 +5032,10 @@
         <v>Unique families by spouses</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
@@ -5050,10 +5051,10 @@
         <v>Unique first names in families</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
@@ -5069,10 +5070,10 @@
         <v>Corresponding entries</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
@@ -5302,7 +5303,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5314,7 +5315,7 @@
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5326,7 +5327,7 @@
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -5348,7 +5349,7 @@
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5360,7 +5361,7 @@
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -5382,7 +5383,7 @@
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -5444,31 +5445,31 @@
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B15" s="13">
         <v>41426</v>
@@ -5486,7 +5487,7 @@
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="B16" s="13">
         <v>41438</v>
@@ -5512,7 +5513,7 @@
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B17" s="13">
         <v>41452</v>
@@ -5538,7 +5539,7 @@
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B18" s="13">
         <v>41466</v>
@@ -5564,7 +5565,7 @@
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="B19" s="13">
         <v>41487</v>
@@ -5824,22 +5825,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -5923,7 +5924,7 @@
     </row>
     <row r="8" spans="1:7" ht="12.75" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -6095,6 +6096,7 @@
       <c r="G26" s="3"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
@@ -6130,55 +6132,55 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="I2" s="32">
         <v>41426</v>
@@ -6186,16 +6188,16 @@
     </row>
     <row r="3" spans="1:9" ht="38.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -6216,14 +6218,14 @@
     </row>
     <row r="5" spans="1:9" ht="25.5" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>183</v>
+        <v>289</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -6235,16 +6237,16 @@
     </row>
     <row r="6" spans="1:9" ht="25.5" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>184</v>
+        <v>290</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>185</v>
+        <v>291</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>186</v>
+        <v>292</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -6267,14 +6269,14 @@
     </row>
     <row r="8" spans="1:9" ht="25.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>187</v>
+        <v>293</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -6286,16 +6288,16 @@
     </row>
     <row r="9" spans="1:9" ht="25.5" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>188</v>
+        <v>294</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>189</v>
+        <v>295</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>186</v>
+        <v>292</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -6307,16 +6309,16 @@
     </row>
     <row r="10" spans="1:9" ht="51" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>191</v>
+        <v>297</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>186</v>
+        <v>292</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -6339,16 +6341,16 @@
     </row>
     <row r="12" spans="1:9" ht="25.5" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>192</v>
+        <v>298</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>193</v>
+        <v>299</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -6360,16 +6362,16 @@
     </row>
     <row r="13" spans="1:9" ht="51" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>194</v>
+        <v>300</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>195</v>
+        <v>301</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>186</v>
+        <v>292</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -6381,16 +6383,16 @@
     </row>
     <row r="14" spans="1:9" ht="51" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>196</v>
+        <v>302</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>186</v>
+        <v>292</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -6413,16 +6415,16 @@
     </row>
     <row r="16" spans="1:9" ht="25.5" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -6434,16 +6436,16 @@
     </row>
     <row r="17" spans="1:9" ht="38.25" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -6455,16 +6457,16 @@
     </row>
     <row r="18" spans="1:9" ht="38.25" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -6476,16 +6478,16 @@
     </row>
     <row r="19" spans="1:9" ht="63.75" customHeight="1">
       <c r="A19" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -6497,16 +6499,16 @@
     </row>
     <row r="20" spans="1:9" ht="51" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -6529,16 +6531,16 @@
     </row>
     <row r="22" spans="1:9" ht="38.25" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>193</v>
+        <v>299</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -6550,16 +6552,16 @@
     </row>
     <row r="23" spans="1:9" ht="38.25" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>193</v>
+        <v>299</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -6582,16 +6584,16 @@
     </row>
     <row r="25" spans="1:9" ht="25.5" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -6603,16 +6605,16 @@
     </row>
     <row r="26" spans="1:9" ht="25.5" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -6691,7 +6693,7 @@
     <row r="33" spans="1:9" ht="15" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="29" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -6715,7 +6717,7 @@
     <row r="35" spans="1:9" ht="15" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="29" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -6728,7 +6730,7 @@
     <row r="36" spans="1:9" ht="25.5" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -6741,7 +6743,7 @@
     <row r="37" spans="1:9" ht="25.5" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -6754,7 +6756,7 @@
     <row r="38" spans="1:9" ht="25.5" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -6767,7 +6769,7 @@
     <row r="39" spans="1:9" ht="25.5" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -6791,7 +6793,7 @@
     <row r="41" spans="1:9" ht="15" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="29" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -6802,7 +6804,6 @@
       <c r="I41" s="10"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -6839,31 +6840,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
@@ -6887,10 +6888,10 @@
         <v>Birth before marriage</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="E3" s="6">
         <v>20</v>
@@ -6905,15 +6906,15 @@
         <v>60</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>184</v>
+        <v>290</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="35"/>
@@ -6925,10 +6926,10 @@
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="35"/>
@@ -6940,10 +6941,10 @@
     </row>
     <row r="6" spans="1:9" ht="25.5" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="35"/>
@@ -6966,16 +6967,16 @@
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="E8" s="6">
         <v>20</v>
@@ -6990,15 +6991,15 @@
         <v>60</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>188</v>
+        <v>294</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -7010,10 +7011,10 @@
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -7025,10 +7026,10 @@
     </row>
     <row r="11" spans="1:9" ht="25.5" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -7059,10 +7060,10 @@
         <v>Marriage before divorce</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="E13" s="6">
         <v>20</v>
@@ -7077,15 +7078,15 @@
         <v>20</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>194</v>
+        <v>300</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -7097,10 +7098,10 @@
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>196</v>
+        <v>302</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -7112,10 +7113,10 @@
     </row>
     <row r="16" spans="1:9" ht="25.5" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -7138,16 +7139,16 @@
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="E18" s="6">
         <v>20</v>
@@ -7162,15 +7163,15 @@
         <v>30</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="25.5" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -7182,10 +7183,10 @@
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -7197,10 +7198,10 @@
     </row>
     <row r="21" spans="1:9" ht="25.5" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -7231,10 +7232,10 @@
         <v>Divorce before death</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="E23" s="6">
         <v>10</v>
@@ -7249,15 +7250,15 @@
         <v>30</v>
       </c>
       <c r="I23" s="39" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -7269,10 +7270,10 @@
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -7284,10 +7285,10 @@
     </row>
     <row r="26" spans="1:9" ht="25.5" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>119</v>
+        <v>224</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -7318,10 +7319,10 @@
         <v>Parents not too old</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="E28" s="6">
         <v>20</v>
@@ -7336,15 +7337,15 @@
         <v>30</v>
       </c>
       <c r="I28" s="39" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>120</v>
+        <v>225</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>121</v>
+        <v>226</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -7356,10 +7357,10 @@
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -7371,10 +7372,10 @@
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -7386,10 +7387,10 @@
     </row>
     <row r="32" spans="1:9" ht="25.5" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>126</v>
+        <v>231</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>127</v>
+        <v>232</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -7401,10 +7402,10 @@
     </row>
     <row r="33" spans="1:256" ht="25.5" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -7428,7 +7429,7 @@
     <row r="35" spans="1:256" ht="15" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="29" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -7458,7 +7459,7 @@
     <row r="37" spans="1:256" ht="15" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="29" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -7471,7 +7472,7 @@
     <row r="38" spans="1:256" ht="25.5" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -7484,7 +7485,7 @@
     <row r="39" spans="1:256" ht="63.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -7497,7 +7498,7 @@
     <row r="40" spans="1:256" ht="63.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="66" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -7757,7 +7758,7 @@
     <row r="41" spans="1:256" ht="59" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="33" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -7770,7 +7771,7 @@
     <row r="42" spans="1:256" ht="15" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="29" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -7783,7 +7784,7 @@
     <row r="43" spans="1:256" ht="89.25" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="33" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -7796,7 +7797,7 @@
     <row r="44" spans="1:256" ht="51" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="33" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -7809,7 +7810,7 @@
     <row r="45" spans="1:256" ht="63.75" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="33" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -7822,7 +7823,7 @@
     <row r="46" spans="1:256" ht="63.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="33" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -8082,7 +8083,7 @@
     <row r="47" spans="1:256" ht="63.75" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="33" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -8340,7 +8341,6 @@
       <c r="IV47" s="44"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
@@ -8359,7 +8359,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
@@ -8371,46 +8371,46 @@
   <sheetData>
     <row r="1" spans="1:256" ht="25.5" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:256" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>Backlog!$C$10</f>
         <v>Multiple births &lt;= 5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E2" s="6">
         <v>60</v>
@@ -8424,10 +8424,10 @@
     </row>
     <row r="3" spans="1:256" ht="38.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -8439,10 +8439,10 @@
     </row>
     <row r="4" spans="1:256" ht="25.5" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -8454,10 +8454,10 @@
     </row>
     <row r="5" spans="1:256" ht="25.5" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -8480,17 +8480,17 @@
     </row>
     <row r="7" spans="1:256" ht="15" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>Backlog!$C$11</f>
         <v>Male last names</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E7" s="6">
         <v>60</v>
@@ -8504,10 +8504,10 @@
     </row>
     <row r="8" spans="1:256" ht="25.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -8519,10 +8519,10 @@
     </row>
     <row r="9" spans="1:256" ht="38.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -8534,10 +8534,10 @@
     </row>
     <row r="10" spans="1:256" ht="25.5" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -8560,33 +8560,37 @@
     </row>
     <row r="12" spans="1:256" ht="25.5" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="E12" s="6">
         <v>10</v>
       </c>
       <c r="F12" s="6">
-        <v>15</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="G12" s="3">
+        <v>11</v>
+      </c>
+      <c r="H12" s="3">
+        <v>75</v>
+      </c>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:256" ht="25.5" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -8598,10 +8602,10 @@
     </row>
     <row r="14" spans="1:256" ht="25.5" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -8613,10 +8617,10 @@
     </row>
     <row r="15" spans="1:256" ht="25.5" customHeight="1">
       <c r="A15" s="67" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -8886,16 +8890,16 @@
     </row>
     <row r="17" spans="1:256" ht="25.5" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="E17" s="6">
         <v>60</v>
@@ -8909,10 +8913,10 @@
     </row>
     <row r="18" spans="1:256" ht="25.5" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -8924,10 +8928,10 @@
     </row>
     <row r="19" spans="1:256" ht="25.5" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -8939,10 +8943,10 @@
     </row>
     <row r="20" spans="1:256" ht="25.5" customHeight="1">
       <c r="A20" s="67" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -9212,16 +9216,16 @@
     </row>
     <row r="22" spans="1:256" ht="25.5" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D22" s="63" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E22" s="6">
         <v>30</v>
@@ -9482,10 +9486,10 @@
     </row>
     <row r="23" spans="1:256" ht="25.5" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -9744,10 +9748,10 @@
     </row>
     <row r="24" spans="1:256" ht="25.5" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B24" s="64" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -10006,10 +10010,10 @@
     </row>
     <row r="25" spans="1:256" ht="25.5" customHeight="1">
       <c r="A25" s="67" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -10526,16 +10530,16 @@
     </row>
     <row r="27" spans="1:256" ht="25.5" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C27" s="65" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D27" s="63" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E27" s="6">
         <v>25</v>
@@ -10796,10 +10800,10 @@
     </row>
     <row r="28" spans="1:256" ht="25.5" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -11058,10 +11062,10 @@
     </row>
     <row r="29" spans="1:256" ht="25.5" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -11320,10 +11324,10 @@
     </row>
     <row r="30" spans="1:256" ht="25.5" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -11582,10 +11586,10 @@
     </row>
     <row r="31" spans="1:256" ht="25.5" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -11844,10 +11848,10 @@
     </row>
     <row r="32" spans="1:256" ht="25.5" customHeight="1">
       <c r="A32" s="67" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -12363,10 +12367,8 @@
       <c r="IV33" s="44"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -12391,31 +12393,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
@@ -12518,7 +12520,6 @@
       <c r="I10" s="3"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
@@ -12545,31 +12546,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
@@ -12672,7 +12673,6 @@
       <c r="I10" s="3"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>

--- a/TeamNick_Jeremy_AmieReport.xlsx
+++ b/TeamNick_Jeremy_AmieReport.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alwider\Desktop\GitHub\AgileMethods\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="220" yWindow="220" windowWidth="21360" windowHeight="14400" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="225" yWindow="225" windowWidth="21360" windowHeight="14400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
     <sheet name="Sprint4" sheetId="9" r:id="rId9"/>
     <sheet name="Stories" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="304">
   <si>
     <t>UniqueFirst Names in Families</t>
   </si>
@@ -957,16 +962,19 @@
   <si>
     <t>T04.02</t>
   </si>
+  <si>
+    <t>Yes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1375,15 +1383,26 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1392,14 +1411,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0931124"/>
-          <c:y val="0.055869"/>
-          <c:w val="0.901888"/>
-          <c:h val="0.841196"/>
+          <c:x val="9.3112399999999998E-2"/>
+          <c:y val="5.5869000000000002E-2"/>
+          <c:w val="0.90188800000000002"/>
+          <c:h val="0.84119600000000005"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1437,22 +1457,22 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41426.0</c:v>
+                  <c:v>41426</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41438.0</c:v>
+                  <c:v>41438</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41452.0</c:v>
+                  <c:v>41452</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41466.0</c:v>
+                  <c:v>41466</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41487.0</c:v>
+                  <c:v>41487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1464,25 +1484,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F845-4DB0-BF4B-61C3F2B72AD9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="504176216"/>
         <c:axId val="504163960"/>
       </c:lineChart>
@@ -1491,8 +1526,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:ln w="12700" cap="flat">
@@ -1529,6 +1567,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1542,6 +1581,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="12700" cap="flat">
@@ -1610,10 +1651,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1622,14 +1671,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0740696"/>
-          <c:y val="0.055869"/>
-          <c:w val="0.92093"/>
-          <c:h val="0.841196"/>
+          <c:x val="7.4069599999999999E-2"/>
+          <c:y val="5.5869000000000002E-2"/>
+          <c:w val="0.92093000000000003"/>
+          <c:h val="0.84119600000000005"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1670,13 +1720,13 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41431.0</c:v>
+                  <c:v>41431</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41446.0</c:v>
+                  <c:v>41446</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41459.0</c:v>
+                  <c:v>41459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1688,16 +1738,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-60FF-4851-ABD9-FA91BB13A616}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="69831448"/>
         <c:axId val="69829464"/>
       </c:lineChart>
@@ -1706,8 +1771,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:ln w="12700" cap="flat">
@@ -1744,6 +1812,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1757,6 +1826,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="12700" cap="flat">
@@ -1785,8 +1856,8 @@
         <c:crossAx val="69831448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="6.0"/>
-        <c:minorUnit val="3.0"/>
+        <c:majorUnit val="6"/>
+        <c:minorUnit val="3"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1841,7 +1912,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1871,7 +1948,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="Rectangular Callout 3"/>
+        <xdr:cNvPr id="5" name="Rectangular Callout 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1884,7 +1967,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Shape 3"/>
+          <xdr:cNvPr id="3" name="Shape 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1981,7 +2070,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Shape 4"/>
+          <xdr:cNvPr id="4" name="Shape 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2000,7 +2095,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2076,7 +2171,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Rectangular Callout 4"/>
+        <xdr:cNvPr id="8" name="Rectangular Callout 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2089,7 +2190,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Shape 6"/>
+          <xdr:cNvPr id="6" name="Shape 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2186,7 +2293,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Shape 7"/>
+          <xdr:cNvPr id="7" name="Shape 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2205,7 +2318,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2281,7 +2394,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11" name="Rectangular Callout 5"/>
+        <xdr:cNvPr id="11" name="Rectangular Callout 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2294,7 +2413,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Shape 9"/>
+          <xdr:cNvPr id="9" name="Shape 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2391,7 +2516,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Shape 10"/>
+          <xdr:cNvPr id="10" name="Shape 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2410,7 +2541,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2533,7 +2664,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="14" name="Rectangular Callout 6"/>
+        <xdr:cNvPr id="14" name="Rectangular Callout 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2546,7 +2683,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Shape 12"/>
+          <xdr:cNvPr id="12" name="Shape 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2643,7 +2786,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Shape 13"/>
+          <xdr:cNvPr id="13" name="Shape 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2662,7 +2811,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2738,7 +2887,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="17" name="Rectangular Callout 7"/>
+        <xdr:cNvPr id="17" name="Rectangular Callout 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2751,7 +2906,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Shape 15"/>
+          <xdr:cNvPr id="15" name="Shape 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2848,7 +3009,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Shape 16"/>
+          <xdr:cNvPr id="16" name="Shape 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2867,7 +3034,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2948,7 +3115,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name="Chart 1"/>
+        <xdr:cNvPr id="19" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4070,21 +4243,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.375" style="1" customWidth="1"/>
     <col min="6" max="256" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>193</v>
       </c>
@@ -4101,14 +4274,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>198</v>
       </c>
@@ -4125,7 +4298,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>203</v>
       </c>
@@ -4142,7 +4315,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>208</v>
       </c>
@@ -4159,28 +4332,28 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4191,7 +4364,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4215,22 +4388,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="44" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="44" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="28.125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="49.375" style="44" customWidth="1"/>
     <col min="4" max="256" width="11" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>216</v>
       </c>
@@ -4243,7 +4416,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="31.5" customHeight="1">
+    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>155</v>
       </c>
@@ -4256,7 +4429,7 @@
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
         <v>220</v>
       </c>
@@ -4269,7 +4442,7 @@
       <c r="D3" s="50"/>
       <c r="E3" s="51"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="47" t="s">
         <v>223</v>
       </c>
@@ -4282,7 +4455,7 @@
       <c r="D4" s="50"/>
       <c r="E4" s="51"/>
     </row>
-    <row r="5" spans="1:5" ht="31.5" customHeight="1">
+    <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="47" t="s">
         <v>238</v>
       </c>
@@ -4295,7 +4468,7 @@
       <c r="D5" s="50"/>
       <c r="E5" s="51"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="47" t="s">
         <v>240</v>
       </c>
@@ -4308,7 +4481,7 @@
       <c r="D6" s="50"/>
       <c r="E6" s="51"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="47" t="s">
         <v>242</v>
       </c>
@@ -4321,7 +4494,7 @@
       <c r="D7" s="50"/>
       <c r="E7" s="51"/>
     </row>
-    <row r="8" spans="1:5" ht="47.25" customHeight="1">
+    <row r="8" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
         <v>185</v>
       </c>
@@ -4334,7 +4507,7 @@
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:5" ht="31.5" customHeight="1">
+    <row r="9" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
@@ -4347,7 +4520,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="31.5" customHeight="1">
+    <row r="10" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>163</v>
       </c>
@@ -4360,7 +4533,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="31.5" customHeight="1">
+    <row r="11" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>166</v>
       </c>
@@ -4373,7 +4546,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="31.5" customHeight="1">
+    <row r="12" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>169</v>
       </c>
@@ -4386,7 +4559,7 @@
       <c r="D12" s="46"/>
       <c r="E12" s="46"/>
     </row>
-    <row r="13" spans="1:5" ht="47.25" customHeight="1">
+    <row r="13" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="47" t="s">
         <v>245</v>
       </c>
@@ -4399,7 +4572,7 @@
       <c r="D13" s="50"/>
       <c r="E13" s="51"/>
     </row>
-    <row r="14" spans="1:5" ht="63" customHeight="1">
+    <row r="14" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="55" t="s">
         <v>64</v>
       </c>
@@ -4412,7 +4585,7 @@
       <c r="D14" s="57"/>
       <c r="E14" s="57"/>
     </row>
-    <row r="15" spans="1:5" ht="31.5" customHeight="1">
+    <row r="15" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="47" t="s">
         <v>247</v>
       </c>
@@ -4425,7 +4598,7 @@
       <c r="D15" s="50"/>
       <c r="E15" s="51"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55" t="s">
         <v>68</v>
       </c>
@@ -4438,7 +4611,7 @@
       <c r="D16" s="57"/>
       <c r="E16" s="57"/>
     </row>
-    <row r="17" spans="1:5" ht="31.5" customHeight="1">
+    <row r="17" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="47" t="s">
         <v>250</v>
       </c>
@@ -4451,7 +4624,7 @@
       <c r="D17" s="50"/>
       <c r="E17" s="51"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
         <v>72</v>
       </c>
@@ -4464,7 +4637,7 @@
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>75</v>
       </c>
@@ -4477,7 +4650,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>78</v>
       </c>
@@ -4490,7 +4663,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="31.5" customHeight="1">
+    <row r="21" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>81</v>
       </c>
@@ -4503,7 +4676,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="31.5" customHeight="1">
+    <row r="22" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>84</v>
       </c>
@@ -4516,7 +4689,7 @@
       <c r="D22" s="46"/>
       <c r="E22" s="46"/>
     </row>
-    <row r="23" spans="1:5" ht="31.5" customHeight="1">
+    <row r="23" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="47" t="s">
         <v>252</v>
       </c>
@@ -4529,7 +4702,7 @@
       <c r="D23" s="50"/>
       <c r="E23" s="51"/>
     </row>
-    <row r="24" spans="1:5" ht="31.5" customHeight="1">
+    <row r="24" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="55" t="s">
         <v>25</v>
       </c>
@@ -4542,7 +4715,7 @@
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
     </row>
-    <row r="25" spans="1:5" ht="47.25" customHeight="1">
+    <row r="25" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="47" t="s">
         <v>254</v>
       </c>
@@ -4555,7 +4728,7 @@
       <c r="D25" s="50"/>
       <c r="E25" s="51"/>
     </row>
-    <row r="26" spans="1:5" ht="31.5" customHeight="1">
+    <row r="26" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="47" t="s">
         <v>256</v>
       </c>
@@ -4568,7 +4741,7 @@
       <c r="D26" s="50"/>
       <c r="E26" s="51"/>
     </row>
-    <row r="27" spans="1:5" ht="126" customHeight="1">
+    <row r="27" spans="1:5" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="47" t="s">
         <v>258</v>
       </c>
@@ -4581,7 +4754,7 @@
       <c r="D27" s="50"/>
       <c r="E27" s="51"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="55" t="s">
         <v>108</v>
       </c>
@@ -4594,7 +4767,7 @@
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
     </row>
-    <row r="29" spans="1:5" ht="31.5" customHeight="1">
+    <row r="29" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="47" t="s">
         <v>260</v>
       </c>
@@ -4607,7 +4780,7 @@
       <c r="D29" s="50"/>
       <c r="E29" s="51"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="55" t="s">
         <v>33</v>
       </c>
@@ -4620,7 +4793,7 @@
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="47" t="s">
         <v>262</v>
       </c>
@@ -4633,7 +4806,7 @@
       <c r="D31" s="50"/>
       <c r="E31" s="51"/>
     </row>
-    <row r="32" spans="1:5" ht="31.5" customHeight="1">
+    <row r="32" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="55" t="s">
         <v>37</v>
       </c>
@@ -4646,7 +4819,7 @@
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="47" t="s">
         <v>264</v>
       </c>
@@ -4659,7 +4832,7 @@
       <c r="D33" s="50"/>
       <c r="E33" s="51"/>
     </row>
-    <row r="34" spans="1:5" ht="31.5" customHeight="1">
+    <row r="34" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="47" t="s">
         <v>266</v>
       </c>
@@ -4672,7 +4845,7 @@
       <c r="D34" s="50"/>
       <c r="E34" s="51"/>
     </row>
-    <row r="35" spans="1:5" ht="47.25" customHeight="1">
+    <row r="35" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="47" t="s">
         <v>268</v>
       </c>
@@ -4685,7 +4858,7 @@
       <c r="D35" s="50"/>
       <c r="E35" s="51"/>
     </row>
-    <row r="36" spans="1:5" ht="31.5" customHeight="1">
+    <row r="36" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="47" t="s">
         <v>270</v>
       </c>
@@ -4698,7 +4871,7 @@
       <c r="D36" s="50"/>
       <c r="E36" s="51"/>
     </row>
-    <row r="37" spans="1:5" ht="31.5" customHeight="1">
+    <row r="37" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="47" t="s">
         <v>272</v>
       </c>
@@ -4711,7 +4884,7 @@
       <c r="D37" s="50"/>
       <c r="E37" s="51"/>
     </row>
-    <row r="38" spans="1:5" ht="31.5" customHeight="1">
+    <row r="38" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="47" t="s">
         <v>274</v>
       </c>
@@ -4724,7 +4897,7 @@
       <c r="D38" s="50"/>
       <c r="E38" s="51"/>
     </row>
-    <row r="39" spans="1:5" ht="31.5" customHeight="1">
+    <row r="39" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="47" t="s">
         <v>276</v>
       </c>
@@ -4737,7 +4910,7 @@
       <c r="D39" s="50"/>
       <c r="E39" s="51"/>
     </row>
-    <row r="40" spans="1:5" ht="31.5" customHeight="1">
+    <row r="40" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="47" t="s">
         <v>278</v>
       </c>
@@ -4750,7 +4923,7 @@
       <c r="D40" s="50"/>
       <c r="E40" s="51"/>
     </row>
-    <row r="41" spans="1:5" ht="31.5" customHeight="1">
+    <row r="41" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="47" t="s">
         <v>280</v>
       </c>
@@ -4763,7 +4936,7 @@
       <c r="D41" s="50"/>
       <c r="E41" s="51"/>
     </row>
-    <row r="42" spans="1:5" ht="31.5" customHeight="1">
+    <row r="42" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="55" t="s">
         <v>57</v>
       </c>
@@ -4776,7 +4949,7 @@
       <c r="D42" s="57"/>
       <c r="E42" s="57"/>
     </row>
-    <row r="43" spans="1:5" ht="31.5" customHeight="1">
+    <row r="43" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="58" t="s">
         <v>282</v>
       </c>
@@ -4804,24 +4977,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="5" customWidth="1"/>
     <col min="6" max="256" width="11" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>215</v>
       </c>
@@ -4838,14 +5011,14 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -4864,7 +5037,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -4881,7 +5054,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -4900,7 +5073,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -4917,7 +5090,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -4936,7 +5109,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -4955,14 +5128,14 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -4978,10 +5151,10 @@
         <v>208</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2</v>
       </c>
@@ -4997,10 +5170,10 @@
         <v>208</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>2</v>
       </c>
@@ -5019,7 +5192,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -5038,7 +5211,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>2</v>
       </c>
@@ -5057,7 +5230,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>2</v>
       </c>
@@ -5076,14 +5249,14 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>3</v>
       </c>
@@ -5098,7 +5271,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>3</v>
       </c>
@@ -5113,7 +5286,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>3</v>
       </c>
@@ -5128,7 +5301,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>3</v>
       </c>
@@ -5143,7 +5316,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>3</v>
       </c>
@@ -5158,7 +5331,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>3</v>
       </c>
@@ -5173,14 +5346,14 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>4</v>
       </c>
@@ -5195,7 +5368,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>4</v>
       </c>
@@ -5210,7 +5383,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>4</v>
       </c>
@@ -5225,7 +5398,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>4</v>
       </c>
@@ -5240,7 +5413,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>4</v>
       </c>
@@ -5255,7 +5428,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>4</v>
       </c>
@@ -5285,23 +5458,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="8" customWidth="1"/>
     <col min="7" max="256" width="11" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>284</v>
       </c>
@@ -5313,7 +5486,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>285</v>
       </c>
@@ -5325,7 +5498,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>286</v>
       </c>
@@ -5337,7 +5510,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5347,7 +5520,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>287</v>
       </c>
@@ -5359,7 +5532,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>288</v>
       </c>
@@ -5371,7 +5544,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -5381,7 +5554,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>137</v>
       </c>
@@ -5393,7 +5566,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5403,7 +5576,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5413,7 +5586,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5423,7 +5596,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5433,7 +5606,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1">
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5443,7 +5616,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1">
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>215</v>
       </c>
@@ -5467,7 +5640,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>144</v>
       </c>
@@ -5485,7 +5658,7 @@
       <c r="G15" s="17"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>145</v>
       </c>
@@ -5511,7 +5684,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1">
+    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>146</v>
       </c>
@@ -5537,7 +5710,7 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1">
+    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>147</v>
       </c>
@@ -5563,7 +5736,7 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1">
+    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>148</v>
       </c>
@@ -5589,7 +5762,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1">
+    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="20"/>
@@ -5599,7 +5772,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1">
+    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5609,7 +5782,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1">
+    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5619,7 +5792,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1">
+    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5629,7 +5802,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1">
+    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5639,7 +5812,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1">
+    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5649,7 +5822,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1">
+    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5659,7 +5832,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1">
+    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5669,7 +5842,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="12.75" customHeight="1">
+    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5679,7 +5852,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="12.75" customHeight="1">
+    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5689,7 +5862,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="12.75" customHeight="1">
+    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5699,7 +5872,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="12.75" customHeight="1">
+    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5709,7 +5882,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="12.75" customHeight="1">
+    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5719,7 +5892,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" ht="12.75" customHeight="1">
+    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5729,7 +5902,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" ht="12.75" customHeight="1">
+    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5739,7 +5912,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" ht="12.75" customHeight="1">
+    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5749,7 +5922,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" ht="12.75" customHeight="1">
+    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5759,7 +5932,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" ht="12.75" customHeight="1">
+    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5769,7 +5942,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" ht="12.75" customHeight="1">
+    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5779,7 +5952,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" ht="12.75" customHeight="1">
+    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -5805,25 +5978,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="22" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="22" customWidth="1"/>
     <col min="7" max="256" width="11" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" customHeight="1">
+    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>138</v>
       </c>
@@ -5844,7 +6017,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1">
+    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23">
         <v>41431</v>
       </c>
@@ -5859,7 +6032,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1">
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23">
         <v>41446</v>
       </c>
@@ -5884,7 +6057,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23">
         <v>41459</v>
       </c>
@@ -5895,7 +6068,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1">
+    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5904,7 +6077,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1">
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -5913,7 +6086,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -5922,7 +6095,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1">
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>149</v>
       </c>
@@ -5933,7 +6106,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1">
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5942,7 +6115,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1">
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5951,7 +6124,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1">
+    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5960,7 +6133,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1">
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5969,7 +6142,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1">
+    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5978,7 +6151,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1">
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5987,7 +6160,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1">
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5996,7 +6169,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1">
+    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6005,7 +6178,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1">
+    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6014,7 +6187,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1">
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6023,7 +6196,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6032,7 +6205,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1">
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6041,7 +6214,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6050,7 +6223,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1">
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6059,7 +6232,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1">
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6068,7 +6241,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1">
+    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6077,7 +6250,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1">
+    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6086,7 +6259,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1">
+    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6096,7 +6269,6 @@
       <c r="G26" s="3"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
@@ -6112,25 +6284,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV41"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="28" customWidth="1"/>
     <col min="5" max="5" width="12" style="28" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="28" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="28" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="28" customWidth="1"/>
     <col min="9" max="256" width="11" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>216</v>
       </c>
@@ -6159,7 +6331,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>155</v>
       </c>
@@ -6186,7 +6358,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="38.25" customHeight="1">
+    <row r="3" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>159</v>
       </c>
@@ -6205,7 +6377,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="33"/>
       <c r="C4" s="3"/>
@@ -6216,7 +6388,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="25.5" customHeight="1">
+    <row r="5" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>220</v>
       </c>
@@ -6235,7 +6407,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="25.5" customHeight="1">
+    <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>290</v>
       </c>
@@ -6256,7 +6428,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="33"/>
       <c r="C7" s="3"/>
@@ -6267,7 +6439,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="25.5" customHeight="1">
+    <row r="8" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>223</v>
       </c>
@@ -6286,7 +6458,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="25.5" customHeight="1">
+    <row r="9" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>294</v>
       </c>
@@ -6307,7 +6479,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="51" customHeight="1">
+    <row r="10" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>296</v>
       </c>
@@ -6328,7 +6500,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="33"/>
       <c r="C11" s="3"/>
@@ -6339,7 +6511,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="25.5" customHeight="1">
+    <row r="12" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>238</v>
       </c>
@@ -6360,7 +6532,7 @@
         <v>41429</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="51" customHeight="1">
+    <row r="13" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>300</v>
       </c>
@@ -6381,7 +6553,7 @@
         <v>41429</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="51" customHeight="1">
+    <row r="14" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>302</v>
       </c>
@@ -6402,7 +6574,7 @@
         <v>41429</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="33"/>
       <c r="C15" s="3"/>
@@ -6413,7 +6585,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="25.5" customHeight="1">
+    <row r="16" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>240</v>
       </c>
@@ -6434,7 +6606,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="38.25" customHeight="1">
+    <row r="17" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>174</v>
       </c>
@@ -6455,7 +6627,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="38.25" customHeight="1">
+    <row r="18" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>176</v>
       </c>
@@ -6476,7 +6648,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="63.75" customHeight="1">
+    <row r="19" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>178</v>
       </c>
@@ -6497,7 +6669,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="51" customHeight="1">
+    <row r="20" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>180</v>
       </c>
@@ -6518,7 +6690,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="33"/>
       <c r="C21" s="3"/>
@@ -6529,7 +6701,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" ht="38.25" customHeight="1">
+    <row r="22" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>242</v>
       </c>
@@ -6550,7 +6722,7 @@
         <v>41431</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="38.25" customHeight="1">
+    <row r="23" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>183</v>
       </c>
@@ -6571,7 +6743,7 @@
         <v>41431</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="33"/>
       <c r="C24" s="3"/>
@@ -6582,7 +6754,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="25.5" customHeight="1">
+    <row r="25" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>185</v>
       </c>
@@ -6603,7 +6775,7 @@
         <v>41428</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="25.5" customHeight="1">
+    <row r="26" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>187</v>
       </c>
@@ -6624,7 +6796,7 @@
         <v>41428</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="33"/>
       <c r="C27" s="3"/>
@@ -6635,7 +6807,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="33"/>
       <c r="C28" s="3"/>
@@ -6646,7 +6818,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="33"/>
       <c r="C29" s="3"/>
@@ -6657,7 +6829,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="33"/>
       <c r="C30" s="3"/>
@@ -6668,7 +6840,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="33"/>
       <c r="C31" s="3"/>
@@ -6679,7 +6851,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="33"/>
       <c r="C32" s="3"/>
@@ -6690,7 +6862,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="29" t="s">
         <v>189</v>
@@ -6703,7 +6875,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="29"/>
       <c r="C34" s="3"/>
@@ -6714,7 +6886,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="29" t="s">
         <v>190</v>
@@ -6727,7 +6899,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="25.5" customHeight="1">
+    <row r="36" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="s">
         <v>191</v>
@@ -6740,7 +6912,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" ht="25.5" customHeight="1">
+    <row r="37" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="s">
         <v>192</v>
@@ -6753,7 +6925,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" ht="25.5" customHeight="1">
+    <row r="38" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
         <v>86</v>
@@ -6766,7 +6938,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" ht="25.5" customHeight="1">
+    <row r="39" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
         <v>87</v>
@@ -6779,7 +6951,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="33"/>
       <c r="C40" s="3"/>
@@ -6790,7 +6962,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="29" t="s">
         <v>88</v>
@@ -6818,27 +6990,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV47"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="34" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="34" customWidth="1"/>
+    <col min="2" max="2" width="24.375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="34" customWidth="1"/>
     <col min="4" max="4" width="11" style="34" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="34" customWidth="1"/>
     <col min="6" max="6" width="9" style="34" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="34" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="34" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="34" customWidth="1"/>
     <col min="9" max="256" width="11" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>216</v>
       </c>
@@ -6867,7 +7039,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
       <c r="B2" s="29"/>
       <c r="C2" s="35"/>
@@ -6878,7 +7050,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="37"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="str">
         <f>Backlog!B3</f>
         <v>US02</v>
@@ -6909,7 +7081,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>290</v>
       </c>
@@ -6924,7 +7096,7 @@
       <c r="H4" s="36"/>
       <c r="I4" s="37"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>91</v>
       </c>
@@ -6939,7 +7111,7 @@
       <c r="H5" s="36"/>
       <c r="I5" s="37"/>
     </row>
-    <row r="6" spans="1:9" ht="25.5" customHeight="1">
+    <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>93</v>
       </c>
@@ -6954,7 +7126,7 @@
       <c r="H6" s="36"/>
       <c r="I6" s="37"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
@@ -6965,7 +7137,7 @@
       <c r="H7" s="36"/>
       <c r="I7" s="37"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>223</v>
       </c>
@@ -6994,7 +7166,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>294</v>
       </c>
@@ -7009,7 +7181,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="40"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>296</v>
       </c>
@@ -7024,7 +7196,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="40"/>
     </row>
-    <row r="11" spans="1:9" ht="25.5" customHeight="1">
+    <row r="11" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>96</v>
       </c>
@@ -7039,7 +7211,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="40"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="33"/>
       <c r="C12" s="3"/>
@@ -7050,7 +7222,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="40"/>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="str">
         <f>Backlog!B5</f>
         <v>US04</v>
@@ -7081,7 +7253,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>300</v>
       </c>
@@ -7096,7 +7268,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="40"/>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>302</v>
       </c>
@@ -7111,7 +7283,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="40"/>
     </row>
-    <row r="16" spans="1:9" ht="25.5" customHeight="1">
+    <row r="16" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>99</v>
       </c>
@@ -7126,7 +7298,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="33"/>
       <c r="C17" s="3"/>
@@ -7137,7 +7309,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>240</v>
       </c>
@@ -7166,7 +7338,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="25.5" customHeight="1">
+    <row r="19" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>174</v>
       </c>
@@ -7181,7 +7353,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="40"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>176</v>
       </c>
@@ -7196,7 +7368,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="1:9" ht="25.5" customHeight="1">
+    <row r="21" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>178</v>
       </c>
@@ -7211,7 +7383,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="33"/>
       <c r="C22" s="3"/>
@@ -7222,7 +7394,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="40"/>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="str">
         <f>Backlog!B7</f>
         <v>US06</v>
@@ -7253,7 +7425,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>183</v>
       </c>
@@ -7268,7 +7440,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="40"/>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>104</v>
       </c>
@@ -7283,7 +7455,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="40"/>
     </row>
-    <row r="26" spans="1:9" ht="25.5" customHeight="1">
+    <row r="26" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>106</v>
       </c>
@@ -7298,7 +7470,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="40"/>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7"/>
       <c r="C27" s="3"/>
@@ -7309,7 +7481,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="40"/>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="str">
         <f>Backlog!B8</f>
         <v>US12</v>
@@ -7340,7 +7512,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>225</v>
       </c>
@@ -7355,7 +7527,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="40"/>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>227</v>
       </c>
@@ -7370,7 +7542,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="40"/>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>229</v>
       </c>
@@ -7385,7 +7557,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="40"/>
     </row>
-    <row r="32" spans="1:9" ht="25.5" customHeight="1">
+    <row r="32" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>231</v>
       </c>
@@ -7400,7 +7572,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="32"/>
     </row>
-    <row r="33" spans="1:256" ht="25.5" customHeight="1">
+    <row r="33" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>233</v>
       </c>
@@ -7415,7 +7587,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="32"/>
     </row>
-    <row r="34" spans="1:256" ht="15" customHeight="1">
+    <row r="34" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7"/>
       <c r="C34" s="3"/>
@@ -7426,7 +7598,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="32"/>
     </row>
-    <row r="35" spans="1:256" ht="15" customHeight="1">
+    <row r="35" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="29" t="s">
         <v>189</v>
@@ -7445,7 +7617,7 @@
       </c>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:256" ht="15" customHeight="1">
+    <row r="36" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="29"/>
       <c r="C36" s="3"/>
@@ -7456,7 +7628,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" spans="1:256" ht="15" customHeight="1">
+    <row r="37" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="29" t="s">
         <v>190</v>
@@ -7469,7 +7641,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:256" ht="25.5" customHeight="1">
+    <row r="38" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
         <v>235</v>
@@ -7482,7 +7654,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:256" ht="63.75" customHeight="1">
+    <row r="39" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
         <v>236</v>
@@ -7495,7 +7667,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:256" ht="63.75" customHeight="1">
+    <row r="40" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="66" t="s">
         <v>17</v>
@@ -7755,7 +7927,7 @@
       <c r="IU40" s="44"/>
       <c r="IV40" s="44"/>
     </row>
-    <row r="41" spans="1:256" ht="59" customHeight="1">
+    <row r="41" spans="1:256" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="33" t="s">
         <v>62</v>
@@ -7768,7 +7940,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:256" ht="15" customHeight="1">
+    <row r="42" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="29" t="s">
         <v>88</v>
@@ -7781,7 +7953,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:256" ht="89.25" customHeight="1">
+    <row r="43" spans="1:256" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="33" t="s">
         <v>111</v>
@@ -7794,7 +7966,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:256" ht="51" customHeight="1">
+    <row r="44" spans="1:256" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="33" t="s">
         <v>112</v>
@@ -7807,7 +7979,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:256" ht="63.75" customHeight="1">
+    <row r="45" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="33" t="s">
         <v>113</v>
@@ -7820,7 +7992,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:256" ht="63.75" customHeight="1">
+    <row r="46" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="33" t="s">
         <v>61</v>
@@ -8080,7 +8252,7 @@
       <c r="IU46" s="44"/>
       <c r="IV46" s="44"/>
     </row>
-    <row r="47" spans="1:256" ht="63.75" customHeight="1">
+    <row r="47" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="33" t="s">
         <v>18</v>
@@ -8355,21 +8527,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="41" customWidth="1"/>
     <col min="2" max="2" width="18" style="41" customWidth="1"/>
     <col min="3" max="256" width="11" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="25.5" customHeight="1">
+    <row r="1" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>216</v>
       </c>
@@ -8398,7 +8570,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:256" ht="15" customHeight="1">
+    <row r="2" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>247</v>
       </c>
@@ -8410,7 +8582,7 @@
         <v>208</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="E2" s="6">
         <v>60</v>
@@ -8418,11 +8590,17 @@
       <c r="F2" s="6">
         <v>60</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:256" ht="38.25" customHeight="1">
+      <c r="G2" s="3">
+        <v>34</v>
+      </c>
+      <c r="H2" s="3">
+        <v>90</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:256" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>115</v>
       </c>
@@ -8433,11 +8611,13 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:256" ht="25.5" customHeight="1">
+    <row r="4" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>117</v>
       </c>
@@ -8448,11 +8628,13 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:256" ht="25.5" customHeight="1">
+    <row r="5" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>119</v>
       </c>
@@ -8463,11 +8645,13 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:256" ht="15" customHeight="1">
+    <row r="6" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="33"/>
       <c r="C6" s="3"/>
@@ -8478,7 +8662,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:256" ht="15" customHeight="1">
+    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>250</v>
       </c>
@@ -8490,7 +8674,7 @@
         <v>208</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="E7" s="6">
         <v>60</v>
@@ -8498,11 +8682,17 @@
       <c r="F7" s="6">
         <v>60</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:256" ht="25.5" customHeight="1">
+      <c r="G7" s="3">
+        <v>34</v>
+      </c>
+      <c r="H7" s="3">
+        <v>90</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>121</v>
       </c>
@@ -8517,7 +8707,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:256" ht="38.25" customHeight="1">
+    <row r="9" spans="1:256" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>123</v>
       </c>
@@ -8532,7 +8722,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:256" ht="25.5" customHeight="1">
+    <row r="10" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>125</v>
       </c>
@@ -8547,7 +8737,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:256" ht="25.5" customHeight="1">
+    <row r="11" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="33"/>
       <c r="C11" s="3"/>
@@ -8558,7 +8748,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:256" ht="25.5" customHeight="1">
+    <row r="12" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>252</v>
       </c>
@@ -8585,7 +8775,7 @@
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:256" ht="25.5" customHeight="1">
+    <row r="13" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>127</v>
       </c>
@@ -8600,7 +8790,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:256" ht="25.5" customHeight="1">
+    <row r="14" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>129</v>
       </c>
@@ -8615,7 +8805,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:256" ht="25.5" customHeight="1">
+    <row r="15" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="67" t="s">
         <v>19</v>
       </c>
@@ -8877,7 +9067,7 @@
       <c r="IU15" s="44"/>
       <c r="IV15" s="44"/>
     </row>
-    <row r="16" spans="1:256" ht="25.5" customHeight="1">
+    <row r="16" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="33"/>
       <c r="C16" s="3"/>
@@ -8888,7 +9078,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:256" ht="25.5" customHeight="1">
+    <row r="17" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>254</v>
       </c>
@@ -8911,7 +9101,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:256" ht="25.5" customHeight="1">
+    <row r="18" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>131</v>
       </c>
@@ -8926,7 +9116,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:256" ht="25.5" customHeight="1">
+    <row r="19" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>132</v>
       </c>
@@ -8941,7 +9131,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:256" ht="25.5" customHeight="1">
+    <row r="20" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="67" t="s">
         <v>20</v>
       </c>
@@ -9203,7 +9393,7 @@
       <c r="IU20" s="44"/>
       <c r="IV20" s="44"/>
     </row>
-    <row r="21" spans="1:256" ht="25.5" customHeight="1">
+    <row r="21" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="33"/>
       <c r="C21" s="3"/>
@@ -9214,7 +9404,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:256" ht="25.5" customHeight="1">
+    <row r="22" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>256</v>
       </c>
@@ -9484,7 +9674,7 @@
       <c r="IU22" s="44"/>
       <c r="IV22" s="44"/>
     </row>
-    <row r="23" spans="1:256" ht="25.5" customHeight="1">
+    <row r="23" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -9746,7 +9936,7 @@
       <c r="IU23" s="44"/>
       <c r="IV23" s="44"/>
     </row>
-    <row r="24" spans="1:256" ht="25.5" customHeight="1">
+    <row r="24" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
@@ -10008,7 +10198,7 @@
       <c r="IU24" s="44"/>
       <c r="IV24" s="44"/>
     </row>
-    <row r="25" spans="1:256" ht="25.5" customHeight="1">
+    <row r="25" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="67" t="s">
         <v>21</v>
       </c>
@@ -10270,7 +10460,7 @@
       <c r="IU25" s="44"/>
       <c r="IV25" s="44"/>
     </row>
-    <row r="26" spans="1:256" ht="25.5" customHeight="1">
+    <row r="26" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="64"/>
       <c r="C26" s="3"/>
@@ -10528,7 +10718,7 @@
       <c r="IU26" s="44"/>
       <c r="IV26" s="44"/>
     </row>
-    <row r="27" spans="1:256" ht="25.5" customHeight="1">
+    <row r="27" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>258</v>
       </c>
@@ -10798,7 +10988,7 @@
       <c r="IU27" s="44"/>
       <c r="IV27" s="44"/>
     </row>
-    <row r="28" spans="1:256" ht="25.5" customHeight="1">
+    <row r="28" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -11060,7 +11250,7 @@
       <c r="IU28" s="44"/>
       <c r="IV28" s="44"/>
     </row>
-    <row r="29" spans="1:256" ht="25.5" customHeight="1">
+    <row r="29" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -11322,7 +11512,7 @@
       <c r="IU29" s="44"/>
       <c r="IV29" s="44"/>
     </row>
-    <row r="30" spans="1:256" ht="25.5" customHeight="1">
+    <row r="30" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
@@ -11584,7 +11774,7 @@
       <c r="IU30" s="44"/>
       <c r="IV30" s="44"/>
     </row>
-    <row r="31" spans="1:256" ht="25.5" customHeight="1">
+    <row r="31" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
@@ -11846,7 +12036,7 @@
       <c r="IU31" s="44"/>
       <c r="IV31" s="44"/>
     </row>
-    <row r="32" spans="1:256" ht="25.5" customHeight="1">
+    <row r="32" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="67" t="s">
         <v>22</v>
       </c>
@@ -12108,7 +12298,7 @@
       <c r="IU32" s="44"/>
       <c r="IV32" s="44"/>
     </row>
-    <row r="33" spans="1:256" ht="25.5" customHeight="1">
+    <row r="33" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="64"/>
       <c r="C33" s="3"/>
@@ -12381,17 +12571,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="256" width="11" style="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" customHeight="1">
+    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>216</v>
       </c>
@@ -12420,7 +12610,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -12431,7 +12621,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -12442,7 +12632,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -12453,7 +12643,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -12464,7 +12654,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -12475,7 +12665,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -12486,7 +12676,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -12497,7 +12687,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -12508,7 +12698,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -12534,17 +12724,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="256" width="11" style="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" customHeight="1">
+    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>216</v>
       </c>
@@ -12573,7 +12763,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -12584,7 +12774,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -12595,7 +12785,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -12606,7 +12796,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -12617,7 +12807,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -12628,7 +12818,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -12639,7 +12829,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -12650,7 +12840,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -12661,7 +12851,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/TeamNick_Jeremy_AmieReport.xlsx
+++ b/TeamNick_Jeremy_AmieReport.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="316">
   <si>
     <t>UniqueFirst Names in Families</t>
   </si>
@@ -965,6 +965,42 @@
   <si>
     <t>Yes</t>
   </si>
+  <si>
+    <t>ALw</t>
+  </si>
+  <si>
+    <t>T28.01</t>
+  </si>
+  <si>
+    <t>T28.02</t>
+  </si>
+  <si>
+    <t>Collect all children</t>
+  </si>
+  <si>
+    <t>Sort by age</t>
+  </si>
+  <si>
+    <t>T30.01</t>
+  </si>
+  <si>
+    <t>T28.03</t>
+  </si>
+  <si>
+    <t>Create unit test</t>
+  </si>
+  <si>
+    <t>Store if married</t>
+  </si>
+  <si>
+    <t>display if they are living</t>
+  </si>
+  <si>
+    <t>T30.02</t>
+  </si>
+  <si>
+    <t>T30.03</t>
+  </si>
 </sst>
 </file>
 
@@ -974,7 +1010,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1015,6 +1051,19 @@
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1200,7 +1249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1305,6 +1354,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2095,7 +2147,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2318,7 +2370,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2541,7 +2593,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2811,7 +2863,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -3034,7 +3086,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -4981,7 +5033,7 @@
   <dimension ref="A1:IV29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5268,8 +5320,12 @@
         <f>Stories!B29</f>
         <v>Order siblings by age</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
@@ -5283,8 +5339,12 @@
         <f>Stories!B31</f>
         <v>List living married</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
@@ -6993,7 +7053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
@@ -12572,16 +12632,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+  <dimension ref="A1:IV14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="256" width="11" style="42" customWidth="1"/>
+    <col min="1" max="1" width="11" style="42" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="42" customWidth="1"/>
+    <col min="3" max="256" width="11" style="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>216</v>
       </c>
@@ -12610,75 +12674,1107 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+    <row r="2" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="68" t="str">
+        <f>Backlog!$B$17</f>
+        <v>US28</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>Backlog!$C$17</f>
+        <v>Order siblings by age</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="3">
+        <v>60</v>
+      </c>
+      <c r="F2" s="3">
+        <v>60</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="70" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="44"/>
+      <c r="AR3" s="44"/>
+      <c r="AS3" s="44"/>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="44"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
+      <c r="BB3" s="44"/>
+      <c r="BC3" s="44"/>
+      <c r="BD3" s="44"/>
+      <c r="BE3" s="44"/>
+      <c r="BF3" s="44"/>
+      <c r="BG3" s="44"/>
+      <c r="BH3" s="44"/>
+      <c r="BI3" s="44"/>
+      <c r="BJ3" s="44"/>
+      <c r="BK3" s="44"/>
+      <c r="BL3" s="44"/>
+      <c r="BM3" s="44"/>
+      <c r="BN3" s="44"/>
+      <c r="BO3" s="44"/>
+      <c r="BP3" s="44"/>
+      <c r="BQ3" s="44"/>
+      <c r="BR3" s="44"/>
+      <c r="BS3" s="44"/>
+      <c r="BT3" s="44"/>
+      <c r="BU3" s="44"/>
+      <c r="BV3" s="44"/>
+      <c r="BW3" s="44"/>
+      <c r="BX3" s="44"/>
+      <c r="BY3" s="44"/>
+      <c r="BZ3" s="44"/>
+      <c r="CA3" s="44"/>
+      <c r="CB3" s="44"/>
+      <c r="CC3" s="44"/>
+      <c r="CD3" s="44"/>
+      <c r="CE3" s="44"/>
+      <c r="CF3" s="44"/>
+      <c r="CG3" s="44"/>
+      <c r="CH3" s="44"/>
+      <c r="CI3" s="44"/>
+      <c r="CJ3" s="44"/>
+      <c r="CK3" s="44"/>
+      <c r="CL3" s="44"/>
+      <c r="CM3" s="44"/>
+      <c r="CN3" s="44"/>
+      <c r="CO3" s="44"/>
+      <c r="CP3" s="44"/>
+      <c r="CQ3" s="44"/>
+      <c r="CR3" s="44"/>
+      <c r="CS3" s="44"/>
+      <c r="CT3" s="44"/>
+      <c r="CU3" s="44"/>
+      <c r="CV3" s="44"/>
+      <c r="CW3" s="44"/>
+      <c r="CX3" s="44"/>
+      <c r="CY3" s="44"/>
+      <c r="CZ3" s="44"/>
+      <c r="DA3" s="44"/>
+      <c r="DB3" s="44"/>
+      <c r="DC3" s="44"/>
+      <c r="DD3" s="44"/>
+      <c r="DE3" s="44"/>
+      <c r="DF3" s="44"/>
+      <c r="DG3" s="44"/>
+      <c r="DH3" s="44"/>
+      <c r="DI3" s="44"/>
+      <c r="DJ3" s="44"/>
+      <c r="DK3" s="44"/>
+      <c r="DL3" s="44"/>
+      <c r="DM3" s="44"/>
+      <c r="DN3" s="44"/>
+      <c r="DO3" s="44"/>
+      <c r="DP3" s="44"/>
+      <c r="DQ3" s="44"/>
+      <c r="DR3" s="44"/>
+      <c r="DS3" s="44"/>
+      <c r="DT3" s="44"/>
+      <c r="DU3" s="44"/>
+      <c r="DV3" s="44"/>
+      <c r="DW3" s="44"/>
+      <c r="DX3" s="44"/>
+      <c r="DY3" s="44"/>
+      <c r="DZ3" s="44"/>
+      <c r="EA3" s="44"/>
+      <c r="EB3" s="44"/>
+      <c r="EC3" s="44"/>
+      <c r="ED3" s="44"/>
+      <c r="EE3" s="44"/>
+      <c r="EF3" s="44"/>
+      <c r="EG3" s="44"/>
+      <c r="EH3" s="44"/>
+      <c r="EI3" s="44"/>
+      <c r="EJ3" s="44"/>
+      <c r="EK3" s="44"/>
+      <c r="EL3" s="44"/>
+      <c r="EM3" s="44"/>
+      <c r="EN3" s="44"/>
+      <c r="EO3" s="44"/>
+      <c r="EP3" s="44"/>
+      <c r="EQ3" s="44"/>
+      <c r="ER3" s="44"/>
+      <c r="ES3" s="44"/>
+      <c r="ET3" s="44"/>
+      <c r="EU3" s="44"/>
+      <c r="EV3" s="44"/>
+      <c r="EW3" s="44"/>
+      <c r="EX3" s="44"/>
+      <c r="EY3" s="44"/>
+      <c r="EZ3" s="44"/>
+      <c r="FA3" s="44"/>
+      <c r="FB3" s="44"/>
+      <c r="FC3" s="44"/>
+      <c r="FD3" s="44"/>
+      <c r="FE3" s="44"/>
+      <c r="FF3" s="44"/>
+      <c r="FG3" s="44"/>
+      <c r="FH3" s="44"/>
+      <c r="FI3" s="44"/>
+      <c r="FJ3" s="44"/>
+      <c r="FK3" s="44"/>
+      <c r="FL3" s="44"/>
+      <c r="FM3" s="44"/>
+      <c r="FN3" s="44"/>
+      <c r="FO3" s="44"/>
+      <c r="FP3" s="44"/>
+      <c r="FQ3" s="44"/>
+      <c r="FR3" s="44"/>
+      <c r="FS3" s="44"/>
+      <c r="FT3" s="44"/>
+      <c r="FU3" s="44"/>
+      <c r="FV3" s="44"/>
+      <c r="FW3" s="44"/>
+      <c r="FX3" s="44"/>
+      <c r="FY3" s="44"/>
+      <c r="FZ3" s="44"/>
+      <c r="GA3" s="44"/>
+      <c r="GB3" s="44"/>
+      <c r="GC3" s="44"/>
+      <c r="GD3" s="44"/>
+      <c r="GE3" s="44"/>
+      <c r="GF3" s="44"/>
+      <c r="GG3" s="44"/>
+      <c r="GH3" s="44"/>
+      <c r="GI3" s="44"/>
+      <c r="GJ3" s="44"/>
+      <c r="GK3" s="44"/>
+      <c r="GL3" s="44"/>
+      <c r="GM3" s="44"/>
+      <c r="GN3" s="44"/>
+      <c r="GO3" s="44"/>
+      <c r="GP3" s="44"/>
+      <c r="GQ3" s="44"/>
+      <c r="GR3" s="44"/>
+      <c r="GS3" s="44"/>
+      <c r="GT3" s="44"/>
+      <c r="GU3" s="44"/>
+      <c r="GV3" s="44"/>
+      <c r="GW3" s="44"/>
+      <c r="GX3" s="44"/>
+      <c r="GY3" s="44"/>
+      <c r="GZ3" s="44"/>
+      <c r="HA3" s="44"/>
+      <c r="HB3" s="44"/>
+      <c r="HC3" s="44"/>
+      <c r="HD3" s="44"/>
+      <c r="HE3" s="44"/>
+      <c r="HF3" s="44"/>
+      <c r="HG3" s="44"/>
+      <c r="HH3" s="44"/>
+      <c r="HI3" s="44"/>
+      <c r="HJ3" s="44"/>
+      <c r="HK3" s="44"/>
+      <c r="HL3" s="44"/>
+      <c r="HM3" s="44"/>
+      <c r="HN3" s="44"/>
+      <c r="HO3" s="44"/>
+      <c r="HP3" s="44"/>
+      <c r="HQ3" s="44"/>
+      <c r="HR3" s="44"/>
+      <c r="HS3" s="44"/>
+      <c r="HT3" s="44"/>
+      <c r="HU3" s="44"/>
+      <c r="HV3" s="44"/>
+      <c r="HW3" s="44"/>
+      <c r="HX3" s="44"/>
+      <c r="HY3" s="44"/>
+      <c r="HZ3" s="44"/>
+      <c r="IA3" s="44"/>
+      <c r="IB3" s="44"/>
+      <c r="IC3" s="44"/>
+      <c r="ID3" s="44"/>
+      <c r="IE3" s="44"/>
+      <c r="IF3" s="44"/>
+      <c r="IG3" s="44"/>
+      <c r="IH3" s="44"/>
+      <c r="II3" s="44"/>
+      <c r="IJ3" s="44"/>
+      <c r="IK3" s="44"/>
+      <c r="IL3" s="44"/>
+      <c r="IM3" s="44"/>
+      <c r="IN3" s="44"/>
+      <c r="IO3" s="44"/>
+      <c r="IP3" s="44"/>
+      <c r="IQ3" s="44"/>
+      <c r="IR3" s="44"/>
+      <c r="IS3" s="44"/>
+      <c r="IT3" s="44"/>
+      <c r="IU3" s="44"/>
+      <c r="IV3" s="44"/>
+    </row>
+    <row r="4" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="70" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="44"/>
+      <c r="AU4" s="44"/>
+      <c r="AV4" s="44"/>
+      <c r="AW4" s="44"/>
+      <c r="AX4" s="44"/>
+      <c r="AY4" s="44"/>
+      <c r="AZ4" s="44"/>
+      <c r="BA4" s="44"/>
+      <c r="BB4" s="44"/>
+      <c r="BC4" s="44"/>
+      <c r="BD4" s="44"/>
+      <c r="BE4" s="44"/>
+      <c r="BF4" s="44"/>
+      <c r="BG4" s="44"/>
+      <c r="BH4" s="44"/>
+      <c r="BI4" s="44"/>
+      <c r="BJ4" s="44"/>
+      <c r="BK4" s="44"/>
+      <c r="BL4" s="44"/>
+      <c r="BM4" s="44"/>
+      <c r="BN4" s="44"/>
+      <c r="BO4" s="44"/>
+      <c r="BP4" s="44"/>
+      <c r="BQ4" s="44"/>
+      <c r="BR4" s="44"/>
+      <c r="BS4" s="44"/>
+      <c r="BT4" s="44"/>
+      <c r="BU4" s="44"/>
+      <c r="BV4" s="44"/>
+      <c r="BW4" s="44"/>
+      <c r="BX4" s="44"/>
+      <c r="BY4" s="44"/>
+      <c r="BZ4" s="44"/>
+      <c r="CA4" s="44"/>
+      <c r="CB4" s="44"/>
+      <c r="CC4" s="44"/>
+      <c r="CD4" s="44"/>
+      <c r="CE4" s="44"/>
+      <c r="CF4" s="44"/>
+      <c r="CG4" s="44"/>
+      <c r="CH4" s="44"/>
+      <c r="CI4" s="44"/>
+      <c r="CJ4" s="44"/>
+      <c r="CK4" s="44"/>
+      <c r="CL4" s="44"/>
+      <c r="CM4" s="44"/>
+      <c r="CN4" s="44"/>
+      <c r="CO4" s="44"/>
+      <c r="CP4" s="44"/>
+      <c r="CQ4" s="44"/>
+      <c r="CR4" s="44"/>
+      <c r="CS4" s="44"/>
+      <c r="CT4" s="44"/>
+      <c r="CU4" s="44"/>
+      <c r="CV4" s="44"/>
+      <c r="CW4" s="44"/>
+      <c r="CX4" s="44"/>
+      <c r="CY4" s="44"/>
+      <c r="CZ4" s="44"/>
+      <c r="DA4" s="44"/>
+      <c r="DB4" s="44"/>
+      <c r="DC4" s="44"/>
+      <c r="DD4" s="44"/>
+      <c r="DE4" s="44"/>
+      <c r="DF4" s="44"/>
+      <c r="DG4" s="44"/>
+      <c r="DH4" s="44"/>
+      <c r="DI4" s="44"/>
+      <c r="DJ4" s="44"/>
+      <c r="DK4" s="44"/>
+      <c r="DL4" s="44"/>
+      <c r="DM4" s="44"/>
+      <c r="DN4" s="44"/>
+      <c r="DO4" s="44"/>
+      <c r="DP4" s="44"/>
+      <c r="DQ4" s="44"/>
+      <c r="DR4" s="44"/>
+      <c r="DS4" s="44"/>
+      <c r="DT4" s="44"/>
+      <c r="DU4" s="44"/>
+      <c r="DV4" s="44"/>
+      <c r="DW4" s="44"/>
+      <c r="DX4" s="44"/>
+      <c r="DY4" s="44"/>
+      <c r="DZ4" s="44"/>
+      <c r="EA4" s="44"/>
+      <c r="EB4" s="44"/>
+      <c r="EC4" s="44"/>
+      <c r="ED4" s="44"/>
+      <c r="EE4" s="44"/>
+      <c r="EF4" s="44"/>
+      <c r="EG4" s="44"/>
+      <c r="EH4" s="44"/>
+      <c r="EI4" s="44"/>
+      <c r="EJ4" s="44"/>
+      <c r="EK4" s="44"/>
+      <c r="EL4" s="44"/>
+      <c r="EM4" s="44"/>
+      <c r="EN4" s="44"/>
+      <c r="EO4" s="44"/>
+      <c r="EP4" s="44"/>
+      <c r="EQ4" s="44"/>
+      <c r="ER4" s="44"/>
+      <c r="ES4" s="44"/>
+      <c r="ET4" s="44"/>
+      <c r="EU4" s="44"/>
+      <c r="EV4" s="44"/>
+      <c r="EW4" s="44"/>
+      <c r="EX4" s="44"/>
+      <c r="EY4" s="44"/>
+      <c r="EZ4" s="44"/>
+      <c r="FA4" s="44"/>
+      <c r="FB4" s="44"/>
+      <c r="FC4" s="44"/>
+      <c r="FD4" s="44"/>
+      <c r="FE4" s="44"/>
+      <c r="FF4" s="44"/>
+      <c r="FG4" s="44"/>
+      <c r="FH4" s="44"/>
+      <c r="FI4" s="44"/>
+      <c r="FJ4" s="44"/>
+      <c r="FK4" s="44"/>
+      <c r="FL4" s="44"/>
+      <c r="FM4" s="44"/>
+      <c r="FN4" s="44"/>
+      <c r="FO4" s="44"/>
+      <c r="FP4" s="44"/>
+      <c r="FQ4" s="44"/>
+      <c r="FR4" s="44"/>
+      <c r="FS4" s="44"/>
+      <c r="FT4" s="44"/>
+      <c r="FU4" s="44"/>
+      <c r="FV4" s="44"/>
+      <c r="FW4" s="44"/>
+      <c r="FX4" s="44"/>
+      <c r="FY4" s="44"/>
+      <c r="FZ4" s="44"/>
+      <c r="GA4" s="44"/>
+      <c r="GB4" s="44"/>
+      <c r="GC4" s="44"/>
+      <c r="GD4" s="44"/>
+      <c r="GE4" s="44"/>
+      <c r="GF4" s="44"/>
+      <c r="GG4" s="44"/>
+      <c r="GH4" s="44"/>
+      <c r="GI4" s="44"/>
+      <c r="GJ4" s="44"/>
+      <c r="GK4" s="44"/>
+      <c r="GL4" s="44"/>
+      <c r="GM4" s="44"/>
+      <c r="GN4" s="44"/>
+      <c r="GO4" s="44"/>
+      <c r="GP4" s="44"/>
+      <c r="GQ4" s="44"/>
+      <c r="GR4" s="44"/>
+      <c r="GS4" s="44"/>
+      <c r="GT4" s="44"/>
+      <c r="GU4" s="44"/>
+      <c r="GV4" s="44"/>
+      <c r="GW4" s="44"/>
+      <c r="GX4" s="44"/>
+      <c r="GY4" s="44"/>
+      <c r="GZ4" s="44"/>
+      <c r="HA4" s="44"/>
+      <c r="HB4" s="44"/>
+      <c r="HC4" s="44"/>
+      <c r="HD4" s="44"/>
+      <c r="HE4" s="44"/>
+      <c r="HF4" s="44"/>
+      <c r="HG4" s="44"/>
+      <c r="HH4" s="44"/>
+      <c r="HI4" s="44"/>
+      <c r="HJ4" s="44"/>
+      <c r="HK4" s="44"/>
+      <c r="HL4" s="44"/>
+      <c r="HM4" s="44"/>
+      <c r="HN4" s="44"/>
+      <c r="HO4" s="44"/>
+      <c r="HP4" s="44"/>
+      <c r="HQ4" s="44"/>
+      <c r="HR4" s="44"/>
+      <c r="HS4" s="44"/>
+      <c r="HT4" s="44"/>
+      <c r="HU4" s="44"/>
+      <c r="HV4" s="44"/>
+      <c r="HW4" s="44"/>
+      <c r="HX4" s="44"/>
+      <c r="HY4" s="44"/>
+      <c r="HZ4" s="44"/>
+      <c r="IA4" s="44"/>
+      <c r="IB4" s="44"/>
+      <c r="IC4" s="44"/>
+      <c r="ID4" s="44"/>
+      <c r="IE4" s="44"/>
+      <c r="IF4" s="44"/>
+      <c r="IG4" s="44"/>
+      <c r="IH4" s="44"/>
+      <c r="II4" s="44"/>
+      <c r="IJ4" s="44"/>
+      <c r="IK4" s="44"/>
+      <c r="IL4" s="44"/>
+      <c r="IM4" s="44"/>
+      <c r="IN4" s="44"/>
+      <c r="IO4" s="44"/>
+      <c r="IP4" s="44"/>
+      <c r="IQ4" s="44"/>
+      <c r="IR4" s="44"/>
+      <c r="IS4" s="44"/>
+      <c r="IT4" s="44"/>
+      <c r="IU4" s="44"/>
+      <c r="IV4" s="44"/>
+    </row>
+    <row r="5" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="70" t="s">
+        <v>310</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="44"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="44"/>
+      <c r="AM5" s="44"/>
+      <c r="AN5" s="44"/>
+      <c r="AO5" s="44"/>
+      <c r="AP5" s="44"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="44"/>
+      <c r="AS5" s="44"/>
+      <c r="AT5" s="44"/>
+      <c r="AU5" s="44"/>
+      <c r="AV5" s="44"/>
+      <c r="AW5" s="44"/>
+      <c r="AX5" s="44"/>
+      <c r="AY5" s="44"/>
+      <c r="AZ5" s="44"/>
+      <c r="BA5" s="44"/>
+      <c r="BB5" s="44"/>
+      <c r="BC5" s="44"/>
+      <c r="BD5" s="44"/>
+      <c r="BE5" s="44"/>
+      <c r="BF5" s="44"/>
+      <c r="BG5" s="44"/>
+      <c r="BH5" s="44"/>
+      <c r="BI5" s="44"/>
+      <c r="BJ5" s="44"/>
+      <c r="BK5" s="44"/>
+      <c r="BL5" s="44"/>
+      <c r="BM5" s="44"/>
+      <c r="BN5" s="44"/>
+      <c r="BO5" s="44"/>
+      <c r="BP5" s="44"/>
+      <c r="BQ5" s="44"/>
+      <c r="BR5" s="44"/>
+      <c r="BS5" s="44"/>
+      <c r="BT5" s="44"/>
+      <c r="BU5" s="44"/>
+      <c r="BV5" s="44"/>
+      <c r="BW5" s="44"/>
+      <c r="BX5" s="44"/>
+      <c r="BY5" s="44"/>
+      <c r="BZ5" s="44"/>
+      <c r="CA5" s="44"/>
+      <c r="CB5" s="44"/>
+      <c r="CC5" s="44"/>
+      <c r="CD5" s="44"/>
+      <c r="CE5" s="44"/>
+      <c r="CF5" s="44"/>
+      <c r="CG5" s="44"/>
+      <c r="CH5" s="44"/>
+      <c r="CI5" s="44"/>
+      <c r="CJ5" s="44"/>
+      <c r="CK5" s="44"/>
+      <c r="CL5" s="44"/>
+      <c r="CM5" s="44"/>
+      <c r="CN5" s="44"/>
+      <c r="CO5" s="44"/>
+      <c r="CP5" s="44"/>
+      <c r="CQ5" s="44"/>
+      <c r="CR5" s="44"/>
+      <c r="CS5" s="44"/>
+      <c r="CT5" s="44"/>
+      <c r="CU5" s="44"/>
+      <c r="CV5" s="44"/>
+      <c r="CW5" s="44"/>
+      <c r="CX5" s="44"/>
+      <c r="CY5" s="44"/>
+      <c r="CZ5" s="44"/>
+      <c r="DA5" s="44"/>
+      <c r="DB5" s="44"/>
+      <c r="DC5" s="44"/>
+      <c r="DD5" s="44"/>
+      <c r="DE5" s="44"/>
+      <c r="DF5" s="44"/>
+      <c r="DG5" s="44"/>
+      <c r="DH5" s="44"/>
+      <c r="DI5" s="44"/>
+      <c r="DJ5" s="44"/>
+      <c r="DK5" s="44"/>
+      <c r="DL5" s="44"/>
+      <c r="DM5" s="44"/>
+      <c r="DN5" s="44"/>
+      <c r="DO5" s="44"/>
+      <c r="DP5" s="44"/>
+      <c r="DQ5" s="44"/>
+      <c r="DR5" s="44"/>
+      <c r="DS5" s="44"/>
+      <c r="DT5" s="44"/>
+      <c r="DU5" s="44"/>
+      <c r="DV5" s="44"/>
+      <c r="DW5" s="44"/>
+      <c r="DX5" s="44"/>
+      <c r="DY5" s="44"/>
+      <c r="DZ5" s="44"/>
+      <c r="EA5" s="44"/>
+      <c r="EB5" s="44"/>
+      <c r="EC5" s="44"/>
+      <c r="ED5" s="44"/>
+      <c r="EE5" s="44"/>
+      <c r="EF5" s="44"/>
+      <c r="EG5" s="44"/>
+      <c r="EH5" s="44"/>
+      <c r="EI5" s="44"/>
+      <c r="EJ5" s="44"/>
+      <c r="EK5" s="44"/>
+      <c r="EL5" s="44"/>
+      <c r="EM5" s="44"/>
+      <c r="EN5" s="44"/>
+      <c r="EO5" s="44"/>
+      <c r="EP5" s="44"/>
+      <c r="EQ5" s="44"/>
+      <c r="ER5" s="44"/>
+      <c r="ES5" s="44"/>
+      <c r="ET5" s="44"/>
+      <c r="EU5" s="44"/>
+      <c r="EV5" s="44"/>
+      <c r="EW5" s="44"/>
+      <c r="EX5" s="44"/>
+      <c r="EY5" s="44"/>
+      <c r="EZ5" s="44"/>
+      <c r="FA5" s="44"/>
+      <c r="FB5" s="44"/>
+      <c r="FC5" s="44"/>
+      <c r="FD5" s="44"/>
+      <c r="FE5" s="44"/>
+      <c r="FF5" s="44"/>
+      <c r="FG5" s="44"/>
+      <c r="FH5" s="44"/>
+      <c r="FI5" s="44"/>
+      <c r="FJ5" s="44"/>
+      <c r="FK5" s="44"/>
+      <c r="FL5" s="44"/>
+      <c r="FM5" s="44"/>
+      <c r="FN5" s="44"/>
+      <c r="FO5" s="44"/>
+      <c r="FP5" s="44"/>
+      <c r="FQ5" s="44"/>
+      <c r="FR5" s="44"/>
+      <c r="FS5" s="44"/>
+      <c r="FT5" s="44"/>
+      <c r="FU5" s="44"/>
+      <c r="FV5" s="44"/>
+      <c r="FW5" s="44"/>
+      <c r="FX5" s="44"/>
+      <c r="FY5" s="44"/>
+      <c r="FZ5" s="44"/>
+      <c r="GA5" s="44"/>
+      <c r="GB5" s="44"/>
+      <c r="GC5" s="44"/>
+      <c r="GD5" s="44"/>
+      <c r="GE5" s="44"/>
+      <c r="GF5" s="44"/>
+      <c r="GG5" s="44"/>
+      <c r="GH5" s="44"/>
+      <c r="GI5" s="44"/>
+      <c r="GJ5" s="44"/>
+      <c r="GK5" s="44"/>
+      <c r="GL5" s="44"/>
+      <c r="GM5" s="44"/>
+      <c r="GN5" s="44"/>
+      <c r="GO5" s="44"/>
+      <c r="GP5" s="44"/>
+      <c r="GQ5" s="44"/>
+      <c r="GR5" s="44"/>
+      <c r="GS5" s="44"/>
+      <c r="GT5" s="44"/>
+      <c r="GU5" s="44"/>
+      <c r="GV5" s="44"/>
+      <c r="GW5" s="44"/>
+      <c r="GX5" s="44"/>
+      <c r="GY5" s="44"/>
+      <c r="GZ5" s="44"/>
+      <c r="HA5" s="44"/>
+      <c r="HB5" s="44"/>
+      <c r="HC5" s="44"/>
+      <c r="HD5" s="44"/>
+      <c r="HE5" s="44"/>
+      <c r="HF5" s="44"/>
+      <c r="HG5" s="44"/>
+      <c r="HH5" s="44"/>
+      <c r="HI5" s="44"/>
+      <c r="HJ5" s="44"/>
+      <c r="HK5" s="44"/>
+      <c r="HL5" s="44"/>
+      <c r="HM5" s="44"/>
+      <c r="HN5" s="44"/>
+      <c r="HO5" s="44"/>
+      <c r="HP5" s="44"/>
+      <c r="HQ5" s="44"/>
+      <c r="HR5" s="44"/>
+      <c r="HS5" s="44"/>
+      <c r="HT5" s="44"/>
+      <c r="HU5" s="44"/>
+      <c r="HV5" s="44"/>
+      <c r="HW5" s="44"/>
+      <c r="HX5" s="44"/>
+      <c r="HY5" s="44"/>
+      <c r="HZ5" s="44"/>
+      <c r="IA5" s="44"/>
+      <c r="IB5" s="44"/>
+      <c r="IC5" s="44"/>
+      <c r="ID5" s="44"/>
+      <c r="IE5" s="44"/>
+      <c r="IF5" s="44"/>
+      <c r="IG5" s="44"/>
+      <c r="IH5" s="44"/>
+      <c r="II5" s="44"/>
+      <c r="IJ5" s="44"/>
+      <c r="IK5" s="44"/>
+      <c r="IL5" s="44"/>
+      <c r="IM5" s="44"/>
+      <c r="IN5" s="44"/>
+      <c r="IO5" s="44"/>
+      <c r="IP5" s="44"/>
+      <c r="IQ5" s="44"/>
+      <c r="IR5" s="44"/>
+      <c r="IS5" s="44"/>
+      <c r="IT5" s="44"/>
+      <c r="IU5" s="44"/>
+      <c r="IV5" s="44"/>
+    </row>
+    <row r="6" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="44"/>
+      <c r="AI6" s="44"/>
+      <c r="AJ6" s="44"/>
+      <c r="AK6" s="44"/>
+      <c r="AL6" s="44"/>
+      <c r="AM6" s="44"/>
+      <c r="AN6" s="44"/>
+      <c r="AO6" s="44"/>
+      <c r="AP6" s="44"/>
+      <c r="AQ6" s="44"/>
+      <c r="AR6" s="44"/>
+      <c r="AS6" s="44"/>
+      <c r="AT6" s="44"/>
+      <c r="AU6" s="44"/>
+      <c r="AV6" s="44"/>
+      <c r="AW6" s="44"/>
+      <c r="AX6" s="44"/>
+      <c r="AY6" s="44"/>
+      <c r="AZ6" s="44"/>
+      <c r="BA6" s="44"/>
+      <c r="BB6" s="44"/>
+      <c r="BC6" s="44"/>
+      <c r="BD6" s="44"/>
+      <c r="BE6" s="44"/>
+      <c r="BF6" s="44"/>
+      <c r="BG6" s="44"/>
+      <c r="BH6" s="44"/>
+      <c r="BI6" s="44"/>
+      <c r="BJ6" s="44"/>
+      <c r="BK6" s="44"/>
+      <c r="BL6" s="44"/>
+      <c r="BM6" s="44"/>
+      <c r="BN6" s="44"/>
+      <c r="BO6" s="44"/>
+      <c r="BP6" s="44"/>
+      <c r="BQ6" s="44"/>
+      <c r="BR6" s="44"/>
+      <c r="BS6" s="44"/>
+      <c r="BT6" s="44"/>
+      <c r="BU6" s="44"/>
+      <c r="BV6" s="44"/>
+      <c r="BW6" s="44"/>
+      <c r="BX6" s="44"/>
+      <c r="BY6" s="44"/>
+      <c r="BZ6" s="44"/>
+      <c r="CA6" s="44"/>
+      <c r="CB6" s="44"/>
+      <c r="CC6" s="44"/>
+      <c r="CD6" s="44"/>
+      <c r="CE6" s="44"/>
+      <c r="CF6" s="44"/>
+      <c r="CG6" s="44"/>
+      <c r="CH6" s="44"/>
+      <c r="CI6" s="44"/>
+      <c r="CJ6" s="44"/>
+      <c r="CK6" s="44"/>
+      <c r="CL6" s="44"/>
+      <c r="CM6" s="44"/>
+      <c r="CN6" s="44"/>
+      <c r="CO6" s="44"/>
+      <c r="CP6" s="44"/>
+      <c r="CQ6" s="44"/>
+      <c r="CR6" s="44"/>
+      <c r="CS6" s="44"/>
+      <c r="CT6" s="44"/>
+      <c r="CU6" s="44"/>
+      <c r="CV6" s="44"/>
+      <c r="CW6" s="44"/>
+      <c r="CX6" s="44"/>
+      <c r="CY6" s="44"/>
+      <c r="CZ6" s="44"/>
+      <c r="DA6" s="44"/>
+      <c r="DB6" s="44"/>
+      <c r="DC6" s="44"/>
+      <c r="DD6" s="44"/>
+      <c r="DE6" s="44"/>
+      <c r="DF6" s="44"/>
+      <c r="DG6" s="44"/>
+      <c r="DH6" s="44"/>
+      <c r="DI6" s="44"/>
+      <c r="DJ6" s="44"/>
+      <c r="DK6" s="44"/>
+      <c r="DL6" s="44"/>
+      <c r="DM6" s="44"/>
+      <c r="DN6" s="44"/>
+      <c r="DO6" s="44"/>
+      <c r="DP6" s="44"/>
+      <c r="DQ6" s="44"/>
+      <c r="DR6" s="44"/>
+      <c r="DS6" s="44"/>
+      <c r="DT6" s="44"/>
+      <c r="DU6" s="44"/>
+      <c r="DV6" s="44"/>
+      <c r="DW6" s="44"/>
+      <c r="DX6" s="44"/>
+      <c r="DY6" s="44"/>
+      <c r="DZ6" s="44"/>
+      <c r="EA6" s="44"/>
+      <c r="EB6" s="44"/>
+      <c r="EC6" s="44"/>
+      <c r="ED6" s="44"/>
+      <c r="EE6" s="44"/>
+      <c r="EF6" s="44"/>
+      <c r="EG6" s="44"/>
+      <c r="EH6" s="44"/>
+      <c r="EI6" s="44"/>
+      <c r="EJ6" s="44"/>
+      <c r="EK6" s="44"/>
+      <c r="EL6" s="44"/>
+      <c r="EM6" s="44"/>
+      <c r="EN6" s="44"/>
+      <c r="EO6" s="44"/>
+      <c r="EP6" s="44"/>
+      <c r="EQ6" s="44"/>
+      <c r="ER6" s="44"/>
+      <c r="ES6" s="44"/>
+      <c r="ET6" s="44"/>
+      <c r="EU6" s="44"/>
+      <c r="EV6" s="44"/>
+      <c r="EW6" s="44"/>
+      <c r="EX6" s="44"/>
+      <c r="EY6" s="44"/>
+      <c r="EZ6" s="44"/>
+      <c r="FA6" s="44"/>
+      <c r="FB6" s="44"/>
+      <c r="FC6" s="44"/>
+      <c r="FD6" s="44"/>
+      <c r="FE6" s="44"/>
+      <c r="FF6" s="44"/>
+      <c r="FG6" s="44"/>
+      <c r="FH6" s="44"/>
+      <c r="FI6" s="44"/>
+      <c r="FJ6" s="44"/>
+      <c r="FK6" s="44"/>
+      <c r="FL6" s="44"/>
+      <c r="FM6" s="44"/>
+      <c r="FN6" s="44"/>
+      <c r="FO6" s="44"/>
+      <c r="FP6" s="44"/>
+      <c r="FQ6" s="44"/>
+      <c r="FR6" s="44"/>
+      <c r="FS6" s="44"/>
+      <c r="FT6" s="44"/>
+      <c r="FU6" s="44"/>
+      <c r="FV6" s="44"/>
+      <c r="FW6" s="44"/>
+      <c r="FX6" s="44"/>
+      <c r="FY6" s="44"/>
+      <c r="FZ6" s="44"/>
+      <c r="GA6" s="44"/>
+      <c r="GB6" s="44"/>
+      <c r="GC6" s="44"/>
+      <c r="GD6" s="44"/>
+      <c r="GE6" s="44"/>
+      <c r="GF6" s="44"/>
+      <c r="GG6" s="44"/>
+      <c r="GH6" s="44"/>
+      <c r="GI6" s="44"/>
+      <c r="GJ6" s="44"/>
+      <c r="GK6" s="44"/>
+      <c r="GL6" s="44"/>
+      <c r="GM6" s="44"/>
+      <c r="GN6" s="44"/>
+      <c r="GO6" s="44"/>
+      <c r="GP6" s="44"/>
+      <c r="GQ6" s="44"/>
+      <c r="GR6" s="44"/>
+      <c r="GS6" s="44"/>
+      <c r="GT6" s="44"/>
+      <c r="GU6" s="44"/>
+      <c r="GV6" s="44"/>
+      <c r="GW6" s="44"/>
+      <c r="GX6" s="44"/>
+      <c r="GY6" s="44"/>
+      <c r="GZ6" s="44"/>
+      <c r="HA6" s="44"/>
+      <c r="HB6" s="44"/>
+      <c r="HC6" s="44"/>
+      <c r="HD6" s="44"/>
+      <c r="HE6" s="44"/>
+      <c r="HF6" s="44"/>
+      <c r="HG6" s="44"/>
+      <c r="HH6" s="44"/>
+      <c r="HI6" s="44"/>
+      <c r="HJ6" s="44"/>
+      <c r="HK6" s="44"/>
+      <c r="HL6" s="44"/>
+      <c r="HM6" s="44"/>
+      <c r="HN6" s="44"/>
+      <c r="HO6" s="44"/>
+      <c r="HP6" s="44"/>
+      <c r="HQ6" s="44"/>
+      <c r="HR6" s="44"/>
+      <c r="HS6" s="44"/>
+      <c r="HT6" s="44"/>
+      <c r="HU6" s="44"/>
+      <c r="HV6" s="44"/>
+      <c r="HW6" s="44"/>
+      <c r="HX6" s="44"/>
+      <c r="HY6" s="44"/>
+      <c r="HZ6" s="44"/>
+      <c r="IA6" s="44"/>
+      <c r="IB6" s="44"/>
+      <c r="IC6" s="44"/>
+      <c r="ID6" s="44"/>
+      <c r="IE6" s="44"/>
+      <c r="IF6" s="44"/>
+      <c r="IG6" s="44"/>
+      <c r="IH6" s="44"/>
+      <c r="II6" s="44"/>
+      <c r="IJ6" s="44"/>
+      <c r="IK6" s="44"/>
+      <c r="IL6" s="44"/>
+      <c r="IM6" s="44"/>
+      <c r="IN6" s="44"/>
+      <c r="IO6" s="44"/>
+      <c r="IP6" s="44"/>
+      <c r="IQ6" s="44"/>
+      <c r="IR6" s="44"/>
+      <c r="IS6" s="44"/>
+      <c r="IT6" s="44"/>
+      <c r="IU6" s="44"/>
+      <c r="IV6" s="44"/>
+    </row>
+    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="68" t="str">
+        <f>Backlog!$B$18</f>
+        <v>US30</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>Backlog!$C$18</f>
+        <v>List living married</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="3">
+        <v>60</v>
+      </c>
+      <c r="F7" s="3">
+        <v>60</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+    <row r="8" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="69" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>312</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -12687,9 +13783,13 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+    <row r="9" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="69" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>313</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -12698,9 +13798,13 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+    <row r="10" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="69" t="s">
+        <v>315</v>
+      </c>
+      <c r="B10" s="69" t="s">
+        <v>311</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -12709,9 +13813,54 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
+    <row r="11" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/TeamNick_Jeremy_AmieReport.xlsx
+++ b/TeamNick_Jeremy_AmieReport.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28410"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alwider\Desktop\GitHub\AgileMethods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickcohron/Stevens/Agile Methods/Project/AgileMethods/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="225" yWindow="225" windowWidth="21360" windowHeight="14400" activeTab="1"/>
+    <workbookView xWindow="220" yWindow="460" windowWidth="21360" windowHeight="14400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,12 @@
     <sheet name="Sprint4" sheetId="9" r:id="rId9"/>
     <sheet name="Stories" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="316">
   <si>
     <t>UniqueFirst Names in Families</t>
   </si>
@@ -1005,7 +1008,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
@@ -1362,7 +1365,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1443,7 +1446,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1463,10 +1466,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.3112399999999998E-2"/>
-          <c:y val="5.5869000000000002E-2"/>
-          <c:w val="0.90188800000000002"/>
-          <c:h val="0.84119600000000005"/>
+          <c:x val="0.0931124"/>
+          <c:y val="0.055869"/>
+          <c:w val="0.901888"/>
+          <c:h val="0.841196"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1509,22 +1512,22 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41426</c:v>
+                  <c:v>41426.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41438</c:v>
+                  <c:v>41438.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41452</c:v>
+                  <c:v>41452.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41466</c:v>
+                  <c:v>41466.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41487</c:v>
+                  <c:v>41487.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1536,25 +1539,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F845-4DB0-BF4B-61C3F2B72AD9}"/>
             </c:ext>
@@ -1570,11 +1573,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504176216"/>
-        <c:axId val="504163960"/>
+        <c:axId val="878368768"/>
+        <c:axId val="878609904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504176216"/>
+        <c:axId val="878368768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1608,14 +1611,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504163960"/>
+        <c:crossAx val="878609904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504163960"/>
+        <c:axId val="878609904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1660,7 +1663,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504176216"/>
+        <c:crossAx val="878368768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7.5"/>
@@ -1703,7 +1706,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1723,10 +1726,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.4069599999999999E-2"/>
-          <c:y val="5.5869000000000002E-2"/>
-          <c:w val="0.92093000000000003"/>
-          <c:h val="0.84119600000000005"/>
+          <c:x val="0.0740696"/>
+          <c:y val="0.055869"/>
+          <c:w val="0.92093"/>
+          <c:h val="0.841196"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1772,13 +1775,13 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41431</c:v>
+                  <c:v>41431.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41446</c:v>
+                  <c:v>41446.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41459</c:v>
+                  <c:v>41459.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1790,16 +1793,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-60FF-4851-ABD9-FA91BB13A616}"/>
             </c:ext>
@@ -1815,11 +1818,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69831448"/>
-        <c:axId val="69829464"/>
+        <c:axId val="1001989552"/>
+        <c:axId val="1001992032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="69831448"/>
+        <c:axId val="1001989552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1853,14 +1856,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69829464"/>
+        <c:crossAx val="1001992032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="69829464"/>
+        <c:axId val="1001992032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1905,11 +1908,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69831448"/>
+        <c:crossAx val="1001989552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="6"/>
-        <c:minorUnit val="3"/>
+        <c:majorUnit val="6.0"/>
+        <c:minorUnit val="3.0"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1967,7 +1970,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2003,7 +2006,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2022,7 +2025,7 @@
           <xdr:cNvPr id="3" name="Shape 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2125,7 +2128,7 @@
           <xdr:cNvPr id="4" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2147,7 +2150,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2226,7 +2229,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2245,7 +2248,7 @@
           <xdr:cNvPr id="6" name="Shape 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2348,7 +2351,7 @@
           <xdr:cNvPr id="7" name="Shape 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2370,7 +2373,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2449,7 +2452,7 @@
         <xdr:cNvPr id="11" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2468,7 +2471,7 @@
           <xdr:cNvPr id="9" name="Shape 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2571,7 +2574,7 @@
           <xdr:cNvPr id="10" name="Shape 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2593,7 +2596,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2719,7 +2722,7 @@
         <xdr:cNvPr id="14" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2738,7 +2741,7 @@
           <xdr:cNvPr id="12" name="Shape 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2841,7 +2844,7 @@
           <xdr:cNvPr id="13" name="Shape 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2863,7 +2866,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2942,7 +2945,7 @@
         <xdr:cNvPr id="17" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2961,7 +2964,7 @@
           <xdr:cNvPr id="15" name="Shape 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3064,7 +3067,7 @@
           <xdr:cNvPr id="16" name="Shape 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3086,7 +3089,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -3170,7 +3173,7 @@
         <xdr:cNvPr id="19" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4296,20 +4299,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.375" style="1" customWidth="1"/>
-    <col min="6" max="256" width="11" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.33203125" style="1" customWidth="1"/>
+    <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>193</v>
       </c>
@@ -4326,14 +4329,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>198</v>
       </c>
@@ -4350,7 +4353,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>203</v>
       </c>
@@ -4367,7 +4370,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>208</v>
       </c>
@@ -4384,28 +4387,28 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4416,7 +4419,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4431,31 +4434,27 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV43"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="44" customWidth="1"/>
-    <col min="2" max="2" width="28.125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="49.375" style="44" customWidth="1"/>
-    <col min="4" max="256" width="11" style="44" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="44" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" style="44" customWidth="1"/>
+    <col min="4" max="5" width="11" style="44" customWidth="1"/>
+    <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>216</v>
       </c>
@@ -4468,7 +4467,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>155</v>
       </c>
@@ -4481,7 +4480,7 @@
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="47" t="s">
         <v>220</v>
       </c>
@@ -4494,7 +4493,7 @@
       <c r="D3" s="50"/>
       <c r="E3" s="51"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="47" t="s">
         <v>223</v>
       </c>
@@ -4507,7 +4506,7 @@
       <c r="D4" s="50"/>
       <c r="E4" s="51"/>
     </row>
-    <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="47" t="s">
         <v>238</v>
       </c>
@@ -4520,7 +4519,7 @@
       <c r="D5" s="50"/>
       <c r="E5" s="51"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="47" t="s">
         <v>240</v>
       </c>
@@ -4533,7 +4532,7 @@
       <c r="D6" s="50"/>
       <c r="E6" s="51"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="47" t="s">
         <v>242</v>
       </c>
@@ -4546,7 +4545,7 @@
       <c r="D7" s="50"/>
       <c r="E7" s="51"/>
     </row>
-    <row r="8" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="52" t="s">
         <v>185</v>
       </c>
@@ -4559,7 +4558,7 @@
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
@@ -4572,7 +4571,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>163</v>
       </c>
@@ -4585,7 +4584,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>166</v>
       </c>
@@ -4598,7 +4597,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
         <v>169</v>
       </c>
@@ -4611,7 +4610,7 @@
       <c r="D12" s="46"/>
       <c r="E12" s="46"/>
     </row>
-    <row r="13" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="47" t="s">
         <v>245</v>
       </c>
@@ -4624,7 +4623,7 @@
       <c r="D13" s="50"/>
       <c r="E13" s="51"/>
     </row>
-    <row r="14" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="55" t="s">
         <v>64</v>
       </c>
@@ -4637,7 +4636,7 @@
       <c r="D14" s="57"/>
       <c r="E14" s="57"/>
     </row>
-    <row r="15" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="47" t="s">
         <v>247</v>
       </c>
@@ -4650,7 +4649,7 @@
       <c r="D15" s="50"/>
       <c r="E15" s="51"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="55" t="s">
         <v>68</v>
       </c>
@@ -4663,7 +4662,7 @@
       <c r="D16" s="57"/>
       <c r="E16" s="57"/>
     </row>
-    <row r="17" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="47" t="s">
         <v>250</v>
       </c>
@@ -4676,7 +4675,7 @@
       <c r="D17" s="50"/>
       <c r="E17" s="51"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="52" t="s">
         <v>72</v>
       </c>
@@ -4689,7 +4688,7 @@
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>75</v>
       </c>
@@ -4702,7 +4701,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>78</v>
       </c>
@@ -4715,7 +4714,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>81</v>
       </c>
@@ -4728,7 +4727,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
         <v>84</v>
       </c>
@@ -4741,7 +4740,7 @@
       <c r="D22" s="46"/>
       <c r="E22" s="46"/>
     </row>
-    <row r="23" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="47" t="s">
         <v>252</v>
       </c>
@@ -4754,7 +4753,7 @@
       <c r="D23" s="50"/>
       <c r="E23" s="51"/>
     </row>
-    <row r="24" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="55" t="s">
         <v>25</v>
       </c>
@@ -4767,7 +4766,7 @@
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
     </row>
-    <row r="25" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="47" t="s">
         <v>254</v>
       </c>
@@ -4780,7 +4779,7 @@
       <c r="D25" s="50"/>
       <c r="E25" s="51"/>
     </row>
-    <row r="26" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="47" t="s">
         <v>256</v>
       </c>
@@ -4793,7 +4792,7 @@
       <c r="D26" s="50"/>
       <c r="E26" s="51"/>
     </row>
-    <row r="27" spans="1:5" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="126" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="47" t="s">
         <v>258</v>
       </c>
@@ -4806,7 +4805,7 @@
       <c r="D27" s="50"/>
       <c r="E27" s="51"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="55" t="s">
         <v>108</v>
       </c>
@@ -4819,7 +4818,7 @@
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
     </row>
-    <row r="29" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="47" t="s">
         <v>260</v>
       </c>
@@ -4832,7 +4831,7 @@
       <c r="D29" s="50"/>
       <c r="E29" s="51"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="55" t="s">
         <v>33</v>
       </c>
@@ -4845,7 +4844,7 @@
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="47" t="s">
         <v>262</v>
       </c>
@@ -4858,7 +4857,7 @@
       <c r="D31" s="50"/>
       <c r="E31" s="51"/>
     </row>
-    <row r="32" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="55" t="s">
         <v>37</v>
       </c>
@@ -4871,7 +4870,7 @@
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="47" t="s">
         <v>264</v>
       </c>
@@ -4884,7 +4883,7 @@
       <c r="D33" s="50"/>
       <c r="E33" s="51"/>
     </row>
-    <row r="34" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="47" t="s">
         <v>266</v>
       </c>
@@ -4897,7 +4896,7 @@
       <c r="D34" s="50"/>
       <c r="E34" s="51"/>
     </row>
-    <row r="35" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="47" t="s">
         <v>268</v>
       </c>
@@ -4910,7 +4909,7 @@
       <c r="D35" s="50"/>
       <c r="E35" s="51"/>
     </row>
-    <row r="36" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="47" t="s">
         <v>270</v>
       </c>
@@ -4923,7 +4922,7 @@
       <c r="D36" s="50"/>
       <c r="E36" s="51"/>
     </row>
-    <row r="37" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="47" t="s">
         <v>272</v>
       </c>
@@ -4936,7 +4935,7 @@
       <c r="D37" s="50"/>
       <c r="E37" s="51"/>
     </row>
-    <row r="38" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="47" t="s">
         <v>274</v>
       </c>
@@ -4949,7 +4948,7 @@
       <c r="D38" s="50"/>
       <c r="E38" s="51"/>
     </row>
-    <row r="39" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="47" t="s">
         <v>276</v>
       </c>
@@ -4962,7 +4961,7 @@
       <c r="D39" s="50"/>
       <c r="E39" s="51"/>
     </row>
-    <row r="40" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="47" t="s">
         <v>278</v>
       </c>
@@ -4975,7 +4974,7 @@
       <c r="D40" s="50"/>
       <c r="E40" s="51"/>
     </row>
-    <row r="41" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="47" t="s">
         <v>280</v>
       </c>
@@ -4988,7 +4987,7 @@
       <c r="D41" s="50"/>
       <c r="E41" s="51"/>
     </row>
-    <row r="42" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="55" t="s">
         <v>57</v>
       </c>
@@ -5001,7 +5000,7 @@
       <c r="D42" s="57"/>
       <c r="E42" s="57"/>
     </row>
-    <row r="43" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="58" t="s">
         <v>282</v>
       </c>
@@ -5020,33 +5019,28 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="5" customWidth="1"/>
-    <col min="6" max="256" width="11" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="5" customWidth="1"/>
+    <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>215</v>
       </c>
@@ -5063,14 +5057,14 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -5089,7 +5083,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -5106,7 +5100,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -5125,7 +5119,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -5142,7 +5136,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -5161,7 +5155,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -5180,14 +5174,14 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -5206,7 +5200,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>2</v>
       </c>
@@ -5225,7 +5219,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>2</v>
       </c>
@@ -5241,10 +5235,10 @@
         <v>198</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -5260,10 +5254,10 @@
         <v>198</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>2</v>
       </c>
@@ -5282,7 +5276,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>2</v>
       </c>
@@ -5301,14 +5295,14 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>3</v>
       </c>
@@ -5327,7 +5321,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>3</v>
       </c>
@@ -5346,7 +5340,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>3</v>
       </c>
@@ -5361,7 +5355,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>3</v>
       </c>
@@ -5376,7 +5370,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>3</v>
       </c>
@@ -5388,10 +5382,14 @@
         <f>Stories!B35</f>
         <v>List large age differences</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>3</v>
       </c>
@@ -5403,17 +5401,21 @@
         <f>Stories!B36</f>
         <v>List recent births</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>4</v>
       </c>
@@ -5428,7 +5430,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>4</v>
       </c>
@@ -5443,7 +5445,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>4</v>
       </c>
@@ -5458,7 +5460,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>4</v>
       </c>
@@ -5473,7 +5475,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>4</v>
       </c>
@@ -5488,7 +5490,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>4</v>
       </c>
@@ -5509,32 +5511,28 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="8" customWidth="1"/>
-    <col min="7" max="256" width="11" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="8" customWidth="1"/>
+    <col min="7" max="8" width="11" style="8" customWidth="1"/>
+    <col min="9" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>284</v>
       </c>
@@ -5546,7 +5544,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>285</v>
       </c>
@@ -5558,7 +5556,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>286</v>
       </c>
@@ -5570,7 +5568,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5580,7 +5578,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>287</v>
       </c>
@@ -5592,7 +5590,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>288</v>
       </c>
@@ -5604,7 +5602,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -5614,7 +5612,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>137</v>
       </c>
@@ -5626,7 +5624,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5636,7 +5634,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5646,7 +5644,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5656,7 +5654,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5666,7 +5664,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5676,7 +5674,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>215</v>
       </c>
@@ -5700,7 +5698,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>144</v>
       </c>
@@ -5718,7 +5716,7 @@
       <c r="G15" s="17"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>145</v>
       </c>
@@ -5744,7 +5742,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>146</v>
       </c>
@@ -5770,7 +5768,7 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>147</v>
       </c>
@@ -5796,7 +5794,7 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>148</v>
       </c>
@@ -5822,7 +5820,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="20"/>
@@ -5832,7 +5830,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5842,7 +5840,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5852,7 +5850,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5862,7 +5860,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5872,7 +5870,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5882,7 +5880,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5892,7 +5890,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5902,7 +5900,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5912,7 +5910,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5922,7 +5920,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5932,7 +5930,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5942,7 +5940,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5952,7 +5950,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5962,7 +5960,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5972,7 +5970,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5982,7 +5980,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5992,7 +5990,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6002,7 +6000,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6012,7 +6010,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -6029,34 +6027,30 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="22" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="22" customWidth="1"/>
-    <col min="7" max="256" width="11" style="22" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="11" style="22" customWidth="1"/>
+    <col min="8" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>138</v>
       </c>
@@ -6077,7 +6071,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="23">
         <v>41431</v>
       </c>
@@ -6092,7 +6086,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="23">
         <v>41446</v>
       </c>
@@ -6117,7 +6111,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="23">
         <v>41459</v>
       </c>
@@ -6128,7 +6122,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -6137,7 +6131,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -6146,7 +6140,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -6155,7 +6149,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="27" t="s">
         <v>149</v>
       </c>
@@ -6166,7 +6160,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -6175,7 +6169,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6184,7 +6178,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -6193,7 +6187,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6202,7 +6196,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6211,7 +6205,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6220,7 +6214,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6229,7 +6223,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6238,7 +6232,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6247,7 +6241,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6256,7 +6250,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6265,7 +6259,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6274,7 +6268,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6283,7 +6277,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6292,7 +6286,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6301,7 +6295,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6310,7 +6304,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6319,7 +6313,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6335,34 +6329,30 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="28" customWidth="1"/>
     <col min="5" max="5" width="12" style="28" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="28" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="28" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="28" customWidth="1"/>
-    <col min="9" max="256" width="11" style="28" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="28" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="28" customWidth="1"/>
+    <col min="9" max="9" width="11" style="28" customWidth="1"/>
+    <col min="10" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>216</v>
       </c>
@@ -6391,7 +6381,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>155</v>
       </c>
@@ -6418,7 +6408,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>159</v>
       </c>
@@ -6437,7 +6427,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="33"/>
       <c r="C4" s="3"/>
@@ -6448,7 +6438,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>220</v>
       </c>
@@ -6467,7 +6457,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>290</v>
       </c>
@@ -6488,7 +6478,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="33"/>
       <c r="C7" s="3"/>
@@ -6499,7 +6489,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>223</v>
       </c>
@@ -6518,7 +6508,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>294</v>
       </c>
@@ -6539,7 +6529,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>296</v>
       </c>
@@ -6560,7 +6550,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="33"/>
       <c r="C11" s="3"/>
@@ -6571,7 +6561,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>238</v>
       </c>
@@ -6592,7 +6582,7 @@
         <v>41429</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>300</v>
       </c>
@@ -6613,7 +6603,7 @@
         <v>41429</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>302</v>
       </c>
@@ -6634,7 +6624,7 @@
         <v>41429</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="33"/>
       <c r="C15" s="3"/>
@@ -6645,7 +6635,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>240</v>
       </c>
@@ -6666,7 +6656,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>174</v>
       </c>
@@ -6687,7 +6677,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>176</v>
       </c>
@@ -6708,7 +6698,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>178</v>
       </c>
@@ -6729,7 +6719,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>180</v>
       </c>
@@ -6750,7 +6740,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="33"/>
       <c r="C21" s="3"/>
@@ -6761,7 +6751,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>242</v>
       </c>
@@ -6782,7 +6772,7 @@
         <v>41431</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>183</v>
       </c>
@@ -6803,7 +6793,7 @@
         <v>41431</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="33"/>
       <c r="C24" s="3"/>
@@ -6814,7 +6804,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>185</v>
       </c>
@@ -6835,7 +6825,7 @@
         <v>41428</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>187</v>
       </c>
@@ -6856,7 +6846,7 @@
         <v>41428</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="33"/>
       <c r="C27" s="3"/>
@@ -6867,7 +6857,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="33"/>
       <c r="C28" s="3"/>
@@ -6878,7 +6868,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="33"/>
       <c r="C29" s="3"/>
@@ -6889,7 +6879,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="33"/>
       <c r="C30" s="3"/>
@@ -6900,7 +6890,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="33"/>
       <c r="C31" s="3"/>
@@ -6911,7 +6901,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="33"/>
       <c r="C32" s="3"/>
@@ -6922,7 +6912,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="29" t="s">
         <v>189</v>
@@ -6935,7 +6925,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="29"/>
       <c r="C34" s="3"/>
@@ -6946,7 +6936,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="29" t="s">
         <v>190</v>
@@ -6959,7 +6949,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="s">
         <v>191</v>
@@ -6972,7 +6962,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="s">
         <v>192</v>
@@ -6985,7 +6975,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
         <v>86</v>
@@ -6998,7 +6988,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
         <v>87</v>
@@ -7011,7 +7001,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="33"/>
       <c r="C40" s="3"/>
@@ -7022,7 +7012,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="29" t="s">
         <v>88</v>
@@ -7041,11 +7031,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7057,20 +7042,20 @@
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="34" customWidth="1"/>
-    <col min="2" max="2" width="24.375" style="34" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="34" customWidth="1"/>
     <col min="4" max="4" width="11" style="34" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="34" customWidth="1"/>
     <col min="6" max="6" width="9" style="34" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="34" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="34" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="34" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="34" customWidth="1"/>
     <col min="9" max="256" width="11" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>216</v>
       </c>
@@ -7099,7 +7084,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="35"/>
       <c r="B2" s="29"/>
       <c r="C2" s="35"/>
@@ -7110,7 +7095,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="37"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="str">
         <f>Backlog!B3</f>
         <v>US02</v>
@@ -7141,7 +7126,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>290</v>
       </c>
@@ -7156,7 +7141,7 @@
       <c r="H4" s="36"/>
       <c r="I4" s="37"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>91</v>
       </c>
@@ -7171,7 +7156,7 @@
       <c r="H5" s="36"/>
       <c r="I5" s="37"/>
     </row>
-    <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>93</v>
       </c>
@@ -7186,7 +7171,7 @@
       <c r="H6" s="36"/>
       <c r="I6" s="37"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
@@ -7197,7 +7182,7 @@
       <c r="H7" s="36"/>
       <c r="I7" s="37"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>223</v>
       </c>
@@ -7226,7 +7211,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>294</v>
       </c>
@@ -7241,7 +7226,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="40"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>296</v>
       </c>
@@ -7256,7 +7241,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="40"/>
     </row>
-    <row r="11" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>96</v>
       </c>
@@ -7271,7 +7256,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="40"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="33"/>
       <c r="C12" s="3"/>
@@ -7282,7 +7267,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="40"/>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="str">
         <f>Backlog!B5</f>
         <v>US04</v>
@@ -7313,7 +7298,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>300</v>
       </c>
@@ -7328,7 +7313,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="40"/>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>302</v>
       </c>
@@ -7343,7 +7328,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="40"/>
     </row>
-    <row r="16" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>99</v>
       </c>
@@ -7358,7 +7343,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="33"/>
       <c r="C17" s="3"/>
@@ -7369,7 +7354,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>240</v>
       </c>
@@ -7398,7 +7383,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>174</v>
       </c>
@@ -7413,7 +7398,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="40"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>176</v>
       </c>
@@ -7428,7 +7413,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>178</v>
       </c>
@@ -7443,7 +7428,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="33"/>
       <c r="C22" s="3"/>
@@ -7454,7 +7439,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="40"/>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="str">
         <f>Backlog!B7</f>
         <v>US06</v>
@@ -7485,7 +7470,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>183</v>
       </c>
@@ -7500,7 +7485,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="40"/>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>104</v>
       </c>
@@ -7515,7 +7500,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="40"/>
     </row>
-    <row r="26" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>106</v>
       </c>
@@ -7530,7 +7515,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="40"/>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="7"/>
       <c r="C27" s="3"/>
@@ -7541,7 +7526,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="40"/>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="str">
         <f>Backlog!B8</f>
         <v>US12</v>
@@ -7572,7 +7557,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>225</v>
       </c>
@@ -7587,7 +7572,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="40"/>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>227</v>
       </c>
@@ -7602,7 +7587,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="40"/>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>229</v>
       </c>
@@ -7617,7 +7602,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="40"/>
     </row>
-    <row r="32" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>231</v>
       </c>
@@ -7632,7 +7617,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="32"/>
     </row>
-    <row r="33" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>233</v>
       </c>
@@ -7647,7 +7632,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="32"/>
     </row>
-    <row r="34" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="7"/>
       <c r="C34" s="3"/>
@@ -7658,7 +7643,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="32"/>
     </row>
-    <row r="35" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="29" t="s">
         <v>189</v>
@@ -7677,7 +7662,7 @@
       </c>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="29"/>
       <c r="C36" s="3"/>
@@ -7688,7 +7673,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="29" t="s">
         <v>190</v>
@@ -7701,7 +7686,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
         <v>235</v>
@@ -7714,7 +7699,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
         <v>236</v>
@@ -7727,7 +7712,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="66" t="s">
         <v>17</v>
@@ -7987,7 +7972,7 @@
       <c r="IU40" s="44"/>
       <c r="IV40" s="44"/>
     </row>
-    <row r="41" spans="1:256" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:256" ht="59" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="33" t="s">
         <v>62</v>
@@ -8000,7 +7985,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="29" t="s">
         <v>88</v>
@@ -8013,7 +7998,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:256" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:256" ht="89.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="33" t="s">
         <v>111</v>
@@ -8026,7 +8011,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:256" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:256" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="33" t="s">
         <v>112</v>
@@ -8039,7 +8024,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="33" t="s">
         <v>113</v>
@@ -8052,7 +8037,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="33" t="s">
         <v>61</v>
@@ -8312,7 +8297,7 @@
       <c r="IU46" s="44"/>
       <c r="IV46" s="44"/>
     </row>
-    <row r="47" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="33" t="s">
         <v>18</v>
@@ -8578,11 +8563,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8590,18 +8570,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="41" customWidth="1"/>
     <col min="2" max="2" width="18" style="41" customWidth="1"/>
     <col min="3" max="256" width="11" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>216</v>
       </c>
@@ -8630,7 +8610,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>247</v>
       </c>
@@ -8660,7 +8640,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:256" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:256" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>115</v>
       </c>
@@ -8677,7 +8657,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>117</v>
       </c>
@@ -8694,7 +8674,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>119</v>
       </c>
@@ -8711,7 +8691,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="33"/>
       <c r="C6" s="3"/>
@@ -8722,7 +8702,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>250</v>
       </c>
@@ -8752,7 +8732,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>121</v>
       </c>
@@ -8767,7 +8747,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:256" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:256" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>123</v>
       </c>
@@ -8782,7 +8762,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>125</v>
       </c>
@@ -8797,7 +8777,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="33"/>
       <c r="C11" s="3"/>
@@ -8808,7 +8788,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>252</v>
       </c>
@@ -8833,9 +8813,11 @@
       <c r="H12" s="3">
         <v>75</v>
       </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>127</v>
       </c>
@@ -8850,7 +8832,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>129</v>
       </c>
@@ -8865,7 +8847,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="67" t="s">
         <v>19</v>
       </c>
@@ -9127,7 +9109,7 @@
       <c r="IU15" s="44"/>
       <c r="IV15" s="44"/>
     </row>
-    <row r="16" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="33"/>
       <c r="C16" s="3"/>
@@ -9138,7 +9120,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>254</v>
       </c>
@@ -9157,11 +9139,17 @@
       <c r="F17" s="6">
         <v>60</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G17" s="3">
+        <v>40</v>
+      </c>
+      <c r="H17" s="3">
+        <v>120</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>131</v>
       </c>
@@ -9176,7 +9164,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>132</v>
       </c>
@@ -9191,7 +9179,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="67" t="s">
         <v>20</v>
       </c>
@@ -9453,7 +9441,7 @@
       <c r="IU20" s="44"/>
       <c r="IV20" s="44"/>
     </row>
-    <row r="21" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="35"/>
       <c r="B21" s="33"/>
       <c r="C21" s="3"/>
@@ -9464,7 +9452,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>256</v>
       </c>
@@ -9734,7 +9722,7 @@
       <c r="IU22" s="44"/>
       <c r="IV22" s="44"/>
     </row>
-    <row r="23" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -9996,7 +9984,7 @@
       <c r="IU23" s="44"/>
       <c r="IV23" s="44"/>
     </row>
-    <row r="24" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
@@ -10258,7 +10246,7 @@
       <c r="IU24" s="44"/>
       <c r="IV24" s="44"/>
     </row>
-    <row r="25" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="67" t="s">
         <v>21</v>
       </c>
@@ -10520,7 +10508,7 @@
       <c r="IU25" s="44"/>
       <c r="IV25" s="44"/>
     </row>
-    <row r="26" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="64"/>
       <c r="C26" s="3"/>
@@ -10778,7 +10766,7 @@
       <c r="IU26" s="44"/>
       <c r="IV26" s="44"/>
     </row>
-    <row r="27" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>258</v>
       </c>
@@ -11048,7 +11036,7 @@
       <c r="IU27" s="44"/>
       <c r="IV27" s="44"/>
     </row>
-    <row r="28" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -11310,7 +11298,7 @@
       <c r="IU28" s="44"/>
       <c r="IV28" s="44"/>
     </row>
-    <row r="29" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -11572,7 +11560,7 @@
       <c r="IU29" s="44"/>
       <c r="IV29" s="44"/>
     </row>
-    <row r="30" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
@@ -11834,7 +11822,7 @@
       <c r="IU30" s="44"/>
       <c r="IV30" s="44"/>
     </row>
-    <row r="31" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
@@ -12096,7 +12084,7 @@
       <c r="IU31" s="44"/>
       <c r="IV31" s="44"/>
     </row>
-    <row r="32" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="67" t="s">
         <v>22</v>
       </c>
@@ -12358,7 +12346,7 @@
       <c r="IU32" s="44"/>
       <c r="IV32" s="44"/>
     </row>
-    <row r="33" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="64"/>
       <c r="C33" s="3"/>
@@ -12622,11 +12610,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -12638,14 +12621,14 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="42" customWidth="1"/>
-    <col min="2" max="2" width="21.25" style="42" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="42" customWidth="1"/>
     <col min="3" max="256" width="11" style="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>216</v>
       </c>
@@ -12674,7 +12657,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="68" t="str">
         <f>Backlog!$B$17</f>
         <v>US28</v>
@@ -12699,7 +12682,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="70" t="s">
         <v>305</v>
       </c>
@@ -12961,7 +12944,7 @@
       <c r="IU3" s="44"/>
       <c r="IV3" s="44"/>
     </row>
-    <row r="4" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="70" t="s">
         <v>306</v>
       </c>
@@ -13223,7 +13206,7 @@
       <c r="IU4" s="44"/>
       <c r="IV4" s="44"/>
     </row>
-    <row r="5" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="70" t="s">
         <v>310</v>
       </c>
@@ -13485,7 +13468,7 @@
       <c r="IU5" s="44"/>
       <c r="IV5" s="44"/>
     </row>
-    <row r="6" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="70"/>
       <c r="B6" s="70"/>
       <c r="C6" s="69"/>
@@ -13743,7 +13726,7 @@
       <c r="IU6" s="44"/>
       <c r="IV6" s="44"/>
     </row>
-    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="68" t="str">
         <f>Backlog!$B$18</f>
         <v>US30</v>
@@ -13768,7 +13751,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="69" t="s">
         <v>309</v>
       </c>
@@ -13783,7 +13766,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="69" t="s">
         <v>314</v>
       </c>
@@ -13798,7 +13781,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="69" t="s">
         <v>315</v>
       </c>
@@ -13813,7 +13796,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -13824,7 +13807,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -13835,7 +13818,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -13846,7 +13829,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -13864,26 +13847,22 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="11" style="43" customWidth="1"/>
+    <col min="1" max="9" width="11" style="43" customWidth="1"/>
+    <col min="10" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>216</v>
       </c>
@@ -13912,7 +13891,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -13923,7 +13902,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -13934,7 +13913,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -13945,7 +13924,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -13956,7 +13935,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -13967,7 +13946,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -13978,7 +13957,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -13989,7 +13968,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -14000,7 +13979,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -14017,10 +13996,5 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/TeamNick_Jeremy_AmieReport.xlsx
+++ b/TeamNick_Jeremy_AmieReport.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickcohron/Stevens/Agile Methods/Project/AgileMethods/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="220" yWindow="460" windowWidth="21360" windowHeight="14400" activeTab="1"/>
+    <workbookView xWindow="225" yWindow="465" windowWidth="21360" windowHeight="14400" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,11 +18,8 @@
     <sheet name="Sprint4" sheetId="9" r:id="rId9"/>
     <sheet name="Stories" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -36,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="316">
   <si>
     <t>UniqueFirst Names in Families</t>
   </si>
@@ -1466,10 +1458,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0931124"/>
-          <c:y val="0.055869"/>
-          <c:w val="0.901888"/>
-          <c:h val="0.841196"/>
+          <c:x val="9.3112399999999998E-2"/>
+          <c:y val="5.5869000000000002E-2"/>
+          <c:w val="0.90188800000000002"/>
+          <c:h val="0.84119600000000005"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1512,22 +1504,22 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41426.0</c:v>
+                  <c:v>41426</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41438.0</c:v>
+                  <c:v>41438</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41452.0</c:v>
+                  <c:v>41452</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41466.0</c:v>
+                  <c:v>41466</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41487.0</c:v>
+                  <c:v>41487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1539,19 +1531,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1573,11 +1565,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="878368768"/>
-        <c:axId val="878609904"/>
+        <c:axId val="41079168"/>
+        <c:axId val="41081088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="878368768"/>
+        <c:axId val="41079168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1611,14 +1603,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="878609904"/>
+        <c:crossAx val="41081088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="878609904"/>
+        <c:axId val="41081088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1663,7 +1655,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="878368768"/>
+        <c:crossAx val="41079168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7.5"/>
@@ -1726,10 +1718,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0740696"/>
-          <c:y val="0.055869"/>
-          <c:w val="0.92093"/>
-          <c:h val="0.841196"/>
+          <c:x val="7.4069599999999999E-2"/>
+          <c:y val="5.5869000000000002E-2"/>
+          <c:w val="0.92093000000000003"/>
+          <c:h val="0.84119600000000005"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1775,13 +1767,13 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41431.0</c:v>
+                  <c:v>41431</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41446.0</c:v>
+                  <c:v>41446</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41459.0</c:v>
+                  <c:v>41459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1793,10 +1785,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1818,11 +1810,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1001989552"/>
-        <c:axId val="1001992032"/>
+        <c:axId val="101964032"/>
+        <c:axId val="101986688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1001989552"/>
+        <c:axId val="101964032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1856,14 +1848,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1001992032"/>
+        <c:crossAx val="101986688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1001992032"/>
+        <c:axId val="101986688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1908,11 +1900,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1001989552"/>
+        <c:crossAx val="101964032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="6.0"/>
-        <c:minorUnit val="3.0"/>
+        <c:majorUnit val="6"/>
+        <c:minorUnit val="3"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1970,7 +1962,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2006,7 +1998,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2025,7 +2017,7 @@
           <xdr:cNvPr id="3" name="Shape 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2128,7 +2120,7 @@
           <xdr:cNvPr id="4" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2150,7 +2142,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2229,7 +2221,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2248,7 +2240,7 @@
           <xdr:cNvPr id="6" name="Shape 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2351,7 +2343,7 @@
           <xdr:cNvPr id="7" name="Shape 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2373,7 +2365,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2452,7 +2444,7 @@
         <xdr:cNvPr id="11" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2471,7 +2463,7 @@
           <xdr:cNvPr id="9" name="Shape 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2574,7 +2566,7 @@
           <xdr:cNvPr id="10" name="Shape 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2596,7 +2588,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2722,7 +2714,7 @@
         <xdr:cNvPr id="14" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,7 +2733,7 @@
           <xdr:cNvPr id="12" name="Shape 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2844,7 +2836,7 @@
           <xdr:cNvPr id="13" name="Shape 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2866,7 +2858,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2945,7 +2937,7 @@
         <xdr:cNvPr id="17" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2964,7 +2956,7 @@
           <xdr:cNvPr id="15" name="Shape 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3067,7 +3059,7 @@
           <xdr:cNvPr id="16" name="Shape 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000010000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3089,7 +3081,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -3173,7 +3165,7 @@
         <xdr:cNvPr id="19" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4303,16 +4295,16 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.375" style="1" customWidth="1"/>
     <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>193</v>
       </c>
@@ -4329,14 +4321,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>198</v>
       </c>
@@ -4353,7 +4345,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>203</v>
       </c>
@@ -4370,7 +4362,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>208</v>
       </c>
@@ -4387,28 +4379,28 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4419,7 +4411,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4445,16 +4437,16 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="44" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" style="44" customWidth="1"/>
-    <col min="3" max="3" width="49.33203125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="28.125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="49.375" style="44" customWidth="1"/>
     <col min="4" max="5" width="11" style="44" customWidth="1"/>
     <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>216</v>
       </c>
@@ -4467,7 +4459,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>155</v>
       </c>
@@ -4480,7 +4472,7 @@
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
         <v>220</v>
       </c>
@@ -4493,7 +4485,7 @@
       <c r="D3" s="50"/>
       <c r="E3" s="51"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="47" t="s">
         <v>223</v>
       </c>
@@ -4506,7 +4498,7 @@
       <c r="D4" s="50"/>
       <c r="E4" s="51"/>
     </row>
-    <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="47" t="s">
         <v>238</v>
       </c>
@@ -4519,7 +4511,7 @@
       <c r="D5" s="50"/>
       <c r="E5" s="51"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="47" t="s">
         <v>240</v>
       </c>
@@ -4532,7 +4524,7 @@
       <c r="D6" s="50"/>
       <c r="E6" s="51"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="47" t="s">
         <v>242</v>
       </c>
@@ -4545,7 +4537,7 @@
       <c r="D7" s="50"/>
       <c r="E7" s="51"/>
     </row>
-    <row r="8" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
         <v>185</v>
       </c>
@@ -4558,7 +4550,7 @@
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
@@ -4571,7 +4563,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>163</v>
       </c>
@@ -4584,7 +4576,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>166</v>
       </c>
@@ -4597,7 +4589,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>169</v>
       </c>
@@ -4610,7 +4602,7 @@
       <c r="D12" s="46"/>
       <c r="E12" s="46"/>
     </row>
-    <row r="13" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="47" t="s">
         <v>245</v>
       </c>
@@ -4623,7 +4615,7 @@
       <c r="D13" s="50"/>
       <c r="E13" s="51"/>
     </row>
-    <row r="14" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="55" t="s">
         <v>64</v>
       </c>
@@ -4636,7 +4628,7 @@
       <c r="D14" s="57"/>
       <c r="E14" s="57"/>
     </row>
-    <row r="15" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="47" t="s">
         <v>247</v>
       </c>
@@ -4649,7 +4641,7 @@
       <c r="D15" s="50"/>
       <c r="E15" s="51"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55" t="s">
         <v>68</v>
       </c>
@@ -4662,7 +4654,7 @@
       <c r="D16" s="57"/>
       <c r="E16" s="57"/>
     </row>
-    <row r="17" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="47" t="s">
         <v>250</v>
       </c>
@@ -4675,7 +4667,7 @@
       <c r="D17" s="50"/>
       <c r="E17" s="51"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
         <v>72</v>
       </c>
@@ -4688,7 +4680,7 @@
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>75</v>
       </c>
@@ -4701,7 +4693,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>78</v>
       </c>
@@ -4714,7 +4706,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>81</v>
       </c>
@@ -4727,7 +4719,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>84</v>
       </c>
@@ -4740,7 +4732,7 @@
       <c r="D22" s="46"/>
       <c r="E22" s="46"/>
     </row>
-    <row r="23" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="47" t="s">
         <v>252</v>
       </c>
@@ -4753,7 +4745,7 @@
       <c r="D23" s="50"/>
       <c r="E23" s="51"/>
     </row>
-    <row r="24" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="55" t="s">
         <v>25</v>
       </c>
@@ -4766,7 +4758,7 @@
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
     </row>
-    <row r="25" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="47" t="s">
         <v>254</v>
       </c>
@@ -4779,7 +4771,7 @@
       <c r="D25" s="50"/>
       <c r="E25" s="51"/>
     </row>
-    <row r="26" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="47" t="s">
         <v>256</v>
       </c>
@@ -4792,7 +4784,7 @@
       <c r="D26" s="50"/>
       <c r="E26" s="51"/>
     </row>
-    <row r="27" spans="1:5" ht="126" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="47" t="s">
         <v>258</v>
       </c>
@@ -4805,7 +4797,7 @@
       <c r="D27" s="50"/>
       <c r="E27" s="51"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="55" t="s">
         <v>108</v>
       </c>
@@ -4818,7 +4810,7 @@
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
     </row>
-    <row r="29" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="47" t="s">
         <v>260</v>
       </c>
@@ -4831,7 +4823,7 @@
       <c r="D29" s="50"/>
       <c r="E29" s="51"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="55" t="s">
         <v>33</v>
       </c>
@@ -4844,7 +4836,7 @@
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="47" t="s">
         <v>262</v>
       </c>
@@ -4857,7 +4849,7 @@
       <c r="D31" s="50"/>
       <c r="E31" s="51"/>
     </row>
-    <row r="32" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="55" t="s">
         <v>37</v>
       </c>
@@ -4870,7 +4862,7 @@
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="47" t="s">
         <v>264</v>
       </c>
@@ -4883,7 +4875,7 @@
       <c r="D33" s="50"/>
       <c r="E33" s="51"/>
     </row>
-    <row r="34" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="47" t="s">
         <v>266</v>
       </c>
@@ -4896,7 +4888,7 @@
       <c r="D34" s="50"/>
       <c r="E34" s="51"/>
     </row>
-    <row r="35" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="47" t="s">
         <v>268</v>
       </c>
@@ -4909,7 +4901,7 @@
       <c r="D35" s="50"/>
       <c r="E35" s="51"/>
     </row>
-    <row r="36" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="47" t="s">
         <v>270</v>
       </c>
@@ -4922,7 +4914,7 @@
       <c r="D36" s="50"/>
       <c r="E36" s="51"/>
     </row>
-    <row r="37" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="47" t="s">
         <v>272</v>
       </c>
@@ -4935,7 +4927,7 @@
       <c r="D37" s="50"/>
       <c r="E37" s="51"/>
     </row>
-    <row r="38" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="47" t="s">
         <v>274</v>
       </c>
@@ -4948,7 +4940,7 @@
       <c r="D38" s="50"/>
       <c r="E38" s="51"/>
     </row>
-    <row r="39" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="47" t="s">
         <v>276</v>
       </c>
@@ -4961,7 +4953,7 @@
       <c r="D39" s="50"/>
       <c r="E39" s="51"/>
     </row>
-    <row r="40" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="47" t="s">
         <v>278</v>
       </c>
@@ -4974,7 +4966,7 @@
       <c r="D40" s="50"/>
       <c r="E40" s="51"/>
     </row>
-    <row r="41" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="47" t="s">
         <v>280</v>
       </c>
@@ -4987,7 +4979,7 @@
       <c r="D41" s="50"/>
       <c r="E41" s="51"/>
     </row>
-    <row r="42" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="55" t="s">
         <v>57</v>
       </c>
@@ -5000,7 +4992,7 @@
       <c r="D42" s="57"/>
       <c r="E42" s="57"/>
     </row>
-    <row r="43" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="58" t="s">
         <v>282</v>
       </c>
@@ -5026,21 +5018,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="5" customWidth="1"/>
     <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>215</v>
       </c>
@@ -5057,14 +5049,14 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -5083,7 +5075,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -5100,7 +5092,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -5119,7 +5111,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -5136,7 +5128,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -5155,7 +5147,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -5174,14 +5166,14 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -5200,7 +5192,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2</v>
       </c>
@@ -5219,7 +5211,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>2</v>
       </c>
@@ -5238,7 +5230,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -5257,7 +5249,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>2</v>
       </c>
@@ -5273,10 +5265,10 @@
         <v>244</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>2</v>
       </c>
@@ -5292,17 +5284,17 @@
         <v>244</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>3</v>
       </c>
@@ -5321,7 +5313,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>3</v>
       </c>
@@ -5340,7 +5332,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>3</v>
       </c>
@@ -5352,10 +5344,14 @@
         <f>Stories!B33</f>
         <v>List multiple births</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D19" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>3</v>
       </c>
@@ -5367,10 +5363,14 @@
         <f>Stories!B34</f>
         <v>List orphans</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D20" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>3</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>3</v>
       </c>
@@ -5408,14 +5408,14 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>4</v>
       </c>
@@ -5430,7 +5430,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>4</v>
       </c>
@@ -5445,7 +5445,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>4</v>
       </c>
@@ -5460,7 +5460,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>4</v>
       </c>
@@ -5475,7 +5475,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>4</v>
       </c>
@@ -5490,7 +5490,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>4</v>
       </c>
@@ -5520,19 +5520,19 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="8" customWidth="1"/>
     <col min="7" max="8" width="11" style="8" customWidth="1"/>
     <col min="9" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>284</v>
       </c>
@@ -5544,7 +5544,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>285</v>
       </c>
@@ -5556,7 +5556,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>286</v>
       </c>
@@ -5568,7 +5568,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5578,7 +5578,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>287</v>
       </c>
@@ -5590,7 +5590,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>288</v>
       </c>
@@ -5602,7 +5602,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -5612,7 +5612,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>137</v>
       </c>
@@ -5624,7 +5624,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5634,7 +5634,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5644,7 +5644,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5654,7 +5654,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5664,7 +5664,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5674,7 +5674,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>215</v>
       </c>
@@ -5698,7 +5698,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>144</v>
       </c>
@@ -5716,7 +5716,7 @@
       <c r="G15" s="17"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>145</v>
       </c>
@@ -5742,7 +5742,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>146</v>
       </c>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>147</v>
       </c>
@@ -5794,7 +5794,7 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>148</v>
       </c>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="20"/>
@@ -5830,7 +5830,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5840,7 +5840,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5850,7 +5850,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5860,7 +5860,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5870,7 +5870,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5880,7 +5880,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5890,7 +5890,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5900,7 +5900,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5910,7 +5910,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5920,7 +5920,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5930,7 +5930,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5940,7 +5940,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5950,7 +5950,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5960,7 +5960,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5970,7 +5970,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5980,7 +5980,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5990,7 +5990,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6000,7 +6000,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6010,7 +6010,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -6038,19 +6038,19 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="22" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="22" customWidth="1"/>
     <col min="7" max="7" width="11" style="22" customWidth="1"/>
     <col min="8" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>138</v>
       </c>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23">
         <v>41431</v>
       </c>
@@ -6086,7 +6086,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23">
         <v>41446</v>
       </c>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23">
         <v>41459</v>
       </c>
@@ -6122,7 +6122,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -6131,7 +6131,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -6140,7 +6140,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -6149,7 +6149,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>149</v>
       </c>
@@ -6160,7 +6160,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -6169,7 +6169,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6178,7 +6178,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -6187,7 +6187,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6196,7 +6196,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6205,7 +6205,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6214,7 +6214,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6223,7 +6223,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6232,7 +6232,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6241,7 +6241,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6250,7 +6250,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6259,7 +6259,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6268,7 +6268,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6277,7 +6277,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6286,7 +6286,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6295,7 +6295,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6304,7 +6304,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6313,7 +6313,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6338,21 +6338,21 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="28" customWidth="1"/>
     <col min="5" max="5" width="12" style="28" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="28" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="28" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="28" customWidth="1"/>
     <col min="9" max="9" width="11" style="28" customWidth="1"/>
     <col min="10" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>216</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>155</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>159</v>
       </c>
@@ -6427,7 +6427,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="33"/>
       <c r="C4" s="3"/>
@@ -6438,7 +6438,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>220</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>290</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="33"/>
       <c r="C7" s="3"/>
@@ -6489,7 +6489,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>223</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>294</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>296</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="33"/>
       <c r="C11" s="3"/>
@@ -6561,7 +6561,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>238</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>41429</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>300</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>41429</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>302</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>41429</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="33"/>
       <c r="C15" s="3"/>
@@ -6635,7 +6635,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>240</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>174</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>176</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>178</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>180</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="33"/>
       <c r="C21" s="3"/>
@@ -6751,7 +6751,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>242</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>41431</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>183</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>41431</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="33"/>
       <c r="C24" s="3"/>
@@ -6804,7 +6804,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>185</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>41428</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>187</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>41428</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="33"/>
       <c r="C27" s="3"/>
@@ -6857,7 +6857,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="33"/>
       <c r="C28" s="3"/>
@@ -6868,7 +6868,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="33"/>
       <c r="C29" s="3"/>
@@ -6879,7 +6879,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="33"/>
       <c r="C30" s="3"/>
@@ -6890,7 +6890,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="33"/>
       <c r="C31" s="3"/>
@@ -6901,7 +6901,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="33"/>
       <c r="C32" s="3"/>
@@ -6912,7 +6912,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="29" t="s">
         <v>189</v>
@@ -6925,7 +6925,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="29"/>
       <c r="C34" s="3"/>
@@ -6936,7 +6936,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="29" t="s">
         <v>190</v>
@@ -6949,7 +6949,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="s">
         <v>191</v>
@@ -6962,7 +6962,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="s">
         <v>192</v>
@@ -6975,7 +6975,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
         <v>86</v>
@@ -6988,7 +6988,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
         <v>87</v>
@@ -7001,7 +7001,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="33"/>
       <c r="C40" s="3"/>
@@ -7012,7 +7012,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="29" t="s">
         <v>88</v>
@@ -7042,20 +7042,20 @@
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="34" customWidth="1"/>
+    <col min="2" max="2" width="24.375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="34" customWidth="1"/>
     <col min="4" max="4" width="11" style="34" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="34" customWidth="1"/>
     <col min="6" max="6" width="9" style="34" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="34" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="34" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="34" customWidth="1"/>
     <col min="9" max="256" width="11" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>216</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
       <c r="B2" s="29"/>
       <c r="C2" s="35"/>
@@ -7095,7 +7095,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="37"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="str">
         <f>Backlog!B3</f>
         <v>US02</v>
@@ -7126,7 +7126,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>290</v>
       </c>
@@ -7141,7 +7141,7 @@
       <c r="H4" s="36"/>
       <c r="I4" s="37"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>91</v>
       </c>
@@ -7156,7 +7156,7 @@
       <c r="H5" s="36"/>
       <c r="I5" s="37"/>
     </row>
-    <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>93</v>
       </c>
@@ -7171,7 +7171,7 @@
       <c r="H6" s="36"/>
       <c r="I6" s="37"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
@@ -7182,7 +7182,7 @@
       <c r="H7" s="36"/>
       <c r="I7" s="37"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>223</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>294</v>
       </c>
@@ -7226,7 +7226,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="40"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>296</v>
       </c>
@@ -7241,7 +7241,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="40"/>
     </row>
-    <row r="11" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>96</v>
       </c>
@@ -7256,7 +7256,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="40"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="33"/>
       <c r="C12" s="3"/>
@@ -7267,7 +7267,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="40"/>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="str">
         <f>Backlog!B5</f>
         <v>US04</v>
@@ -7298,7 +7298,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>300</v>
       </c>
@@ -7313,7 +7313,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="40"/>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>302</v>
       </c>
@@ -7328,7 +7328,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="40"/>
     </row>
-    <row r="16" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>99</v>
       </c>
@@ -7343,7 +7343,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="33"/>
       <c r="C17" s="3"/>
@@ -7354,7 +7354,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>240</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>174</v>
       </c>
@@ -7398,7 +7398,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="40"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>176</v>
       </c>
@@ -7413,7 +7413,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>178</v>
       </c>
@@ -7428,7 +7428,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="33"/>
       <c r="C22" s="3"/>
@@ -7439,7 +7439,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="40"/>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="str">
         <f>Backlog!B7</f>
         <v>US06</v>
@@ -7470,7 +7470,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>183</v>
       </c>
@@ -7485,7 +7485,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="40"/>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>104</v>
       </c>
@@ -7500,7 +7500,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="40"/>
     </row>
-    <row r="26" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>106</v>
       </c>
@@ -7515,7 +7515,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="40"/>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7"/>
       <c r="C27" s="3"/>
@@ -7526,7 +7526,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="40"/>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="str">
         <f>Backlog!B8</f>
         <v>US12</v>
@@ -7557,7 +7557,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>225</v>
       </c>
@@ -7572,7 +7572,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="40"/>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>227</v>
       </c>
@@ -7587,7 +7587,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="40"/>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>229</v>
       </c>
@@ -7602,7 +7602,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="40"/>
     </row>
-    <row r="32" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>231</v>
       </c>
@@ -7617,7 +7617,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="32"/>
     </row>
-    <row r="33" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>233</v>
       </c>
@@ -7632,7 +7632,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="32"/>
     </row>
-    <row r="34" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7"/>
       <c r="C34" s="3"/>
@@ -7643,7 +7643,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="32"/>
     </row>
-    <row r="35" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="29" t="s">
         <v>189</v>
@@ -7662,7 +7662,7 @@
       </c>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="29"/>
       <c r="C36" s="3"/>
@@ -7673,7 +7673,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="29" t="s">
         <v>190</v>
@@ -7686,7 +7686,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
         <v>235</v>
@@ -7699,7 +7699,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
         <v>236</v>
@@ -7712,7 +7712,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="66" t="s">
         <v>17</v>
@@ -7972,7 +7972,7 @@
       <c r="IU40" s="44"/>
       <c r="IV40" s="44"/>
     </row>
-    <row r="41" spans="1:256" ht="59" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:256" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="33" t="s">
         <v>62</v>
@@ -7985,7 +7985,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="29" t="s">
         <v>88</v>
@@ -7998,7 +7998,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:256" ht="89.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:256" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="33" t="s">
         <v>111</v>
@@ -8011,7 +8011,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:256" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:256" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="33" t="s">
         <v>112</v>
@@ -8024,7 +8024,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="33" t="s">
         <v>113</v>
@@ -8037,7 +8037,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="33" t="s">
         <v>61</v>
@@ -8297,7 +8297,7 @@
       <c r="IU46" s="44"/>
       <c r="IV46" s="44"/>
     </row>
-    <row r="47" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="33" t="s">
         <v>18</v>
@@ -8570,18 +8570,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="41" customWidth="1"/>
     <col min="2" max="2" width="18" style="41" customWidth="1"/>
     <col min="3" max="256" width="11" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>216</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>247</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:256" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:256" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>115</v>
       </c>
@@ -8657,7 +8657,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>117</v>
       </c>
@@ -8674,7 +8674,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>119</v>
       </c>
@@ -8691,7 +8691,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="33"/>
       <c r="C6" s="3"/>
@@ -8702,7 +8702,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>250</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>121</v>
       </c>
@@ -8747,7 +8747,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:256" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:256" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>123</v>
       </c>
@@ -8762,7 +8762,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>125</v>
       </c>
@@ -8777,7 +8777,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="33"/>
       <c r="C11" s="3"/>
@@ -8788,7 +8788,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>252</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="13" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>127</v>
       </c>
@@ -8832,7 +8832,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>129</v>
       </c>
@@ -8847,7 +8847,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="67" t="s">
         <v>19</v>
       </c>
@@ -9109,7 +9109,7 @@
       <c r="IU15" s="44"/>
       <c r="IV15" s="44"/>
     </row>
-    <row r="16" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="33"/>
       <c r="C16" s="3"/>
@@ -9120,7 +9120,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>254</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>131</v>
       </c>
@@ -9164,7 +9164,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>132</v>
       </c>
@@ -9179,7 +9179,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="67" t="s">
         <v>20</v>
       </c>
@@ -9441,7 +9441,7 @@
       <c r="IU20" s="44"/>
       <c r="IV20" s="44"/>
     </row>
-    <row r="21" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="33"/>
       <c r="C21" s="3"/>
@@ -9452,7 +9452,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>256</v>
       </c>
@@ -9471,9 +9471,15 @@
       <c r="F22" s="6">
         <v>30</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="G22" s="3">
+        <v>25</v>
+      </c>
+      <c r="H22" s="3">
+        <v>30</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>303</v>
+      </c>
       <c r="J22" s="44"/>
       <c r="K22" s="44"/>
       <c r="L22" s="44"/>
@@ -9722,7 +9728,7 @@
       <c r="IU22" s="44"/>
       <c r="IV22" s="44"/>
     </row>
-    <row r="23" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -9984,7 +9990,7 @@
       <c r="IU23" s="44"/>
       <c r="IV23" s="44"/>
     </row>
-    <row r="24" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
@@ -10246,7 +10252,7 @@
       <c r="IU24" s="44"/>
       <c r="IV24" s="44"/>
     </row>
-    <row r="25" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="67" t="s">
         <v>21</v>
       </c>
@@ -10508,7 +10514,7 @@
       <c r="IU25" s="44"/>
       <c r="IV25" s="44"/>
     </row>
-    <row r="26" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="64"/>
       <c r="C26" s="3"/>
@@ -10766,7 +10772,7 @@
       <c r="IU26" s="44"/>
       <c r="IV26" s="44"/>
     </row>
-    <row r="27" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>258</v>
       </c>
@@ -10785,9 +10791,15 @@
       <c r="F27" s="6">
         <v>30</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="G27" s="3">
+        <v>25</v>
+      </c>
+      <c r="H27" s="3">
+        <v>35</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>303</v>
+      </c>
       <c r="J27" s="44"/>
       <c r="K27" s="44"/>
       <c r="L27" s="44"/>
@@ -11036,7 +11048,7 @@
       <c r="IU27" s="44"/>
       <c r="IV27" s="44"/>
     </row>
-    <row r="28" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -11298,7 +11310,7 @@
       <c r="IU28" s="44"/>
       <c r="IV28" s="44"/>
     </row>
-    <row r="29" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -11560,7 +11572,7 @@
       <c r="IU29" s="44"/>
       <c r="IV29" s="44"/>
     </row>
-    <row r="30" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
@@ -11822,7 +11834,7 @@
       <c r="IU30" s="44"/>
       <c r="IV30" s="44"/>
     </row>
-    <row r="31" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
@@ -12084,7 +12096,7 @@
       <c r="IU31" s="44"/>
       <c r="IV31" s="44"/>
     </row>
-    <row r="32" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="67" t="s">
         <v>22</v>
       </c>
@@ -12346,7 +12358,7 @@
       <c r="IU32" s="44"/>
       <c r="IV32" s="44"/>
     </row>
-    <row r="33" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="64"/>
       <c r="C33" s="3"/>
@@ -12621,14 +12633,14 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="42" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="42" customWidth="1"/>
     <col min="3" max="256" width="11" style="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>216</v>
       </c>
@@ -12657,7 +12669,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="68" t="str">
         <f>Backlog!$B$17</f>
         <v>US28</v>
@@ -12682,7 +12694,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="70" t="s">
         <v>305</v>
       </c>
@@ -12944,7 +12956,7 @@
       <c r="IU3" s="44"/>
       <c r="IV3" s="44"/>
     </row>
-    <row r="4" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="70" t="s">
         <v>306</v>
       </c>
@@ -13206,7 +13218,7 @@
       <c r="IU4" s="44"/>
       <c r="IV4" s="44"/>
     </row>
-    <row r="5" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="70" t="s">
         <v>310</v>
       </c>
@@ -13468,7 +13480,7 @@
       <c r="IU5" s="44"/>
       <c r="IV5" s="44"/>
     </row>
-    <row r="6" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="70"/>
       <c r="B6" s="70"/>
       <c r="C6" s="69"/>
@@ -13726,7 +13738,7 @@
       <c r="IU6" s="44"/>
       <c r="IV6" s="44"/>
     </row>
-    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="68" t="str">
         <f>Backlog!$B$18</f>
         <v>US30</v>
@@ -13751,7 +13763,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="69" t="s">
         <v>309</v>
       </c>
@@ -13766,7 +13778,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="69" t="s">
         <v>314</v>
       </c>
@@ -13781,7 +13793,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
         <v>315</v>
       </c>
@@ -13796,7 +13808,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -13807,7 +13819,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -13818,7 +13830,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -13829,7 +13841,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -13856,13 +13868,13 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="11" style="43" customWidth="1"/>
     <col min="10" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>216</v>
       </c>
@@ -13891,7 +13903,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -13902,7 +13914,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -13913,7 +13925,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -13924,7 +13936,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -13935,7 +13947,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -13946,7 +13958,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -13957,7 +13969,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -13968,7 +13980,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -13979,7 +13991,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/TeamNick_Jeremy_AmieReport.xlsx
+++ b/TeamNick_Jeremy_AmieReport.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="330">
   <si>
     <t>UniqueFirst Names in Families</t>
   </si>
@@ -995,6 +995,48 @@
   </si>
   <si>
     <t>T30.03</t>
+  </si>
+  <si>
+    <t>List Multiple Births</t>
+  </si>
+  <si>
+    <t>List Orphans</t>
+  </si>
+  <si>
+    <t>T32.01</t>
+  </si>
+  <si>
+    <t>Scan individuals for multiple birth dates</t>
+  </si>
+  <si>
+    <t>T32.02</t>
+  </si>
+  <si>
+    <t>T33.01</t>
+  </si>
+  <si>
+    <t>Check parents death status</t>
+  </si>
+  <si>
+    <t>T33.02</t>
+  </si>
+  <si>
+    <t>Check individual's age</t>
+  </si>
+  <si>
+    <t>T33.03</t>
+  </si>
+  <si>
+    <t>Create unit Test</t>
+  </si>
+  <si>
+    <t>Keep Doing:</t>
+  </si>
+  <si>
+    <t>Keep updating each other when work is done</t>
+  </si>
+  <si>
+    <t>Availability issues/missing parts of weekly meetings</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1352,6 +1394,7 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1565,11 +1608,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="41079168"/>
-        <c:axId val="41081088"/>
+        <c:axId val="46387584"/>
+        <c:axId val="46389504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="41079168"/>
+        <c:axId val="46387584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1603,14 +1646,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41081088"/>
+        <c:crossAx val="46389504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="41081088"/>
+        <c:axId val="46389504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1655,7 +1698,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41079168"/>
+        <c:crossAx val="46387584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7.5"/>
@@ -1810,11 +1853,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101964032"/>
-        <c:axId val="101986688"/>
+        <c:axId val="109566208"/>
+        <c:axId val="109846912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="101964032"/>
+        <c:axId val="109566208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1848,14 +1891,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101986688"/>
+        <c:crossAx val="109846912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="101986688"/>
+        <c:axId val="109846912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1900,7 +1943,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101964032"/>
+        <c:crossAx val="109566208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="6"/>
@@ -1962,7 +2005,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1998,7 +2041,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2006,8 +2049,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6266600" y="1336890"/>
-          <a:ext cx="1402082" cy="619540"/>
+          <a:off x="5380775" y="1413090"/>
+          <a:ext cx="1262382" cy="657640"/>
           <a:chOff x="-19050" y="-41148"/>
           <a:chExt cx="1262382" cy="657640"/>
         </a:xfrm>
@@ -2017,7 +2060,7 @@
           <xdr:cNvPr id="3" name="Shape 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2120,7 +2163,7 @@
           <xdr:cNvPr id="4" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2142,7 +2185,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2221,7 +2264,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2229,8 +2272,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3239770" y="1171146"/>
-          <a:ext cx="1241213" cy="845824"/>
+          <a:off x="2776220" y="1237821"/>
+          <a:ext cx="1066588" cy="902974"/>
           <a:chOff x="-19050" y="-52577"/>
           <a:chExt cx="1063412" cy="902974"/>
         </a:xfrm>
@@ -2240,7 +2283,7 @@
           <xdr:cNvPr id="6" name="Shape 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2343,7 +2386,7 @@
           <xdr:cNvPr id="7" name="Shape 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2365,7 +2408,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2444,7 +2487,7 @@
         <xdr:cNvPr id="11" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2452,8 +2495,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4476749" y="1492052"/>
-          <a:ext cx="596900" cy="475101"/>
+          <a:off x="3838574" y="1577777"/>
+          <a:ext cx="511175" cy="503676"/>
           <a:chOff x="-19050" y="-29718"/>
           <a:chExt cx="508000" cy="503676"/>
         </a:xfrm>
@@ -2463,7 +2506,7 @@
           <xdr:cNvPr id="9" name="Shape 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2566,7 +2609,7 @@
           <xdr:cNvPr id="10" name="Shape 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2588,7 +2631,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2714,7 +2757,7 @@
         <xdr:cNvPr id="14" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2722,8 +2765,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5068570" y="1181649"/>
-          <a:ext cx="925829" cy="924306"/>
+          <a:off x="4344670" y="1248324"/>
+          <a:ext cx="925829" cy="981456"/>
           <a:chOff x="-19050" y="-64007"/>
           <a:chExt cx="925829" cy="981455"/>
         </a:xfrm>
@@ -2733,7 +2776,7 @@
           <xdr:cNvPr id="12" name="Shape 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2836,7 +2879,7 @@
           <xdr:cNvPr id="13" name="Shape 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2858,7 +2901,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2937,7 +2980,7 @@
         <xdr:cNvPr id="17" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2945,8 +2988,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6417440" y="4698157"/>
-          <a:ext cx="1378537" cy="802774"/>
+          <a:off x="5531615" y="4983907"/>
+          <a:ext cx="1238837" cy="859924"/>
           <a:chOff x="0" y="-41148"/>
           <a:chExt cx="1238836" cy="859924"/>
         </a:xfrm>
@@ -2956,7 +2999,7 @@
           <xdr:cNvPr id="15" name="Shape 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3059,7 +3102,7 @@
           <xdr:cNvPr id="16" name="Shape 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3081,7 +3124,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -3165,7 +3208,7 @@
         <xdr:cNvPr id="19" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5019,7 +5062,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7038,7 +7081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
@@ -8568,10 +8611,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV33"/>
+  <dimension ref="A1:IV41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12616,6 +12659,102 @@
       <c r="IU33" s="44"/>
       <c r="IV33" s="44"/>
     </row>
+    <row r="34" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="71" t="s">
+        <v>327</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="69" t="s">
+        <v>328</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="69" t="s">
+        <v>329</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12627,10 +12766,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV14"/>
+  <dimension ref="A1:IV29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A30" sqref="A30:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13820,19 +13959,35 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="71" t="s">
+        <v>264</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>316</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="3">
+        <v>50</v>
+      </c>
+      <c r="F12" s="3">
+        <v>60</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="69" t="s">
+        <v>318</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>319</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -13842,8 +13997,12 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="69" t="s">
+        <v>320</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>311</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -13851,6 +14010,195 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="71" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>317</v>
+      </c>
+      <c r="C16" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="3">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3">
+        <v>40</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="69" t="s">
+        <v>321</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>322</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="69" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>324</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="69" t="s">
+        <v>325</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>326</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/TeamNick_Jeremy_AmieReport.xlsx
+++ b/TeamNick_Jeremy_AmieReport.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="465" windowWidth="21360" windowHeight="14400" activeTab="6"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="14640" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="Sprint4" sheetId="9" r:id="rId9"/>
     <sheet name="Stories" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -28,55 +28,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="330">
-  <si>
-    <t>UniqueFirst Names in Families</t>
-  </si>
-  <si>
-    <t>Corresponding Entries</t>
-  </si>
-  <si>
-    <t>Store all individual identifiers in a given family</t>
-  </si>
-  <si>
-    <t>Make sure they all appear in the individuals table</t>
-  </si>
-  <si>
-    <t>T26.04</t>
-  </si>
-  <si>
-    <t>T26.03</t>
-  </si>
-  <si>
-    <t>T26.02</t>
-  </si>
-  <si>
-    <t>T26.01</t>
-  </si>
-  <si>
-    <t>Store all family identifiers from a given individual</t>
-  </si>
-  <si>
-    <t>Make sure they all appear in the families table</t>
-  </si>
-  <si>
-    <t>Store children from a given family</t>
-  </si>
-  <si>
-    <t>Make sure none share a first name and birthday</t>
-  </si>
-  <si>
-    <t>T25.02</t>
-  </si>
-  <si>
-    <t>T25.01</t>
-  </si>
-  <si>
-    <t>Store spouse IDs</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="352">
+  <si>
+    <t>Check birth date &lt; 30 days</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Check spouse IDS unique</t>
+    <t>Check birth dates for 2x age delta</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   * Inputs in blue</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>From DNC: Get work done early in Sprint so have time to debug and integrate.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>From JRD: Keep updating each other when work is done.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>From JRD: Availability issues/missing parts of weekly meetings.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>From DNC:  Hold myself accountable to the team and not assume they know what I am thinking.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>From DNC: Leverage strengths of the team.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>From DNC: Do not be afraid to ask for help.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>From DNC: I am a natural optimist but slow programmer.  Realize this at time of estimation.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>US34</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>US35</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>List recent births</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -84,507 +86,223 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>From DNC: Teamwork is good.  Communication good.  No pride of authorship.  Suggestions from everyone respected.</t>
+    <t>DNC</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>From DNC: Not use code inline but keep in functions.  I will need to refactor some.</t>
+    <t xml:space="preserve">T34.01 </t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>T122.03</t>
+    <t>Create unit test</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>T124.03</t>
+    <t>T35.01</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>T125.03</t>
+    <t>Create unit test</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>T126.03</t>
+    <t>T34.02</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Husband in family should be male and wife in family should be female</t>
-  </si>
-  <si>
-    <t>All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
-    <t>US23</t>
-  </si>
-  <si>
-    <t>Unique name and birth date</t>
-  </si>
-  <si>
-    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one child with the same name and birth date should appear in a family</t>
-  </si>
-  <si>
-    <t>Complete</t>
+    <t>Iterate over familes</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>In Progress</t>
+    <t>T34.03</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
-  </si>
-  <si>
-    <t>US29</t>
-  </si>
-  <si>
-    <t>List deceased</t>
-  </si>
-  <si>
-    <t>List all deceased individuals in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living married people in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>US31</t>
-  </si>
-  <si>
-    <t>List living single</t>
-  </si>
-  <si>
-    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t>Marriage should occur before death of either spouse</t>
-  </si>
-  <si>
-    <t>Divorce can only occur before death of both spouses</t>
-  </si>
-  <si>
-    <t>Less then 150 years old</t>
-  </si>
-  <si>
-    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
-  </si>
-  <si>
-    <t>US08</t>
-  </si>
-  <si>
-    <t>Birth before marriage of parents</t>
-  </si>
-  <si>
-    <t>List line numbers from GEDCOM source file when reporting errors</t>
-  </si>
-  <si>
-    <t>US41</t>
-  </si>
-  <si>
-    <t>Include partial dates</t>
-  </si>
-  <si>
-    <t>Accept and use dates without days or without days and months</t>
-  </si>
-  <si>
-    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
-  </si>
-  <si>
-    <t>From JRD: Not using docstrings. We should attempt to keep more consistent documentation in the future.</t>
-  </si>
-  <si>
-    <t>From JRD: Keep questioning if what we are doing is reasonale so that we keep ourselves on track.</t>
-  </si>
-  <si>
-    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
-    <t>US13</t>
-  </si>
-  <si>
-    <t>Siblings spacing</t>
-  </si>
-  <si>
-    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
-    <t>No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
-    <t>US15</t>
-  </si>
-  <si>
-    <t>Fewer than 15 siblings</t>
-  </si>
-  <si>
-    <t>There should be fewer than 15 siblings in a family</t>
-  </si>
-  <si>
-    <t>All male members of a family should have the same last name</t>
-  </si>
-  <si>
-    <t>US17</t>
-  </si>
-  <si>
-    <t>No marriages to descendants</t>
-  </si>
-  <si>
-    <t>Parents should not marry any of their descendants</t>
-  </si>
-  <si>
-    <t>US18</t>
-  </si>
-  <si>
-    <t>Siblings should not marry</t>
-  </si>
-  <si>
-    <t>Siblings should not marry one another</t>
-  </si>
-  <si>
-    <t>US19</t>
-  </si>
-  <si>
-    <t>First cousins should not marry</t>
-  </si>
-  <si>
-    <t>First cousins should not marry one another</t>
-  </si>
-  <si>
-    <t>US20</t>
-  </si>
-  <si>
-    <t>Aunts and uncles</t>
-  </si>
-  <si>
-    <t>Aunts and uncles should not marry their nieces or nephews</t>
-  </si>
-  <si>
-    <t>US21</t>
-  </si>
-  <si>
-    <t>Correct gender for role</t>
-  </si>
-  <si>
-    <t>Communicate early and often</t>
-  </si>
-  <si>
-    <t>Set next meeting before end current meeting</t>
-  </si>
-  <si>
-    <t>Avoid:</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Store birth date</t>
-  </si>
-  <si>
-    <t>T02.02</t>
-  </si>
-  <si>
-    <t>Store marriage date</t>
-  </si>
-  <si>
-    <t>T02.03</t>
-  </si>
-  <si>
-    <t>Compare birth and marriage dates</t>
-  </si>
-  <si>
-    <t>Store death date</t>
-  </si>
-  <si>
-    <t>T03.03</t>
-  </si>
-  <si>
-    <t>Compare birth and death dates</t>
-  </si>
-  <si>
-    <t>Store divorce date</t>
-  </si>
-  <si>
-    <t>T04.03</t>
-  </si>
-  <si>
-    <t>Compare marriage and divorce date</t>
-  </si>
-  <si>
-    <t>Find marriage record for individual</t>
-  </si>
-  <si>
-    <t>Find marriage date</t>
-  </si>
-  <si>
-    <t>Compare marriage date to birth date</t>
-  </si>
-  <si>
-    <t>T06.02</t>
-  </si>
-  <si>
-    <t>Find death date</t>
-  </si>
-  <si>
-    <t>T06.03</t>
-  </si>
-  <si>
-    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
-  </si>
-  <si>
-    <t>US27</t>
-  </si>
-  <si>
-    <t>Include individual ages</t>
-  </si>
-  <si>
-    <t>Include person's current age when listing individuals</t>
-  </si>
-  <si>
-    <t>From ALW: I was too liberal with my estimated time. The time spent took longer than I initially documented. I need to be more conserative with my time spent</t>
-  </si>
-  <si>
-    <t>From ALW: Adding unit testing into the tasks list. This was additional work that wasn't created initially</t>
-  </si>
-  <si>
-    <t>From ALW: Programming wise, needed to break my US into separate functions, so unit testing could be easier</t>
-  </si>
-  <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>T14.01</t>
-  </si>
-  <si>
-    <t>store children with the same birth date in a collection</t>
-  </si>
-  <si>
-    <t>T14.02</t>
-  </si>
-  <si>
-    <t>Collect size, throw error if &gt; 5</t>
-  </si>
-  <si>
-    <t>T14.03</t>
-  </si>
-  <si>
-    <t>Create Unit Test to test</t>
-  </si>
-  <si>
-    <t>T16.01</t>
-  </si>
-  <si>
-    <t>Save the fathers last name</t>
-  </si>
-  <si>
-    <t>T16.02</t>
-  </si>
-  <si>
-    <t>Compare all males in the family have the same last name</t>
-  </si>
-  <si>
-    <t>T16.03</t>
-  </si>
-  <si>
-    <t>Unique ID</t>
-  </si>
-  <si>
-    <t>T22.01</t>
-  </si>
-  <si>
-    <t>Check unique individual ID</t>
-  </si>
-  <si>
-    <t>T22.02</t>
-  </si>
-  <si>
-    <t>Check unique family ID</t>
-  </si>
-  <si>
-    <t>T24.01</t>
-  </si>
-  <si>
-    <t>T24.02</t>
-  </si>
-  <si>
-    <t>Story Description</t>
-  </si>
-  <si>
-    <t>Dates before current date</t>
-  </si>
-  <si>
-    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t>Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t>Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Remaining Stories</t>
-  </si>
-  <si>
-    <t>Story Velocity</t>
-  </si>
-  <si>
-    <t>LOC</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Code Velocity</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   * Inputs in blue (placeholders right now)</t>
-  </si>
-  <si>
-    <t>Est Size</t>
-  </si>
-  <si>
-    <t>Est Time</t>
-  </si>
-  <si>
-    <t>Act Size</t>
-  </si>
-  <si>
-    <t>Act Time</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>US01</t>
-  </si>
-  <si>
-    <t>Obtain GitHub account</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>T01.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Each team member needs to obtain an account in GitHub </t>
-  </si>
-  <si>
-    <t>dc, jd, aw</t>
-  </si>
-  <si>
-    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
-  </si>
-  <si>
-    <t>US09</t>
-  </si>
-  <si>
-    <t>Birth before death of parents</t>
-  </si>
-  <si>
-    <t>Child should be born before death of mother and before 9 months after death of father</t>
-  </si>
-  <si>
-    <t>US10</t>
-  </si>
-  <si>
-    <t>Marriage after 14</t>
-  </si>
-  <si>
-    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
-    <t>US11</t>
-  </si>
-  <si>
-    <t>No bigamy</t>
-  </si>
-  <si>
-    <t>Marriage should not occur during marriage to another spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -Save information about the families in a list (or collection) - assume families is always &lt; 1000</t>
-  </si>
-  <si>
-    <t>Parse program and print different identifiers</t>
-  </si>
-  <si>
-    <t>T05.01</t>
-  </si>
-  <si>
-    <t>Sort the individual collections in order by their unique identifiers</t>
-  </si>
-  <si>
-    <t>T05.02</t>
-  </si>
-  <si>
-    <t>Sort the family collections in order by their unique family identifiers</t>
-  </si>
-  <si>
-    <t>T05.03</t>
-  </si>
-  <si>
-    <t>Print the individual collections using a table format, like Python PrettyTable (example in Project 3)</t>
-  </si>
-  <si>
-    <t>T05.04</t>
-  </si>
-  <si>
-    <t>Print the family collections using a table format, like Python PrettyTable (example in Project 3)</t>
+    <t>Get spouse birth dates</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>T34.04</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>T25.02</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iterate over individuals</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>List recent births</t>
+  </si>
+  <si>
+    <t>US36</t>
+  </si>
+  <si>
+    <t>List recent deaths</t>
+  </si>
+  <si>
+    <t>US37</t>
+  </si>
+  <si>
+    <t>List recent survivors</t>
+  </si>
+  <si>
+    <t>US38</t>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+  </si>
+  <si>
+    <t>US39</t>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+  </si>
+  <si>
+    <t>US40</t>
+  </si>
+  <si>
+    <t>Include input line numbers</t>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Create a new public repository in GitHub</t>
+  </si>
+  <si>
+    <t>T02.01</t>
+  </si>
+  <si>
+    <t>Create a repository, AgileMethods in GitHub</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>Create a new GEDCOM Test file</t>
+  </si>
+  <si>
+    <t>T03.01</t>
+  </si>
+  <si>
+    <t>Select or create a new GEDCOM test data file</t>
+  </si>
+  <si>
+    <t>T03.02</t>
+  </si>
+  <si>
+    <t>Create a NOTE record at the beginning of the file and include AgileMethods, the GitHub respository</t>
+  </si>
+  <si>
+    <t>Modify program (Project #3.py) to save information</t>
+  </si>
+  <si>
+    <t>dc, jd</t>
+  </si>
+  <si>
+    <t>T04.01</t>
+  </si>
+  <si>
+    <t>Save information about individuals in a list (or collection) - assume file is always &lt; 5000</t>
+  </si>
+  <si>
+    <t>T04.02</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>ALw</t>
+  </si>
+  <si>
+    <t>T28.01</t>
+  </si>
+  <si>
+    <t>T28.02</t>
+  </si>
+  <si>
+    <t>Collect all children</t>
+  </si>
+  <si>
+    <t>Sort by age</t>
+  </si>
+  <si>
+    <t>T30.01</t>
+  </si>
+  <si>
+    <t>T28.03</t>
+  </si>
+  <si>
+    <t>Create unit test</t>
+  </si>
+  <si>
+    <t>Store if married</t>
+  </si>
+  <si>
+    <t>display if they are living</t>
+  </si>
+  <si>
+    <t>T30.02</t>
+  </si>
+  <si>
+    <t>T30.03</t>
+  </si>
+  <si>
+    <t>List Multiple Births</t>
+  </si>
+  <si>
+    <t>List Orphans</t>
+  </si>
+  <si>
+    <t>T32.01</t>
+  </si>
+  <si>
+    <t>Scan individuals for multiple birth dates</t>
+  </si>
+  <si>
+    <t>T32.02</t>
+  </si>
+  <si>
+    <t>T33.01</t>
+  </si>
+  <si>
+    <t>Check parents death status</t>
+  </si>
+  <si>
+    <t>T33.02</t>
+  </si>
+  <si>
+    <t>Check individual's age</t>
+  </si>
+  <si>
+    <t>T33.03</t>
+  </si>
+  <si>
+    <t>Create unit Test</t>
+  </si>
+  <si>
+    <t>Keep Doing:</t>
   </si>
   <si>
     <t>Update GitHub respository with new version of program</t>
@@ -862,192 +580,570 @@
     <t>US35</t>
   </si>
   <si>
-    <t>List recent births</t>
-  </si>
-  <si>
-    <t>US36</t>
-  </si>
-  <si>
-    <t>List recent deaths</t>
-  </si>
-  <si>
-    <t>US37</t>
-  </si>
-  <si>
-    <t>List recent survivors</t>
-  </si>
-  <si>
-    <t>US38</t>
-  </si>
-  <si>
-    <t>List upcoming birthdays</t>
-  </si>
-  <si>
-    <t>US39</t>
-  </si>
-  <si>
-    <t>List upcoming anniversaries</t>
-  </si>
-  <si>
-    <t>US40</t>
-  </si>
-  <si>
-    <t>Include input line numbers</t>
-  </si>
-  <si>
-    <t>US42</t>
-  </si>
-  <si>
-    <t>Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t>Create a new public repository in GitHub</t>
-  </si>
-  <si>
-    <t>T02.01</t>
-  </si>
-  <si>
-    <t>Create a repository, AgileMethods in GitHub</t>
-  </si>
-  <si>
-    <t>dc</t>
-  </si>
-  <si>
-    <t>Create a new GEDCOM Test file</t>
-  </si>
-  <si>
-    <t>T03.01</t>
-  </si>
-  <si>
-    <t>Select or create a new GEDCOM test data file</t>
-  </si>
-  <si>
-    <t>T03.02</t>
-  </si>
-  <si>
-    <t>Create a NOTE record at the beginning of the file and include AgileMethods, the GitHub respository</t>
-  </si>
-  <si>
-    <t>Modify program (Project #3.py) to save information</t>
-  </si>
-  <si>
-    <t>dc, jd</t>
-  </si>
-  <si>
-    <t>T04.01</t>
-  </si>
-  <si>
-    <t>Save information about individuals in a list (or collection) - assume file is always &lt; 5000</t>
-  </si>
-  <si>
-    <t>T04.02</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>ALw</t>
-  </si>
-  <si>
-    <t>T28.01</t>
-  </si>
-  <si>
-    <t>T28.02</t>
-  </si>
-  <si>
-    <t>Collect all children</t>
-  </si>
-  <si>
-    <t>Sort by age</t>
-  </si>
-  <si>
-    <t>T30.01</t>
-  </si>
-  <si>
-    <t>T28.03</t>
-  </si>
-  <si>
-    <t>Create unit test</t>
-  </si>
-  <si>
-    <t>Store if married</t>
-  </si>
-  <si>
-    <t>display if they are living</t>
-  </si>
-  <si>
-    <t>T30.02</t>
-  </si>
-  <si>
-    <t>T30.03</t>
-  </si>
-  <si>
-    <t>List Multiple Births</t>
-  </si>
-  <si>
-    <t>List Orphans</t>
-  </si>
-  <si>
-    <t>T32.01</t>
-  </si>
-  <si>
-    <t>Scan individuals for multiple birth dates</t>
-  </si>
-  <si>
-    <t>T32.02</t>
-  </si>
-  <si>
-    <t>T33.01</t>
-  </si>
-  <si>
-    <t>Check parents death status</t>
-  </si>
-  <si>
-    <t>T33.02</t>
-  </si>
-  <si>
-    <t>Check individual's age</t>
-  </si>
-  <si>
-    <t>T33.03</t>
-  </si>
-  <si>
-    <t>Create unit Test</t>
-  </si>
-  <si>
-    <t>Keep Doing:</t>
-  </si>
-  <si>
-    <t>Keep updating each other when work is done</t>
-  </si>
-  <si>
-    <t>Availability issues/missing parts of weekly meetings</t>
+    <t>Save the fathers last name</t>
+  </si>
+  <si>
+    <t>T16.02</t>
+  </si>
+  <si>
+    <t>Compare all males in the family have the same last name</t>
+  </si>
+  <si>
+    <t>T16.03</t>
+  </si>
+  <si>
+    <t>Unique ID</t>
+  </si>
+  <si>
+    <t>T22.01</t>
+  </si>
+  <si>
+    <t>Check unique individual ID</t>
+  </si>
+  <si>
+    <t>T22.02</t>
+  </si>
+  <si>
+    <t>Check unique family ID</t>
+  </si>
+  <si>
+    <t>T24.01</t>
+  </si>
+  <si>
+    <t>T24.02</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>Dates before current date</t>
+  </si>
+  <si>
+    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t>Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Remaining Stories</t>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Code Velocity</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Est Size</t>
+  </si>
+  <si>
+    <t>Est Time</t>
+  </si>
+  <si>
+    <t>Act Size</t>
+  </si>
+  <si>
+    <t>Act Time</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>US01</t>
+  </si>
+  <si>
+    <t>Obtain GitHub account</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>T01.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each team member needs to obtain an account in GitHub </t>
+  </si>
+  <si>
+    <t>dc, jd, aw</t>
+  </si>
+  <si>
+    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>Birth before death of parents</t>
+  </si>
+  <si>
+    <t>Child should be born before death of mother and before 9 months after death of father</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>Marriage after 14</t>
+  </si>
+  <si>
+    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>No bigamy</t>
+  </si>
+  <si>
+    <t>Marriage should not occur during marriage to another spouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Save information about the families in a list (or collection) - assume families is always &lt; 1000</t>
+  </si>
+  <si>
+    <t>Parse program and print different identifiers</t>
+  </si>
+  <si>
+    <t>T05.01</t>
+  </si>
+  <si>
+    <t>Sort the individual collections in order by their unique identifiers</t>
+  </si>
+  <si>
+    <t>T05.02</t>
+  </si>
+  <si>
+    <t>Sort the family collections in order by their unique family identifiers</t>
+  </si>
+  <si>
+    <t>T05.03</t>
+  </si>
+  <si>
+    <t>Print the individual collections using a table format, like Python PrettyTable (example in Project 3)</t>
+  </si>
+  <si>
+    <t>T05.04</t>
+  </si>
+  <si>
+    <t>Print the family collections using a table format, like Python PrettyTable (example in Project 3)</t>
+  </si>
+  <si>
+    <t>No marriages to descendants</t>
+  </si>
+  <si>
+    <t>Parents should not marry any of their descendants</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+  </si>
+  <si>
+    <t>Siblings should not marry one another</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>First cousins should not marry</t>
+  </si>
+  <si>
+    <t>First cousins should not marry one another</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>Aunts and uncles</t>
+  </si>
+  <si>
+    <t>Aunts and uncles should not marry their nieces or nephews</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>Correct gender for role</t>
+  </si>
+  <si>
+    <t>Communicate early and often</t>
+  </si>
+  <si>
+    <t>Set next meeting before end current meeting</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Store birth date</t>
+  </si>
+  <si>
+    <t>T02.02</t>
+  </si>
+  <si>
+    <t>Store marriage date</t>
+  </si>
+  <si>
+    <t>T02.03</t>
+  </si>
+  <si>
+    <t>Compare birth and marriage dates</t>
+  </si>
+  <si>
+    <t>Store death date</t>
+  </si>
+  <si>
+    <t>T03.03</t>
+  </si>
+  <si>
+    <t>Compare birth and death dates</t>
+  </si>
+  <si>
+    <t>Store divorce date</t>
+  </si>
+  <si>
+    <t>T04.03</t>
+  </si>
+  <si>
+    <t>Compare marriage and divorce date</t>
+  </si>
+  <si>
+    <t>Find marriage record for individual</t>
+  </si>
+  <si>
+    <t>Find marriage date</t>
+  </si>
+  <si>
+    <t>Compare marriage date to birth date</t>
+  </si>
+  <si>
+    <t>T06.02</t>
+  </si>
+  <si>
+    <t>Find death date</t>
+  </si>
+  <si>
+    <t>T06.03</t>
+  </si>
+  <si>
+    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>Include individual ages</t>
+  </si>
+  <si>
+    <t>Include person's current age when listing individuals</t>
+  </si>
+  <si>
+    <t>From ALW: I was too liberal with my estimated time. The time spent took longer than I initially documented. I need to be more conserative with my time spent</t>
+  </si>
+  <si>
+    <t>From ALW: Adding unit testing into the tasks list. This was additional work that wasn't created initially</t>
+  </si>
+  <si>
+    <t>From ALW: Programming wise, needed to break my US into separate functions, so unit testing could be easier</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>T14.01</t>
+  </si>
+  <si>
+    <t>store children with the same birth date in a collection</t>
+  </si>
+  <si>
+    <t>T14.02</t>
+  </si>
+  <si>
+    <t>Collect size, throw error if &gt; 5</t>
+  </si>
+  <si>
+    <t>T14.03</t>
+  </si>
+  <si>
+    <t>Create Unit Test to test</t>
+  </si>
+  <si>
+    <t>T16.01</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t>Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
+    <t>Divorce can only occur before death of both spouses</t>
+  </si>
+  <si>
+    <t>Less then 150 years old</t>
+  </si>
+  <si>
+    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>Birth before marriage of parents</t>
+  </si>
+  <si>
+    <t>List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
+    <t>US41</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>Accept and use dates without days or without days and months</t>
+  </si>
+  <si>
+    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+  </si>
+  <si>
+    <t>From JRD: Not using docstrings. We should attempt to keep more consistent documentation in the future.</t>
+  </si>
+  <si>
+    <t>From JRD: Keep questioning if what we are doing is reasonale so that we keep ourselves on track.</t>
+  </si>
+  <si>
+    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>Siblings spacing</t>
+  </si>
+  <si>
+    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+  </si>
+  <si>
+    <t>No more than five siblings should be born at the same time</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>Fewer than 15 siblings</t>
+  </si>
+  <si>
+    <t>There should be fewer than 15 siblings in a family</t>
+  </si>
+  <si>
+    <t>All male members of a family should have the same last name</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>UniqueFirst Names in Families</t>
+  </si>
+  <si>
+    <t>Corresponding Entries</t>
+  </si>
+  <si>
+    <t>Store all individual identifiers in a given family</t>
+  </si>
+  <si>
+    <t>Make sure they all appear in the individuals table</t>
+  </si>
+  <si>
+    <t>T26.04</t>
+  </si>
+  <si>
+    <t>T26.03</t>
+  </si>
+  <si>
+    <t>T26.02</t>
+  </si>
+  <si>
+    <t>T26.01</t>
+  </si>
+  <si>
+    <t>Store all family identifiers from a given individual</t>
+  </si>
+  <si>
+    <t>Make sure they all appear in the families table</t>
+  </si>
+  <si>
+    <t>Store children from a given family</t>
+  </si>
+  <si>
+    <t>Make sure none share a first name and birthday</t>
+  </si>
+  <si>
+    <t>T25.02</t>
+  </si>
+  <si>
+    <t>T25.01</t>
+  </si>
+  <si>
+    <t>Store spouse IDs</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check spouse IDS unique</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNC</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>From DNC: Teamwork is good.  Communication good.  No pride of authorship.  Suggestions from everyone respected.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>From DNC: Not use code inline but keep in functions.  I will need to refactor some.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>T122.03</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>T124.03</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>T125.03</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>T126.03</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Husband in family should be male and wife in family should be female</t>
+  </si>
+  <si>
+    <t>All individual IDs should be unique and all family IDs should be unique</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>Unique name and birth date</t>
+  </si>
+  <si>
+    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one child with the same name and birth date should appear in a family</t>
+  </si>
+  <si>
+    <t>Complete</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
+  </si>
+  <si>
+    <t>US29</t>
+  </si>
+  <si>
+    <t>List deceased</t>
+  </si>
+  <si>
+    <t>List all deceased individuals in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living married people in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>List living single</t>
+  </si>
+  <si>
+    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all multiple births in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1094,13 +1190,11 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1129,7 +1223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1282,11 +1376,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1395,12 +1504,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1484,15 +1594,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1501,15 +1603,14 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.3112399999999998E-2"/>
-          <c:y val="5.5869000000000002E-2"/>
-          <c:w val="0.90188800000000002"/>
-          <c:h val="0.84119600000000005"/>
+          <c:x val="0.0931124"/>
+          <c:y val="0.055869"/>
+          <c:w val="0.901888"/>
+          <c:h val="0.841196"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1547,22 +1648,22 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41426</c:v>
+                  <c:v>41426.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41438</c:v>
+                  <c:v>41438.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41452</c:v>
+                  <c:v>41452.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41466</c:v>
+                  <c:v>41466.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41487</c:v>
+                  <c:v>41487.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1574,53 +1675,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F845-4DB0-BF4B-61C3F2B72AD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="46387584"/>
-        <c:axId val="46389504"/>
+        <c:axId val="511114792"/>
+        <c:axId val="511122120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="46387584"/>
+        <c:axId val="511114792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:ln w="12700" cap="flat">
@@ -1646,18 +1735,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46389504"/>
+        <c:crossAx val="511122120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="46389504"/>
+        <c:axId val="511122120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1671,8 +1759,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="12700" cap="flat">
@@ -1698,7 +1784,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46387584"/>
+        <c:crossAx val="511114792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7.5"/>
@@ -1744,15 +1830,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1761,15 +1839,14 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.4069599999999999E-2"/>
-          <c:y val="5.5869000000000002E-2"/>
-          <c:w val="0.92093000000000003"/>
-          <c:h val="0.84119600000000005"/>
+          <c:x val="0.0740696"/>
+          <c:y val="0.055869"/>
+          <c:w val="0.92093"/>
+          <c:h val="0.841196"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1810,13 +1887,13 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41431</c:v>
+                  <c:v>41431.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41446</c:v>
+                  <c:v>41446.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41459</c:v>
+                  <c:v>41459.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1828,44 +1905,35 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-60FF-4851-ABD9-FA91BB13A616}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="109566208"/>
-        <c:axId val="109846912"/>
+        <c:axId val="444483912"/>
+        <c:axId val="444487496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="109566208"/>
+        <c:axId val="444483912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:ln w="12700" cap="flat">
@@ -1891,18 +1959,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109846912"/>
+        <c:crossAx val="444487496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="109846912"/>
+        <c:axId val="444487496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1916,8 +1983,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="12700" cap="flat">
@@ -1943,11 +2008,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109566208"/>
+        <c:crossAx val="444483912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="6"/>
-        <c:minorUnit val="3"/>
+        <c:majorUnit val="6.0"/>
+        <c:minorUnit val="3.0"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -2005,7 +2070,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2106,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2049,8 +2114,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5380775" y="1413090"/>
-          <a:ext cx="1262382" cy="657640"/>
+          <a:off x="6266600" y="1336890"/>
+          <a:ext cx="1402082" cy="619540"/>
           <a:chOff x="-19050" y="-41148"/>
           <a:chExt cx="1262382" cy="657640"/>
         </a:xfrm>
@@ -2060,7 +2125,7 @@
           <xdr:cNvPr id="3" name="Shape 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2163,7 +2228,7 @@
           <xdr:cNvPr id="4" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2185,7 +2250,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2264,7 +2329,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2272,8 +2337,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2776220" y="1237821"/>
-          <a:ext cx="1066588" cy="902974"/>
+          <a:off x="3239770" y="1171146"/>
+          <a:ext cx="1241213" cy="845824"/>
           <a:chOff x="-19050" y="-52577"/>
           <a:chExt cx="1063412" cy="902974"/>
         </a:xfrm>
@@ -2283,7 +2348,7 @@
           <xdr:cNvPr id="6" name="Shape 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2386,7 +2451,7 @@
           <xdr:cNvPr id="7" name="Shape 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2408,7 +2473,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2487,7 +2552,7 @@
         <xdr:cNvPr id="11" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,8 +2560,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3838574" y="1577777"/>
-          <a:ext cx="511175" cy="503676"/>
+          <a:off x="4476749" y="1492052"/>
+          <a:ext cx="596900" cy="475101"/>
           <a:chOff x="-19050" y="-29718"/>
           <a:chExt cx="508000" cy="503676"/>
         </a:xfrm>
@@ -2506,7 +2571,7 @@
           <xdr:cNvPr id="9" name="Shape 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2609,7 +2674,7 @@
           <xdr:cNvPr id="10" name="Shape 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2631,7 +2696,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2757,7 +2822,7 @@
         <xdr:cNvPr id="14" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2765,8 +2830,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4344670" y="1248324"/>
-          <a:ext cx="925829" cy="981456"/>
+          <a:off x="5068570" y="1181649"/>
+          <a:ext cx="925829" cy="924306"/>
           <a:chOff x="-19050" y="-64007"/>
           <a:chExt cx="925829" cy="981455"/>
         </a:xfrm>
@@ -2776,7 +2841,7 @@
           <xdr:cNvPr id="12" name="Shape 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2879,7 +2944,7 @@
           <xdr:cNvPr id="13" name="Shape 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2901,7 +2966,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2980,7 +3045,7 @@
         <xdr:cNvPr id="17" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2988,8 +3053,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5531615" y="4983907"/>
-          <a:ext cx="1238837" cy="859924"/>
+          <a:off x="6417440" y="4698157"/>
+          <a:ext cx="1378537" cy="802774"/>
           <a:chOff x="0" y="-41148"/>
           <a:chExt cx="1238836" cy="859924"/>
         </a:xfrm>
@@ -2999,7 +3064,7 @@
           <xdr:cNvPr id="15" name="Shape 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3102,7 +3167,7 @@
           <xdr:cNvPr id="16" name="Shape 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000010000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3124,7 +3189,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -3208,7 +3273,7 @@
         <xdr:cNvPr id="19" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0300-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4333,128 +4398,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.42578125" style="1" customWidth="1"/>
     <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>194</v>
+        <v>95</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>196</v>
+        <v>97</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="4" t="s">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4462,6 +4527,7 @@
       <c r="E10" s="3"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
   </hyperlinks>
@@ -4469,637 +4535,648 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A27" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" style="44" customWidth="1"/>
-    <col min="2" max="2" width="28.125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="49.375" style="44" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="44" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="44" customWidth="1"/>
     <col min="4" max="5" width="11" style="44" customWidth="1"/>
     <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="31.5" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="47" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="D3" s="50"/>
       <c r="E3" s="51"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="47" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>48</v>
+        <v>285</v>
       </c>
       <c r="D4" s="50"/>
       <c r="E4" s="51"/>
     </row>
-    <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="31.5" customHeight="1">
       <c r="A5" s="47" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>49</v>
+        <v>286</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="51"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="47" t="s">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>50</v>
+        <v>287</v>
       </c>
       <c r="D6" s="50"/>
       <c r="E6" s="51"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="47" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>51</v>
+        <v>288</v>
       </c>
       <c r="D7" s="50"/>
       <c r="E7" s="51"/>
     </row>
-    <row r="8" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="47.25" customHeight="1">
       <c r="A8" s="52" t="s">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>53</v>
+        <v>290</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="31.5" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>54</v>
+        <v>291</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>292</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="31.5" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="31.5" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="31.5" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="D12" s="46"/>
       <c r="E12" s="46"/>
     </row>
-    <row r="13" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="47.25" customHeight="1">
       <c r="A13" s="47" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>246</v>
+        <v>147</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>63</v>
+        <v>300</v>
       </c>
       <c r="D13" s="50"/>
       <c r="E13" s="51"/>
     </row>
-    <row r="14" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="63" customHeight="1">
       <c r="A14" s="55" t="s">
-        <v>64</v>
+        <v>301</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>65</v>
+        <v>302</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>66</v>
+        <v>303</v>
       </c>
       <c r="D14" s="57"/>
       <c r="E14" s="57"/>
     </row>
-    <row r="15" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="31.5" customHeight="1">
       <c r="A15" s="47" t="s">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>248</v>
+        <v>149</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>67</v>
+        <v>304</v>
       </c>
       <c r="D15" s="50"/>
       <c r="E15" s="51"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="55" t="s">
-        <v>68</v>
+        <v>305</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>69</v>
+        <v>306</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>70</v>
+        <v>307</v>
       </c>
       <c r="D16" s="57"/>
       <c r="E16" s="57"/>
     </row>
-    <row r="17" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="31.5" customHeight="1">
       <c r="A17" s="47" t="s">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>71</v>
+        <v>308</v>
       </c>
       <c r="D17" s="50"/>
       <c r="E17" s="51"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="52" t="s">
-        <v>72</v>
+        <v>309</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>73</v>
+        <v>231</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>74</v>
+        <v>232</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>78</v>
+        <v>236</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="31.5" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>83</v>
+        <v>241</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="31.5" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>84</v>
+        <v>242</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>85</v>
+        <v>243</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>23</v>
+        <v>333</v>
       </c>
       <c r="D22" s="46"/>
       <c r="E22" s="46"/>
     </row>
-    <row r="23" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="31.5" customHeight="1">
       <c r="A23" s="47" t="s">
-        <v>252</v>
+        <v>153</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>24</v>
+        <v>334</v>
       </c>
       <c r="D23" s="50"/>
       <c r="E23" s="51"/>
     </row>
-    <row r="24" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="31.5" customHeight="1">
       <c r="A24" s="55" t="s">
-        <v>25</v>
+        <v>335</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>26</v>
+        <v>336</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>27</v>
+        <v>337</v>
       </c>
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
     </row>
-    <row r="25" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="47.25" customHeight="1">
       <c r="A25" s="47" t="s">
-        <v>254</v>
+        <v>155</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="D25" s="50"/>
       <c r="E25" s="51"/>
     </row>
-    <row r="26" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="31.5" customHeight="1">
       <c r="A26" s="47" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>257</v>
+        <v>158</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>29</v>
+        <v>339</v>
       </c>
       <c r="D26" s="50"/>
       <c r="E26" s="51"/>
     </row>
-    <row r="27" spans="1:5" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="126" customHeight="1">
       <c r="A27" s="47" t="s">
-        <v>258</v>
+        <v>159</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>259</v>
+        <v>160</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>107</v>
+        <v>265</v>
       </c>
       <c r="D27" s="50"/>
       <c r="E27" s="51"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="55" t="s">
-        <v>108</v>
+        <v>266</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>109</v>
+        <v>267</v>
       </c>
       <c r="C28" s="56" t="s">
-        <v>110</v>
+        <v>268</v>
       </c>
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
     </row>
-    <row r="29" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="31.5" customHeight="1">
       <c r="A29" s="47" t="s">
-        <v>260</v>
+        <v>161</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>261</v>
+        <v>162</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>32</v>
+        <v>341</v>
       </c>
       <c r="D29" s="50"/>
       <c r="E29" s="51"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="55" t="s">
-        <v>33</v>
+        <v>342</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>34</v>
+        <v>343</v>
       </c>
       <c r="C30" s="56" t="s">
-        <v>35</v>
+        <v>344</v>
       </c>
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="47" t="s">
-        <v>262</v>
+        <v>163</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>263</v>
+        <v>164</v>
       </c>
       <c r="C31" s="49" t="s">
-        <v>36</v>
+        <v>345</v>
       </c>
       <c r="D31" s="50"/>
       <c r="E31" s="51"/>
     </row>
-    <row r="32" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="31.5" customHeight="1">
       <c r="A32" s="55" t="s">
-        <v>37</v>
+        <v>346</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>38</v>
+        <v>347</v>
       </c>
       <c r="C32" s="56" t="s">
-        <v>39</v>
+        <v>348</v>
       </c>
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="47" t="s">
-        <v>264</v>
+        <v>165</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>265</v>
+        <v>166</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>40</v>
+        <v>349</v>
       </c>
       <c r="D33" s="50"/>
       <c r="E33" s="51"/>
     </row>
-    <row r="34" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="31.5" customHeight="1">
       <c r="A34" s="47" t="s">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>267</v>
+        <v>168</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="D34" s="50"/>
       <c r="E34" s="51"/>
     </row>
-    <row r="35" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="47.25" customHeight="1">
       <c r="A35" s="47" t="s">
-        <v>268</v>
+        <v>169</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>42</v>
+        <v>351</v>
       </c>
       <c r="D35" s="50"/>
       <c r="E35" s="51"/>
     </row>
-    <row r="36" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="31.5" customHeight="1">
       <c r="A36" s="47" t="s">
-        <v>270</v>
+        <v>171</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>271</v>
+        <v>26</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>43</v>
+        <v>280</v>
       </c>
       <c r="D36" s="50"/>
       <c r="E36" s="51"/>
     </row>
-    <row r="37" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="31.5" customHeight="1">
       <c r="A37" s="47" t="s">
-        <v>272</v>
+        <v>27</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>273</v>
+        <v>28</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="D37" s="50"/>
       <c r="E37" s="51"/>
     </row>
-    <row r="38" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="31.5" customHeight="1">
       <c r="A38" s="47" t="s">
-        <v>274</v>
+        <v>29</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>275</v>
+        <v>30</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>45</v>
+        <v>282</v>
       </c>
       <c r="D38" s="50"/>
       <c r="E38" s="51"/>
     </row>
-    <row r="39" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="31.5" customHeight="1">
       <c r="A39" s="47" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>277</v>
+        <v>32</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>46</v>
+        <v>283</v>
       </c>
       <c r="D39" s="50"/>
       <c r="E39" s="51"/>
     </row>
-    <row r="40" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="31.5" customHeight="1">
       <c r="A40" s="47" t="s">
-        <v>278</v>
+        <v>33</v>
       </c>
       <c r="B40" s="48" t="s">
-        <v>279</v>
+        <v>34</v>
       </c>
       <c r="C40" s="49" t="s">
-        <v>47</v>
+        <v>284</v>
       </c>
       <c r="D40" s="50"/>
       <c r="E40" s="51"/>
     </row>
-    <row r="41" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="31.5" customHeight="1">
       <c r="A41" s="47" t="s">
-        <v>280</v>
+        <v>35</v>
       </c>
       <c r="B41" s="48" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="C41" s="49" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="D41" s="50"/>
       <c r="E41" s="51"/>
     </row>
-    <row r="42" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="31.5" customHeight="1">
       <c r="A42" s="55" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="B42" s="55" t="s">
-        <v>58</v>
+        <v>295</v>
       </c>
       <c r="C42" s="56" t="s">
-        <v>59</v>
+        <v>296</v>
       </c>
       <c r="D42" s="57"/>
       <c r="E42" s="57"/>
     </row>
-    <row r="43" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="31.5" customHeight="1">
       <c r="A43" s="58" t="s">
-        <v>282</v>
+        <v>37</v>
       </c>
       <c r="B43" s="59" t="s">
-        <v>283</v>
+        <v>38</v>
       </c>
       <c r="C43" s="60" t="s">
-        <v>60</v>
+        <v>297</v>
       </c>
       <c r="D43" s="61"/>
       <c r="E43" s="62"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
     <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -5112,30 +5189,30 @@
         <v>Birth before marriage</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -5148,30 +5225,30 @@
         <v>Marriage before divorce</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="6">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -5184,13 +5261,13 @@
         <v>Divorce before death</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -5203,20 +5280,20 @@
         <v>Parents not too old</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -5229,13 +5306,13 @@
         <v>Multiple births &lt;= 5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1">
       <c r="A11" s="6">
         <v>2</v>
       </c>
@@ -5248,13 +5325,13 @@
         <v>Male last names</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="A12" s="6">
         <v>2</v>
       </c>
@@ -5267,13 +5344,13 @@
         <v>Unique IDs</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -5286,13 +5363,13 @@
         <v>Unique families by spouses</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="A14" s="6">
         <v>2</v>
       </c>
@@ -5305,13 +5382,13 @@
         <v>Unique first names in families</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1">
       <c r="A15" s="6">
         <v>2</v>
       </c>
@@ -5324,20 +5401,20 @@
         <v>Corresponding entries</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15" customHeight="1">
       <c r="A17" s="6">
         <v>3</v>
       </c>
@@ -5350,13 +5427,13 @@
         <v>Order siblings by age</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18" s="6">
         <v>3</v>
       </c>
@@ -5369,13 +5446,13 @@
         <v>List living married</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>304</v>
+        <v>59</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1">
       <c r="A19" s="6">
         <v>3</v>
       </c>
@@ -5388,13 +5465,13 @@
         <v>List multiple births</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1">
       <c r="A20" s="6">
         <v>3</v>
       </c>
@@ -5407,13 +5484,13 @@
         <v>List orphans</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1">
       <c r="A21" s="6">
         <v>3</v>
       </c>
@@ -5426,13 +5503,13 @@
         <v>List large age differences</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1">
       <c r="A22" s="6">
         <v>3</v>
       </c>
@@ -5445,20 +5522,20 @@
         <v>List recent births</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15" customHeight="1">
       <c r="A24" s="6">
         <v>4</v>
       </c>
@@ -5473,7 +5550,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="15" customHeight="1">
       <c r="A25" s="6">
         <v>4</v>
       </c>
@@ -5488,7 +5565,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15" customHeight="1">
       <c r="A26" s="6">
         <v>4</v>
       </c>
@@ -5503,7 +5580,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="15" customHeight="1">
       <c r="A27" s="6">
         <v>4</v>
       </c>
@@ -5518,7 +5595,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="15" customHeight="1">
       <c r="A28" s="6">
         <v>4</v>
       </c>
@@ -5533,7 +5610,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="15" customHeight="1">
       <c r="A29" s="6">
         <v>4</v>
       </c>
@@ -5549,35 +5626,42 @@
       <c r="E29" s="3"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="8" customWidth="1"/>
     <col min="7" max="8" width="11" style="8" customWidth="1"/>
     <col min="9" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>284</v>
+        <v>39</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5587,9 +5671,9 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>285</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5599,9 +5683,9 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>286</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -5611,7 +5695,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5621,9 +5705,9 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5633,9 +5717,9 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>288</v>
+        <v>43</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -5645,7 +5729,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -5655,9 +5739,9 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -5667,7 +5751,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5677,7 +5761,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5687,7 +5771,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5697,7 +5781,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5707,7 +5791,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5717,33 +5801,33 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="B15" s="13">
         <v>41426</v>
@@ -5759,9 +5843,9 @@
       <c r="G15" s="17"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="B16" s="13">
         <v>41438</v>
@@ -5785,9 +5869,9 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="B17" s="13">
         <v>41452</v>
@@ -5811,9 +5895,9 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="B18" s="13">
         <v>41466</v>
@@ -5837,9 +5921,9 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="B19" s="13">
         <v>41487</v>
@@ -5863,7 +5947,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="12.75" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="20"/>
@@ -5873,7 +5957,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5883,7 +5967,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5893,7 +5977,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="12.75" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5903,7 +5987,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="12.75" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5913,7 +5997,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="12.75" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5923,7 +6007,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5933,7 +6017,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="12.75" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5943,7 +6027,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="12.75" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5953,7 +6037,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5963,7 +6047,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="12.75" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5973,7 +6057,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="12.75" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5983,7 +6067,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="12.75" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5993,7 +6077,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="12.75" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6003,7 +6087,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="12.75" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6013,7 +6097,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="12.75" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6023,7 +6107,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="12.75" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6033,7 +6117,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="12.75" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6043,7 +6127,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="12.75" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6053,7 +6137,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="12.75" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -6064,57 +6148,63 @@
       <c r="H39" s="3"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" style="22" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="22" customWidth="1"/>
     <col min="7" max="7" width="11" style="22" customWidth="1"/>
     <col min="8" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="12.75" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="12.75" customHeight="1">
       <c r="A2" s="23">
         <v>41431</v>
       </c>
@@ -6129,7 +6219,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="12.75" customHeight="1">
       <c r="A3" s="23">
         <v>41446</v>
       </c>
@@ -6154,18 +6244,32 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1">
       <c r="A4" s="23">
         <v>41459</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="10"/>
+      <c r="B4" s="24">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6">
+        <f>B3-B4</f>
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
+        <f>Sprint2!G34+D3+D2</f>
+        <v>378</v>
+      </c>
+      <c r="E4" s="3">
+        <f>Sprint2!H34</f>
+        <v>440</v>
+      </c>
+      <c r="F4" s="26">
+        <f>(D4-D3)/E4*60</f>
+        <v>23.045454545454547</v>
+      </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="12.75" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -6174,7 +6278,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="12.75" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -6183,7 +6287,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="12.75" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -6192,9 +6296,9 @@
       <c r="F7" s="10"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="12.75" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -6203,7 +6307,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="12.75" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -6212,7 +6316,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="12.75" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6221,7 +6325,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="12.75" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -6230,7 +6334,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="12.75" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6239,7 +6343,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="12.75" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6248,7 +6352,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="12.75" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6257,7 +6361,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="12.75" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6266,7 +6370,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="12.75" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6275,7 +6379,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="12.75" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6284,7 +6388,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="12.75" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6293,7 +6397,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6302,7 +6406,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="12.75" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6311,7 +6415,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6320,7 +6424,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="12.75" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6329,7 +6433,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="12.75" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6338,7 +6442,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="12.75" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6347,7 +6451,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="12.75" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6356,7 +6460,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="12.75" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6372,97 +6476,102 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="28" customWidth="1"/>
     <col min="5" max="5" width="12" style="28" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="28" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="28" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="28" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="28" customWidth="1"/>
     <col min="9" max="9" width="11" style="28" customWidth="1"/>
     <col min="10" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="I2" s="32">
         <v>41426</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="38.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -6470,7 +6579,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="33"/>
       <c r="C4" s="3"/>
@@ -6481,16 +6590,16 @@
       <c r="H4" s="3"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="25.5" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>289</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -6500,18 +6609,18 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="25.5" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>291</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>292</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -6521,7 +6630,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="33"/>
       <c r="C7" s="3"/>
@@ -6532,16 +6641,16 @@
       <c r="H7" s="3"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="25.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>293</v>
+        <v>48</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="2" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -6551,18 +6660,18 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="25.5" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>294</v>
+        <v>49</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>295</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>292</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -6572,18 +6681,18 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="51" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>296</v>
+        <v>51</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>297</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>292</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -6593,7 +6702,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="33"/>
       <c r="C11" s="3"/>
@@ -6604,18 +6713,18 @@
       <c r="H11" s="3"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="25.5" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>298</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>299</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -6625,18 +6734,18 @@
         <v>41429</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="51" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>301</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>292</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -6646,18 +6755,18 @@
         <v>41429</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="51" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>302</v>
+        <v>57</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>292</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -6667,7 +6776,7 @@
         <v>41429</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="33"/>
       <c r="C15" s="3"/>
@@ -6678,18 +6787,18 @@
       <c r="H15" s="3"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="25.5" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -6699,18 +6808,18 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="38.25" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -6720,18 +6829,18 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="38.25" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -6741,18 +6850,18 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="63.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -6762,18 +6871,18 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="51" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -6783,7 +6892,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="33"/>
       <c r="C21" s="3"/>
@@ -6794,18 +6903,18 @@
       <c r="H21" s="3"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="38.25" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>182</v>
+        <v>83</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>299</v>
+        <v>54</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -6815,18 +6924,18 @@
         <v>41431</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="38.25" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>299</v>
+        <v>54</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -6836,7 +6945,7 @@
         <v>41431</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="33"/>
       <c r="C24" s="3"/>
@@ -6847,18 +6956,18 @@
       <c r="H24" s="3"/>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="25.5" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -6868,18 +6977,18 @@
         <v>41428</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="25.5" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -6889,7 +6998,7 @@
         <v>41428</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="33"/>
       <c r="C27" s="3"/>
@@ -6900,7 +7009,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="15" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="33"/>
       <c r="C28" s="3"/>
@@ -6911,7 +7020,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="15" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="33"/>
       <c r="C29" s="3"/>
@@ -6922,7 +7031,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="15" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="33"/>
       <c r="C30" s="3"/>
@@ -6933,7 +7042,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="15" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="33"/>
       <c r="C31" s="3"/>
@@ -6944,7 +7053,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="15" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="33"/>
       <c r="C32" s="3"/>
@@ -6955,10 +7064,10 @@
       <c r="H32" s="3"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="15" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="29" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -6968,7 +7077,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="15" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="29"/>
       <c r="C34" s="3"/>
@@ -6979,10 +7088,10 @@
       <c r="H34" s="3"/>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="15" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="29" t="s">
-        <v>190</v>
+        <v>91</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -6992,10 +7101,10 @@
       <c r="H35" s="3"/>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="25.5" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -7005,10 +7114,10 @@
       <c r="H36" s="3"/>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="25.5" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="s">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -7018,10 +7127,10 @@
       <c r="H37" s="3"/>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="25.5" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
-        <v>86</v>
+        <v>244</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -7031,10 +7140,10 @@
       <c r="H38" s="3"/>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="25.5" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
-        <v>87</v>
+        <v>245</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -7044,7 +7153,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="15" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="33"/>
       <c r="C40" s="3"/>
@@ -7055,10 +7164,10 @@
       <c r="H40" s="3"/>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="15" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="29" t="s">
-        <v>88</v>
+        <v>246</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -7074,60 +7183,65 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:IV47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="34" customWidth="1"/>
-    <col min="2" max="2" width="24.375" style="34" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="34" customWidth="1"/>
     <col min="4" max="4" width="11" style="34" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="34" customWidth="1"/>
     <col min="6" max="6" width="9" style="34" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="34" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="34" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="34" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="34" customWidth="1"/>
     <col min="9" max="256" width="11" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="35"/>
       <c r="B2" s="29"/>
       <c r="C2" s="35"/>
@@ -7138,7 +7252,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="37"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="4" t="str">
         <f>Backlog!B3</f>
         <v>US02</v>
@@ -7148,10 +7262,10 @@
         <v>Birth before marriage</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="E3" s="6">
         <v>20</v>
@@ -7166,15 +7280,15 @@
         <v>60</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>90</v>
+        <v>248</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="35"/>
@@ -7184,12 +7298,12 @@
       <c r="H4" s="36"/>
       <c r="I4" s="37"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>249</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>92</v>
+        <v>250</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="35"/>
@@ -7199,12 +7313,12 @@
       <c r="H5" s="36"/>
       <c r="I5" s="37"/>
     </row>
-    <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="25.5" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>251</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>94</v>
+        <v>252</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="35"/>
@@ -7214,7 +7328,7 @@
       <c r="H6" s="36"/>
       <c r="I6" s="37"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
@@ -7225,18 +7339,18 @@
       <c r="H7" s="36"/>
       <c r="I7" s="37"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="E8" s="6">
         <v>20</v>
@@ -7251,15 +7365,15 @@
         <v>60</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>294</v>
+        <v>49</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>90</v>
+        <v>248</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -7269,12 +7383,12 @@
       <c r="H9" s="3"/>
       <c r="I9" s="40"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>296</v>
+        <v>51</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>95</v>
+        <v>253</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -7284,12 +7398,12 @@
       <c r="H10" s="3"/>
       <c r="I10" s="40"/>
     </row>
-    <row r="11" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="25.5" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>96</v>
+        <v>254</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>97</v>
+        <v>255</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -7299,7 +7413,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="40"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="33"/>
       <c r="C12" s="3"/>
@@ -7310,7 +7424,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="40"/>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="4" t="str">
         <f>Backlog!B5</f>
         <v>US04</v>
@@ -7320,10 +7434,10 @@
         <v>Marriage before divorce</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="E13" s="6">
         <v>20</v>
@@ -7338,15 +7452,15 @@
         <v>20</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>92</v>
+        <v>250</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -7356,12 +7470,12 @@
       <c r="H14" s="3"/>
       <c r="I14" s="40"/>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>302</v>
+        <v>57</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>98</v>
+        <v>256</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -7371,12 +7485,12 @@
       <c r="H15" s="3"/>
       <c r="I15" s="40"/>
     </row>
-    <row r="16" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="25.5" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>99</v>
+        <v>257</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>100</v>
+        <v>258</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -7386,7 +7500,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="33"/>
       <c r="C17" s="3"/>
@@ -7397,18 +7511,18 @@
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="E18" s="6">
         <v>20</v>
@@ -7423,15 +7537,15 @@
         <v>30</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="25.5" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>101</v>
+        <v>259</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -7441,12 +7555,12 @@
       <c r="H19" s="3"/>
       <c r="I19" s="40"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>102</v>
+        <v>260</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -7456,12 +7570,12 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="25.5" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>103</v>
+        <v>261</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -7471,7 +7585,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="33"/>
       <c r="C22" s="3"/>
@@ -7482,7 +7596,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="40"/>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="A23" s="4" t="str">
         <f>Backlog!B7</f>
         <v>US06</v>
@@ -7492,10 +7606,10 @@
         <v>Divorce before death</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="E23" s="6">
         <v>10</v>
@@ -7510,15 +7624,15 @@
         <v>30</v>
       </c>
       <c r="I23" s="39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>98</v>
+        <v>256</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -7528,12 +7642,12 @@
       <c r="H24" s="3"/>
       <c r="I24" s="40"/>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="15" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>104</v>
+        <v>262</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>105</v>
+        <v>263</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -7543,12 +7657,12 @@
       <c r="H25" s="3"/>
       <c r="I25" s="40"/>
     </row>
-    <row r="26" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="25.5" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -7558,7 +7672,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="40"/>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="7"/>
       <c r="C27" s="3"/>
@@ -7569,7 +7683,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="40"/>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="15" customHeight="1">
       <c r="A28" s="4" t="str">
         <f>Backlog!B8</f>
         <v>US12</v>
@@ -7579,10 +7693,10 @@
         <v>Parents not too old</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="E28" s="6">
         <v>20</v>
@@ -7597,15 +7711,15 @@
         <v>30</v>
       </c>
       <c r="I28" s="39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -7615,12 +7729,12 @@
       <c r="H29" s="3"/>
       <c r="I29" s="40"/>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="15" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>228</v>
+        <v>129</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -7630,12 +7744,12 @@
       <c r="H30" s="3"/>
       <c r="I30" s="40"/>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="15" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -7645,12 +7759,12 @@
       <c r="H31" s="3"/>
       <c r="I31" s="40"/>
     </row>
-    <row r="32" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="25.5" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -7660,12 +7774,12 @@
       <c r="H32" s="3"/>
       <c r="I32" s="32"/>
     </row>
-    <row r="33" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:256" ht="25.5" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>234</v>
+        <v>135</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -7675,7 +7789,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="32"/>
     </row>
-    <row r="34" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:256" ht="15" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="7"/>
       <c r="C34" s="3"/>
@@ -7686,10 +7800,10 @@
       <c r="H34" s="3"/>
       <c r="I34" s="32"/>
     </row>
-    <row r="35" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:256" ht="15" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="29" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -7705,7 +7819,7 @@
       </c>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:256" ht="15" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="29"/>
       <c r="C36" s="3"/>
@@ -7716,10 +7830,10 @@
       <c r="H36" s="3"/>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:256" ht="15" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="29" t="s">
-        <v>190</v>
+        <v>91</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -7729,10 +7843,10 @@
       <c r="H37" s="3"/>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:256" ht="25.5" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -7742,10 +7856,10 @@
       <c r="H38" s="3"/>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:256" ht="63.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -7755,10 +7869,10 @@
       <c r="H39" s="3"/>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:256" ht="63.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="66" t="s">
-        <v>17</v>
+        <v>327</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -8015,10 +8129,10 @@
       <c r="IU40" s="44"/>
       <c r="IV40" s="44"/>
     </row>
-    <row r="41" spans="1:256" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:256" ht="59" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="33" t="s">
-        <v>62</v>
+        <v>299</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -8028,10 +8142,10 @@
       <c r="H41" s="3"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:256" ht="15" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="29" t="s">
-        <v>88</v>
+        <v>246</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -8041,10 +8155,10 @@
       <c r="H42" s="3"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:256" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:256" ht="89.25" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="33" t="s">
-        <v>111</v>
+        <v>269</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -8054,10 +8168,10 @@
       <c r="H43" s="3"/>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:256" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:256" ht="51" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="33" t="s">
-        <v>112</v>
+        <v>270</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -8067,10 +8181,10 @@
       <c r="H44" s="3"/>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:256" ht="63.75" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="33" t="s">
-        <v>113</v>
+        <v>271</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -8080,10 +8194,10 @@
       <c r="H45" s="3"/>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:256" ht="63.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="33" t="s">
-        <v>61</v>
+        <v>298</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -8340,10 +8454,10 @@
       <c r="IU46" s="44"/>
       <c r="IV46" s="44"/>
     </row>
-    <row r="47" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:256" ht="63.75" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="33" t="s">
-        <v>18</v>
+        <v>328</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -8606,66 +8720,71 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:IV44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" style="41" customWidth="1"/>
     <col min="2" max="2" width="18" style="41" customWidth="1"/>
     <col min="3" max="256" width="11" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:256" ht="25.5" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:256" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>Backlog!$C$10</f>
         <v>Multiple births &lt;= 5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="E2" s="6">
         <v>60</v>
@@ -8680,61 +8799,61 @@
         <v>90</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:256" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:256" ht="38.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>115</v>
+        <v>273</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>116</v>
+        <v>274</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:256" ht="25.5" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>117</v>
+        <v>275</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>118</v>
+        <v>276</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:256" ht="25.5" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>119</v>
+        <v>277</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:256" ht="15" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="33"/>
       <c r="C6" s="3"/>
@@ -8745,19 +8864,19 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:256" ht="15" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>Backlog!$C$11</f>
         <v>Male last names</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="E7" s="6">
         <v>60</v>
@@ -8772,15 +8891,15 @@
         <v>90</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:256" ht="25.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>121</v>
+        <v>279</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -8790,12 +8909,12 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:256" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:256" ht="38.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -8805,12 +8924,12 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:256" ht="25.5" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -8820,7 +8939,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:256" ht="25.5" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="33"/>
       <c r="C11" s="3"/>
@@ -8831,18 +8950,18 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:256" ht="25.5" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>252</v>
+        <v>153</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>16</v>
+        <v>326</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>30</v>
+        <v>340</v>
       </c>
       <c r="E12" s="6">
         <v>10</v>
@@ -8857,15 +8976,15 @@
         <v>75</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="13" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:256" ht="25.5" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -8875,12 +8994,12 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:256" ht="25.5" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -8890,12 +9009,12 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:256" ht="25.5" customHeight="1">
       <c r="A15" s="67" t="s">
-        <v>19</v>
+        <v>329</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -9152,7 +9271,7 @@
       <c r="IU15" s="44"/>
       <c r="IV15" s="44"/>
     </row>
-    <row r="16" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:256" ht="25.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="33"/>
       <c r="C16" s="3"/>
@@ -9163,18 +9282,18 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:256" ht="25.5" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>254</v>
+        <v>155</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>16</v>
+        <v>326</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>31</v>
+        <v>340</v>
       </c>
       <c r="E17" s="6">
         <v>60</v>
@@ -9189,15 +9308,15 @@
         <v>120</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:256" ht="25.5" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>14</v>
+        <v>324</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -9207,12 +9326,12 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:256" ht="25.5" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>15</v>
+        <v>325</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -9222,12 +9341,12 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:256" ht="25.5" customHeight="1">
       <c r="A20" s="67" t="s">
-        <v>20</v>
+        <v>330</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -9484,7 +9603,7 @@
       <c r="IU20" s="44"/>
       <c r="IV20" s="44"/>
     </row>
-    <row r="21" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:256" ht="25.5" customHeight="1">
       <c r="A21" s="35"/>
       <c r="B21" s="33"/>
       <c r="C21" s="3"/>
@@ -9495,18 +9614,18 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:256" ht="25.5" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="D22" s="63" t="s">
-        <v>114</v>
+        <v>340</v>
       </c>
       <c r="E22" s="6">
         <v>30</v>
@@ -9521,7 +9640,7 @@
         <v>30</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>303</v>
+        <v>58</v>
       </c>
       <c r="J22" s="44"/>
       <c r="K22" s="44"/>
@@ -9771,12 +9890,12 @@
       <c r="IU22" s="44"/>
       <c r="IV22" s="44"/>
     </row>
-    <row r="23" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:256" ht="25.5" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>13</v>
+        <v>323</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>10</v>
+        <v>320</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -10033,12 +10152,12 @@
       <c r="IU23" s="44"/>
       <c r="IV23" s="44"/>
     </row>
-    <row r="24" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:256" ht="25.5" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>322</v>
       </c>
       <c r="B24" s="64" t="s">
-        <v>11</v>
+        <v>321</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -10295,12 +10414,12 @@
       <c r="IU24" s="44"/>
       <c r="IV24" s="44"/>
     </row>
-    <row r="25" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:256" ht="25.5" customHeight="1">
       <c r="A25" s="67" t="s">
-        <v>21</v>
+        <v>331</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -10557,7 +10676,7 @@
       <c r="IU25" s="44"/>
       <c r="IV25" s="44"/>
     </row>
-    <row r="26" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:256" ht="25.5" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="64"/>
       <c r="C26" s="3"/>
@@ -10815,18 +10934,18 @@
       <c r="IU26" s="44"/>
       <c r="IV26" s="44"/>
     </row>
-    <row r="27" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:256" ht="25.5" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>258</v>
+        <v>159</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1</v>
+        <v>311</v>
       </c>
       <c r="C27" s="65" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="D27" s="63" t="s">
-        <v>114</v>
+        <v>340</v>
       </c>
       <c r="E27" s="6">
         <v>25</v>
@@ -10841,7 +10960,7 @@
         <v>35</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>303</v>
+        <v>58</v>
       </c>
       <c r="J27" s="44"/>
       <c r="K27" s="44"/>
@@ -11091,12 +11210,12 @@
       <c r="IU27" s="44"/>
       <c r="IV27" s="44"/>
     </row>
-    <row r="28" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:256" ht="25.5" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>7</v>
+        <v>317</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>2</v>
+        <v>312</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -11353,12 +11472,12 @@
       <c r="IU28" s="44"/>
       <c r="IV28" s="44"/>
     </row>
-    <row r="29" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:256" ht="25.5" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>6</v>
+        <v>316</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>3</v>
+        <v>313</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -11615,12 +11734,12 @@
       <c r="IU29" s="44"/>
       <c r="IV29" s="44"/>
     </row>
-    <row r="30" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:256" ht="25.5" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>5</v>
+        <v>315</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>8</v>
+        <v>318</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -11877,12 +11996,12 @@
       <c r="IU30" s="44"/>
       <c r="IV30" s="44"/>
     </row>
-    <row r="31" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:256" ht="25.5" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>4</v>
+        <v>314</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>9</v>
+        <v>319</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -12139,12 +12258,12 @@
       <c r="IU31" s="44"/>
       <c r="IV31" s="44"/>
     </row>
-    <row r="32" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:256" ht="25.5" customHeight="1">
       <c r="A32" s="67" t="s">
-        <v>22</v>
+        <v>332</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -12401,7 +12520,7 @@
       <c r="IU32" s="44"/>
       <c r="IV32" s="44"/>
     </row>
-    <row r="33" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:256" ht="25.5" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="64"/>
       <c r="C33" s="3"/>
@@ -12659,23 +12778,29 @@
       <c r="IU33" s="44"/>
       <c r="IV33" s="44"/>
     </row>
-    <row r="34" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:256" ht="12.75" customHeight="1">
       <c r="A34" s="71" t="s">
-        <v>327</v>
+        <v>82</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="G34" s="3">
+        <f>SUM(G2:G33)</f>
+        <v>169</v>
+      </c>
+      <c r="H34" s="3">
+        <f>SUM(H2:H33)</f>
+        <v>440</v>
+      </c>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:256" ht="12.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="69" t="s">
-        <v>328</v>
+        <v>4</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -12685,9 +12810,11 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:256" ht="12.75" customHeight="1">
       <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+      <c r="B36" s="69" t="s">
+        <v>3</v>
+      </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -12695,10 +12822,259 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="44"/>
+      <c r="Z36" s="44"/>
+      <c r="AA36" s="44"/>
+      <c r="AB36" s="44"/>
+      <c r="AC36" s="44"/>
+      <c r="AD36" s="44"/>
+      <c r="AE36" s="44"/>
+      <c r="AF36" s="44"/>
+      <c r="AG36" s="44"/>
+      <c r="AH36" s="44"/>
+      <c r="AI36" s="44"/>
+      <c r="AJ36" s="44"/>
+      <c r="AK36" s="44"/>
+      <c r="AL36" s="44"/>
+      <c r="AM36" s="44"/>
+      <c r="AN36" s="44"/>
+      <c r="AO36" s="44"/>
+      <c r="AP36" s="44"/>
+      <c r="AQ36" s="44"/>
+      <c r="AR36" s="44"/>
+      <c r="AS36" s="44"/>
+      <c r="AT36" s="44"/>
+      <c r="AU36" s="44"/>
+      <c r="AV36" s="44"/>
+      <c r="AW36" s="44"/>
+      <c r="AX36" s="44"/>
+      <c r="AY36" s="44"/>
+      <c r="AZ36" s="44"/>
+      <c r="BA36" s="44"/>
+      <c r="BB36" s="44"/>
+      <c r="BC36" s="44"/>
+      <c r="BD36" s="44"/>
+      <c r="BE36" s="44"/>
+      <c r="BF36" s="44"/>
+      <c r="BG36" s="44"/>
+      <c r="BH36" s="44"/>
+      <c r="BI36" s="44"/>
+      <c r="BJ36" s="44"/>
+      <c r="BK36" s="44"/>
+      <c r="BL36" s="44"/>
+      <c r="BM36" s="44"/>
+      <c r="BN36" s="44"/>
+      <c r="BO36" s="44"/>
+      <c r="BP36" s="44"/>
+      <c r="BQ36" s="44"/>
+      <c r="BR36" s="44"/>
+      <c r="BS36" s="44"/>
+      <c r="BT36" s="44"/>
+      <c r="BU36" s="44"/>
+      <c r="BV36" s="44"/>
+      <c r="BW36" s="44"/>
+      <c r="BX36" s="44"/>
+      <c r="BY36" s="44"/>
+      <c r="BZ36" s="44"/>
+      <c r="CA36" s="44"/>
+      <c r="CB36" s="44"/>
+      <c r="CC36" s="44"/>
+      <c r="CD36" s="44"/>
+      <c r="CE36" s="44"/>
+      <c r="CF36" s="44"/>
+      <c r="CG36" s="44"/>
+      <c r="CH36" s="44"/>
+      <c r="CI36" s="44"/>
+      <c r="CJ36" s="44"/>
+      <c r="CK36" s="44"/>
+      <c r="CL36" s="44"/>
+      <c r="CM36" s="44"/>
+      <c r="CN36" s="44"/>
+      <c r="CO36" s="44"/>
+      <c r="CP36" s="44"/>
+      <c r="CQ36" s="44"/>
+      <c r="CR36" s="44"/>
+      <c r="CS36" s="44"/>
+      <c r="CT36" s="44"/>
+      <c r="CU36" s="44"/>
+      <c r="CV36" s="44"/>
+      <c r="CW36" s="44"/>
+      <c r="CX36" s="44"/>
+      <c r="CY36" s="44"/>
+      <c r="CZ36" s="44"/>
+      <c r="DA36" s="44"/>
+      <c r="DB36" s="44"/>
+      <c r="DC36" s="44"/>
+      <c r="DD36" s="44"/>
+      <c r="DE36" s="44"/>
+      <c r="DF36" s="44"/>
+      <c r="DG36" s="44"/>
+      <c r="DH36" s="44"/>
+      <c r="DI36" s="44"/>
+      <c r="DJ36" s="44"/>
+      <c r="DK36" s="44"/>
+      <c r="DL36" s="44"/>
+      <c r="DM36" s="44"/>
+      <c r="DN36" s="44"/>
+      <c r="DO36" s="44"/>
+      <c r="DP36" s="44"/>
+      <c r="DQ36" s="44"/>
+      <c r="DR36" s="44"/>
+      <c r="DS36" s="44"/>
+      <c r="DT36" s="44"/>
+      <c r="DU36" s="44"/>
+      <c r="DV36" s="44"/>
+      <c r="DW36" s="44"/>
+      <c r="DX36" s="44"/>
+      <c r="DY36" s="44"/>
+      <c r="DZ36" s="44"/>
+      <c r="EA36" s="44"/>
+      <c r="EB36" s="44"/>
+      <c r="EC36" s="44"/>
+      <c r="ED36" s="44"/>
+      <c r="EE36" s="44"/>
+      <c r="EF36" s="44"/>
+      <c r="EG36" s="44"/>
+      <c r="EH36" s="44"/>
+      <c r="EI36" s="44"/>
+      <c r="EJ36" s="44"/>
+      <c r="EK36" s="44"/>
+      <c r="EL36" s="44"/>
+      <c r="EM36" s="44"/>
+      <c r="EN36" s="44"/>
+      <c r="EO36" s="44"/>
+      <c r="EP36" s="44"/>
+      <c r="EQ36" s="44"/>
+      <c r="ER36" s="44"/>
+      <c r="ES36" s="44"/>
+      <c r="ET36" s="44"/>
+      <c r="EU36" s="44"/>
+      <c r="EV36" s="44"/>
+      <c r="EW36" s="44"/>
+      <c r="EX36" s="44"/>
+      <c r="EY36" s="44"/>
+      <c r="EZ36" s="44"/>
+      <c r="FA36" s="44"/>
+      <c r="FB36" s="44"/>
+      <c r="FC36" s="44"/>
+      <c r="FD36" s="44"/>
+      <c r="FE36" s="44"/>
+      <c r="FF36" s="44"/>
+      <c r="FG36" s="44"/>
+      <c r="FH36" s="44"/>
+      <c r="FI36" s="44"/>
+      <c r="FJ36" s="44"/>
+      <c r="FK36" s="44"/>
+      <c r="FL36" s="44"/>
+      <c r="FM36" s="44"/>
+      <c r="FN36" s="44"/>
+      <c r="FO36" s="44"/>
+      <c r="FP36" s="44"/>
+      <c r="FQ36" s="44"/>
+      <c r="FR36" s="44"/>
+      <c r="FS36" s="44"/>
+      <c r="FT36" s="44"/>
+      <c r="FU36" s="44"/>
+      <c r="FV36" s="44"/>
+      <c r="FW36" s="44"/>
+      <c r="FX36" s="44"/>
+      <c r="FY36" s="44"/>
+      <c r="FZ36" s="44"/>
+      <c r="GA36" s="44"/>
+      <c r="GB36" s="44"/>
+      <c r="GC36" s="44"/>
+      <c r="GD36" s="44"/>
+      <c r="GE36" s="44"/>
+      <c r="GF36" s="44"/>
+      <c r="GG36" s="44"/>
+      <c r="GH36" s="44"/>
+      <c r="GI36" s="44"/>
+      <c r="GJ36" s="44"/>
+      <c r="GK36" s="44"/>
+      <c r="GL36" s="44"/>
+      <c r="GM36" s="44"/>
+      <c r="GN36" s="44"/>
+      <c r="GO36" s="44"/>
+      <c r="GP36" s="44"/>
+      <c r="GQ36" s="44"/>
+      <c r="GR36" s="44"/>
+      <c r="GS36" s="44"/>
+      <c r="GT36" s="44"/>
+      <c r="GU36" s="44"/>
+      <c r="GV36" s="44"/>
+      <c r="GW36" s="44"/>
+      <c r="GX36" s="44"/>
+      <c r="GY36" s="44"/>
+      <c r="GZ36" s="44"/>
+      <c r="HA36" s="44"/>
+      <c r="HB36" s="44"/>
+      <c r="HC36" s="44"/>
+      <c r="HD36" s="44"/>
+      <c r="HE36" s="44"/>
+      <c r="HF36" s="44"/>
+      <c r="HG36" s="44"/>
+      <c r="HH36" s="44"/>
+      <c r="HI36" s="44"/>
+      <c r="HJ36" s="44"/>
+      <c r="HK36" s="44"/>
+      <c r="HL36" s="44"/>
+      <c r="HM36" s="44"/>
+      <c r="HN36" s="44"/>
+      <c r="HO36" s="44"/>
+      <c r="HP36" s="44"/>
+      <c r="HQ36" s="44"/>
+      <c r="HR36" s="44"/>
+      <c r="HS36" s="44"/>
+      <c r="HT36" s="44"/>
+      <c r="HU36" s="44"/>
+      <c r="HV36" s="44"/>
+      <c r="HW36" s="44"/>
+      <c r="HX36" s="44"/>
+      <c r="HY36" s="44"/>
+      <c r="HZ36" s="44"/>
+      <c r="IA36" s="44"/>
+      <c r="IB36" s="44"/>
+      <c r="IC36" s="44"/>
+      <c r="ID36" s="44"/>
+      <c r="IE36" s="44"/>
+      <c r="IF36" s="44"/>
+      <c r="IG36" s="44"/>
+      <c r="IH36" s="44"/>
+      <c r="II36" s="44"/>
+      <c r="IJ36" s="44"/>
+      <c r="IK36" s="44"/>
+      <c r="IL36" s="44"/>
+      <c r="IM36" s="44"/>
+      <c r="IN36" s="44"/>
+      <c r="IO36" s="44"/>
+      <c r="IP36" s="44"/>
+      <c r="IQ36" s="44"/>
+      <c r="IR36" s="44"/>
+      <c r="IS36" s="44"/>
+      <c r="IT36" s="44"/>
+      <c r="IU36" s="44"/>
+      <c r="IV36" s="44"/>
+    </row>
+    <row r="37" spans="1:256" ht="12.75" customHeight="1">
       <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
+      <c r="B37" s="69" t="s">
+        <v>7</v>
+      </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -12706,11 +13082,256 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="71" t="s">
-        <v>88</v>
-      </c>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="44"/>
+      <c r="W37" s="44"/>
+      <c r="X37" s="44"/>
+      <c r="Y37" s="44"/>
+      <c r="Z37" s="44"/>
+      <c r="AA37" s="44"/>
+      <c r="AB37" s="44"/>
+      <c r="AC37" s="44"/>
+      <c r="AD37" s="44"/>
+      <c r="AE37" s="44"/>
+      <c r="AF37" s="44"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="44"/>
+      <c r="AI37" s="44"/>
+      <c r="AJ37" s="44"/>
+      <c r="AK37" s="44"/>
+      <c r="AL37" s="44"/>
+      <c r="AM37" s="44"/>
+      <c r="AN37" s="44"/>
+      <c r="AO37" s="44"/>
+      <c r="AP37" s="44"/>
+      <c r="AQ37" s="44"/>
+      <c r="AR37" s="44"/>
+      <c r="AS37" s="44"/>
+      <c r="AT37" s="44"/>
+      <c r="AU37" s="44"/>
+      <c r="AV37" s="44"/>
+      <c r="AW37" s="44"/>
+      <c r="AX37" s="44"/>
+      <c r="AY37" s="44"/>
+      <c r="AZ37" s="44"/>
+      <c r="BA37" s="44"/>
+      <c r="BB37" s="44"/>
+      <c r="BC37" s="44"/>
+      <c r="BD37" s="44"/>
+      <c r="BE37" s="44"/>
+      <c r="BF37" s="44"/>
+      <c r="BG37" s="44"/>
+      <c r="BH37" s="44"/>
+      <c r="BI37" s="44"/>
+      <c r="BJ37" s="44"/>
+      <c r="BK37" s="44"/>
+      <c r="BL37" s="44"/>
+      <c r="BM37" s="44"/>
+      <c r="BN37" s="44"/>
+      <c r="BO37" s="44"/>
+      <c r="BP37" s="44"/>
+      <c r="BQ37" s="44"/>
+      <c r="BR37" s="44"/>
+      <c r="BS37" s="44"/>
+      <c r="BT37" s="44"/>
+      <c r="BU37" s="44"/>
+      <c r="BV37" s="44"/>
+      <c r="BW37" s="44"/>
+      <c r="BX37" s="44"/>
+      <c r="BY37" s="44"/>
+      <c r="BZ37" s="44"/>
+      <c r="CA37" s="44"/>
+      <c r="CB37" s="44"/>
+      <c r="CC37" s="44"/>
+      <c r="CD37" s="44"/>
+      <c r="CE37" s="44"/>
+      <c r="CF37" s="44"/>
+      <c r="CG37" s="44"/>
+      <c r="CH37" s="44"/>
+      <c r="CI37" s="44"/>
+      <c r="CJ37" s="44"/>
+      <c r="CK37" s="44"/>
+      <c r="CL37" s="44"/>
+      <c r="CM37" s="44"/>
+      <c r="CN37" s="44"/>
+      <c r="CO37" s="44"/>
+      <c r="CP37" s="44"/>
+      <c r="CQ37" s="44"/>
+      <c r="CR37" s="44"/>
+      <c r="CS37" s="44"/>
+      <c r="CT37" s="44"/>
+      <c r="CU37" s="44"/>
+      <c r="CV37" s="44"/>
+      <c r="CW37" s="44"/>
+      <c r="CX37" s="44"/>
+      <c r="CY37" s="44"/>
+      <c r="CZ37" s="44"/>
+      <c r="DA37" s="44"/>
+      <c r="DB37" s="44"/>
+      <c r="DC37" s="44"/>
+      <c r="DD37" s="44"/>
+      <c r="DE37" s="44"/>
+      <c r="DF37" s="44"/>
+      <c r="DG37" s="44"/>
+      <c r="DH37" s="44"/>
+      <c r="DI37" s="44"/>
+      <c r="DJ37" s="44"/>
+      <c r="DK37" s="44"/>
+      <c r="DL37" s="44"/>
+      <c r="DM37" s="44"/>
+      <c r="DN37" s="44"/>
+      <c r="DO37" s="44"/>
+      <c r="DP37" s="44"/>
+      <c r="DQ37" s="44"/>
+      <c r="DR37" s="44"/>
+      <c r="DS37" s="44"/>
+      <c r="DT37" s="44"/>
+      <c r="DU37" s="44"/>
+      <c r="DV37" s="44"/>
+      <c r="DW37" s="44"/>
+      <c r="DX37" s="44"/>
+      <c r="DY37" s="44"/>
+      <c r="DZ37" s="44"/>
+      <c r="EA37" s="44"/>
+      <c r="EB37" s="44"/>
+      <c r="EC37" s="44"/>
+      <c r="ED37" s="44"/>
+      <c r="EE37" s="44"/>
+      <c r="EF37" s="44"/>
+      <c r="EG37" s="44"/>
+      <c r="EH37" s="44"/>
+      <c r="EI37" s="44"/>
+      <c r="EJ37" s="44"/>
+      <c r="EK37" s="44"/>
+      <c r="EL37" s="44"/>
+      <c r="EM37" s="44"/>
+      <c r="EN37" s="44"/>
+      <c r="EO37" s="44"/>
+      <c r="EP37" s="44"/>
+      <c r="EQ37" s="44"/>
+      <c r="ER37" s="44"/>
+      <c r="ES37" s="44"/>
+      <c r="ET37" s="44"/>
+      <c r="EU37" s="44"/>
+      <c r="EV37" s="44"/>
+      <c r="EW37" s="44"/>
+      <c r="EX37" s="44"/>
+      <c r="EY37" s="44"/>
+      <c r="EZ37" s="44"/>
+      <c r="FA37" s="44"/>
+      <c r="FB37" s="44"/>
+      <c r="FC37" s="44"/>
+      <c r="FD37" s="44"/>
+      <c r="FE37" s="44"/>
+      <c r="FF37" s="44"/>
+      <c r="FG37" s="44"/>
+      <c r="FH37" s="44"/>
+      <c r="FI37" s="44"/>
+      <c r="FJ37" s="44"/>
+      <c r="FK37" s="44"/>
+      <c r="FL37" s="44"/>
+      <c r="FM37" s="44"/>
+      <c r="FN37" s="44"/>
+      <c r="FO37" s="44"/>
+      <c r="FP37" s="44"/>
+      <c r="FQ37" s="44"/>
+      <c r="FR37" s="44"/>
+      <c r="FS37" s="44"/>
+      <c r="FT37" s="44"/>
+      <c r="FU37" s="44"/>
+      <c r="FV37" s="44"/>
+      <c r="FW37" s="44"/>
+      <c r="FX37" s="44"/>
+      <c r="FY37" s="44"/>
+      <c r="FZ37" s="44"/>
+      <c r="GA37" s="44"/>
+      <c r="GB37" s="44"/>
+      <c r="GC37" s="44"/>
+      <c r="GD37" s="44"/>
+      <c r="GE37" s="44"/>
+      <c r="GF37" s="44"/>
+      <c r="GG37" s="44"/>
+      <c r="GH37" s="44"/>
+      <c r="GI37" s="44"/>
+      <c r="GJ37" s="44"/>
+      <c r="GK37" s="44"/>
+      <c r="GL37" s="44"/>
+      <c r="GM37" s="44"/>
+      <c r="GN37" s="44"/>
+      <c r="GO37" s="44"/>
+      <c r="GP37" s="44"/>
+      <c r="GQ37" s="44"/>
+      <c r="GR37" s="44"/>
+      <c r="GS37" s="44"/>
+      <c r="GT37" s="44"/>
+      <c r="GU37" s="44"/>
+      <c r="GV37" s="44"/>
+      <c r="GW37" s="44"/>
+      <c r="GX37" s="44"/>
+      <c r="GY37" s="44"/>
+      <c r="GZ37" s="44"/>
+      <c r="HA37" s="44"/>
+      <c r="HB37" s="44"/>
+      <c r="HC37" s="44"/>
+      <c r="HD37" s="44"/>
+      <c r="HE37" s="44"/>
+      <c r="HF37" s="44"/>
+      <c r="HG37" s="44"/>
+      <c r="HH37" s="44"/>
+      <c r="HI37" s="44"/>
+      <c r="HJ37" s="44"/>
+      <c r="HK37" s="44"/>
+      <c r="HL37" s="44"/>
+      <c r="HM37" s="44"/>
+      <c r="HN37" s="44"/>
+      <c r="HO37" s="44"/>
+      <c r="HP37" s="44"/>
+      <c r="HQ37" s="44"/>
+      <c r="HR37" s="44"/>
+      <c r="HS37" s="44"/>
+      <c r="HT37" s="44"/>
+      <c r="HU37" s="44"/>
+      <c r="HV37" s="44"/>
+      <c r="HW37" s="44"/>
+      <c r="HX37" s="44"/>
+      <c r="HY37" s="44"/>
+      <c r="HZ37" s="44"/>
+      <c r="IA37" s="44"/>
+      <c r="IB37" s="44"/>
+      <c r="IC37" s="44"/>
+      <c r="ID37" s="44"/>
+      <c r="IE37" s="44"/>
+      <c r="IF37" s="44"/>
+      <c r="IG37" s="44"/>
+      <c r="IH37" s="44"/>
+      <c r="II37" s="44"/>
+      <c r="IJ37" s="44"/>
+      <c r="IK37" s="44"/>
+      <c r="IL37" s="44"/>
+      <c r="IM37" s="44"/>
+      <c r="IN37" s="44"/>
+      <c r="IO37" s="44"/>
+      <c r="IP37" s="44"/>
+      <c r="IQ37" s="44"/>
+      <c r="IR37" s="44"/>
+      <c r="IS37" s="44"/>
+      <c r="IT37" s="44"/>
+      <c r="IU37" s="44"/>
+      <c r="IV37" s="44"/>
+    </row>
+    <row r="38" spans="1:256" ht="12.75" customHeight="1">
+      <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -12720,11 +13341,9 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:256" ht="12.75" customHeight="1">
       <c r="A39" s="3"/>
-      <c r="B39" s="69" t="s">
-        <v>329</v>
-      </c>
+      <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -12733,8 +13352,10 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
+    <row r="40" spans="1:256" ht="12.75" customHeight="1">
+      <c r="A40" s="71" t="s">
+        <v>246</v>
+      </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -12744,9 +13365,11 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:256" ht="12.75" customHeight="1">
       <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
+      <c r="B41" s="69" t="s">
+        <v>5</v>
+      </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -12755,60 +13378,352 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
+    <row r="42" spans="1:256" ht="12.75" customHeight="1">
+      <c r="A42" s="3"/>
+      <c r="B42" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="44"/>
+      <c r="U42" s="44"/>
+      <c r="V42" s="44"/>
+      <c r="W42" s="44"/>
+      <c r="X42" s="44"/>
+      <c r="Y42" s="44"/>
+      <c r="Z42" s="44"/>
+      <c r="AA42" s="44"/>
+      <c r="AB42" s="44"/>
+      <c r="AC42" s="44"/>
+      <c r="AD42" s="44"/>
+      <c r="AE42" s="44"/>
+      <c r="AF42" s="44"/>
+      <c r="AG42" s="44"/>
+      <c r="AH42" s="44"/>
+      <c r="AI42" s="44"/>
+      <c r="AJ42" s="44"/>
+      <c r="AK42" s="44"/>
+      <c r="AL42" s="44"/>
+      <c r="AM42" s="44"/>
+      <c r="AN42" s="44"/>
+      <c r="AO42" s="44"/>
+      <c r="AP42" s="44"/>
+      <c r="AQ42" s="44"/>
+      <c r="AR42" s="44"/>
+      <c r="AS42" s="44"/>
+      <c r="AT42" s="44"/>
+      <c r="AU42" s="44"/>
+      <c r="AV42" s="44"/>
+      <c r="AW42" s="44"/>
+      <c r="AX42" s="44"/>
+      <c r="AY42" s="44"/>
+      <c r="AZ42" s="44"/>
+      <c r="BA42" s="44"/>
+      <c r="BB42" s="44"/>
+      <c r="BC42" s="44"/>
+      <c r="BD42" s="44"/>
+      <c r="BE42" s="44"/>
+      <c r="BF42" s="44"/>
+      <c r="BG42" s="44"/>
+      <c r="BH42" s="44"/>
+      <c r="BI42" s="44"/>
+      <c r="BJ42" s="44"/>
+      <c r="BK42" s="44"/>
+      <c r="BL42" s="44"/>
+      <c r="BM42" s="44"/>
+      <c r="BN42" s="44"/>
+      <c r="BO42" s="44"/>
+      <c r="BP42" s="44"/>
+      <c r="BQ42" s="44"/>
+      <c r="BR42" s="44"/>
+      <c r="BS42" s="44"/>
+      <c r="BT42" s="44"/>
+      <c r="BU42" s="44"/>
+      <c r="BV42" s="44"/>
+      <c r="BW42" s="44"/>
+      <c r="BX42" s="44"/>
+      <c r="BY42" s="44"/>
+      <c r="BZ42" s="44"/>
+      <c r="CA42" s="44"/>
+      <c r="CB42" s="44"/>
+      <c r="CC42" s="44"/>
+      <c r="CD42" s="44"/>
+      <c r="CE42" s="44"/>
+      <c r="CF42" s="44"/>
+      <c r="CG42" s="44"/>
+      <c r="CH42" s="44"/>
+      <c r="CI42" s="44"/>
+      <c r="CJ42" s="44"/>
+      <c r="CK42" s="44"/>
+      <c r="CL42" s="44"/>
+      <c r="CM42" s="44"/>
+      <c r="CN42" s="44"/>
+      <c r="CO42" s="44"/>
+      <c r="CP42" s="44"/>
+      <c r="CQ42" s="44"/>
+      <c r="CR42" s="44"/>
+      <c r="CS42" s="44"/>
+      <c r="CT42" s="44"/>
+      <c r="CU42" s="44"/>
+      <c r="CV42" s="44"/>
+      <c r="CW42" s="44"/>
+      <c r="CX42" s="44"/>
+      <c r="CY42" s="44"/>
+      <c r="CZ42" s="44"/>
+      <c r="DA42" s="44"/>
+      <c r="DB42" s="44"/>
+      <c r="DC42" s="44"/>
+      <c r="DD42" s="44"/>
+      <c r="DE42" s="44"/>
+      <c r="DF42" s="44"/>
+      <c r="DG42" s="44"/>
+      <c r="DH42" s="44"/>
+      <c r="DI42" s="44"/>
+      <c r="DJ42" s="44"/>
+      <c r="DK42" s="44"/>
+      <c r="DL42" s="44"/>
+      <c r="DM42" s="44"/>
+      <c r="DN42" s="44"/>
+      <c r="DO42" s="44"/>
+      <c r="DP42" s="44"/>
+      <c r="DQ42" s="44"/>
+      <c r="DR42" s="44"/>
+      <c r="DS42" s="44"/>
+      <c r="DT42" s="44"/>
+      <c r="DU42" s="44"/>
+      <c r="DV42" s="44"/>
+      <c r="DW42" s="44"/>
+      <c r="DX42" s="44"/>
+      <c r="DY42" s="44"/>
+      <c r="DZ42" s="44"/>
+      <c r="EA42" s="44"/>
+      <c r="EB42" s="44"/>
+      <c r="EC42" s="44"/>
+      <c r="ED42" s="44"/>
+      <c r="EE42" s="44"/>
+      <c r="EF42" s="44"/>
+      <c r="EG42" s="44"/>
+      <c r="EH42" s="44"/>
+      <c r="EI42" s="44"/>
+      <c r="EJ42" s="44"/>
+      <c r="EK42" s="44"/>
+      <c r="EL42" s="44"/>
+      <c r="EM42" s="44"/>
+      <c r="EN42" s="44"/>
+      <c r="EO42" s="44"/>
+      <c r="EP42" s="44"/>
+      <c r="EQ42" s="44"/>
+      <c r="ER42" s="44"/>
+      <c r="ES42" s="44"/>
+      <c r="ET42" s="44"/>
+      <c r="EU42" s="44"/>
+      <c r="EV42" s="44"/>
+      <c r="EW42" s="44"/>
+      <c r="EX42" s="44"/>
+      <c r="EY42" s="44"/>
+      <c r="EZ42" s="44"/>
+      <c r="FA42" s="44"/>
+      <c r="FB42" s="44"/>
+      <c r="FC42" s="44"/>
+      <c r="FD42" s="44"/>
+      <c r="FE42" s="44"/>
+      <c r="FF42" s="44"/>
+      <c r="FG42" s="44"/>
+      <c r="FH42" s="44"/>
+      <c r="FI42" s="44"/>
+      <c r="FJ42" s="44"/>
+      <c r="FK42" s="44"/>
+      <c r="FL42" s="44"/>
+      <c r="FM42" s="44"/>
+      <c r="FN42" s="44"/>
+      <c r="FO42" s="44"/>
+      <c r="FP42" s="44"/>
+      <c r="FQ42" s="44"/>
+      <c r="FR42" s="44"/>
+      <c r="FS42" s="44"/>
+      <c r="FT42" s="44"/>
+      <c r="FU42" s="44"/>
+      <c r="FV42" s="44"/>
+      <c r="FW42" s="44"/>
+      <c r="FX42" s="44"/>
+      <c r="FY42" s="44"/>
+      <c r="FZ42" s="44"/>
+      <c r="GA42" s="44"/>
+      <c r="GB42" s="44"/>
+      <c r="GC42" s="44"/>
+      <c r="GD42" s="44"/>
+      <c r="GE42" s="44"/>
+      <c r="GF42" s="44"/>
+      <c r="GG42" s="44"/>
+      <c r="GH42" s="44"/>
+      <c r="GI42" s="44"/>
+      <c r="GJ42" s="44"/>
+      <c r="GK42" s="44"/>
+      <c r="GL42" s="44"/>
+      <c r="GM42" s="44"/>
+      <c r="GN42" s="44"/>
+      <c r="GO42" s="44"/>
+      <c r="GP42" s="44"/>
+      <c r="GQ42" s="44"/>
+      <c r="GR42" s="44"/>
+      <c r="GS42" s="44"/>
+      <c r="GT42" s="44"/>
+      <c r="GU42" s="44"/>
+      <c r="GV42" s="44"/>
+      <c r="GW42" s="44"/>
+      <c r="GX42" s="44"/>
+      <c r="GY42" s="44"/>
+      <c r="GZ42" s="44"/>
+      <c r="HA42" s="44"/>
+      <c r="HB42" s="44"/>
+      <c r="HC42" s="44"/>
+      <c r="HD42" s="44"/>
+      <c r="HE42" s="44"/>
+      <c r="HF42" s="44"/>
+      <c r="HG42" s="44"/>
+      <c r="HH42" s="44"/>
+      <c r="HI42" s="44"/>
+      <c r="HJ42" s="44"/>
+      <c r="HK42" s="44"/>
+      <c r="HL42" s="44"/>
+      <c r="HM42" s="44"/>
+      <c r="HN42" s="44"/>
+      <c r="HO42" s="44"/>
+      <c r="HP42" s="44"/>
+      <c r="HQ42" s="44"/>
+      <c r="HR42" s="44"/>
+      <c r="HS42" s="44"/>
+      <c r="HT42" s="44"/>
+      <c r="HU42" s="44"/>
+      <c r="HV42" s="44"/>
+      <c r="HW42" s="44"/>
+      <c r="HX42" s="44"/>
+      <c r="HY42" s="44"/>
+      <c r="HZ42" s="44"/>
+      <c r="IA42" s="44"/>
+      <c r="IB42" s="44"/>
+      <c r="IC42" s="44"/>
+      <c r="ID42" s="44"/>
+      <c r="IE42" s="44"/>
+      <c r="IF42" s="44"/>
+      <c r="IG42" s="44"/>
+      <c r="IH42" s="44"/>
+      <c r="II42" s="44"/>
+      <c r="IJ42" s="44"/>
+      <c r="IK42" s="44"/>
+      <c r="IL42" s="44"/>
+      <c r="IM42" s="44"/>
+      <c r="IN42" s="44"/>
+      <c r="IO42" s="44"/>
+      <c r="IP42" s="44"/>
+      <c r="IQ42" s="44"/>
+      <c r="IR42" s="44"/>
+      <c r="IS42" s="44"/>
+      <c r="IT42" s="44"/>
+      <c r="IU42" s="44"/>
+      <c r="IV42" s="44"/>
+    </row>
+    <row r="43" spans="1:256" ht="12.75" customHeight="1">
+      <c r="A43" s="3"/>
+      <c r="B43" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:256" ht="12.75" customHeight="1">
+      <c r="A44" s="3"/>
+      <c r="B44" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:IV31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:I37"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11" style="42" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="42" customWidth="1"/>
-    <col min="3" max="256" width="11" style="42" customWidth="1"/>
+    <col min="1" max="1" width="11" style="42"/>
+    <col min="2" max="2" width="21.140625" style="42" customWidth="1"/>
+    <col min="3" max="256" width="11" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:256" ht="25.5" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:256" ht="15" customHeight="1">
       <c r="A2" s="68" t="str">
         <f>Backlog!$B$17</f>
         <v>US28</v>
@@ -12818,10 +13733,10 @@
         <v>Order siblings by age</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D2" s="69" t="s">
-        <v>114</v>
+        <v>272</v>
       </c>
       <c r="E2" s="3">
         <v>60</v>
@@ -12833,12 +13748,12 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:256" ht="15" customHeight="1">
       <c r="A3" s="70" t="s">
-        <v>305</v>
+        <v>60</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>307</v>
+        <v>62</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
@@ -13095,12 +14010,12 @@
       <c r="IU3" s="44"/>
       <c r="IV3" s="44"/>
     </row>
-    <row r="4" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:256" ht="15" customHeight="1">
       <c r="A4" s="70" t="s">
-        <v>306</v>
+        <v>61</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>308</v>
+        <v>63</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
@@ -13357,12 +14272,12 @@
       <c r="IU4" s="44"/>
       <c r="IV4" s="44"/>
     </row>
-    <row r="5" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:256" ht="15" customHeight="1">
       <c r="A5" s="70" t="s">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="B5" s="70" t="s">
-        <v>311</v>
+        <v>66</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="69"/>
@@ -13619,7 +14534,7 @@
       <c r="IU5" s="44"/>
       <c r="IV5" s="44"/>
     </row>
-    <row r="6" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:256" ht="15" customHeight="1">
       <c r="A6" s="70"/>
       <c r="B6" s="70"/>
       <c r="C6" s="69"/>
@@ -13877,7 +14792,7 @@
       <c r="IU6" s="44"/>
       <c r="IV6" s="44"/>
     </row>
-    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:256" ht="15" customHeight="1">
       <c r="A7" s="68" t="str">
         <f>Backlog!$B$18</f>
         <v>US30</v>
@@ -13887,10 +14802,10 @@
         <v>List living married</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>114</v>
+        <v>272</v>
       </c>
       <c r="E7" s="3">
         <v>60</v>
@@ -13902,12 +14817,12 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:256" ht="15" customHeight="1">
       <c r="A8" s="69" t="s">
-        <v>309</v>
+        <v>64</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>312</v>
+        <v>67</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -13917,12 +14832,12 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:256" ht="15" customHeight="1">
       <c r="A9" s="69" t="s">
-        <v>314</v>
+        <v>69</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>313</v>
+        <v>68</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -13932,12 +14847,12 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:256" ht="15" customHeight="1">
       <c r="A10" s="69" t="s">
-        <v>315</v>
+        <v>70</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>311</v>
+        <v>66</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -13947,7 +14862,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:256" ht="15" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -13958,18 +14873,18 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:256" ht="15" customHeight="1">
       <c r="A12" s="71" t="s">
-        <v>264</v>
+        <v>165</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>316</v>
+        <v>71</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>114</v>
+        <v>272</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -13981,12 +14896,12 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:256" ht="15" customHeight="1">
       <c r="A13" s="69" t="s">
-        <v>318</v>
+        <v>73</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>319</v>
+        <v>74</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -13996,12 +14911,12 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:256" ht="15" customHeight="1">
       <c r="A14" s="69" t="s">
-        <v>320</v>
+        <v>75</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>311</v>
+        <v>66</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -14011,7 +14926,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:256" ht="12.75" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -14022,18 +14937,18 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:256" ht="12.75" customHeight="1">
       <c r="A16" s="71" t="s">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c r="B16" s="69" t="s">
-        <v>317</v>
+        <v>72</v>
       </c>
       <c r="C16" s="69" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>114</v>
+        <v>272</v>
       </c>
       <c r="E16" s="3">
         <v>30</v>
@@ -14045,12 +14960,12 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:256" ht="12.75" customHeight="1">
       <c r="A17" s="69" t="s">
-        <v>321</v>
+        <v>76</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -14060,12 +14975,12 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:256" ht="12.75" customHeight="1">
       <c r="A18" s="69" t="s">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -14075,12 +14990,12 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:256" ht="12.75" customHeight="1">
       <c r="A19" s="69" t="s">
-        <v>325</v>
+        <v>80</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -14090,7 +15005,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:256" ht="12.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -14101,20 +15016,36 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+    <row r="21" spans="1:256" ht="12.75" customHeight="1">
+      <c r="A21" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="69" t="s">
+        <v>272</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45</v>
+      </c>
+      <c r="F21" s="3">
+        <v>90</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+    <row r="22" spans="1:256" ht="12.75" customHeight="1">
+      <c r="A22" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>16</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -14123,9 +15054,13 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+    <row r="23" spans="1:256" ht="12.75" customHeight="1">
+      <c r="A23" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>20</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -14134,9 +15069,13 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+    <row r="24" spans="1:256" ht="12.75" customHeight="1">
+      <c r="A24" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>22</v>
+      </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -14144,10 +15083,261 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="44"/>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="44"/>
+      <c r="AE24" s="44"/>
+      <c r="AF24" s="44"/>
+      <c r="AG24" s="44"/>
+      <c r="AH24" s="44"/>
+      <c r="AI24" s="44"/>
+      <c r="AJ24" s="44"/>
+      <c r="AK24" s="44"/>
+      <c r="AL24" s="44"/>
+      <c r="AM24" s="44"/>
+      <c r="AN24" s="44"/>
+      <c r="AO24" s="44"/>
+      <c r="AP24" s="44"/>
+      <c r="AQ24" s="44"/>
+      <c r="AR24" s="44"/>
+      <c r="AS24" s="44"/>
+      <c r="AT24" s="44"/>
+      <c r="AU24" s="44"/>
+      <c r="AV24" s="44"/>
+      <c r="AW24" s="44"/>
+      <c r="AX24" s="44"/>
+      <c r="AY24" s="44"/>
+      <c r="AZ24" s="44"/>
+      <c r="BA24" s="44"/>
+      <c r="BB24" s="44"/>
+      <c r="BC24" s="44"/>
+      <c r="BD24" s="44"/>
+      <c r="BE24" s="44"/>
+      <c r="BF24" s="44"/>
+      <c r="BG24" s="44"/>
+      <c r="BH24" s="44"/>
+      <c r="BI24" s="44"/>
+      <c r="BJ24" s="44"/>
+      <c r="BK24" s="44"/>
+      <c r="BL24" s="44"/>
+      <c r="BM24" s="44"/>
+      <c r="BN24" s="44"/>
+      <c r="BO24" s="44"/>
+      <c r="BP24" s="44"/>
+      <c r="BQ24" s="44"/>
+      <c r="BR24" s="44"/>
+      <c r="BS24" s="44"/>
+      <c r="BT24" s="44"/>
+      <c r="BU24" s="44"/>
+      <c r="BV24" s="44"/>
+      <c r="BW24" s="44"/>
+      <c r="BX24" s="44"/>
+      <c r="BY24" s="44"/>
+      <c r="BZ24" s="44"/>
+      <c r="CA24" s="44"/>
+      <c r="CB24" s="44"/>
+      <c r="CC24" s="44"/>
+      <c r="CD24" s="44"/>
+      <c r="CE24" s="44"/>
+      <c r="CF24" s="44"/>
+      <c r="CG24" s="44"/>
+      <c r="CH24" s="44"/>
+      <c r="CI24" s="44"/>
+      <c r="CJ24" s="44"/>
+      <c r="CK24" s="44"/>
+      <c r="CL24" s="44"/>
+      <c r="CM24" s="44"/>
+      <c r="CN24" s="44"/>
+      <c r="CO24" s="44"/>
+      <c r="CP24" s="44"/>
+      <c r="CQ24" s="44"/>
+      <c r="CR24" s="44"/>
+      <c r="CS24" s="44"/>
+      <c r="CT24" s="44"/>
+      <c r="CU24" s="44"/>
+      <c r="CV24" s="44"/>
+      <c r="CW24" s="44"/>
+      <c r="CX24" s="44"/>
+      <c r="CY24" s="44"/>
+      <c r="CZ24" s="44"/>
+      <c r="DA24" s="44"/>
+      <c r="DB24" s="44"/>
+      <c r="DC24" s="44"/>
+      <c r="DD24" s="44"/>
+      <c r="DE24" s="44"/>
+      <c r="DF24" s="44"/>
+      <c r="DG24" s="44"/>
+      <c r="DH24" s="44"/>
+      <c r="DI24" s="44"/>
+      <c r="DJ24" s="44"/>
+      <c r="DK24" s="44"/>
+      <c r="DL24" s="44"/>
+      <c r="DM24" s="44"/>
+      <c r="DN24" s="44"/>
+      <c r="DO24" s="44"/>
+      <c r="DP24" s="44"/>
+      <c r="DQ24" s="44"/>
+      <c r="DR24" s="44"/>
+      <c r="DS24" s="44"/>
+      <c r="DT24" s="44"/>
+      <c r="DU24" s="44"/>
+      <c r="DV24" s="44"/>
+      <c r="DW24" s="44"/>
+      <c r="DX24" s="44"/>
+      <c r="DY24" s="44"/>
+      <c r="DZ24" s="44"/>
+      <c r="EA24" s="44"/>
+      <c r="EB24" s="44"/>
+      <c r="EC24" s="44"/>
+      <c r="ED24" s="44"/>
+      <c r="EE24" s="44"/>
+      <c r="EF24" s="44"/>
+      <c r="EG24" s="44"/>
+      <c r="EH24" s="44"/>
+      <c r="EI24" s="44"/>
+      <c r="EJ24" s="44"/>
+      <c r="EK24" s="44"/>
+      <c r="EL24" s="44"/>
+      <c r="EM24" s="44"/>
+      <c r="EN24" s="44"/>
+      <c r="EO24" s="44"/>
+      <c r="EP24" s="44"/>
+      <c r="EQ24" s="44"/>
+      <c r="ER24" s="44"/>
+      <c r="ES24" s="44"/>
+      <c r="ET24" s="44"/>
+      <c r="EU24" s="44"/>
+      <c r="EV24" s="44"/>
+      <c r="EW24" s="44"/>
+      <c r="EX24" s="44"/>
+      <c r="EY24" s="44"/>
+      <c r="EZ24" s="44"/>
+      <c r="FA24" s="44"/>
+      <c r="FB24" s="44"/>
+      <c r="FC24" s="44"/>
+      <c r="FD24" s="44"/>
+      <c r="FE24" s="44"/>
+      <c r="FF24" s="44"/>
+      <c r="FG24" s="44"/>
+      <c r="FH24" s="44"/>
+      <c r="FI24" s="44"/>
+      <c r="FJ24" s="44"/>
+      <c r="FK24" s="44"/>
+      <c r="FL24" s="44"/>
+      <c r="FM24" s="44"/>
+      <c r="FN24" s="44"/>
+      <c r="FO24" s="44"/>
+      <c r="FP24" s="44"/>
+      <c r="FQ24" s="44"/>
+      <c r="FR24" s="44"/>
+      <c r="FS24" s="44"/>
+      <c r="FT24" s="44"/>
+      <c r="FU24" s="44"/>
+      <c r="FV24" s="44"/>
+      <c r="FW24" s="44"/>
+      <c r="FX24" s="44"/>
+      <c r="FY24" s="44"/>
+      <c r="FZ24" s="44"/>
+      <c r="GA24" s="44"/>
+      <c r="GB24" s="44"/>
+      <c r="GC24" s="44"/>
+      <c r="GD24" s="44"/>
+      <c r="GE24" s="44"/>
+      <c r="GF24" s="44"/>
+      <c r="GG24" s="44"/>
+      <c r="GH24" s="44"/>
+      <c r="GI24" s="44"/>
+      <c r="GJ24" s="44"/>
+      <c r="GK24" s="44"/>
+      <c r="GL24" s="44"/>
+      <c r="GM24" s="44"/>
+      <c r="GN24" s="44"/>
+      <c r="GO24" s="44"/>
+      <c r="GP24" s="44"/>
+      <c r="GQ24" s="44"/>
+      <c r="GR24" s="44"/>
+      <c r="GS24" s="44"/>
+      <c r="GT24" s="44"/>
+      <c r="GU24" s="44"/>
+      <c r="GV24" s="44"/>
+      <c r="GW24" s="44"/>
+      <c r="GX24" s="44"/>
+      <c r="GY24" s="44"/>
+      <c r="GZ24" s="44"/>
+      <c r="HA24" s="44"/>
+      <c r="HB24" s="44"/>
+      <c r="HC24" s="44"/>
+      <c r="HD24" s="44"/>
+      <c r="HE24" s="44"/>
+      <c r="HF24" s="44"/>
+      <c r="HG24" s="44"/>
+      <c r="HH24" s="44"/>
+      <c r="HI24" s="44"/>
+      <c r="HJ24" s="44"/>
+      <c r="HK24" s="44"/>
+      <c r="HL24" s="44"/>
+      <c r="HM24" s="44"/>
+      <c r="HN24" s="44"/>
+      <c r="HO24" s="44"/>
+      <c r="HP24" s="44"/>
+      <c r="HQ24" s="44"/>
+      <c r="HR24" s="44"/>
+      <c r="HS24" s="44"/>
+      <c r="HT24" s="44"/>
+      <c r="HU24" s="44"/>
+      <c r="HV24" s="44"/>
+      <c r="HW24" s="44"/>
+      <c r="HX24" s="44"/>
+      <c r="HY24" s="44"/>
+      <c r="HZ24" s="44"/>
+      <c r="IA24" s="44"/>
+      <c r="IB24" s="44"/>
+      <c r="IC24" s="44"/>
+      <c r="ID24" s="44"/>
+      <c r="IE24" s="44"/>
+      <c r="IF24" s="44"/>
+      <c r="IG24" s="44"/>
+      <c r="IH24" s="44"/>
+      <c r="II24" s="44"/>
+      <c r="IJ24" s="44"/>
+      <c r="IK24" s="44"/>
+      <c r="IL24" s="44"/>
+      <c r="IM24" s="44"/>
+      <c r="IN24" s="44"/>
+      <c r="IO24" s="44"/>
+      <c r="IP24" s="44"/>
+      <c r="IQ24" s="44"/>
+      <c r="IR24" s="44"/>
+      <c r="IS24" s="44"/>
+      <c r="IT24" s="44"/>
+      <c r="IU24" s="44"/>
+      <c r="IV24" s="44"/>
+    </row>
+    <row r="25" spans="1:256" ht="12.75" customHeight="1">
+      <c r="A25" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>1</v>
+      </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -14155,8 +15345,255 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="44"/>
+      <c r="AF25" s="44"/>
+      <c r="AG25" s="44"/>
+      <c r="AH25" s="44"/>
+      <c r="AI25" s="44"/>
+      <c r="AJ25" s="44"/>
+      <c r="AK25" s="44"/>
+      <c r="AL25" s="44"/>
+      <c r="AM25" s="44"/>
+      <c r="AN25" s="44"/>
+      <c r="AO25" s="44"/>
+      <c r="AP25" s="44"/>
+      <c r="AQ25" s="44"/>
+      <c r="AR25" s="44"/>
+      <c r="AS25" s="44"/>
+      <c r="AT25" s="44"/>
+      <c r="AU25" s="44"/>
+      <c r="AV25" s="44"/>
+      <c r="AW25" s="44"/>
+      <c r="AX25" s="44"/>
+      <c r="AY25" s="44"/>
+      <c r="AZ25" s="44"/>
+      <c r="BA25" s="44"/>
+      <c r="BB25" s="44"/>
+      <c r="BC25" s="44"/>
+      <c r="BD25" s="44"/>
+      <c r="BE25" s="44"/>
+      <c r="BF25" s="44"/>
+      <c r="BG25" s="44"/>
+      <c r="BH25" s="44"/>
+      <c r="BI25" s="44"/>
+      <c r="BJ25" s="44"/>
+      <c r="BK25" s="44"/>
+      <c r="BL25" s="44"/>
+      <c r="BM25" s="44"/>
+      <c r="BN25" s="44"/>
+      <c r="BO25" s="44"/>
+      <c r="BP25" s="44"/>
+      <c r="BQ25" s="44"/>
+      <c r="BR25" s="44"/>
+      <c r="BS25" s="44"/>
+      <c r="BT25" s="44"/>
+      <c r="BU25" s="44"/>
+      <c r="BV25" s="44"/>
+      <c r="BW25" s="44"/>
+      <c r="BX25" s="44"/>
+      <c r="BY25" s="44"/>
+      <c r="BZ25" s="44"/>
+      <c r="CA25" s="44"/>
+      <c r="CB25" s="44"/>
+      <c r="CC25" s="44"/>
+      <c r="CD25" s="44"/>
+      <c r="CE25" s="44"/>
+      <c r="CF25" s="44"/>
+      <c r="CG25" s="44"/>
+      <c r="CH25" s="44"/>
+      <c r="CI25" s="44"/>
+      <c r="CJ25" s="44"/>
+      <c r="CK25" s="44"/>
+      <c r="CL25" s="44"/>
+      <c r="CM25" s="44"/>
+      <c r="CN25" s="44"/>
+      <c r="CO25" s="44"/>
+      <c r="CP25" s="44"/>
+      <c r="CQ25" s="44"/>
+      <c r="CR25" s="44"/>
+      <c r="CS25" s="44"/>
+      <c r="CT25" s="44"/>
+      <c r="CU25" s="44"/>
+      <c r="CV25" s="44"/>
+      <c r="CW25" s="44"/>
+      <c r="CX25" s="44"/>
+      <c r="CY25" s="44"/>
+      <c r="CZ25" s="44"/>
+      <c r="DA25" s="44"/>
+      <c r="DB25" s="44"/>
+      <c r="DC25" s="44"/>
+      <c r="DD25" s="44"/>
+      <c r="DE25" s="44"/>
+      <c r="DF25" s="44"/>
+      <c r="DG25" s="44"/>
+      <c r="DH25" s="44"/>
+      <c r="DI25" s="44"/>
+      <c r="DJ25" s="44"/>
+      <c r="DK25" s="44"/>
+      <c r="DL25" s="44"/>
+      <c r="DM25" s="44"/>
+      <c r="DN25" s="44"/>
+      <c r="DO25" s="44"/>
+      <c r="DP25" s="44"/>
+      <c r="DQ25" s="44"/>
+      <c r="DR25" s="44"/>
+      <c r="DS25" s="44"/>
+      <c r="DT25" s="44"/>
+      <c r="DU25" s="44"/>
+      <c r="DV25" s="44"/>
+      <c r="DW25" s="44"/>
+      <c r="DX25" s="44"/>
+      <c r="DY25" s="44"/>
+      <c r="DZ25" s="44"/>
+      <c r="EA25" s="44"/>
+      <c r="EB25" s="44"/>
+      <c r="EC25" s="44"/>
+      <c r="ED25" s="44"/>
+      <c r="EE25" s="44"/>
+      <c r="EF25" s="44"/>
+      <c r="EG25" s="44"/>
+      <c r="EH25" s="44"/>
+      <c r="EI25" s="44"/>
+      <c r="EJ25" s="44"/>
+      <c r="EK25" s="44"/>
+      <c r="EL25" s="44"/>
+      <c r="EM25" s="44"/>
+      <c r="EN25" s="44"/>
+      <c r="EO25" s="44"/>
+      <c r="EP25" s="44"/>
+      <c r="EQ25" s="44"/>
+      <c r="ER25" s="44"/>
+      <c r="ES25" s="44"/>
+      <c r="ET25" s="44"/>
+      <c r="EU25" s="44"/>
+      <c r="EV25" s="44"/>
+      <c r="EW25" s="44"/>
+      <c r="EX25" s="44"/>
+      <c r="EY25" s="44"/>
+      <c r="EZ25" s="44"/>
+      <c r="FA25" s="44"/>
+      <c r="FB25" s="44"/>
+      <c r="FC25" s="44"/>
+      <c r="FD25" s="44"/>
+      <c r="FE25" s="44"/>
+      <c r="FF25" s="44"/>
+      <c r="FG25" s="44"/>
+      <c r="FH25" s="44"/>
+      <c r="FI25" s="44"/>
+      <c r="FJ25" s="44"/>
+      <c r="FK25" s="44"/>
+      <c r="FL25" s="44"/>
+      <c r="FM25" s="44"/>
+      <c r="FN25" s="44"/>
+      <c r="FO25" s="44"/>
+      <c r="FP25" s="44"/>
+      <c r="FQ25" s="44"/>
+      <c r="FR25" s="44"/>
+      <c r="FS25" s="44"/>
+      <c r="FT25" s="44"/>
+      <c r="FU25" s="44"/>
+      <c r="FV25" s="44"/>
+      <c r="FW25" s="44"/>
+      <c r="FX25" s="44"/>
+      <c r="FY25" s="44"/>
+      <c r="FZ25" s="44"/>
+      <c r="GA25" s="44"/>
+      <c r="GB25" s="44"/>
+      <c r="GC25" s="44"/>
+      <c r="GD25" s="44"/>
+      <c r="GE25" s="44"/>
+      <c r="GF25" s="44"/>
+      <c r="GG25" s="44"/>
+      <c r="GH25" s="44"/>
+      <c r="GI25" s="44"/>
+      <c r="GJ25" s="44"/>
+      <c r="GK25" s="44"/>
+      <c r="GL25" s="44"/>
+      <c r="GM25" s="44"/>
+      <c r="GN25" s="44"/>
+      <c r="GO25" s="44"/>
+      <c r="GP25" s="44"/>
+      <c r="GQ25" s="44"/>
+      <c r="GR25" s="44"/>
+      <c r="GS25" s="44"/>
+      <c r="GT25" s="44"/>
+      <c r="GU25" s="44"/>
+      <c r="GV25" s="44"/>
+      <c r="GW25" s="44"/>
+      <c r="GX25" s="44"/>
+      <c r="GY25" s="44"/>
+      <c r="GZ25" s="44"/>
+      <c r="HA25" s="44"/>
+      <c r="HB25" s="44"/>
+      <c r="HC25" s="44"/>
+      <c r="HD25" s="44"/>
+      <c r="HE25" s="44"/>
+      <c r="HF25" s="44"/>
+      <c r="HG25" s="44"/>
+      <c r="HH25" s="44"/>
+      <c r="HI25" s="44"/>
+      <c r="HJ25" s="44"/>
+      <c r="HK25" s="44"/>
+      <c r="HL25" s="44"/>
+      <c r="HM25" s="44"/>
+      <c r="HN25" s="44"/>
+      <c r="HO25" s="44"/>
+      <c r="HP25" s="44"/>
+      <c r="HQ25" s="44"/>
+      <c r="HR25" s="44"/>
+      <c r="HS25" s="44"/>
+      <c r="HT25" s="44"/>
+      <c r="HU25" s="44"/>
+      <c r="HV25" s="44"/>
+      <c r="HW25" s="44"/>
+      <c r="HX25" s="44"/>
+      <c r="HY25" s="44"/>
+      <c r="HZ25" s="44"/>
+      <c r="IA25" s="44"/>
+      <c r="IB25" s="44"/>
+      <c r="IC25" s="44"/>
+      <c r="ID25" s="44"/>
+      <c r="IE25" s="44"/>
+      <c r="IF25" s="44"/>
+      <c r="IG25" s="44"/>
+      <c r="IH25" s="44"/>
+      <c r="II25" s="44"/>
+      <c r="IJ25" s="44"/>
+      <c r="IK25" s="44"/>
+      <c r="IL25" s="44"/>
+      <c r="IM25" s="44"/>
+      <c r="IN25" s="44"/>
+      <c r="IO25" s="44"/>
+      <c r="IP25" s="44"/>
+      <c r="IQ25" s="44"/>
+      <c r="IR25" s="44"/>
+      <c r="IS25" s="44"/>
+      <c r="IT25" s="44"/>
+      <c r="IU25" s="44"/>
+      <c r="IV25" s="44"/>
+    </row>
+    <row r="26" spans="1:256" ht="12.75" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -14167,20 +15604,36 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+    <row r="27" spans="1:256" ht="12.75" customHeight="1">
+      <c r="A27" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="69" t="s">
+        <v>272</v>
+      </c>
+      <c r="E27" s="3">
+        <v>30</v>
+      </c>
+      <c r="F27" s="3">
+        <v>60</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+    <row r="28" spans="1:256" ht="12.75" customHeight="1">
+      <c r="A28" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>18</v>
+      </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -14189,9 +15642,13 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+    <row r="29" spans="1:256" ht="12.75" customHeight="1">
+      <c r="A29" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="65" t="s">
+        <v>25</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -14200,58 +15657,90 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
+    <row r="30" spans="1:256" ht="12.75" customHeight="1">
+      <c r="A30" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:256" ht="12.75" customHeight="1">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="9" width="11" style="43" customWidth="1"/>
     <col min="10" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="25.5" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -14262,7 +15751,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -14273,7 +15762,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -14284,7 +15773,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -14295,7 +15784,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -14306,7 +15795,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -14317,7 +15806,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -14328,7 +15817,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -14339,7 +15828,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -14351,10 +15840,16 @@
       <c r="I10" s="3"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/TeamNick_Jeremy_AmieReport.xlsx
+++ b/TeamNick_Jeremy_AmieReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="14640" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="14640" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -30,55 +30,159 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="352">
   <si>
-    <t>Check birth date &lt; 30 days</t>
+    <t>All individual IDs should be unique and all family IDs should be unique</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>Unique name and birth date</t>
+  </si>
+  <si>
+    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one child with the same name and birth date should appear in a family</t>
+  </si>
+  <si>
+    <t>Complete</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Check birth dates for 2x age delta</t>
+    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
+  </si>
+  <si>
+    <t>US29</t>
+  </si>
+  <si>
+    <t>List deceased</t>
+  </si>
+  <si>
+    <t>List all deceased individuals in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living married people in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>List living single</t>
+  </si>
+  <si>
+    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all multiple births in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
+  </si>
+  <si>
+    <t>List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
+    <t>US41</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>Accept and use dates without days or without days and months</t>
+  </si>
+  <si>
+    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+  </si>
+  <si>
+    <t>From JRD: Not using docstrings. We should attempt to keep more consistent documentation in the future.</t>
+  </si>
+  <si>
+    <t>From JRD: Keep questioning if what we are doing is reasonale so that we keep ourselves on track.</t>
+  </si>
+  <si>
+    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>Siblings spacing</t>
+  </si>
+  <si>
+    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+  </si>
+  <si>
+    <t>No more than five siblings should be born at the same time</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>Fewer than 15 siblings</t>
+  </si>
+  <si>
+    <t>There should be fewer than 15 siblings in a family</t>
+  </si>
+  <si>
+    <t>All male members of a family should have the same last name</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>UniqueFirst Names in Families</t>
+  </si>
+  <si>
+    <t>Corresponding Entries</t>
+  </si>
+  <si>
+    <t>Store all individual identifiers in a given family</t>
+  </si>
+  <si>
+    <t>Make sure they all appear in the individuals table</t>
+  </si>
+  <si>
+    <t>T26.04</t>
+  </si>
+  <si>
+    <t>T26.03</t>
+  </si>
+  <si>
+    <t>T26.02</t>
+  </si>
+  <si>
+    <t>T26.01</t>
+  </si>
+  <si>
+    <t>Store all family identifiers from a given individual</t>
+  </si>
+  <si>
+    <t>Make sure they all appear in the families table</t>
+  </si>
+  <si>
+    <t>Store children from a given family</t>
+  </si>
+  <si>
+    <t>Make sure none share a first name and birthday</t>
+  </si>
+  <si>
+    <t>T25.02</t>
+  </si>
+  <si>
+    <t>T25.01</t>
+  </si>
+  <si>
+    <t>Store spouse IDs</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">   * Inputs in blue</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>From DNC: Get work done early in Sprint so have time to debug and integrate.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>From JRD: Keep updating each other when work is done.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>From JRD: Availability issues/missing parts of weekly meetings.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>From DNC:  Hold myself accountable to the team and not assume they know what I am thinking.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>From DNC: Leverage strengths of the team.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>From DNC: Do not be afraid to ask for help.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>From DNC: I am a natural optimist but slow programmer.  Realize this at time of estimation.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>US34</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>US35</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>List recent births</t>
+    <t>Check spouse IDS unique</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -86,112 +190,517 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>DNC</t>
+    <t>From DNC: Teamwork is good.  Communication good.  No pride of authorship.  Suggestions from everyone respected.</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">T34.01 </t>
+    <t>From DNC: Not use code inline but keep in functions.  I will need to refactor some.</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Create unit test</t>
+    <t>T122.03</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>T35.01</t>
+    <t>T124.03</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Create unit test</t>
+    <t>T125.03</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>T34.02</t>
+    <t>T126.03</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Iterate over familes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>T34.03</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get spouse birth dates</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>T34.04</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>T25.02</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iterate over individuals</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>List recent births</t>
-  </si>
-  <si>
-    <t>US36</t>
-  </si>
-  <si>
-    <t>List recent deaths</t>
-  </si>
-  <si>
-    <t>US37</t>
-  </si>
-  <si>
-    <t>List recent survivors</t>
-  </si>
-  <si>
-    <t>US38</t>
-  </si>
-  <si>
-    <t>List upcoming birthdays</t>
-  </si>
-  <si>
-    <t>US39</t>
-  </si>
-  <si>
-    <t>List upcoming anniversaries</t>
-  </si>
-  <si>
-    <t>US40</t>
-  </si>
-  <si>
-    <t>Include input line numbers</t>
-  </si>
-  <si>
-    <t>US42</t>
-  </si>
-  <si>
-    <t>Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t>Create a new public repository in GitHub</t>
-  </si>
-  <si>
-    <t>T02.01</t>
+    <t>Husband in family should be male and wife in family should be female</t>
+  </si>
+  <si>
+    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>Include individual ages</t>
+  </si>
+  <si>
+    <t>Include person's current age when listing individuals</t>
+  </si>
+  <si>
+    <t>From ALW: I was too liberal with my estimated time. The time spent took longer than I initially documented. I need to be more conserative with my time spent</t>
+  </si>
+  <si>
+    <t>From ALW: Adding unit testing into the tasks list. This was additional work that wasn't created initially</t>
+  </si>
+  <si>
+    <t>From ALW: Programming wise, needed to break my US into separate functions, so unit testing could be easier</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>T14.01</t>
+  </si>
+  <si>
+    <t>store children with the same birth date in a collection</t>
+  </si>
+  <si>
+    <t>T14.02</t>
+  </si>
+  <si>
+    <t>Collect size, throw error if &gt; 5</t>
+  </si>
+  <si>
+    <t>T14.03</t>
+  </si>
+  <si>
+    <t>Create Unit Test to test</t>
+  </si>
+  <si>
+    <t>T16.01</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t>Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
+    <t>Divorce can only occur before death of both spouses</t>
+  </si>
+  <si>
+    <t>Less then 150 years old</t>
+  </si>
+  <si>
+    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>Birth before marriage of parents</t>
+  </si>
+  <si>
+    <t>Child should be born before death of mother and before 9 months after death of father</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>Marriage after 14</t>
+  </si>
+  <si>
+    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>No bigamy</t>
+  </si>
+  <si>
+    <t>Marriage should not occur during marriage to another spouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Save information about the families in a list (or collection) - assume families is always &lt; 1000</t>
+  </si>
+  <si>
+    <t>Parse program and print different identifiers</t>
+  </si>
+  <si>
+    <t>T05.01</t>
+  </si>
+  <si>
+    <t>Sort the individual collections in order by their unique identifiers</t>
+  </si>
+  <si>
+    <t>T05.02</t>
+  </si>
+  <si>
+    <t>Sort the family collections in order by their unique family identifiers</t>
+  </si>
+  <si>
+    <t>T05.03</t>
+  </si>
+  <si>
+    <t>Print the individual collections using a table format, like Python PrettyTable (example in Project 3)</t>
+  </si>
+  <si>
+    <t>T05.04</t>
+  </si>
+  <si>
+    <t>Print the family collections using a table format, like Python PrettyTable (example in Project 3)</t>
+  </si>
+  <si>
+    <t>No marriages to descendants</t>
+  </si>
+  <si>
+    <t>Parents should not marry any of their descendants</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+  </si>
+  <si>
+    <t>Siblings should not marry one another</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>First cousins should not marry</t>
+  </si>
+  <si>
+    <t>First cousins should not marry one another</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>Aunts and uncles</t>
+  </si>
+  <si>
+    <t>Aunts and uncles should not marry their nieces or nephews</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>Correct gender for role</t>
+  </si>
+  <si>
+    <t>Communicate early and often</t>
+  </si>
+  <si>
+    <t>Set next meeting before end current meeting</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Store birth date</t>
+  </si>
+  <si>
+    <t>T02.02</t>
+  </si>
+  <si>
+    <t>Store marriage date</t>
+  </si>
+  <si>
+    <t>T02.03</t>
+  </si>
+  <si>
+    <t>Compare birth and marriage dates</t>
+  </si>
+  <si>
+    <t>Store death date</t>
+  </si>
+  <si>
+    <t>T03.03</t>
+  </si>
+  <si>
+    <t>Compare birth and death dates</t>
+  </si>
+  <si>
+    <t>Store divorce date</t>
+  </si>
+  <si>
+    <t>T04.03</t>
+  </si>
+  <si>
+    <t>Compare marriage and divorce date</t>
+  </si>
+  <si>
+    <t>Find marriage record for individual</t>
+  </si>
+  <si>
+    <t>Find marriage date</t>
+  </si>
+  <si>
+    <t>Compare marriage date to birth date</t>
+  </si>
+  <si>
+    <t>T06.02</t>
+  </si>
+  <si>
+    <t>Find death date</t>
+  </si>
+  <si>
+    <t>T06.03</t>
+  </si>
+  <si>
+    <t>store children's birth dates</t>
+  </si>
+  <si>
+    <t>T12.04</t>
+  </si>
+  <si>
+    <t>Compare if mother is &lt; 60 years older than children</t>
+  </si>
+  <si>
+    <t>T12.05</t>
+  </si>
+  <si>
+    <t>Compare if father is &lt; 80 years older than children</t>
+  </si>
+  <si>
+    <t>From ALW: GitHub is working great</t>
+  </si>
+  <si>
+    <t>From ALW: Communication between the team members, appears to be working as far as I'm concerned</t>
+  </si>
+  <si>
+    <t>Birth before death</t>
+  </si>
+  <si>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>Marriage before divorce</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>Marriage before death</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>Divorce before death</t>
+  </si>
+  <si>
+    <t>JRD</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>Parents not too old</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>Multiple births &lt;= 5</t>
+  </si>
+  <si>
+    <t>Not started</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>Male last names</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>Unique IDs</t>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>Unique families by spouses</t>
+  </si>
+  <si>
+    <t>US25</t>
+  </si>
+  <si>
+    <t>Unique first names in families</t>
+  </si>
+  <si>
+    <t>US26</t>
+  </si>
+  <si>
+    <t>Corresponding entries</t>
+  </si>
+  <si>
+    <t>US28</t>
+  </si>
+  <si>
+    <t>Order siblings by age</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>List living married</t>
+  </si>
+  <si>
+    <t>US32</t>
+  </si>
+  <si>
+    <t>List multiple births</t>
+  </si>
+  <si>
+    <t>US33</t>
+  </si>
+  <si>
+    <t>List orphans</t>
+  </si>
+  <si>
+    <t>US34</t>
+  </si>
+  <si>
+    <t>List large age differences</t>
+  </si>
+  <si>
+    <t>US35</t>
+  </si>
+  <si>
+    <t>Save the fathers last name</t>
+  </si>
+  <si>
+    <t>T16.02</t>
+  </si>
+  <si>
+    <t>Compare all males in the family have the same last name</t>
+  </si>
+  <si>
+    <t>T16.03</t>
+  </si>
+  <si>
+    <t>Unique ID</t>
+  </si>
+  <si>
+    <t>T22.01</t>
+  </si>
+  <si>
+    <t>Check unique individual ID</t>
+  </si>
+  <si>
+    <t>T22.02</t>
+  </si>
+  <si>
+    <t>Check unique family ID</t>
+  </si>
+  <si>
+    <t>T24.01</t>
+  </si>
+  <si>
+    <t>T24.02</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>Dates before current date</t>
+  </si>
+  <si>
+    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t>Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Remaining Stories</t>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Code Velocity</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Est Size</t>
+  </si>
+  <si>
+    <t>Est Time</t>
+  </si>
+  <si>
+    <t>Act Size</t>
+  </si>
+  <si>
+    <t>Act Time</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>US01</t>
+  </si>
+  <si>
+    <t>Obtain GitHub account</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>T01.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each team member needs to obtain an account in GitHub </t>
+  </si>
+  <si>
+    <t>dc, jd, aw</t>
+  </si>
+  <si>
+    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>Birth before death of parents</t>
   </si>
   <si>
     <t>Create a repository, AgileMethods in GitHub</t>
@@ -457,590 +966,55 @@
     <t>T12.03</t>
   </si>
   <si>
-    <t>store children's birth dates</t>
-  </si>
-  <si>
-    <t>T12.04</t>
-  </si>
-  <si>
-    <t>Compare if mother is &lt; 60 years older than children</t>
-  </si>
-  <si>
-    <t>T12.05</t>
-  </si>
-  <si>
-    <t>Compare if father is &lt; 80 years older than children</t>
-  </si>
-  <si>
-    <t>From ALW: GitHub is working great</t>
-  </si>
-  <si>
-    <t>From ALW: Communication between the team members, appears to be working as far as I'm concerned</t>
-  </si>
-  <si>
-    <t>Birth before death</t>
-  </si>
-  <si>
-    <t>US04</t>
-  </si>
-  <si>
-    <t>Marriage before divorce</t>
-  </si>
-  <si>
-    <t>US05</t>
-  </si>
-  <si>
-    <t>Marriage before death</t>
-  </si>
-  <si>
-    <t>US06</t>
-  </si>
-  <si>
-    <t>Divorce before death</t>
-  </si>
-  <si>
-    <t>JRD</t>
-  </si>
-  <si>
-    <t>US12</t>
-  </si>
-  <si>
-    <t>Parents not too old</t>
-  </si>
-  <si>
-    <t>US14</t>
-  </si>
-  <si>
-    <t>Multiple births &lt;= 5</t>
-  </si>
-  <si>
-    <t>Not started</t>
-  </si>
-  <si>
-    <t>US16</t>
-  </si>
-  <si>
-    <t>Male last names</t>
-  </si>
-  <si>
-    <t>US22</t>
-  </si>
-  <si>
-    <t>Unique IDs</t>
-  </si>
-  <si>
-    <t>US24</t>
-  </si>
-  <si>
-    <t>Unique families by spouses</t>
-  </si>
-  <si>
-    <t>US25</t>
-  </si>
-  <si>
-    <t>Unique first names in families</t>
-  </si>
-  <si>
-    <t>US26</t>
-  </si>
-  <si>
-    <t>Corresponding entries</t>
-  </si>
-  <si>
-    <t>US28</t>
-  </si>
-  <si>
-    <t>Order siblings by age</t>
-  </si>
-  <si>
-    <t>US30</t>
-  </si>
-  <si>
-    <t>List living married</t>
-  </si>
-  <si>
-    <t>US32</t>
-  </si>
-  <si>
-    <t>List multiple births</t>
-  </si>
-  <si>
-    <t>US33</t>
-  </si>
-  <si>
-    <t>List orphans</t>
+    <t>Check birth date &lt; 30 days</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check birth dates for 2x age delta</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   * Inputs in blue</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>From DNC: Get work done early in Sprint so have time to debug and integrate.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>From JRD: Keep updating each other when work is done.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>From JRD: Availability issues/missing parts of weekly meetings.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>From DNC:  Hold myself accountable to the team and not assume they know what I am thinking.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>From DNC: Leverage strengths of the team.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>From DNC: Do not be afraid to ask for help.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>From DNC: I am a natural optimist but slow programmer.  Realize this at time of estimation.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>US34</t>
-  </si>
-  <si>
-    <t>List large age differences</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>US35</t>
-  </si>
-  <si>
-    <t>Save the fathers last name</t>
-  </si>
-  <si>
-    <t>T16.02</t>
-  </si>
-  <si>
-    <t>Compare all males in the family have the same last name</t>
-  </si>
-  <si>
-    <t>T16.03</t>
-  </si>
-  <si>
-    <t>Unique ID</t>
-  </si>
-  <si>
-    <t>T22.01</t>
-  </si>
-  <si>
-    <t>Check unique individual ID</t>
-  </si>
-  <si>
-    <t>T22.02</t>
-  </si>
-  <si>
-    <t>Check unique family ID</t>
-  </si>
-  <si>
-    <t>T24.01</t>
-  </si>
-  <si>
-    <t>T24.02</t>
-  </si>
-  <si>
-    <t>Story Description</t>
-  </si>
-  <si>
-    <t>Dates before current date</t>
-  </si>
-  <si>
-    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t>Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t>Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Remaining Stories</t>
-  </si>
-  <si>
-    <t>Story Velocity</t>
-  </si>
-  <si>
-    <t>LOC</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Code Velocity</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>Est Size</t>
-  </si>
-  <si>
-    <t>Est Time</t>
-  </si>
-  <si>
-    <t>Act Size</t>
-  </si>
-  <si>
-    <t>Act Time</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>US01</t>
-  </si>
-  <si>
-    <t>Obtain GitHub account</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>T01.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Each team member needs to obtain an account in GitHub </t>
-  </si>
-  <si>
-    <t>dc, jd, aw</t>
-  </si>
-  <si>
-    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
-  </si>
-  <si>
-    <t>US09</t>
-  </si>
-  <si>
-    <t>Birth before death of parents</t>
-  </si>
-  <si>
-    <t>Child should be born before death of mother and before 9 months after death of father</t>
-  </si>
-  <si>
-    <t>US10</t>
-  </si>
-  <si>
-    <t>Marriage after 14</t>
-  </si>
-  <si>
-    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
-    <t>US11</t>
-  </si>
-  <si>
-    <t>No bigamy</t>
-  </si>
-  <si>
-    <t>Marriage should not occur during marriage to another spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -Save information about the families in a list (or collection) - assume families is always &lt; 1000</t>
-  </si>
-  <si>
-    <t>Parse program and print different identifiers</t>
-  </si>
-  <si>
-    <t>T05.01</t>
-  </si>
-  <si>
-    <t>Sort the individual collections in order by their unique identifiers</t>
-  </si>
-  <si>
-    <t>T05.02</t>
-  </si>
-  <si>
-    <t>Sort the family collections in order by their unique family identifiers</t>
-  </si>
-  <si>
-    <t>T05.03</t>
-  </si>
-  <si>
-    <t>Print the individual collections using a table format, like Python PrettyTable (example in Project 3)</t>
-  </si>
-  <si>
-    <t>T05.04</t>
-  </si>
-  <si>
-    <t>Print the family collections using a table format, like Python PrettyTable (example in Project 3)</t>
-  </si>
-  <si>
-    <t>No marriages to descendants</t>
-  </si>
-  <si>
-    <t>Parents should not marry any of their descendants</t>
-  </si>
-  <si>
-    <t>US18</t>
-  </si>
-  <si>
-    <t>Siblings should not marry</t>
-  </si>
-  <si>
-    <t>Siblings should not marry one another</t>
-  </si>
-  <si>
-    <t>US19</t>
-  </si>
-  <si>
-    <t>First cousins should not marry</t>
-  </si>
-  <si>
-    <t>First cousins should not marry one another</t>
-  </si>
-  <si>
-    <t>US20</t>
-  </si>
-  <si>
-    <t>Aunts and uncles</t>
-  </si>
-  <si>
-    <t>Aunts and uncles should not marry their nieces or nephews</t>
-  </si>
-  <si>
-    <t>US21</t>
-  </si>
-  <si>
-    <t>Correct gender for role</t>
-  </si>
-  <si>
-    <t>Communicate early and often</t>
-  </si>
-  <si>
-    <t>Set next meeting before end current meeting</t>
-  </si>
-  <si>
-    <t>Avoid:</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Store birth date</t>
-  </si>
-  <si>
-    <t>T02.02</t>
-  </si>
-  <si>
-    <t>Store marriage date</t>
-  </si>
-  <si>
-    <t>T02.03</t>
-  </si>
-  <si>
-    <t>Compare birth and marriage dates</t>
-  </si>
-  <si>
-    <t>Store death date</t>
-  </si>
-  <si>
-    <t>T03.03</t>
-  </si>
-  <si>
-    <t>Compare birth and death dates</t>
-  </si>
-  <si>
-    <t>Store divorce date</t>
-  </si>
-  <si>
-    <t>T04.03</t>
-  </si>
-  <si>
-    <t>Compare marriage and divorce date</t>
-  </si>
-  <si>
-    <t>Find marriage record for individual</t>
-  </si>
-  <si>
-    <t>Find marriage date</t>
-  </si>
-  <si>
-    <t>Compare marriage date to birth date</t>
-  </si>
-  <si>
-    <t>T06.02</t>
-  </si>
-  <si>
-    <t>Find death date</t>
-  </si>
-  <si>
-    <t>T06.03</t>
-  </si>
-  <si>
-    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
-  </si>
-  <si>
-    <t>US27</t>
-  </si>
-  <si>
-    <t>Include individual ages</t>
-  </si>
-  <si>
-    <t>Include person's current age when listing individuals</t>
-  </si>
-  <si>
-    <t>From ALW: I was too liberal with my estimated time. The time spent took longer than I initially documented. I need to be more conserative with my time spent</t>
-  </si>
-  <si>
-    <t>From ALW: Adding unit testing into the tasks list. This was additional work that wasn't created initially</t>
-  </si>
-  <si>
-    <t>From ALW: Programming wise, needed to break my US into separate functions, so unit testing could be easier</t>
-  </si>
-  <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>T14.01</t>
-  </si>
-  <si>
-    <t>store children with the same birth date in a collection</t>
-  </si>
-  <si>
-    <t>T14.02</t>
-  </si>
-  <si>
-    <t>Collect size, throw error if &gt; 5</t>
-  </si>
-  <si>
-    <t>T14.03</t>
-  </si>
-  <si>
-    <t>Create Unit Test to test</t>
-  </si>
-  <si>
-    <t>T16.01</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t>Marriage should occur before death of either spouse</t>
-  </si>
-  <si>
-    <t>Divorce can only occur before death of both spouses</t>
-  </si>
-  <si>
-    <t>Less then 150 years old</t>
-  </si>
-  <si>
-    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
-  </si>
-  <si>
-    <t>US08</t>
-  </si>
-  <si>
-    <t>Birth before marriage of parents</t>
-  </si>
-  <si>
-    <t>List line numbers from GEDCOM source file when reporting errors</t>
-  </si>
-  <si>
-    <t>US41</t>
-  </si>
-  <si>
-    <t>Include partial dates</t>
-  </si>
-  <si>
-    <t>Accept and use dates without days or without days and months</t>
-  </si>
-  <si>
-    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
-  </si>
-  <si>
-    <t>From JRD: Not using docstrings. We should attempt to keep more consistent documentation in the future.</t>
-  </si>
-  <si>
-    <t>From JRD: Keep questioning if what we are doing is reasonale so that we keep ourselves on track.</t>
-  </si>
-  <si>
-    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
-    <t>US13</t>
-  </si>
-  <si>
-    <t>Siblings spacing</t>
-  </si>
-  <si>
-    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
-    <t>No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
-    <t>US15</t>
-  </si>
-  <si>
-    <t>Fewer than 15 siblings</t>
-  </si>
-  <si>
-    <t>There should be fewer than 15 siblings in a family</t>
-  </si>
-  <si>
-    <t>All male members of a family should have the same last name</t>
-  </si>
-  <si>
-    <t>US17</t>
-  </si>
-  <si>
-    <t>UniqueFirst Names in Families</t>
-  </si>
-  <si>
-    <t>Corresponding Entries</t>
-  </si>
-  <si>
-    <t>Store all individual identifiers in a given family</t>
-  </si>
-  <si>
-    <t>Make sure they all appear in the individuals table</t>
-  </si>
-  <si>
-    <t>T26.04</t>
-  </si>
-  <si>
-    <t>T26.03</t>
-  </si>
-  <si>
-    <t>T26.02</t>
-  </si>
-  <si>
-    <t>T26.01</t>
-  </si>
-  <si>
-    <t>Store all family identifiers from a given individual</t>
-  </si>
-  <si>
-    <t>Make sure they all appear in the families table</t>
-  </si>
-  <si>
-    <t>Store children from a given family</t>
-  </si>
-  <si>
-    <t>Make sure none share a first name and birthday</t>
-  </si>
-  <si>
-    <t>T25.02</t>
-  </si>
-  <si>
-    <t>T25.01</t>
-  </si>
-  <si>
-    <t>Store spouse IDs</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Check spouse IDS unique</t>
+    <t>List recent births</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1048,86 +1022,112 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>From DNC: Teamwork is good.  Communication good.  No pride of authorship.  Suggestions from everyone respected.</t>
+    <t>DNC</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>From DNC: Not use code inline but keep in functions.  I will need to refactor some.</t>
+    <t xml:space="preserve">T34.01 </t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>T122.03</t>
+    <t>Create unit test</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>T124.03</t>
+    <t>T35.01</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>T125.03</t>
+    <t>Create unit test</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>T126.03</t>
+    <t>T34.02</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Husband in family should be male and wife in family should be female</t>
-  </si>
-  <si>
-    <t>All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
-    <t>US23</t>
-  </si>
-  <si>
-    <t>Unique name and birth date</t>
-  </si>
-  <si>
-    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one child with the same name and birth date should appear in a family</t>
-  </si>
-  <si>
-    <t>Complete</t>
+    <t>Iterate over familes</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
-  </si>
-  <si>
-    <t>US29</t>
-  </si>
-  <si>
-    <t>List deceased</t>
-  </si>
-  <si>
-    <t>List all deceased individuals in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living married people in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>US31</t>
-  </si>
-  <si>
-    <t>List living single</t>
-  </si>
-  <si>
-    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
+    <t>T34.03</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get spouse birth dates</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>T34.04</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>T25.02</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iterate over individuals</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>List recent births</t>
+  </si>
+  <si>
+    <t>US36</t>
+  </si>
+  <si>
+    <t>List recent deaths</t>
+  </si>
+  <si>
+    <t>US37</t>
+  </si>
+  <si>
+    <t>List recent survivors</t>
+  </si>
+  <si>
+    <t>US38</t>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+  </si>
+  <si>
+    <t>US39</t>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+  </si>
+  <si>
+    <t>US40</t>
+  </si>
+  <si>
+    <t>Include input line numbers</t>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Create a new public repository in GitHub</t>
+  </si>
+  <si>
+    <t>T02.01</t>
   </si>
 </sst>
 </file>
@@ -1139,9 +1139,9 @@
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="m/d"/>
-    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="m/d"/>
+    <numFmt numFmtId="170" formatCode="@"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -1415,16 +1415,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1436,7 +1436,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1445,7 +1445,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1454,7 +1454,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1504,7 +1504,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1698,13 +1698,12 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="511114792"/>
-        <c:axId val="511122120"/>
+        <c:axId val="510881320"/>
+        <c:axId val="510793576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511114792"/>
+        <c:axId val="510881320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1735,14 +1734,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511122120"/>
+        <c:crossAx val="510793576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511122120"/>
+        <c:axId val="510793576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1784,7 +1783,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511114792"/>
+        <c:crossAx val="510881320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7.5"/>
@@ -1922,13 +1921,12 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="444483912"/>
-        <c:axId val="444487496"/>
+        <c:axId val="283067848"/>
+        <c:axId val="282651544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="444483912"/>
+        <c:axId val="283067848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1959,14 +1957,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444487496"/>
+        <c:crossAx val="282651544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="444487496"/>
+        <c:axId val="282651544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,7 +2006,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444483912"/>
+        <c:crossAx val="283067848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="6.0"/>
@@ -2070,7 +2068,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2106,7 +2104,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2125,7 +2123,7 @@
           <xdr:cNvPr id="3" name="Shape 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000003000000}"/>
+                <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2228,7 +2226,7 @@
           <xdr:cNvPr id="4" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2250,7 +2248,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2329,7 +2327,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2348,7 +2346,7 @@
           <xdr:cNvPr id="6" name="Shape 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000006000000}"/>
+                <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2451,7 +2449,7 @@
           <xdr:cNvPr id="7" name="Shape 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000007000000}"/>
+                <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2473,7 +2471,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2552,7 +2550,7 @@
         <xdr:cNvPr id="11" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2571,7 +2569,7 @@
           <xdr:cNvPr id="9" name="Shape 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000009000000}"/>
+                <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2674,7 +2672,7 @@
           <xdr:cNvPr id="10" name="Shape 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-00000A000000}"/>
+                <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2696,7 +2694,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2822,7 +2820,7 @@
         <xdr:cNvPr id="14" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-00000E000000}"/>
+              <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2841,7 +2839,7 @@
           <xdr:cNvPr id="12" name="Shape 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-00000C000000}"/>
+                <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2944,7 +2942,7 @@
           <xdr:cNvPr id="13" name="Shape 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-00000D000000}"/>
+                <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2966,7 +2964,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -3045,7 +3043,7 @@
         <xdr:cNvPr id="17" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000011000000}"/>
+              <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3064,7 +3062,7 @@
           <xdr:cNvPr id="15" name="Shape 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-00000F000000}"/>
+                <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3167,7 +3165,7 @@
           <xdr:cNvPr id="16" name="Shape 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000010000000}"/>
+                <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3189,7 +3187,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -3273,7 +3271,7 @@
         <xdr:cNvPr id="19" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0300-000013000000}"/>
+              <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4414,19 +4412,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>94</v>
+        <v>269</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>95</v>
+        <v>270</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>96</v>
+        <v>271</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>272</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>98</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -4438,53 +4436,53 @@
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>99</v>
+        <v>274</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>275</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>276</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>102</v>
+        <v>277</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>103</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>279</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>280</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>106</v>
+        <v>281</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>107</v>
+        <v>282</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>108</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>109</v>
+        <v>284</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>285</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>111</v>
+        <v>286</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>112</v>
+        <v>287</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>113</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
@@ -4513,10 +4511,10 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="4" t="s">
-        <v>114</v>
+        <v>289</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>115</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
@@ -4527,7 +4525,6 @@
       <c r="E10" s="3"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
   </hyperlinks>
@@ -4547,7 +4544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -4562,559 +4559,559 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>292</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>118</v>
+        <v>293</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="31.5" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="47" t="s">
-        <v>121</v>
+        <v>296</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>122</v>
+        <v>297</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D3" s="50"/>
       <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="47" t="s">
-        <v>124</v>
+        <v>299</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="D4" s="50"/>
       <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:5" ht="31.5" customHeight="1">
       <c r="A5" s="47" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="47" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>287</v>
+        <v>81</v>
       </c>
       <c r="D6" s="50"/>
       <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="47" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>288</v>
+        <v>82</v>
       </c>
       <c r="D7" s="50"/>
       <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:5" ht="47.25" customHeight="1">
       <c r="A8" s="52" t="s">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>289</v>
+        <v>83</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>290</v>
+        <v>84</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5" ht="31.5" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>291</v>
+        <v>85</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>292</v>
+        <v>86</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="31.5" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>214</v>
+        <v>87</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="31.5" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>216</v>
+        <v>89</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>217</v>
+        <v>90</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="31.5" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>219</v>
+        <v>92</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>220</v>
+        <v>93</v>
       </c>
       <c r="D12" s="46"/>
       <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:5" ht="47.25" customHeight="1">
       <c r="A13" s="47" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="D13" s="50"/>
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:5" ht="63" customHeight="1">
       <c r="A14" s="55" t="s">
-        <v>301</v>
+        <v>26</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>302</v>
+        <v>27</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>303</v>
+        <v>28</v>
       </c>
       <c r="D14" s="57"/>
       <c r="E14" s="57"/>
     </row>
     <row r="15" spans="1:5" ht="31.5" customHeight="1">
       <c r="A15" s="47" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>304</v>
+        <v>29</v>
       </c>
       <c r="D15" s="50"/>
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="55" t="s">
-        <v>305</v>
+        <v>30</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>306</v>
+        <v>31</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>307</v>
+        <v>32</v>
       </c>
       <c r="D16" s="57"/>
       <c r="E16" s="57"/>
     </row>
     <row r="17" spans="1:5" ht="31.5" customHeight="1">
       <c r="A17" s="47" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>308</v>
+        <v>33</v>
       </c>
       <c r="D17" s="50"/>
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="52" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>231</v>
+        <v>104</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>232</v>
+        <v>105</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>233</v>
+        <v>106</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>235</v>
+        <v>108</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>236</v>
+        <v>109</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>237</v>
+        <v>110</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>238</v>
+        <v>111</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="31.5" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>239</v>
+        <v>112</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>240</v>
+        <v>113</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>241</v>
+        <v>114</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="31.5" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>242</v>
+        <v>115</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>243</v>
+        <v>116</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>333</v>
+        <v>58</v>
       </c>
       <c r="D22" s="46"/>
       <c r="E22" s="46"/>
     </row>
     <row r="23" spans="1:5" ht="31.5" customHeight="1">
       <c r="A23" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="D23" s="50"/>
       <c r="E23" s="51"/>
     </row>
     <row r="24" spans="1:5" ht="31.5" customHeight="1">
       <c r="A24" s="55" t="s">
-        <v>335</v>
+        <v>1</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>337</v>
+        <v>3</v>
       </c>
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
     </row>
     <row r="25" spans="1:5" ht="47.25" customHeight="1">
       <c r="A25" s="47" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>338</v>
+        <v>4</v>
       </c>
       <c r="D25" s="50"/>
       <c r="E25" s="51"/>
     </row>
     <row r="26" spans="1:5" ht="31.5" customHeight="1">
       <c r="A26" s="47" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>339</v>
+        <v>5</v>
       </c>
       <c r="D26" s="50"/>
       <c r="E26" s="51"/>
     </row>
     <row r="27" spans="1:5" ht="126" customHeight="1">
       <c r="A27" s="47" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>265</v>
+        <v>59</v>
       </c>
       <c r="D27" s="50"/>
       <c r="E27" s="51"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="55" t="s">
-        <v>266</v>
+        <v>60</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>267</v>
+        <v>61</v>
       </c>
       <c r="C28" s="56" t="s">
-        <v>268</v>
+        <v>62</v>
       </c>
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
     </row>
     <row r="29" spans="1:5" ht="31.5" customHeight="1">
       <c r="A29" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>341</v>
+        <v>7</v>
       </c>
       <c r="D29" s="50"/>
       <c r="E29" s="51"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="55" t="s">
-        <v>342</v>
+        <v>8</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>343</v>
+        <v>9</v>
       </c>
       <c r="C30" s="56" t="s">
-        <v>344</v>
+        <v>10</v>
       </c>
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="47" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C31" s="49" t="s">
-        <v>345</v>
+        <v>11</v>
       </c>
       <c r="D31" s="50"/>
       <c r="E31" s="51"/>
     </row>
     <row r="32" spans="1:5" ht="31.5" customHeight="1">
       <c r="A32" s="55" t="s">
-        <v>346</v>
+        <v>12</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>347</v>
+        <v>13</v>
       </c>
       <c r="C32" s="56" t="s">
-        <v>348</v>
+        <v>14</v>
       </c>
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="47" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>349</v>
+        <v>15</v>
       </c>
       <c r="D33" s="50"/>
       <c r="E33" s="51"/>
     </row>
     <row r="34" spans="1:5" ht="31.5" customHeight="1">
       <c r="A34" s="47" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>350</v>
+        <v>16</v>
       </c>
       <c r="D34" s="50"/>
       <c r="E34" s="51"/>
     </row>
     <row r="35" spans="1:5" ht="47.25" customHeight="1">
       <c r="A35" s="47" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>351</v>
+        <v>17</v>
       </c>
       <c r="D35" s="50"/>
       <c r="E35" s="51"/>
     </row>
     <row r="36" spans="1:5" ht="31.5" customHeight="1">
       <c r="A36" s="47" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>26</v>
+        <v>332</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>280</v>
+        <v>74</v>
       </c>
       <c r="D36" s="50"/>
       <c r="E36" s="51"/>
     </row>
     <row r="37" spans="1:5" ht="31.5" customHeight="1">
       <c r="A37" s="47" t="s">
-        <v>27</v>
+        <v>333</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>28</v>
+        <v>334</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>281</v>
+        <v>75</v>
       </c>
       <c r="D37" s="50"/>
       <c r="E37" s="51"/>
     </row>
     <row r="38" spans="1:5" ht="31.5" customHeight="1">
       <c r="A38" s="47" t="s">
-        <v>29</v>
+        <v>335</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>30</v>
+        <v>336</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="D38" s="50"/>
       <c r="E38" s="51"/>
     </row>
     <row r="39" spans="1:5" ht="31.5" customHeight="1">
       <c r="A39" s="47" t="s">
-        <v>31</v>
+        <v>337</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>32</v>
+        <v>338</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="D39" s="50"/>
       <c r="E39" s="51"/>
     </row>
     <row r="40" spans="1:5" ht="31.5" customHeight="1">
       <c r="A40" s="47" t="s">
-        <v>33</v>
+        <v>339</v>
       </c>
       <c r="B40" s="48" t="s">
-        <v>34</v>
+        <v>340</v>
       </c>
       <c r="C40" s="49" t="s">
-        <v>284</v>
+        <v>78</v>
       </c>
       <c r="D40" s="50"/>
       <c r="E40" s="51"/>
     </row>
     <row r="41" spans="1:5" ht="31.5" customHeight="1">
       <c r="A41" s="47" t="s">
-        <v>35</v>
+        <v>341</v>
       </c>
       <c r="B41" s="48" t="s">
-        <v>36</v>
+        <v>342</v>
       </c>
       <c r="C41" s="49" t="s">
-        <v>293</v>
+        <v>18</v>
       </c>
       <c r="D41" s="50"/>
       <c r="E41" s="51"/>
     </row>
     <row r="42" spans="1:5" ht="31.5" customHeight="1">
       <c r="A42" s="55" t="s">
-        <v>294</v>
+        <v>19</v>
       </c>
       <c r="B42" s="55" t="s">
-        <v>295</v>
+        <v>20</v>
       </c>
       <c r="C42" s="56" t="s">
-        <v>296</v>
+        <v>21</v>
       </c>
       <c r="D42" s="57"/>
       <c r="E42" s="57"/>
     </row>
     <row r="43" spans="1:5" ht="31.5" customHeight="1">
       <c r="A43" s="58" t="s">
-        <v>37</v>
+        <v>343</v>
       </c>
       <c r="B43" s="59" t="s">
-        <v>38</v>
+        <v>344</v>
       </c>
       <c r="C43" s="60" t="s">
-        <v>297</v>
+        <v>22</v>
       </c>
       <c r="D43" s="61"/>
       <c r="E43" s="62"/>
@@ -5154,19 +5151,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>116</v>
+        <v>291</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>117</v>
+        <v>292</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>118</v>
+        <v>293</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>119</v>
+        <v>294</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>120</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -5189,10 +5186,10 @@
         <v>Birth before marriage</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>274</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>123</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
@@ -5200,16 +5197,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>299</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>274</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>123</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
@@ -5225,10 +5222,10 @@
         <v>Marriage before divorce</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>109</v>
+        <v>284</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>123</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
@@ -5236,16 +5233,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>109</v>
+        <v>284</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>123</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
@@ -5261,10 +5258,10 @@
         <v>Divorce before death</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>123</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
@@ -5280,10 +5277,10 @@
         <v>Parents not too old</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>123</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
@@ -5306,10 +5303,10 @@
         <v>Multiple births &lt;= 5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>109</v>
+        <v>284</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>123</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1">
@@ -5325,10 +5322,10 @@
         <v>Male last names</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>109</v>
+        <v>284</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>123</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
@@ -5344,10 +5341,10 @@
         <v>Unique IDs</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>99</v>
+        <v>274</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>123</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
@@ -5363,10 +5360,10 @@
         <v>Unique families by spouses</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>99</v>
+        <v>274</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>123</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
@@ -5382,10 +5379,10 @@
         <v>Unique first names in families</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>123</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
@@ -5401,10 +5398,10 @@
         <v>Corresponding entries</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>123</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
@@ -5427,10 +5424,10 @@
         <v>Order siblings by age</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>109</v>
+        <v>284</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
@@ -5446,10 +5443,10 @@
         <v>List living married</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>59</v>
+        <v>234</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1">
@@ -5465,10 +5462,10 @@
         <v>List multiple births</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>272</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
@@ -5484,10 +5481,10 @@
         <v>List orphans</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>272</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1">
@@ -5503,10 +5500,10 @@
         <v>List large age differences</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>99</v>
+        <v>274</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
@@ -5522,10 +5519,10 @@
         <v>List recent births</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>99</v>
+        <v>274</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1">
@@ -5626,10 +5623,8 @@
       <c r="E29" s="3"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5661,7 +5656,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>39</v>
+        <v>345</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5673,7 +5668,7 @@
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>40</v>
+        <v>346</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5685,7 +5680,7 @@
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>41</v>
+        <v>347</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -5707,7 +5702,7 @@
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>42</v>
+        <v>348</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5719,7 +5714,7 @@
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>43</v>
+        <v>349</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -5741,7 +5736,7 @@
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -5803,31 +5798,31 @@
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>116</v>
+        <v>291</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B15" s="13">
         <v>41426</v>
@@ -5845,7 +5840,7 @@
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B16" s="13">
         <v>41438</v>
@@ -5871,7 +5866,7 @@
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B17" s="13">
         <v>41452</v>
@@ -5897,7 +5892,7 @@
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B18" s="13">
         <v>41466</v>
@@ -5923,7 +5918,7 @@
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B19" s="13">
         <v>41487</v>
@@ -6148,7 +6143,6 @@
       <c r="H39" s="3"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
@@ -6167,7 +6161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -6185,22 +6179,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -6298,7 +6292,7 @@
     </row>
     <row r="8" spans="1:7" ht="12.75" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>2</v>
+        <v>308</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -6470,6 +6464,7 @@
       <c r="G26" s="3"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
@@ -6506,55 +6501,55 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>117</v>
+        <v>292</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>118</v>
+        <v>293</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>119</v>
+        <v>294</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>120</v>
+        <v>295</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="I2" s="32">
         <v>41426</v>
@@ -6562,16 +6557,16 @@
     </row>
     <row r="3" spans="1:9" ht="38.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -6592,14 +6587,14 @@
     </row>
     <row r="5" spans="1:9" ht="25.5" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>121</v>
+        <v>296</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>44</v>
+        <v>350</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -6611,16 +6606,16 @@
     </row>
     <row r="6" spans="1:9" ht="25.5" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>351</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>222</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -6643,14 +6638,14 @@
     </row>
     <row r="8" spans="1:9" ht="25.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>124</v>
+        <v>299</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>48</v>
+        <v>223</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -6662,16 +6657,16 @@
     </row>
     <row r="9" spans="1:9" ht="25.5" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>224</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>222</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -6683,16 +6678,16 @@
     </row>
     <row r="10" spans="1:9" ht="51" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>226</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>52</v>
+        <v>227</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>222</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -6715,16 +6710,16 @@
     </row>
     <row r="12" spans="1:9" ht="25.5" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>53</v>
+        <v>228</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>229</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -6736,16 +6731,16 @@
     </row>
     <row r="13" spans="1:9" ht="51" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>56</v>
+        <v>231</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>222</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -6757,16 +6752,16 @@
     </row>
     <row r="14" spans="1:9" ht="51" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>57</v>
+        <v>232</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>221</v>
+        <v>94</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>222</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -6789,16 +6784,16 @@
     </row>
     <row r="16" spans="1:9" ht="25.5" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>222</v>
+        <v>95</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>104</v>
+        <v>279</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -6810,16 +6805,16 @@
     </row>
     <row r="17" spans="1:9" ht="38.25" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>223</v>
+        <v>96</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>224</v>
+        <v>97</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>104</v>
+        <v>279</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -6831,16 +6826,16 @@
     </row>
     <row r="18" spans="1:9" ht="38.25" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>225</v>
+        <v>98</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>104</v>
+        <v>279</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -6852,16 +6847,16 @@
     </row>
     <row r="19" spans="1:9" ht="63.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>227</v>
+        <v>100</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>228</v>
+        <v>101</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>104</v>
+        <v>279</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -6873,16 +6868,16 @@
     </row>
     <row r="20" spans="1:9" ht="51" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>229</v>
+        <v>102</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>230</v>
+        <v>103</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>104</v>
+        <v>279</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -6905,16 +6900,16 @@
     </row>
     <row r="22" spans="1:9" ht="38.25" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>54</v>
+        <v>229</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -6926,16 +6921,16 @@
     </row>
     <row r="23" spans="1:9" ht="38.25" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>84</v>
+        <v>259</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>85</v>
+        <v>260</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>54</v>
+        <v>229</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -6958,16 +6953,16 @@
     </row>
     <row r="25" spans="1:9" ht="25.5" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>87</v>
+        <v>262</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -6979,16 +6974,16 @@
     </row>
     <row r="26" spans="1:9" ht="25.5" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>88</v>
+        <v>263</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>89</v>
+        <v>264</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -7067,7 +7062,7 @@
     <row r="33" spans="1:9" ht="15" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="29" t="s">
-        <v>90</v>
+        <v>265</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -7091,7 +7086,7 @@
     <row r="35" spans="1:9" ht="15" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="29" t="s">
-        <v>91</v>
+        <v>266</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -7104,7 +7099,7 @@
     <row r="36" spans="1:9" ht="25.5" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="s">
-        <v>92</v>
+        <v>267</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -7117,7 +7112,7 @@
     <row r="37" spans="1:9" ht="25.5" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="s">
-        <v>93</v>
+        <v>268</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -7130,7 +7125,7 @@
     <row r="38" spans="1:9" ht="25.5" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
-        <v>244</v>
+        <v>117</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -7143,7 +7138,7 @@
     <row r="39" spans="1:9" ht="25.5" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
-        <v>245</v>
+        <v>118</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -7167,7 +7162,7 @@
     <row r="41" spans="1:9" ht="15" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="29" t="s">
-        <v>246</v>
+        <v>119</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -7178,6 +7173,7 @@
       <c r="I41" s="10"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -7195,7 +7191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:IV47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -7214,31 +7210,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>117</v>
+        <v>292</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>118</v>
+        <v>293</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>119</v>
+        <v>294</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>120</v>
+        <v>295</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
@@ -7262,10 +7258,10 @@
         <v>Birth before marriage</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>274</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>123</v>
+        <v>298</v>
       </c>
       <c r="E3" s="6">
         <v>20</v>
@@ -7280,15 +7276,15 @@
         <v>60</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>247</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>351</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>248</v>
+        <v>121</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="35"/>
@@ -7300,10 +7296,10 @@
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>249</v>
+        <v>122</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>250</v>
+        <v>123</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="35"/>
@@ -7315,10 +7311,10 @@
     </row>
     <row r="6" spans="1:9" ht="25.5" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>252</v>
+        <v>125</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="35"/>
@@ -7341,16 +7337,16 @@
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>124</v>
+        <v>299</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>99</v>
+        <v>274</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>123</v>
+        <v>298</v>
       </c>
       <c r="E8" s="6">
         <v>20</v>
@@ -7365,15 +7361,15 @@
         <v>60</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>247</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>224</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>248</v>
+        <v>121</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -7385,10 +7381,10 @@
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>226</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -7400,10 +7396,10 @@
     </row>
     <row r="11" spans="1:9" ht="25.5" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>255</v>
+        <v>128</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -7434,10 +7430,10 @@
         <v>Marriage before divorce</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>109</v>
+        <v>284</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>123</v>
+        <v>298</v>
       </c>
       <c r="E13" s="6">
         <v>20</v>
@@ -7452,15 +7448,15 @@
         <v>20</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>247</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>250</v>
+        <v>123</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -7472,10 +7468,10 @@
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>57</v>
+        <v>232</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -7487,10 +7483,10 @@
     </row>
     <row r="16" spans="1:9" ht="25.5" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>257</v>
+        <v>130</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>258</v>
+        <v>131</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -7513,16 +7509,16 @@
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>109</v>
+        <v>284</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>123</v>
+        <v>298</v>
       </c>
       <c r="E18" s="6">
         <v>20</v>
@@ -7537,15 +7533,15 @@
         <v>30</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>247</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="25.5" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>223</v>
+        <v>96</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -7557,10 +7553,10 @@
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>225</v>
+        <v>98</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>260</v>
+        <v>133</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -7572,10 +7568,10 @@
     </row>
     <row r="21" spans="1:9" ht="25.5" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>227</v>
+        <v>100</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>261</v>
+        <v>134</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -7606,10 +7602,10 @@
         <v>Divorce before death</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>123</v>
+        <v>298</v>
       </c>
       <c r="E23" s="6">
         <v>10</v>
@@ -7624,15 +7620,15 @@
         <v>30</v>
       </c>
       <c r="I23" s="39" t="s">
-        <v>247</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>84</v>
+        <v>259</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -7644,10 +7640,10 @@
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>262</v>
+        <v>135</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>263</v>
+        <v>136</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -7659,10 +7655,10 @@
     </row>
     <row r="26" spans="1:9" ht="25.5" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>264</v>
+        <v>137</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -7693,10 +7689,10 @@
         <v>Parents not too old</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>123</v>
+        <v>298</v>
       </c>
       <c r="E28" s="6">
         <v>20</v>
@@ -7711,15 +7707,15 @@
         <v>30</v>
       </c>
       <c r="I28" s="39" t="s">
-        <v>247</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>127</v>
+        <v>302</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -7731,10 +7727,10 @@
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>128</v>
+        <v>303</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>129</v>
+        <v>304</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -7746,10 +7742,10 @@
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>130</v>
+        <v>305</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -7761,10 +7757,10 @@
     </row>
     <row r="32" spans="1:9" ht="25.5" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -7776,10 +7772,10 @@
     </row>
     <row r="33" spans="1:256" ht="25.5" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -7803,7 +7799,7 @@
     <row r="35" spans="1:256" ht="15" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="29" t="s">
-        <v>90</v>
+        <v>265</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -7833,7 +7829,7 @@
     <row r="37" spans="1:256" ht="15" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="29" t="s">
-        <v>91</v>
+        <v>266</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -7846,7 +7842,7 @@
     <row r="38" spans="1:256" ht="25.5" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -7859,7 +7855,7 @@
     <row r="39" spans="1:256" ht="63.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -7872,7 +7868,7 @@
     <row r="40" spans="1:256" ht="63.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="66" t="s">
-        <v>327</v>
+        <v>52</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -8132,7 +8128,7 @@
     <row r="41" spans="1:256" ht="59" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="33" t="s">
-        <v>299</v>
+        <v>24</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -8145,7 +8141,7 @@
     <row r="42" spans="1:256" ht="15" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="29" t="s">
-        <v>246</v>
+        <v>119</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -8158,7 +8154,7 @@
     <row r="43" spans="1:256" ht="89.25" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="33" t="s">
-        <v>269</v>
+        <v>63</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -8171,7 +8167,7 @@
     <row r="44" spans="1:256" ht="51" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="33" t="s">
-        <v>270</v>
+        <v>64</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -8184,7 +8180,7 @@
     <row r="45" spans="1:256" ht="63.75" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="33" t="s">
-        <v>271</v>
+        <v>65</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -8197,7 +8193,7 @@
     <row r="46" spans="1:256" ht="63.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="33" t="s">
-        <v>298</v>
+        <v>23</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -8457,7 +8453,7 @@
     <row r="47" spans="1:256" ht="63.75" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="33" t="s">
-        <v>328</v>
+        <v>53</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -8715,6 +8711,7 @@
       <c r="IV47" s="44"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
@@ -8745,46 +8742,46 @@
   <sheetData>
     <row r="1" spans="1:256" ht="25.5" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>117</v>
+        <v>292</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>118</v>
+        <v>293</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>119</v>
+        <v>294</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>120</v>
+        <v>295</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:256" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>Backlog!$C$10</f>
         <v>Multiple births &lt;= 5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>284</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E2" s="6">
         <v>60</v>
@@ -8799,56 +8796,56 @@
         <v>90</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>58</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="38.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>273</v>
+        <v>67</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>274</v>
+        <v>68</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:256" ht="25.5" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>275</v>
+        <v>69</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>276</v>
+        <v>70</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:256" ht="25.5" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>277</v>
+        <v>71</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>278</v>
+        <v>72</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -8866,17 +8863,17 @@
     </row>
     <row r="7" spans="1:256" ht="15" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>Backlog!$C$11</f>
         <v>Male last names</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>109</v>
+        <v>284</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E7" s="6">
         <v>60</v>
@@ -8891,15 +8888,15 @@
         <v>90</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>58</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="25.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>279</v>
+        <v>73</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -8911,10 +8908,10 @@
     </row>
     <row r="9" spans="1:256" ht="38.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -8926,10 +8923,10 @@
     </row>
     <row r="10" spans="1:256" ht="25.5" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>278</v>
+        <v>72</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -8952,16 +8949,16 @@
     </row>
     <row r="12" spans="1:256" ht="25.5" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>326</v>
+        <v>51</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>340</v>
+        <v>6</v>
       </c>
       <c r="E12" s="6">
         <v>10</v>
@@ -8976,15 +8973,15 @@
         <v>75</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>58</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:256" ht="25.5" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -8996,10 +8993,10 @@
     </row>
     <row r="14" spans="1:256" ht="25.5" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -9011,10 +9008,10 @@
     </row>
     <row r="15" spans="1:256" ht="25.5" customHeight="1">
       <c r="A15" s="67" t="s">
-        <v>329</v>
+        <v>54</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>278</v>
+        <v>72</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -9284,16 +9281,16 @@
     </row>
     <row r="17" spans="1:256" ht="25.5" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>326</v>
+        <v>51</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>340</v>
+        <v>6</v>
       </c>
       <c r="E17" s="6">
         <v>60</v>
@@ -9308,15 +9305,15 @@
         <v>120</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>58</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:256" ht="25.5" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>324</v>
+        <v>49</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -9328,10 +9325,10 @@
     </row>
     <row r="19" spans="1:256" ht="25.5" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>325</v>
+        <v>50</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -9343,10 +9340,10 @@
     </row>
     <row r="20" spans="1:256" ht="25.5" customHeight="1">
       <c r="A20" s="67" t="s">
-        <v>330</v>
+        <v>55</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>278</v>
+        <v>72</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -9616,16 +9613,16 @@
     </row>
     <row r="22" spans="1:256" ht="25.5" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>310</v>
+        <v>35</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D22" s="63" t="s">
-        <v>340</v>
+        <v>6</v>
       </c>
       <c r="E22" s="6">
         <v>30</v>
@@ -9640,7 +9637,7 @@
         <v>30</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>58</v>
+        <v>233</v>
       </c>
       <c r="J22" s="44"/>
       <c r="K22" s="44"/>
@@ -9892,10 +9889,10 @@
     </row>
     <row r="23" spans="1:256" ht="25.5" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>323</v>
+        <v>48</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>320</v>
+        <v>45</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -10154,10 +10151,10 @@
     </row>
     <row r="24" spans="1:256" ht="25.5" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>322</v>
+        <v>47</v>
       </c>
       <c r="B24" s="64" t="s">
-        <v>321</v>
+        <v>46</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -10416,10 +10413,10 @@
     </row>
     <row r="25" spans="1:256" ht="25.5" customHeight="1">
       <c r="A25" s="67" t="s">
-        <v>331</v>
+        <v>56</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>278</v>
+        <v>72</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -10936,16 +10933,16 @@
     </row>
     <row r="27" spans="1:256" ht="25.5" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>311</v>
+        <v>36</v>
       </c>
       <c r="C27" s="65" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D27" s="63" t="s">
-        <v>340</v>
+        <v>6</v>
       </c>
       <c r="E27" s="6">
         <v>25</v>
@@ -10960,7 +10957,7 @@
         <v>35</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>58</v>
+        <v>233</v>
       </c>
       <c r="J27" s="44"/>
       <c r="K27" s="44"/>
@@ -11212,10 +11209,10 @@
     </row>
     <row r="28" spans="1:256" ht="25.5" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>317</v>
+        <v>42</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>312</v>
+        <v>37</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -11474,10 +11471,10 @@
     </row>
     <row r="29" spans="1:256" ht="25.5" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>316</v>
+        <v>41</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>313</v>
+        <v>38</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -11736,10 +11733,10 @@
     </row>
     <row r="30" spans="1:256" ht="25.5" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>315</v>
+        <v>40</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -11998,10 +11995,10 @@
     </row>
     <row r="31" spans="1:256" ht="25.5" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>314</v>
+        <v>39</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>319</v>
+        <v>44</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -12260,10 +12257,10 @@
     </row>
     <row r="32" spans="1:256" ht="25.5" customHeight="1">
       <c r="A32" s="67" t="s">
-        <v>332</v>
+        <v>57</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>278</v>
+        <v>72</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -12780,7 +12777,7 @@
     </row>
     <row r="34" spans="1:256" ht="12.75" customHeight="1">
       <c r="A34" s="71" t="s">
-        <v>82</v>
+        <v>257</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -12800,7 +12797,7 @@
     <row r="35" spans="1:256" ht="12.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="69" t="s">
-        <v>4</v>
+        <v>310</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -12813,7 +12810,7 @@
     <row r="36" spans="1:256" ht="12.75" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="69" t="s">
-        <v>3</v>
+        <v>309</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -13073,7 +13070,7 @@
     <row r="37" spans="1:256" ht="12.75" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="69" t="s">
-        <v>7</v>
+        <v>313</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -13354,7 +13351,7 @@
     </row>
     <row r="40" spans="1:256" ht="12.75" customHeight="1">
       <c r="A40" s="71" t="s">
-        <v>246</v>
+        <v>119</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -13368,7 +13365,7 @@
     <row r="41" spans="1:256" ht="12.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="69" t="s">
-        <v>5</v>
+        <v>311</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -13381,7 +13378,7 @@
     <row r="42" spans="1:256" ht="12.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="69" t="s">
-        <v>6</v>
+        <v>312</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -13641,7 +13638,7 @@
     <row r="43" spans="1:256" ht="12.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="65" t="s">
-        <v>8</v>
+        <v>314</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -13654,7 +13651,7 @@
     <row r="44" spans="1:256" ht="12.75" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="65" t="s">
-        <v>9</v>
+        <v>315</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -13665,9 +13662,9 @@
       <c r="I44" s="3"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -13696,31 +13693,31 @@
   <sheetData>
     <row r="1" spans="1:256" ht="25.5" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>117</v>
+        <v>292</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>118</v>
+        <v>293</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>119</v>
+        <v>294</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>120</v>
+        <v>295</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:256" ht="15" customHeight="1">
@@ -13733,10 +13730,10 @@
         <v>Order siblings by age</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>109</v>
+        <v>284</v>
       </c>
       <c r="D2" s="69" t="s">
-        <v>272</v>
+        <v>66</v>
       </c>
       <c r="E2" s="3">
         <v>60</v>
@@ -13750,10 +13747,10 @@
     </row>
     <row r="3" spans="1:256" ht="15" customHeight="1">
       <c r="A3" s="70" t="s">
-        <v>60</v>
+        <v>235</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>62</v>
+        <v>237</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
@@ -14012,10 +14009,10 @@
     </row>
     <row r="4" spans="1:256" ht="15" customHeight="1">
       <c r="A4" s="70" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>63</v>
+        <v>238</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
@@ -14274,10 +14271,10 @@
     </row>
     <row r="5" spans="1:256" ht="15" customHeight="1">
       <c r="A5" s="70" t="s">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="B5" s="70" t="s">
-        <v>66</v>
+        <v>241</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="69"/>
@@ -14802,10 +14799,10 @@
         <v>List living married</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>109</v>
+        <v>284</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>272</v>
+        <v>66</v>
       </c>
       <c r="E7" s="3">
         <v>60</v>
@@ -14819,10 +14816,10 @@
     </row>
     <row r="8" spans="1:256" ht="15" customHeight="1">
       <c r="A8" s="69" t="s">
-        <v>64</v>
+        <v>239</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -14834,10 +14831,10 @@
     </row>
     <row r="9" spans="1:256" ht="15" customHeight="1">
       <c r="A9" s="69" t="s">
-        <v>69</v>
+        <v>244</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>68</v>
+        <v>243</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -14849,10 +14846,10 @@
     </row>
     <row r="10" spans="1:256" ht="15" customHeight="1">
       <c r="A10" s="69" t="s">
-        <v>70</v>
+        <v>245</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>66</v>
+        <v>241</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -14875,16 +14872,16 @@
     </row>
     <row r="12" spans="1:256" ht="15" customHeight="1">
       <c r="A12" s="71" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>272</v>
+        <v>66</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -14898,10 +14895,10 @@
     </row>
     <row r="13" spans="1:256" ht="15" customHeight="1">
       <c r="A13" s="69" t="s">
-        <v>73</v>
+        <v>248</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>74</v>
+        <v>249</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -14913,10 +14910,10 @@
     </row>
     <row r="14" spans="1:256" ht="15" customHeight="1">
       <c r="A14" s="69" t="s">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>66</v>
+        <v>241</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -14939,16 +14936,16 @@
     </row>
     <row r="16" spans="1:256" ht="12.75" customHeight="1">
       <c r="A16" s="71" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B16" s="69" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="C16" s="69" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>272</v>
+        <v>66</v>
       </c>
       <c r="E16" s="3">
         <v>30</v>
@@ -14962,10 +14959,10 @@
     </row>
     <row r="17" spans="1:256" ht="12.75" customHeight="1">
       <c r="A17" s="69" t="s">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>77</v>
+        <v>252</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -14977,10 +14974,10 @@
     </row>
     <row r="18" spans="1:256" ht="12.75" customHeight="1">
       <c r="A18" s="69" t="s">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -14992,10 +14989,10 @@
     </row>
     <row r="19" spans="1:256" ht="12.75" customHeight="1">
       <c r="A19" s="69" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>81</v>
+        <v>256</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -15018,16 +15015,16 @@
     </row>
     <row r="21" spans="1:256" ht="12.75" customHeight="1">
       <c r="A21" s="71" t="s">
-        <v>10</v>
+        <v>316</v>
       </c>
       <c r="B21" s="72" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>13</v>
+        <v>319</v>
       </c>
       <c r="D21" s="69" t="s">
-        <v>272</v>
+        <v>66</v>
       </c>
       <c r="E21" s="3">
         <v>45</v>
@@ -15041,10 +15038,10 @@
     </row>
     <row r="22" spans="1:256" ht="12.75" customHeight="1">
       <c r="A22" s="65" t="s">
-        <v>15</v>
+        <v>321</v>
       </c>
       <c r="B22" s="65" t="s">
-        <v>16</v>
+        <v>322</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -15056,10 +15053,10 @@
     </row>
     <row r="23" spans="1:256" ht="12.75" customHeight="1">
       <c r="A23" s="65" t="s">
-        <v>19</v>
+        <v>325</v>
       </c>
       <c r="B23" s="65" t="s">
-        <v>20</v>
+        <v>326</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -15071,10 +15068,10 @@
     </row>
     <row r="24" spans="1:256" ht="12.75" customHeight="1">
       <c r="A24" s="65" t="s">
-        <v>21</v>
+        <v>327</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>22</v>
+        <v>328</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -15333,10 +15330,10 @@
     </row>
     <row r="25" spans="1:256" ht="12.75" customHeight="1">
       <c r="A25" s="65" t="s">
-        <v>23</v>
+        <v>329</v>
       </c>
       <c r="B25" s="65" t="s">
-        <v>1</v>
+        <v>307</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -15606,16 +15603,16 @@
     </row>
     <row r="27" spans="1:256" ht="12.75" customHeight="1">
       <c r="A27" s="71" t="s">
-        <v>11</v>
+        <v>317</v>
       </c>
       <c r="B27" s="67" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="C27" s="65" t="s">
-        <v>14</v>
+        <v>320</v>
       </c>
       <c r="D27" s="69" t="s">
-        <v>272</v>
+        <v>66</v>
       </c>
       <c r="E27" s="3">
         <v>30</v>
@@ -15629,10 +15626,10 @@
     </row>
     <row r="28" spans="1:256" ht="12.75" customHeight="1">
       <c r="A28" s="65" t="s">
-        <v>17</v>
+        <v>323</v>
       </c>
       <c r="B28" s="65" t="s">
-        <v>18</v>
+        <v>324</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -15644,10 +15641,10 @@
     </row>
     <row r="29" spans="1:256" ht="12.75" customHeight="1">
       <c r="A29" s="65" t="s">
-        <v>24</v>
+        <v>330</v>
       </c>
       <c r="B29" s="65" t="s">
-        <v>25</v>
+        <v>331</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -15659,10 +15656,10 @@
     </row>
     <row r="30" spans="1:256" ht="12.75" customHeight="1">
       <c r="A30" s="65" t="s">
-        <v>24</v>
+        <v>330</v>
       </c>
       <c r="B30" s="65" t="s">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -15687,7 +15684,6 @@
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -15713,31 +15709,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>117</v>
+        <v>292</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>118</v>
+        <v>293</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>119</v>
+        <v>294</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>120</v>
+        <v>295</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">

--- a/TeamNick_Jeremy_AmieReport.xlsx
+++ b/TeamNick_Jeremy_AmieReport.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28410"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickcohron/Stevens/Agile Methods/Project/AgileMethods/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="14640" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21600" windowHeight="14640" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,9 +23,12 @@
     <sheet name="Sprint4" sheetId="9" r:id="rId9"/>
     <sheet name="Stories" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -28,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="352">
   <si>
     <t>All individual IDs should be unique and all family IDs should be unique</t>
   </si>
@@ -1133,17 +1141,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="m/d"/>
-    <numFmt numFmtId="170" formatCode="@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="m/d"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1194,6 +1197,12 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Verdana"/>
     </font>
   </fonts>
@@ -1392,8 +1401,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1415,16 +1425,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1436,7 +1446,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1445,7 +1455,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1454,7 +1464,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1504,13 +1514,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1594,7 +1605,15 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1611,6 +1630,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1692,23 +1712,36 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F845-4DB0-BF4B-61C3F2B72AD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="510881320"/>
-        <c:axId val="510793576"/>
+        <c:smooth val="0"/>
+        <c:axId val="-925857664"/>
+        <c:axId val="-1005852464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="510881320"/>
+        <c:axId val="-925857664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:ln w="12700" cap="flat">
@@ -1734,17 +1767,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510793576"/>
+        <c:crossAx val="-1005852464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="510793576"/>
+        <c:axId val="-1005852464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1758,6 +1792,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="12700" cap="flat">
@@ -1783,7 +1819,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510881320"/>
+        <c:crossAx val="-925857664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7.5"/>
@@ -1829,7 +1865,15 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1846,6 +1890,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1915,23 +1960,36 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-60FF-4851-ABD9-FA91BB13A616}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="283067848"/>
-        <c:axId val="282651544"/>
+        <c:smooth val="0"/>
+        <c:axId val="-925135392"/>
+        <c:axId val="-925132912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="283067848"/>
+        <c:axId val="-925135392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:ln w="12700" cap="flat">
@@ -1957,17 +2015,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282651544"/>
+        <c:crossAx val="-925132912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="282651544"/>
+        <c:axId val="-925132912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1981,6 +2040,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="12700" cap="flat">
@@ -2006,7 +2067,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283067848"/>
+        <c:crossAx val="-925135392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="6.0"/>
@@ -2068,7 +2129,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2104,7 +2165,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2123,7 +2184,7 @@
           <xdr:cNvPr id="3" name="Shape 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2226,7 +2287,7 @@
           <xdr:cNvPr id="4" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2248,7 +2309,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2327,7 +2388,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2346,7 +2407,7 @@
           <xdr:cNvPr id="6" name="Shape 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2449,7 +2510,7 @@
           <xdr:cNvPr id="7" name="Shape 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2471,7 +2532,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2550,7 +2611,7 @@
         <xdr:cNvPr id="11" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2569,7 +2630,7 @@
           <xdr:cNvPr id="9" name="Shape 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2672,7 +2733,7 @@
           <xdr:cNvPr id="10" name="Shape 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2694,7 +2755,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2820,7 +2881,7 @@
         <xdr:cNvPr id="14" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2839,7 +2900,7 @@
           <xdr:cNvPr id="12" name="Shape 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2942,7 +3003,7 @@
           <xdr:cNvPr id="13" name="Shape 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2964,7 +3025,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -3043,7 +3104,7 @@
         <xdr:cNvPr id="17" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3062,7 +3123,7 @@
           <xdr:cNvPr id="15" name="Shape 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3165,7 +3226,7 @@
           <xdr:cNvPr id="16" name="Shape 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000010000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3187,7 +3248,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -3271,7 +3332,7 @@
         <xdr:cNvPr id="19" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4396,21 +4457,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.5" style="1" customWidth="1"/>
     <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>269</v>
       </c>
@@ -4427,14 +4488,14 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>274</v>
       </c>
@@ -4451,7 +4512,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>279</v>
       </c>
@@ -4468,7 +4529,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>284</v>
       </c>
@@ -4485,28 +4546,28 @@
         <v>288</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4517,7 +4578,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4532,32 +4593,27 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="44" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="44" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="44" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="44" customWidth="1"/>
     <col min="4" max="5" width="11" style="44" customWidth="1"/>
     <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>292</v>
       </c>
@@ -4570,7 +4626,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="31.5" customHeight="1">
+    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>211</v>
       </c>
@@ -4583,7 +4639,7 @@
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="47" t="s">
         <v>296</v>
       </c>
@@ -4596,7 +4652,7 @@
       <c r="D3" s="50"/>
       <c r="E3" s="51"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="47" t="s">
         <v>299</v>
       </c>
@@ -4609,7 +4665,7 @@
       <c r="D4" s="50"/>
       <c r="E4" s="51"/>
     </row>
-    <row r="5" spans="1:5" ht="31.5" customHeight="1">
+    <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="47" t="s">
         <v>146</v>
       </c>
@@ -4622,7 +4678,7 @@
       <c r="D5" s="50"/>
       <c r="E5" s="51"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="47" t="s">
         <v>148</v>
       </c>
@@ -4635,7 +4691,7 @@
       <c r="D6" s="50"/>
       <c r="E6" s="51"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="47" t="s">
         <v>150</v>
       </c>
@@ -4648,7 +4704,7 @@
       <c r="D7" s="50"/>
       <c r="E7" s="51"/>
     </row>
-    <row r="8" spans="1:5" ht="47.25" customHeight="1">
+    <row r="8" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="52" t="s">
         <v>261</v>
       </c>
@@ -4661,7 +4717,7 @@
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:5" ht="31.5" customHeight="1">
+    <row r="9" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>85</v>
       </c>
@@ -4674,7 +4730,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="31.5" customHeight="1">
+    <row r="10" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>219</v>
       </c>
@@ -4687,7 +4743,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="31.5" customHeight="1">
+    <row r="11" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>88</v>
       </c>
@@ -4700,7 +4756,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="31.5" customHeight="1">
+    <row r="12" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
         <v>91</v>
       </c>
@@ -4713,7 +4769,7 @@
       <c r="D12" s="46"/>
       <c r="E12" s="46"/>
     </row>
-    <row r="13" spans="1:5" ht="47.25" customHeight="1">
+    <row r="13" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="47" t="s">
         <v>153</v>
       </c>
@@ -4726,7 +4782,7 @@
       <c r="D13" s="50"/>
       <c r="E13" s="51"/>
     </row>
-    <row r="14" spans="1:5" ht="63" customHeight="1">
+    <row r="14" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="55" t="s">
         <v>26</v>
       </c>
@@ -4739,7 +4795,7 @@
       <c r="D14" s="57"/>
       <c r="E14" s="57"/>
     </row>
-    <row r="15" spans="1:5" ht="31.5" customHeight="1">
+    <row r="15" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="47" t="s">
         <v>155</v>
       </c>
@@ -4752,7 +4808,7 @@
       <c r="D15" s="50"/>
       <c r="E15" s="51"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="55" t="s">
         <v>30</v>
       </c>
@@ -4765,7 +4821,7 @@
       <c r="D16" s="57"/>
       <c r="E16" s="57"/>
     </row>
-    <row r="17" spans="1:5" ht="31.5" customHeight="1">
+    <row r="17" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="47" t="s">
         <v>158</v>
       </c>
@@ -4778,7 +4834,7 @@
       <c r="D17" s="50"/>
       <c r="E17" s="51"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="52" t="s">
         <v>34</v>
       </c>
@@ -4791,7 +4847,7 @@
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>106</v>
       </c>
@@ -4804,7 +4860,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>109</v>
       </c>
@@ -4817,7 +4873,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="31.5" customHeight="1">
+    <row r="21" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>112</v>
       </c>
@@ -4830,7 +4886,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="31.5" customHeight="1">
+    <row r="22" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
         <v>115</v>
       </c>
@@ -4843,7 +4899,7 @@
       <c r="D22" s="46"/>
       <c r="E22" s="46"/>
     </row>
-    <row r="23" spans="1:5" ht="31.5" customHeight="1">
+    <row r="23" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="47" t="s">
         <v>160</v>
       </c>
@@ -4856,7 +4912,7 @@
       <c r="D23" s="50"/>
       <c r="E23" s="51"/>
     </row>
-    <row r="24" spans="1:5" ht="31.5" customHeight="1">
+    <row r="24" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="55" t="s">
         <v>1</v>
       </c>
@@ -4869,7 +4925,7 @@
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
     </row>
-    <row r="25" spans="1:5" ht="47.25" customHeight="1">
+    <row r="25" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="47" t="s">
         <v>162</v>
       </c>
@@ -4882,7 +4938,7 @@
       <c r="D25" s="50"/>
       <c r="E25" s="51"/>
     </row>
-    <row r="26" spans="1:5" ht="31.5" customHeight="1">
+    <row r="26" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="47" t="s">
         <v>164</v>
       </c>
@@ -4895,7 +4951,7 @@
       <c r="D26" s="50"/>
       <c r="E26" s="51"/>
     </row>
-    <row r="27" spans="1:5" ht="126" customHeight="1">
+    <row r="27" spans="1:5" ht="126" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="47" t="s">
         <v>166</v>
       </c>
@@ -4908,7 +4964,7 @@
       <c r="D27" s="50"/>
       <c r="E27" s="51"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="55" t="s">
         <v>60</v>
       </c>
@@ -4921,7 +4977,7 @@
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
     </row>
-    <row r="29" spans="1:5" ht="31.5" customHeight="1">
+    <row r="29" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="47" t="s">
         <v>168</v>
       </c>
@@ -4934,7 +4990,7 @@
       <c r="D29" s="50"/>
       <c r="E29" s="51"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="55" t="s">
         <v>8</v>
       </c>
@@ -4947,7 +5003,7 @@
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="47" t="s">
         <v>170</v>
       </c>
@@ -4960,7 +5016,7 @@
       <c r="D31" s="50"/>
       <c r="E31" s="51"/>
     </row>
-    <row r="32" spans="1:5" ht="31.5" customHeight="1">
+    <row r="32" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="55" t="s">
         <v>12</v>
       </c>
@@ -4973,7 +5029,7 @@
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="47" t="s">
         <v>172</v>
       </c>
@@ -4986,7 +5042,7 @@
       <c r="D33" s="50"/>
       <c r="E33" s="51"/>
     </row>
-    <row r="34" spans="1:5" ht="31.5" customHeight="1">
+    <row r="34" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="47" t="s">
         <v>174</v>
       </c>
@@ -4999,7 +5055,7 @@
       <c r="D34" s="50"/>
       <c r="E34" s="51"/>
     </row>
-    <row r="35" spans="1:5" ht="47.25" customHeight="1">
+    <row r="35" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="47" t="s">
         <v>176</v>
       </c>
@@ -5012,7 +5068,7 @@
       <c r="D35" s="50"/>
       <c r="E35" s="51"/>
     </row>
-    <row r="36" spans="1:5" ht="31.5" customHeight="1">
+    <row r="36" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="47" t="s">
         <v>178</v>
       </c>
@@ -5025,7 +5081,7 @@
       <c r="D36" s="50"/>
       <c r="E36" s="51"/>
     </row>
-    <row r="37" spans="1:5" ht="31.5" customHeight="1">
+    <row r="37" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="47" t="s">
         <v>333</v>
       </c>
@@ -5038,7 +5094,7 @@
       <c r="D37" s="50"/>
       <c r="E37" s="51"/>
     </row>
-    <row r="38" spans="1:5" ht="31.5" customHeight="1">
+    <row r="38" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="47" t="s">
         <v>335</v>
       </c>
@@ -5051,7 +5107,7 @@
       <c r="D38" s="50"/>
       <c r="E38" s="51"/>
     </row>
-    <row r="39" spans="1:5" ht="31.5" customHeight="1">
+    <row r="39" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="47" t="s">
         <v>337</v>
       </c>
@@ -5064,7 +5120,7 @@
       <c r="D39" s="50"/>
       <c r="E39" s="51"/>
     </row>
-    <row r="40" spans="1:5" ht="31.5" customHeight="1">
+    <row r="40" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="47" t="s">
         <v>339</v>
       </c>
@@ -5077,7 +5133,7 @@
       <c r="D40" s="50"/>
       <c r="E40" s="51"/>
     </row>
-    <row r="41" spans="1:5" ht="31.5" customHeight="1">
+    <row r="41" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="47" t="s">
         <v>341</v>
       </c>
@@ -5090,7 +5146,7 @@
       <c r="D41" s="50"/>
       <c r="E41" s="51"/>
     </row>
-    <row r="42" spans="1:5" ht="31.5" customHeight="1">
+    <row r="42" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="55" t="s">
         <v>19</v>
       </c>
@@ -5103,7 +5159,7 @@
       <c r="D42" s="57"/>
       <c r="E42" s="57"/>
     </row>
-    <row r="43" spans="1:5" ht="31.5" customHeight="1">
+    <row r="43" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="58" t="s">
         <v>343</v>
       </c>
@@ -5115,512 +5171,6 @@
       </c>
       <c r="D43" s="61"/>
       <c r="E43" s="62"/>
-    </row>
-  </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:E29"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
-    <col min="6" max="256" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <f>Stories!A3</f>
-        <v>US02</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <f>Stories!B3</f>
-        <v>Birth before marriage</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <f>Stories!A5</f>
-        <v>US04</v>
-      </c>
-      <c r="C5" s="7" t="str">
-        <f>Stories!B5</f>
-        <v>Marriage before divorce</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7" s="6">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <f>Stories!A7</f>
-        <v>US06</v>
-      </c>
-      <c r="C7" s="7" t="str">
-        <f>Stories!B7</f>
-        <v>Divorce before death</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <f>Stories!A13</f>
-        <v>US12</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <f>Stories!B13</f>
-        <v>Parents not too old</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="A10" s="6">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <f>Stories!A15</f>
-        <v>US14</v>
-      </c>
-      <c r="C10" s="2" t="str">
-        <f>Stories!B15</f>
-        <v>Multiple births &lt;= 5</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1">
-      <c r="A11" s="6">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <f>Stories!A17</f>
-        <v>US16</v>
-      </c>
-      <c r="C11" s="2" t="str">
-        <f>Stories!B17</f>
-        <v>Male last names</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1">
-      <c r="A12" s="6">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="str">
-        <f>Stories!A23</f>
-        <v>US22</v>
-      </c>
-      <c r="C12" s="2" t="str">
-        <f>Stories!B23</f>
-        <v>Unique IDs</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1">
-      <c r="A13" s="6">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="str">
-        <f>Stories!A25</f>
-        <v>US24</v>
-      </c>
-      <c r="C13" s="2" t="str">
-        <f>Stories!B25</f>
-        <v>Unique families by spouses</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1">
-      <c r="A14" s="6">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="str">
-        <f>Stories!A26</f>
-        <v>US25</v>
-      </c>
-      <c r="C14" s="2" t="str">
-        <f>Stories!B26</f>
-        <v>Unique first names in families</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1">
-      <c r="A15" s="6">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="str">
-        <f>Stories!A27</f>
-        <v>US26</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f>Stories!B27</f>
-        <v>Corresponding entries</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1">
-      <c r="A17" s="6">
-        <v>3</v>
-      </c>
-      <c r="B17" s="2" t="str">
-        <f>Stories!A29</f>
-        <v>US28</v>
-      </c>
-      <c r="C17" s="2" t="str">
-        <f>Stories!B29</f>
-        <v>Order siblings by age</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1">
-      <c r="A18" s="6">
-        <v>3</v>
-      </c>
-      <c r="B18" s="2" t="str">
-        <f>Stories!A31</f>
-        <v>US30</v>
-      </c>
-      <c r="C18" s="2" t="str">
-        <f>Stories!B31</f>
-        <v>List living married</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1">
-      <c r="A19" s="6">
-        <v>3</v>
-      </c>
-      <c r="B19" s="2" t="str">
-        <f>Stories!A33</f>
-        <v>US32</v>
-      </c>
-      <c r="C19" s="2" t="str">
-        <f>Stories!B33</f>
-        <v>List multiple births</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1">
-      <c r="A20" s="6">
-        <v>3</v>
-      </c>
-      <c r="B20" s="2" t="str">
-        <f>Stories!A34</f>
-        <v>US33</v>
-      </c>
-      <c r="C20" s="2" t="str">
-        <f>Stories!B34</f>
-        <v>List orphans</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1">
-      <c r="A21" s="6">
-        <v>3</v>
-      </c>
-      <c r="B21" s="2" t="str">
-        <f>Stories!A35</f>
-        <v>US34</v>
-      </c>
-      <c r="C21" s="2" t="str">
-        <f>Stories!B35</f>
-        <v>List large age differences</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1">
-      <c r="A22" s="6">
-        <v>3</v>
-      </c>
-      <c r="B22" s="2" t="str">
-        <f>Stories!A36</f>
-        <v>US35</v>
-      </c>
-      <c r="C22" s="2" t="str">
-        <f>Stories!B36</f>
-        <v>List recent births</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1">
-      <c r="A24" s="6">
-        <v>4</v>
-      </c>
-      <c r="B24" s="2" t="str">
-        <f>Stories!A37</f>
-        <v>US36</v>
-      </c>
-      <c r="C24" s="2" t="str">
-        <f>Stories!B37</f>
-        <v>List recent deaths</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1">
-      <c r="A25" s="6">
-        <v>4</v>
-      </c>
-      <c r="B25" s="2" t="str">
-        <f>Stories!A38</f>
-        <v>US37</v>
-      </c>
-      <c r="C25" s="2" t="str">
-        <f>Stories!B38</f>
-        <v>List recent survivors</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1">
-      <c r="A26" s="6">
-        <v>4</v>
-      </c>
-      <c r="B26" s="2" t="str">
-        <f>Stories!A39</f>
-        <v>US38</v>
-      </c>
-      <c r="C26" s="2" t="str">
-        <f>Stories!B39</f>
-        <v>List upcoming birthdays</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1">
-      <c r="A27" s="6">
-        <v>4</v>
-      </c>
-      <c r="B27" s="2" t="str">
-        <f>Stories!A40</f>
-        <v>US39</v>
-      </c>
-      <c r="C27" s="2" t="str">
-        <f>Stories!B40</f>
-        <v>List upcoming anniversaries</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1">
-      <c r="A28" s="6">
-        <v>4</v>
-      </c>
-      <c r="B28" s="2" t="str">
-        <f>Stories!A41</f>
-        <v>US40</v>
-      </c>
-      <c r="C28" s="2" t="str">
-        <f>Stories!B41</f>
-        <v>Include input line numbers</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1">
-      <c r="A29" s="6">
-        <v>4</v>
-      </c>
-      <c r="B29" s="2" t="str">
-        <f>Stories!A43</f>
-        <v>US42</v>
-      </c>
-      <c r="C29" s="2" t="str">
-        <f>Stories!B43</f>
-        <v>Reject illegitimate dates</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -5628,33 +5178,528 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="5" customWidth="1"/>
+    <col min="6" max="256" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>Stories!A3</f>
+        <v>US02</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>Stories!B3</f>
+        <v>Birth before marriage</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>Stories!A5</f>
+        <v>US04</v>
+      </c>
+      <c r="C5" s="7" t="str">
+        <f>Stories!B5</f>
+        <v>Marriage before divorce</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>Stories!A7</f>
+        <v>US06</v>
+      </c>
+      <c r="C7" s="7" t="str">
+        <f>Stories!B7</f>
+        <v>Divorce before death</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>Stories!A13</f>
+        <v>US12</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f>Stories!B13</f>
+        <v>Parents not too old</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>Stories!A15</f>
+        <v>US14</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f>Stories!B15</f>
+        <v>Multiple births &lt;= 5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>Stories!A17</f>
+        <v>US16</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f>Stories!B17</f>
+        <v>Male last names</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>Stories!A23</f>
+        <v>US22</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f>Stories!B23</f>
+        <v>Unique IDs</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>Stories!A25</f>
+        <v>US24</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f>Stories!B25</f>
+        <v>Unique families by spouses</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>Stories!A26</f>
+        <v>US25</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f>Stories!B26</f>
+        <v>Unique first names in families</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>Stories!A27</f>
+        <v>US26</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f>Stories!B27</f>
+        <v>Corresponding entries</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>Stories!A29</f>
+        <v>US28</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f>Stories!B29</f>
+        <v>Order siblings by age</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>Stories!A31</f>
+        <v>US30</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f>Stories!B31</f>
+        <v>List living married</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>Stories!A33</f>
+        <v>US32</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f>Stories!B33</f>
+        <v>List multiple births</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>Stories!A34</f>
+        <v>US33</v>
+      </c>
+      <c r="C20" s="2" t="str">
+        <f>Stories!B34</f>
+        <v>List orphans</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>Stories!A35</f>
+        <v>US34</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <f>Stories!B35</f>
+        <v>List large age differences</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>Stories!A36</f>
+        <v>US35</v>
+      </c>
+      <c r="C22" s="2" t="str">
+        <f>Stories!B36</f>
+        <v>List recent births</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>Stories!A37</f>
+        <v>US36</v>
+      </c>
+      <c r="C24" s="2" t="str">
+        <f>Stories!B37</f>
+        <v>List recent deaths</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>Stories!A38</f>
+        <v>US37</v>
+      </c>
+      <c r="C25" s="2" t="str">
+        <f>Stories!B38</f>
+        <v>List recent survivors</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f>Stories!A39</f>
+        <v>US38</v>
+      </c>
+      <c r="C26" s="2" t="str">
+        <f>Stories!B39</f>
+        <v>List upcoming birthdays</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <f>Stories!A40</f>
+        <v>US39</v>
+      </c>
+      <c r="C27" s="2" t="str">
+        <f>Stories!B40</f>
+        <v>List upcoming anniversaries</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2" t="str">
+        <f>Stories!A41</f>
+        <v>US40</v>
+      </c>
+      <c r="C28" s="2" t="str">
+        <f>Stories!B41</f>
+        <v>Include input line numbers</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2" t="str">
+        <f>Stories!A43</f>
+        <v>US42</v>
+      </c>
+      <c r="C29" s="2" t="str">
+        <f>Stories!B43</f>
+        <v>Reject illegitimate dates</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="8" customWidth="1"/>
     <col min="7" max="8" width="11" style="8" customWidth="1"/>
     <col min="9" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>345</v>
       </c>
@@ -5666,7 +5711,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>346</v>
       </c>
@@ -5678,7 +5723,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>347</v>
       </c>
@@ -5690,7 +5735,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5700,7 +5745,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>348</v>
       </c>
@@ -5712,7 +5757,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>349</v>
       </c>
@@ -5724,7 +5769,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -5734,7 +5779,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>194</v>
       </c>
@@ -5746,7 +5791,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5756,7 +5801,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5766,7 +5811,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5776,7 +5821,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5786,7 +5831,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1">
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5796,7 +5841,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1">
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>291</v>
       </c>
@@ -5820,7 +5865,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>201</v>
       </c>
@@ -5838,7 +5883,7 @@
       <c r="G15" s="17"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>202</v>
       </c>
@@ -5864,7 +5909,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1">
+    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>203</v>
       </c>
@@ -5890,7 +5935,7 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1">
+    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>204</v>
       </c>
@@ -5916,7 +5961,7 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1">
+    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>205</v>
       </c>
@@ -5942,7 +5987,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1">
+    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="20"/>
@@ -5952,7 +5997,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1">
+    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5962,7 +6007,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1">
+    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5972,7 +6017,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1">
+    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5982,7 +6027,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1">
+    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5992,7 +6037,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1">
+    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6002,7 +6047,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1">
+    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6012,7 +6057,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1">
+    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6022,7 +6067,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="12.75" customHeight="1">
+    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6032,7 +6077,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="12.75" customHeight="1">
+    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6042,7 +6087,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="12.75" customHeight="1">
+    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6052,7 +6097,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="12.75" customHeight="1">
+    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6062,7 +6107,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="12.75" customHeight="1">
+    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6072,7 +6117,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" ht="12.75" customHeight="1">
+    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6082,7 +6127,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" ht="12.75" customHeight="1">
+    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6092,7 +6137,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" ht="12.75" customHeight="1">
+    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6102,7 +6147,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" ht="12.75" customHeight="1">
+    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6112,7 +6157,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" ht="12.75" customHeight="1">
+    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6122,7 +6167,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" ht="12.75" customHeight="1">
+    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6132,7 +6177,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" ht="12.75" customHeight="1">
+    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -6149,35 +6194,30 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="22" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="22" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="22" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="22" customWidth="1"/>
     <col min="7" max="7" width="11" style="22" customWidth="1"/>
     <col min="8" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" customHeight="1">
+    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>195</v>
       </c>
@@ -6198,7 +6238,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1">
+    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="23">
         <v>41431</v>
       </c>
@@ -6213,7 +6253,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1">
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="23">
         <v>41446</v>
       </c>
@@ -6238,7 +6278,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="23">
         <v>41459</v>
       </c>
@@ -6263,7 +6303,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1">
+    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -6272,7 +6312,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1">
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -6281,7 +6321,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -6290,7 +6330,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1">
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="27" t="s">
         <v>308</v>
       </c>
@@ -6301,7 +6341,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1">
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -6310,7 +6350,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1">
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6319,7 +6359,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1">
+    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -6328,7 +6368,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1">
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6337,7 +6377,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1">
+    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6346,7 +6386,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1">
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6355,7 +6395,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1">
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6364,7 +6404,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1">
+    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6373,7 +6413,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1">
+    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6382,7 +6422,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1">
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6391,7 +6431,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6400,7 +6440,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1">
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6409,7 +6449,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6418,7 +6458,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1">
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6427,7 +6467,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1">
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6436,7 +6476,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1">
+    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6445,7 +6485,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1">
+    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6454,7 +6494,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1">
+    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6464,42 +6504,36 @@
       <c r="G26" s="3"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="28" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="28" customWidth="1"/>
     <col min="5" max="5" width="12" style="28" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="28" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="28" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="28" customWidth="1"/>
     <col min="9" max="9" width="11" style="28" customWidth="1"/>
     <col min="10" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>292</v>
       </c>
@@ -6528,7 +6562,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>211</v>
       </c>
@@ -6555,7 +6589,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="38.25" customHeight="1">
+    <row r="3" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>215</v>
       </c>
@@ -6574,7 +6608,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="33"/>
       <c r="C4" s="3"/>
@@ -6585,7 +6619,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="25.5" customHeight="1">
+    <row r="5" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>296</v>
       </c>
@@ -6604,7 +6638,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="25.5" customHeight="1">
+    <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>351</v>
       </c>
@@ -6625,7 +6659,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="33"/>
       <c r="C7" s="3"/>
@@ -6636,7 +6670,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="25.5" customHeight="1">
+    <row r="8" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>299</v>
       </c>
@@ -6655,7 +6689,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="25.5" customHeight="1">
+    <row r="9" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>224</v>
       </c>
@@ -6676,7 +6710,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="51" customHeight="1">
+    <row r="10" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>226</v>
       </c>
@@ -6697,7 +6731,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="33"/>
       <c r="C11" s="3"/>
@@ -6708,7 +6742,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="25.5" customHeight="1">
+    <row r="12" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>146</v>
       </c>
@@ -6729,7 +6763,7 @@
         <v>41429</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="51" customHeight="1">
+    <row r="13" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>230</v>
       </c>
@@ -6750,7 +6784,7 @@
         <v>41429</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="51" customHeight="1">
+    <row r="14" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>232</v>
       </c>
@@ -6771,7 +6805,7 @@
         <v>41429</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="33"/>
       <c r="C15" s="3"/>
@@ -6782,7 +6816,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="25.5" customHeight="1">
+    <row r="16" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>148</v>
       </c>
@@ -6803,7 +6837,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="38.25" customHeight="1">
+    <row r="17" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>96</v>
       </c>
@@ -6824,7 +6858,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="38.25" customHeight="1">
+    <row r="18" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>98</v>
       </c>
@@ -6845,7 +6879,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="63.75" customHeight="1">
+    <row r="19" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>100</v>
       </c>
@@ -6866,7 +6900,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="51" customHeight="1">
+    <row r="20" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>102</v>
       </c>
@@ -6887,7 +6921,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="33"/>
       <c r="C21" s="3"/>
@@ -6898,7 +6932,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" ht="38.25" customHeight="1">
+    <row r="22" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>150</v>
       </c>
@@ -6919,7 +6953,7 @@
         <v>41431</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="38.25" customHeight="1">
+    <row r="23" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>259</v>
       </c>
@@ -6940,7 +6974,7 @@
         <v>41431</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="33"/>
       <c r="C24" s="3"/>
@@ -6951,7 +6985,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="25.5" customHeight="1">
+    <row r="25" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>261</v>
       </c>
@@ -6972,7 +7006,7 @@
         <v>41428</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="25.5" customHeight="1">
+    <row r="26" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>263</v>
       </c>
@@ -6993,7 +7027,7 @@
         <v>41428</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="33"/>
       <c r="C27" s="3"/>
@@ -7004,7 +7038,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="33"/>
       <c r="C28" s="3"/>
@@ -7015,7 +7049,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="33"/>
       <c r="C29" s="3"/>
@@ -7026,7 +7060,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="33"/>
       <c r="C30" s="3"/>
@@ -7037,7 +7071,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="33"/>
       <c r="C31" s="3"/>
@@ -7048,7 +7082,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="33"/>
       <c r="C32" s="3"/>
@@ -7059,7 +7093,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="29" t="s">
         <v>265</v>
@@ -7072,7 +7106,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="29"/>
       <c r="C34" s="3"/>
@@ -7083,7 +7117,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="29" t="s">
         <v>266</v>
@@ -7096,7 +7130,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="25.5" customHeight="1">
+    <row r="36" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="s">
         <v>267</v>
@@ -7109,7 +7143,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" ht="25.5" customHeight="1">
+    <row r="37" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="s">
         <v>268</v>
@@ -7122,7 +7156,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" ht="25.5" customHeight="1">
+    <row r="38" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
         <v>117</v>
@@ -7135,7 +7169,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" ht="25.5" customHeight="1">
+    <row r="39" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
         <v>118</v>
@@ -7148,7 +7182,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="33"/>
       <c r="C40" s="3"/>
@@ -7159,7 +7193,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="29" t="s">
         <v>119</v>
@@ -7173,42 +7207,36 @@
       <c r="I41" s="10"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV47"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="34" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="34" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="34" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="34" customWidth="1"/>
     <col min="4" max="4" width="11" style="34" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="34" customWidth="1"/>
     <col min="6" max="6" width="9" style="34" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="34" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="34" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="34" customWidth="1"/>
     <col min="9" max="256" width="11" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>292</v>
       </c>
@@ -7237,7 +7265,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="35"/>
       <c r="B2" s="29"/>
       <c r="C2" s="35"/>
@@ -7248,7 +7276,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="37"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="str">
         <f>Backlog!B3</f>
         <v>US02</v>
@@ -7279,7 +7307,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>351</v>
       </c>
@@ -7294,7 +7322,7 @@
       <c r="H4" s="36"/>
       <c r="I4" s="37"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>122</v>
       </c>
@@ -7309,7 +7337,7 @@
       <c r="H5" s="36"/>
       <c r="I5" s="37"/>
     </row>
-    <row r="6" spans="1:9" ht="25.5" customHeight="1">
+    <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>124</v>
       </c>
@@ -7324,7 +7352,7 @@
       <c r="H6" s="36"/>
       <c r="I6" s="37"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
@@ -7335,7 +7363,7 @@
       <c r="H7" s="36"/>
       <c r="I7" s="37"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>299</v>
       </c>
@@ -7364,7 +7392,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>224</v>
       </c>
@@ -7379,7 +7407,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="40"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>226</v>
       </c>
@@ -7394,7 +7422,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="40"/>
     </row>
-    <row r="11" spans="1:9" ht="25.5" customHeight="1">
+    <row r="11" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>127</v>
       </c>
@@ -7409,7 +7437,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="40"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="33"/>
       <c r="C12" s="3"/>
@@ -7420,7 +7448,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="40"/>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="str">
         <f>Backlog!B5</f>
         <v>US04</v>
@@ -7451,7 +7479,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>230</v>
       </c>
@@ -7466,7 +7494,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="40"/>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>232</v>
       </c>
@@ -7481,7 +7509,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="40"/>
     </row>
-    <row r="16" spans="1:9" ht="25.5" customHeight="1">
+    <row r="16" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>130</v>
       </c>
@@ -7496,7 +7524,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="33"/>
       <c r="C17" s="3"/>
@@ -7507,7 +7535,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>148</v>
       </c>
@@ -7536,7 +7564,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="25.5" customHeight="1">
+    <row r="19" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>96</v>
       </c>
@@ -7551,7 +7579,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="40"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>98</v>
       </c>
@@ -7566,7 +7594,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="1:9" ht="25.5" customHeight="1">
+    <row r="21" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>100</v>
       </c>
@@ -7581,7 +7609,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="33"/>
       <c r="C22" s="3"/>
@@ -7592,7 +7620,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="40"/>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="str">
         <f>Backlog!B7</f>
         <v>US06</v>
@@ -7623,7 +7651,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>259</v>
       </c>
@@ -7638,7 +7666,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="40"/>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>135</v>
       </c>
@@ -7653,7 +7681,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="40"/>
     </row>
-    <row r="26" spans="1:9" ht="25.5" customHeight="1">
+    <row r="26" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>137</v>
       </c>
@@ -7668,7 +7696,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="40"/>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="7"/>
       <c r="C27" s="3"/>
@@ -7679,7 +7707,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="40"/>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="str">
         <f>Backlog!B8</f>
         <v>US12</v>
@@ -7710,7 +7738,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>301</v>
       </c>
@@ -7725,7 +7753,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="40"/>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>303</v>
       </c>
@@ -7740,7 +7768,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="40"/>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>305</v>
       </c>
@@ -7755,7 +7783,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="40"/>
     </row>
-    <row r="32" spans="1:9" ht="25.5" customHeight="1">
+    <row r="32" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>139</v>
       </c>
@@ -7770,7 +7798,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="32"/>
     </row>
-    <row r="33" spans="1:256" ht="25.5" customHeight="1">
+    <row r="33" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>141</v>
       </c>
@@ -7785,7 +7813,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="32"/>
     </row>
-    <row r="34" spans="1:256" ht="15" customHeight="1">
+    <row r="34" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="7"/>
       <c r="C34" s="3"/>
@@ -7796,7 +7824,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="32"/>
     </row>
-    <row r="35" spans="1:256" ht="15" customHeight="1">
+    <row r="35" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="29" t="s">
         <v>265</v>
@@ -7815,7 +7843,7 @@
       </c>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:256" ht="15" customHeight="1">
+    <row r="36" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="29"/>
       <c r="C36" s="3"/>
@@ -7826,7 +7854,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" spans="1:256" ht="15" customHeight="1">
+    <row r="37" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="29" t="s">
         <v>266</v>
@@ -7839,7 +7867,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:256" ht="25.5" customHeight="1">
+    <row r="38" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
         <v>143</v>
@@ -7852,7 +7880,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:256" ht="63.75" customHeight="1">
+    <row r="39" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
         <v>144</v>
@@ -7865,7 +7893,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:256" ht="63.75" customHeight="1">
+    <row r="40" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="66" t="s">
         <v>52</v>
@@ -8125,7 +8153,7 @@
       <c r="IU40" s="44"/>
       <c r="IV40" s="44"/>
     </row>
-    <row r="41" spans="1:256" ht="59" customHeight="1">
+    <row r="41" spans="1:256" ht="59" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="33" t="s">
         <v>24</v>
@@ -8138,7 +8166,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:256" ht="15" customHeight="1">
+    <row r="42" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="29" t="s">
         <v>119</v>
@@ -8151,7 +8179,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:256" ht="89.25" customHeight="1">
+    <row r="43" spans="1:256" ht="89.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="33" t="s">
         <v>63</v>
@@ -8164,7 +8192,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:256" ht="51" customHeight="1">
+    <row r="44" spans="1:256" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="33" t="s">
         <v>64</v>
@@ -8177,7 +8205,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:256" ht="63.75" customHeight="1">
+    <row r="45" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="33" t="s">
         <v>65</v>
@@ -8190,7 +8218,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:256" ht="63.75" customHeight="1">
+    <row r="46" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="33" t="s">
         <v>23</v>
@@ -8450,7 +8478,7 @@
       <c r="IU46" s="44"/>
       <c r="IV46" s="44"/>
     </row>
-    <row r="47" spans="1:256" ht="63.75" customHeight="1">
+    <row r="47" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="33" t="s">
         <v>53</v>
@@ -8711,36 +8739,30 @@
       <c r="IV47" s="44"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV44"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="41" customWidth="1"/>
     <col min="2" max="2" width="18" style="41" customWidth="1"/>
     <col min="3" max="256" width="11" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="25.5" customHeight="1">
+    <row r="1" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>292</v>
       </c>
@@ -8769,7 +8791,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:256" ht="15" customHeight="1">
+    <row r="2" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>155</v>
       </c>
@@ -8799,7 +8821,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:256" ht="38.25" customHeight="1">
+    <row r="3" spans="1:256" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>67</v>
       </c>
@@ -8816,7 +8838,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:256" ht="25.5" customHeight="1">
+    <row r="4" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -8833,7 +8855,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:256" ht="25.5" customHeight="1">
+    <row r="5" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>71</v>
       </c>
@@ -8850,7 +8872,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:256" ht="15" customHeight="1">
+    <row r="6" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="33"/>
       <c r="C6" s="3"/>
@@ -8861,7 +8883,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:256" ht="15" customHeight="1">
+    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>158</v>
       </c>
@@ -8891,7 +8913,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:256" ht="25.5" customHeight="1">
+    <row r="8" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>73</v>
       </c>
@@ -8906,7 +8928,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:256" ht="38.25" customHeight="1">
+    <row r="9" spans="1:256" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>180</v>
       </c>
@@ -8921,7 +8943,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:256" ht="25.5" customHeight="1">
+    <row r="10" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>182</v>
       </c>
@@ -8936,7 +8958,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:256" ht="25.5" customHeight="1">
+    <row r="11" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="33"/>
       <c r="C11" s="3"/>
@@ -8947,7 +8969,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:256" ht="25.5" customHeight="1">
+    <row r="12" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>160</v>
       </c>
@@ -8976,7 +8998,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:256" ht="25.5" customHeight="1">
+    <row r="13" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>184</v>
       </c>
@@ -8991,7 +9013,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:256" ht="25.5" customHeight="1">
+    <row r="14" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>186</v>
       </c>
@@ -9006,7 +9028,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:256" ht="25.5" customHeight="1">
+    <row r="15" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="67" t="s">
         <v>54</v>
       </c>
@@ -9268,7 +9290,7 @@
       <c r="IU15" s="44"/>
       <c r="IV15" s="44"/>
     </row>
-    <row r="16" spans="1:256" ht="25.5" customHeight="1">
+    <row r="16" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="33"/>
       <c r="C16" s="3"/>
@@ -9279,7 +9301,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:256" ht="25.5" customHeight="1">
+    <row r="17" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>162</v>
       </c>
@@ -9308,7 +9330,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="18" spans="1:256" ht="25.5" customHeight="1">
+    <row r="18" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>188</v>
       </c>
@@ -9323,7 +9345,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:256" ht="25.5" customHeight="1">
+    <row r="19" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>189</v>
       </c>
@@ -9338,7 +9360,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:256" ht="25.5" customHeight="1">
+    <row r="20" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="67" t="s">
         <v>55</v>
       </c>
@@ -9600,7 +9622,7 @@
       <c r="IU20" s="44"/>
       <c r="IV20" s="44"/>
     </row>
-    <row r="21" spans="1:256" ht="25.5" customHeight="1">
+    <row r="21" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="35"/>
       <c r="B21" s="33"/>
       <c r="C21" s="3"/>
@@ -9611,7 +9633,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:256" ht="25.5" customHeight="1">
+    <row r="22" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>164</v>
       </c>
@@ -9887,7 +9909,7 @@
       <c r="IU22" s="44"/>
       <c r="IV22" s="44"/>
     </row>
-    <row r="23" spans="1:256" ht="25.5" customHeight="1">
+    <row r="23" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
@@ -10149,7 +10171,7 @@
       <c r="IU23" s="44"/>
       <c r="IV23" s="44"/>
     </row>
-    <row r="24" spans="1:256" ht="25.5" customHeight="1">
+    <row r="24" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
@@ -10411,7 +10433,7 @@
       <c r="IU24" s="44"/>
       <c r="IV24" s="44"/>
     </row>
-    <row r="25" spans="1:256" ht="25.5" customHeight="1">
+    <row r="25" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="67" t="s">
         <v>56</v>
       </c>
@@ -10673,7 +10695,7 @@
       <c r="IU25" s="44"/>
       <c r="IV25" s="44"/>
     </row>
-    <row r="26" spans="1:256" ht="25.5" customHeight="1">
+    <row r="26" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="64"/>
       <c r="C26" s="3"/>
@@ -10931,7 +10953,7 @@
       <c r="IU26" s="44"/>
       <c r="IV26" s="44"/>
     </row>
-    <row r="27" spans="1:256" ht="25.5" customHeight="1">
+    <row r="27" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>166</v>
       </c>
@@ -11207,7 +11229,7 @@
       <c r="IU27" s="44"/>
       <c r="IV27" s="44"/>
     </row>
-    <row r="28" spans="1:256" ht="25.5" customHeight="1">
+    <row r="28" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>42</v>
       </c>
@@ -11469,7 +11491,7 @@
       <c r="IU28" s="44"/>
       <c r="IV28" s="44"/>
     </row>
-    <row r="29" spans="1:256" ht="25.5" customHeight="1">
+    <row r="29" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>41</v>
       </c>
@@ -11731,7 +11753,7 @@
       <c r="IU29" s="44"/>
       <c r="IV29" s="44"/>
     </row>
-    <row r="30" spans="1:256" ht="25.5" customHeight="1">
+    <row r="30" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
@@ -11993,7 +12015,7 @@
       <c r="IU30" s="44"/>
       <c r="IV30" s="44"/>
     </row>
-    <row r="31" spans="1:256" ht="25.5" customHeight="1">
+    <row r="31" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
@@ -12255,7 +12277,7 @@
       <c r="IU31" s="44"/>
       <c r="IV31" s="44"/>
     </row>
-    <row r="32" spans="1:256" ht="25.5" customHeight="1">
+    <row r="32" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="67" t="s">
         <v>57</v>
       </c>
@@ -12517,7 +12539,7 @@
       <c r="IU32" s="44"/>
       <c r="IV32" s="44"/>
     </row>
-    <row r="33" spans="1:256" ht="25.5" customHeight="1">
+    <row r="33" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="64"/>
       <c r="C33" s="3"/>
@@ -12775,7 +12797,7 @@
       <c r="IU33" s="44"/>
       <c r="IV33" s="44"/>
     </row>
-    <row r="34" spans="1:256" ht="12.75" customHeight="1">
+    <row r="34" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="71" t="s">
         <v>257</v>
       </c>
@@ -12794,7 +12816,7 @@
       </c>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:256" ht="12.75" customHeight="1">
+    <row r="35" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="69" t="s">
         <v>310</v>
@@ -12807,7 +12829,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:256" ht="12.75" customHeight="1">
+    <row r="36" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="69" t="s">
         <v>309</v>
@@ -13067,7 +13089,7 @@
       <c r="IU36" s="44"/>
       <c r="IV36" s="44"/>
     </row>
-    <row r="37" spans="1:256" ht="12.75" customHeight="1">
+    <row r="37" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="69" t="s">
         <v>313</v>
@@ -13327,7 +13349,7 @@
       <c r="IU37" s="44"/>
       <c r="IV37" s="44"/>
     </row>
-    <row r="38" spans="1:256" ht="12.75" customHeight="1">
+    <row r="38" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -13338,7 +13360,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:256" ht="12.75" customHeight="1">
+    <row r="39" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -13349,7 +13371,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:256" ht="12.75" customHeight="1">
+    <row r="40" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="71" t="s">
         <v>119</v>
       </c>
@@ -13362,7 +13384,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:256" ht="12.75" customHeight="1">
+    <row r="41" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="69" t="s">
         <v>311</v>
@@ -13375,7 +13397,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:256" ht="12.75" customHeight="1">
+    <row r="42" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="69" t="s">
         <v>312</v>
@@ -13635,7 +13657,7 @@
       <c r="IU42" s="44"/>
       <c r="IV42" s="44"/>
     </row>
-    <row r="43" spans="1:256" ht="12.75" customHeight="1">
+    <row r="43" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="65" t="s">
         <v>314</v>
@@ -13648,7 +13670,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:256" ht="12.75" customHeight="1">
+    <row r="44" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="65" t="s">
         <v>315</v>
@@ -13662,36 +13684,30 @@
       <c r="I44" s="3"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="42"/>
-    <col min="2" max="2" width="21.140625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="42" customWidth="1"/>
     <col min="3" max="256" width="11" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="25.5" customHeight="1">
+    <row r="1" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>292</v>
       </c>
@@ -13720,7 +13736,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:256" ht="15" customHeight="1">
+    <row r="2" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="68" t="str">
         <f>Backlog!$B$17</f>
         <v>US28</v>
@@ -13745,7 +13761,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="70" t="s">
         <v>235</v>
       </c>
@@ -14007,7 +14023,7 @@
       <c r="IU3" s="44"/>
       <c r="IV3" s="44"/>
     </row>
-    <row r="4" spans="1:256" ht="15" customHeight="1">
+    <row r="4" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="70" t="s">
         <v>236</v>
       </c>
@@ -14269,7 +14285,7 @@
       <c r="IU4" s="44"/>
       <c r="IV4" s="44"/>
     </row>
-    <row r="5" spans="1:256" ht="15" customHeight="1">
+    <row r="5" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="70" t="s">
         <v>240</v>
       </c>
@@ -14531,7 +14547,7 @@
       <c r="IU5" s="44"/>
       <c r="IV5" s="44"/>
     </row>
-    <row r="6" spans="1:256" ht="15" customHeight="1">
+    <row r="6" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="70"/>
       <c r="B6" s="70"/>
       <c r="C6" s="69"/>
@@ -14789,7 +14805,7 @@
       <c r="IU6" s="44"/>
       <c r="IV6" s="44"/>
     </row>
-    <row r="7" spans="1:256" ht="15" customHeight="1">
+    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="68" t="str">
         <f>Backlog!$B$18</f>
         <v>US30</v>
@@ -14814,7 +14830,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:256" ht="15" customHeight="1">
+    <row r="8" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="69" t="s">
         <v>239</v>
       </c>
@@ -14829,7 +14845,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:256" ht="15" customHeight="1">
+    <row r="9" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="69" t="s">
         <v>244</v>
       </c>
@@ -14844,7 +14860,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:256" ht="15" customHeight="1">
+    <row r="10" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="69" t="s">
         <v>245</v>
       </c>
@@ -14859,7 +14875,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:256" ht="15" customHeight="1">
+    <row r="11" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -14870,7 +14886,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:256" ht="15" customHeight="1">
+    <row r="12" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="71" t="s">
         <v>172</v>
       </c>
@@ -14893,7 +14909,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:256" ht="15" customHeight="1">
+    <row r="13" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="69" t="s">
         <v>248</v>
       </c>
@@ -14908,7 +14924,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:256" ht="15" customHeight="1">
+    <row r="14" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="69" t="s">
         <v>250</v>
       </c>
@@ -14923,7 +14939,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:256" ht="12.75" customHeight="1">
+    <row r="15" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -14934,7 +14950,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:256" ht="12.75" customHeight="1">
+    <row r="16" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="71" t="s">
         <v>174</v>
       </c>
@@ -14957,7 +14973,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:256" ht="12.75" customHeight="1">
+    <row r="17" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="69" t="s">
         <v>251</v>
       </c>
@@ -14972,7 +14988,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:256" ht="12.75" customHeight="1">
+    <row r="18" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="69" t="s">
         <v>253</v>
       </c>
@@ -14987,7 +15003,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:256" ht="12.75" customHeight="1">
+    <row r="19" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="69" t="s">
         <v>255</v>
       </c>
@@ -15002,7 +15018,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:256" ht="12.75" customHeight="1">
+    <row r="20" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -15013,7 +15029,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:256" ht="12.75" customHeight="1">
+    <row r="21" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="71" t="s">
         <v>316</v>
       </c>
@@ -15023,8 +15039,8 @@
       <c r="C21" s="65" t="s">
         <v>319</v>
       </c>
-      <c r="D21" s="69" t="s">
-        <v>66</v>
+      <c r="D21" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="E21" s="3">
         <v>45</v>
@@ -15032,11 +15048,17 @@
       <c r="F21" s="3">
         <v>90</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:256" ht="12.75" customHeight="1">
+      <c r="G21" s="3">
+        <v>33</v>
+      </c>
+      <c r="H21" s="3">
+        <v>90</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="65" t="s">
         <v>321</v>
       </c>
@@ -15051,7 +15073,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:256" ht="12.75" customHeight="1">
+    <row r="23" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="65" t="s">
         <v>325</v>
       </c>
@@ -15066,7 +15088,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:256" ht="12.75" customHeight="1">
+    <row r="24" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="65" t="s">
         <v>327</v>
       </c>
@@ -15328,7 +15350,7 @@
       <c r="IU24" s="44"/>
       <c r="IV24" s="44"/>
     </row>
-    <row r="25" spans="1:256" ht="12.75" customHeight="1">
+    <row r="25" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="65" t="s">
         <v>329</v>
       </c>
@@ -15590,7 +15612,7 @@
       <c r="IU25" s="44"/>
       <c r="IV25" s="44"/>
     </row>
-    <row r="26" spans="1:256" ht="12.75" customHeight="1">
+    <row r="26" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -15601,7 +15623,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:256" ht="12.75" customHeight="1">
+    <row r="27" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="71" t="s">
         <v>317</v>
       </c>
@@ -15611,8 +15633,8 @@
       <c r="C27" s="65" t="s">
         <v>320</v>
       </c>
-      <c r="D27" s="69" t="s">
-        <v>66</v>
+      <c r="D27" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="E27" s="3">
         <v>30</v>
@@ -15620,11 +15642,17 @@
       <c r="F27" s="3">
         <v>60</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:256" ht="12.75" customHeight="1">
+      <c r="G27" s="3">
+        <v>12</v>
+      </c>
+      <c r="H27" s="3">
+        <v>30</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="65" t="s">
         <v>323</v>
       </c>
@@ -15639,7 +15667,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:256" ht="12.75" customHeight="1">
+    <row r="29" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="65" t="s">
         <v>330</v>
       </c>
@@ -15654,7 +15682,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:256" ht="12.75" customHeight="1">
+    <row r="30" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="65" t="s">
         <v>330</v>
       </c>
@@ -15669,7 +15697,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:256" ht="12.75" customHeight="1">
+    <row r="31" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -15681,33 +15709,28 @@
       <c r="I31" s="3"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="9" width="11" style="43" customWidth="1"/>
     <col min="10" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" customHeight="1">
+    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>292</v>
       </c>
@@ -15736,7 +15759,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -15747,7 +15770,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -15758,7 +15781,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -15769,7 +15792,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -15780,7 +15803,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -15791,7 +15814,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -15802,7 +15825,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -15813,7 +15836,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -15824,7 +15847,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -15836,16 +15859,10 @@
       <c r="I10" s="3"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/TeamNick_Jeremy_AmieReport.xlsx
+++ b/TeamNick_Jeremy_AmieReport.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="220" windowWidth="21360" windowHeight="14400" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="225" yWindow="225" windowWidth="21360" windowHeight="14400" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,8 @@
     <sheet name="Sprint4" sheetId="9" r:id="rId9"/>
     <sheet name="Stories" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="396">
   <si>
     <t>T07.05</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1244,21 +1241,64 @@
   <si>
     <t>Fewer than 15 siblings</t>
   </si>
+  <si>
+    <t>From JRD: Getting complacent with lazy commenting/documentation.</t>
+  </si>
+  <si>
+    <t>Correct Gender for role</t>
+  </si>
+  <si>
+    <t>T21.01</t>
+  </si>
+  <si>
+    <t>Get Husband/Wife info from family</t>
+  </si>
+  <si>
+    <t>T21.02</t>
+  </si>
+  <si>
+    <t>Store sexes</t>
+  </si>
+  <si>
+    <t>T21.03</t>
+  </si>
+  <si>
+    <t>Check proper roles</t>
+  </si>
+  <si>
+    <t>T21.04</t>
+  </si>
+  <si>
+    <t>Create Unittest</t>
+  </si>
+  <si>
+    <t>T39.01</t>
+  </si>
+  <si>
+    <t>Store family marriage date if exists</t>
+  </si>
+  <si>
+    <t>T39.02</t>
+  </si>
+  <si>
+    <t>calculate proximity to current date</t>
+  </si>
+  <si>
+    <t>T39.03</t>
+  </si>
+  <si>
+    <t>Create unittest</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
-    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1317,8 +1357,21 @@
       <color indexed="14"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1341,6 +1394,18 @@
       <patternFill patternType="solid">
         <fgColor indexed="16"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1530,7 +1595,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1639,7 +1704,15 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -1730,7 +1803,15 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1739,14 +1820,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0931124"/>
-          <c:y val="0.055869"/>
-          <c:w val="0.901888"/>
-          <c:h val="0.841196"/>
+          <c:x val="9.3112399999999998E-2"/>
+          <c:y val="5.5869000000000002E-2"/>
+          <c:w val="0.90188800000000002"/>
+          <c:h val="0.84119600000000005"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1784,22 +1866,22 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41426.0</c:v>
+                  <c:v>41426</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41438.0</c:v>
+                  <c:v>41438</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41452.0</c:v>
+                  <c:v>41452</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41466.0</c:v>
+                  <c:v>41466</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41487.0</c:v>
+                  <c:v>41487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1811,41 +1893,53 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F845-4DB0-BF4B-61C3F2B72AD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="73218440"/>
-        <c:axId val="512048120"/>
+        <c:smooth val="0"/>
+        <c:axId val="86332928"/>
+        <c:axId val="86334464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="73218440"/>
+        <c:axId val="86332928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:ln w="12700" cap="flat">
@@ -1871,17 +1965,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512048120"/>
+        <c:crossAx val="86334464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="512048120"/>
+        <c:axId val="86334464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1895,6 +1990,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="12700" cap="flat">
@@ -1920,7 +2017,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73218440"/>
+        <c:crossAx val="86332928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7.5"/>
@@ -1966,7 +2063,15 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1975,14 +2080,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0740696"/>
-          <c:y val="0.055869"/>
-          <c:w val="0.92093"/>
-          <c:h val="0.841196"/>
+          <c:x val="7.4069599999999999E-2"/>
+          <c:y val="5.5869000000000002E-2"/>
+          <c:w val="0.92093000000000003"/>
+          <c:h val="0.84119600000000005"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2023,16 +2129,16 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41431.0</c:v>
+                  <c:v>41431</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41446.0</c:v>
+                  <c:v>41446</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41459.0</c:v>
+                  <c:v>41459</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>41473.0</c:v>
+                  <c:v>41473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2044,38 +2150,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-60FF-4851-ABD9-FA91BB13A616}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="72988408"/>
-        <c:axId val="72978104"/>
+        <c:smooth val="0"/>
+        <c:axId val="103292928"/>
+        <c:axId val="103294464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72988408"/>
+        <c:axId val="103292928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:ln w="12700" cap="flat">
@@ -2101,17 +2219,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72978104"/>
+        <c:crossAx val="103294464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72978104"/>
+        <c:axId val="103294464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2125,6 +2245,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="12700" cap="flat">
@@ -2150,11 +2272,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72988408"/>
+        <c:crossAx val="103292928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="6.0"/>
-        <c:minorUnit val="3.0"/>
+        <c:majorUnit val="6"/>
+        <c:minorUnit val="3"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -2212,7 +2334,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2248,7 +2370,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2256,8 +2378,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6266600" y="1336890"/>
-          <a:ext cx="1402082" cy="619540"/>
+          <a:off x="5380775" y="1413090"/>
+          <a:ext cx="1262382" cy="657640"/>
           <a:chOff x="-19050" y="-41148"/>
           <a:chExt cx="1262382" cy="657640"/>
         </a:xfrm>
@@ -2267,7 +2389,7 @@
           <xdr:cNvPr id="3" name="Shape 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000003000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2370,7 +2492,7 @@
           <xdr:cNvPr id="4" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2392,7 +2514,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2471,7 +2593,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2479,8 +2601,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3239770" y="1171146"/>
-          <a:ext cx="1241213" cy="845824"/>
+          <a:off x="2776220" y="1237821"/>
+          <a:ext cx="1066588" cy="902974"/>
           <a:chOff x="-19050" y="-52577"/>
           <a:chExt cx="1063412" cy="902974"/>
         </a:xfrm>
@@ -2490,7 +2612,7 @@
           <xdr:cNvPr id="6" name="Shape 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000006000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2593,7 +2715,7 @@
           <xdr:cNvPr id="7" name="Shape 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000007000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2615,7 +2737,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2694,7 +2816,7 @@
         <xdr:cNvPr id="11" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2702,8 +2824,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4476749" y="1492052"/>
-          <a:ext cx="596900" cy="475101"/>
+          <a:off x="3838574" y="1577777"/>
+          <a:ext cx="511175" cy="503676"/>
           <a:chOff x="-19050" y="-29718"/>
           <a:chExt cx="508000" cy="503676"/>
         </a:xfrm>
@@ -2713,7 +2835,7 @@
           <xdr:cNvPr id="9" name="Shape 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-000009000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2816,7 +2938,7 @@
           <xdr:cNvPr id="10" name="Shape 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-00000A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2838,7 +2960,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2964,7 +3086,7 @@
         <xdr:cNvPr id="14" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2972,8 +3094,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5068570" y="1181649"/>
-          <a:ext cx="925829" cy="924306"/>
+          <a:off x="4344670" y="1248324"/>
+          <a:ext cx="925829" cy="981456"/>
           <a:chOff x="-19050" y="-64007"/>
           <a:chExt cx="925829" cy="981455"/>
         </a:xfrm>
@@ -2983,7 +3105,7 @@
           <xdr:cNvPr id="12" name="Shape 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="{00000000-0008-0000-0200-00000C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-